--- a/test-case.xlsx
+++ b/test-case.xlsx
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
   <si>
     <t>VVC</t>
   </si>
@@ -319,6 +319,9 @@
   </si>
   <si>
     <t>- Khi người dùng ấn chọn mũi tên sau khung "To" và chọn dữ liệu hiển thị trong dropdown.</t>
+  </si>
+  <si>
+    <t>- Kiểm tra dữ liệu mục "Date of Flight" "Daparture"</t>
   </si>
 </sst>
 </file>
@@ -787,7 +790,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="329">
+  <cellXfs count="332">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1000,6 +1003,519 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="6" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="6" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="7" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="3" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="3" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="3" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="3" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="3" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="3" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="7" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="6" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="2" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="6" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="2" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="18" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="16" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="18" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="16" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="8" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="8" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="8" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="8" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="8" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="8" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="8" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="18" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1012,44 +1528,203 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="10" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="9" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="4" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="8" borderId="7" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="8" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="8" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="7" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="6" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="2" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="7" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1087,677 +1762,14 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="7" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="6" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="6" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="6" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="2" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="8" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="8" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="8" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="8" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="8" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="8" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="18" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="7" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="10" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="9" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="4" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="8" borderId="7" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="8" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="8" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="18" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="16" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="18" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="16" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="3" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="3" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="3" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="3" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="3" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="3" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="8" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1803,7 +1815,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C82B9539-70F8-4911-8D5F-7979D6A8CED6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C82B9539-70F8-4911-8D5F-7979D6A8CED6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1880,7 +1892,7 @@
         <xdr:cNvPr id="3" name="Line 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57F57AF6-DBBB-4E13-AA94-B9C1736C1ED6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57F57AF6-DBBB-4E13-AA94-B9C1736C1ED6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1934,7 +1946,7 @@
         <xdr:cNvPr id="4" name="Line 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D3A04A42-D575-43AA-B959-D0C30C9D8ED0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3A04A42-D575-43AA-B959-D0C30C9D8ED0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1993,7 +2005,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{11D2FB20-3881-433D-8A26-EF9C60DC7297}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11D2FB20-3881-433D-8A26-EF9C60DC7297}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2037,7 +2049,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="C:\Users\TRUNGN~1\AppData\Local\Temp\SNAGHTML1f68ebc4.PNG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{676E46D0-4B22-4F31-8370-580BF3F32A25}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{676E46D0-4B22-4F31-8370-580BF3F32A25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5115,8 +5127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH55"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AC14" sqref="AC14:AM15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18:S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="11"/>
@@ -5131,268 +5143,268 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60">
-      <c r="A1" s="192"/>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="196"/>
-      <c r="J1" s="196"/>
-      <c r="K1" s="196"/>
-      <c r="L1" s="196"/>
-      <c r="M1" s="196"/>
-      <c r="N1" s="196"/>
-      <c r="O1" s="196"/>
-      <c r="P1" s="196"/>
-      <c r="Q1" s="196"/>
-      <c r="R1" s="196"/>
-      <c r="S1" s="196"/>
-      <c r="T1" s="196"/>
-      <c r="U1" s="196"/>
-      <c r="V1" s="196"/>
-      <c r="W1" s="196"/>
-      <c r="X1" s="196"/>
-      <c r="Y1" s="196"/>
-      <c r="Z1" s="196"/>
-      <c r="AA1" s="196"/>
-      <c r="AB1" s="196"/>
-      <c r="AC1" s="196"/>
-      <c r="AD1" s="196"/>
-      <c r="AE1" s="196"/>
-      <c r="AF1" s="196"/>
-      <c r="AG1" s="196"/>
-      <c r="AH1" s="196"/>
-      <c r="AI1" s="197"/>
-      <c r="AJ1" s="206" t="s">
+      <c r="A1" s="284"/>
+      <c r="B1" s="281"/>
+      <c r="C1" s="281"/>
+      <c r="D1" s="281"/>
+      <c r="E1" s="281"/>
+      <c r="F1" s="281"/>
+      <c r="G1" s="303"/>
+      <c r="H1" s="315"/>
+      <c r="I1" s="309"/>
+      <c r="J1" s="309"/>
+      <c r="K1" s="309"/>
+      <c r="L1" s="309"/>
+      <c r="M1" s="309"/>
+      <c r="N1" s="309"/>
+      <c r="O1" s="309"/>
+      <c r="P1" s="309"/>
+      <c r="Q1" s="309"/>
+      <c r="R1" s="309"/>
+      <c r="S1" s="309"/>
+      <c r="T1" s="309"/>
+      <c r="U1" s="309"/>
+      <c r="V1" s="309"/>
+      <c r="W1" s="309"/>
+      <c r="X1" s="309"/>
+      <c r="Y1" s="309"/>
+      <c r="Z1" s="309"/>
+      <c r="AA1" s="309"/>
+      <c r="AB1" s="309"/>
+      <c r="AC1" s="309"/>
+      <c r="AD1" s="309"/>
+      <c r="AE1" s="309"/>
+      <c r="AF1" s="309"/>
+      <c r="AG1" s="309"/>
+      <c r="AH1" s="309"/>
+      <c r="AI1" s="310"/>
+      <c r="AJ1" s="316" t="s">
         <v>24</v>
       </c>
-      <c r="AK1" s="207"/>
-      <c r="AL1" s="207"/>
-      <c r="AM1" s="207"/>
-      <c r="AN1" s="208" t="s">
+      <c r="AK1" s="279"/>
+      <c r="AL1" s="279"/>
+      <c r="AM1" s="279"/>
+      <c r="AN1" s="278" t="s">
         <v>25</v>
       </c>
-      <c r="AO1" s="207"/>
-      <c r="AP1" s="207"/>
-      <c r="AQ1" s="207"/>
-      <c r="AR1" s="208"/>
-      <c r="AS1" s="207"/>
-      <c r="AT1" s="207"/>
-      <c r="AU1" s="207"/>
-      <c r="AV1" s="201" t="s">
+      <c r="AO1" s="279"/>
+      <c r="AP1" s="279"/>
+      <c r="AQ1" s="279"/>
+      <c r="AR1" s="278"/>
+      <c r="AS1" s="279"/>
+      <c r="AT1" s="279"/>
+      <c r="AU1" s="279"/>
+      <c r="AV1" s="297" t="s">
         <v>20</v>
       </c>
-      <c r="AW1" s="202"/>
-      <c r="AX1" s="202"/>
-      <c r="AY1" s="203"/>
-      <c r="AZ1" s="191" t="s">
+      <c r="AW1" s="298"/>
+      <c r="AX1" s="298"/>
+      <c r="AY1" s="299"/>
+      <c r="AZ1" s="307" t="s">
         <v>27</v>
       </c>
-      <c r="BA1" s="191"/>
-      <c r="BB1" s="191"/>
-      <c r="BC1" s="191"/>
-      <c r="BD1" s="191"/>
-      <c r="BE1" s="191"/>
-      <c r="BF1" s="191"/>
-      <c r="BG1" s="191"/>
+      <c r="BA1" s="307"/>
+      <c r="BB1" s="307"/>
+      <c r="BC1" s="307"/>
+      <c r="BD1" s="307"/>
+      <c r="BE1" s="307"/>
+      <c r="BF1" s="307"/>
+      <c r="BG1" s="307"/>
       <c r="BH1" s="45"/>
     </row>
     <row r="2" spans="1:60">
-      <c r="A2" s="192"/>
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="196"/>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="196"/>
-      <c r="O2" s="196"/>
-      <c r="P2" s="196"/>
-      <c r="Q2" s="196"/>
-      <c r="R2" s="196"/>
-      <c r="S2" s="196"/>
-      <c r="T2" s="196"/>
-      <c r="U2" s="196"/>
-      <c r="V2" s="196"/>
-      <c r="W2" s="196"/>
-      <c r="X2" s="196"/>
-      <c r="Y2" s="196"/>
-      <c r="Z2" s="196"/>
-      <c r="AA2" s="196"/>
-      <c r="AB2" s="196"/>
-      <c r="AC2" s="196"/>
-      <c r="AD2" s="196"/>
-      <c r="AE2" s="196"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="196"/>
-      <c r="AH2" s="196"/>
-      <c r="AI2" s="197"/>
-      <c r="AJ2" s="198" t="s">
+      <c r="A2" s="284"/>
+      <c r="B2" s="281"/>
+      <c r="C2" s="281"/>
+      <c r="D2" s="281"/>
+      <c r="E2" s="281"/>
+      <c r="F2" s="281"/>
+      <c r="G2" s="303"/>
+      <c r="H2" s="308"/>
+      <c r="I2" s="309"/>
+      <c r="J2" s="309"/>
+      <c r="K2" s="309"/>
+      <c r="L2" s="309"/>
+      <c r="M2" s="309"/>
+      <c r="N2" s="309"/>
+      <c r="O2" s="309"/>
+      <c r="P2" s="309"/>
+      <c r="Q2" s="309"/>
+      <c r="R2" s="309"/>
+      <c r="S2" s="309"/>
+      <c r="T2" s="309"/>
+      <c r="U2" s="309"/>
+      <c r="V2" s="309"/>
+      <c r="W2" s="309"/>
+      <c r="X2" s="309"/>
+      <c r="Y2" s="309"/>
+      <c r="Z2" s="309"/>
+      <c r="AA2" s="309"/>
+      <c r="AB2" s="309"/>
+      <c r="AC2" s="309"/>
+      <c r="AD2" s="309"/>
+      <c r="AE2" s="309"/>
+      <c r="AF2" s="309"/>
+      <c r="AG2" s="309"/>
+      <c r="AH2" s="309"/>
+      <c r="AI2" s="310"/>
+      <c r="AJ2" s="311" t="s">
         <v>6</v>
       </c>
-      <c r="AK2" s="199"/>
-      <c r="AL2" s="199"/>
-      <c r="AM2" s="199"/>
-      <c r="AN2" s="200">
+      <c r="AK2" s="312"/>
+      <c r="AL2" s="312"/>
+      <c r="AM2" s="312"/>
+      <c r="AN2" s="313">
         <f>COUNTIF($AQ:$AQ,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="AO2" s="199"/>
-      <c r="AP2" s="199"/>
-      <c r="AQ2" s="199"/>
-      <c r="AR2" s="200"/>
-      <c r="AS2" s="199"/>
-      <c r="AT2" s="199"/>
-      <c r="AU2" s="199"/>
-      <c r="AV2" s="201" t="s">
+      <c r="AO2" s="312"/>
+      <c r="AP2" s="312"/>
+      <c r="AQ2" s="312"/>
+      <c r="AR2" s="313"/>
+      <c r="AS2" s="312"/>
+      <c r="AT2" s="312"/>
+      <c r="AU2" s="312"/>
+      <c r="AV2" s="297" t="s">
         <v>26</v>
       </c>
-      <c r="AW2" s="202"/>
-      <c r="AX2" s="202"/>
-      <c r="AY2" s="203"/>
-      <c r="AZ2" s="204" t="s">
+      <c r="AW2" s="298"/>
+      <c r="AX2" s="298"/>
+      <c r="AY2" s="299"/>
+      <c r="AZ2" s="314" t="s">
         <v>7</v>
       </c>
-      <c r="BA2" s="191"/>
-      <c r="BB2" s="191"/>
-      <c r="BC2" s="191"/>
-      <c r="BD2" s="191"/>
-      <c r="BE2" s="191"/>
-      <c r="BF2" s="191"/>
-      <c r="BG2" s="191"/>
+      <c r="BA2" s="307"/>
+      <c r="BB2" s="307"/>
+      <c r="BC2" s="307"/>
+      <c r="BD2" s="307"/>
+      <c r="BE2" s="307"/>
+      <c r="BF2" s="307"/>
+      <c r="BG2" s="307"/>
       <c r="BH2" s="45"/>
     </row>
     <row r="3" spans="1:60">
-      <c r="A3" s="209"/>
-      <c r="B3" s="210"/>
-      <c r="C3" s="210"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="210"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="216"/>
-      <c r="J3" s="216"/>
-      <c r="K3" s="216"/>
-      <c r="L3" s="216"/>
-      <c r="M3" s="216"/>
-      <c r="N3" s="216"/>
-      <c r="O3" s="216"/>
-      <c r="P3" s="216"/>
-      <c r="Q3" s="216"/>
-      <c r="R3" s="216"/>
-      <c r="S3" s="216"/>
-      <c r="T3" s="216"/>
-      <c r="U3" s="216"/>
-      <c r="V3" s="216"/>
-      <c r="W3" s="216"/>
-      <c r="X3" s="216"/>
-      <c r="Y3" s="216"/>
-      <c r="Z3" s="216"/>
-      <c r="AA3" s="216"/>
-      <c r="AB3" s="216"/>
-      <c r="AC3" s="216"/>
-      <c r="AD3" s="216"/>
-      <c r="AE3" s="216"/>
-      <c r="AF3" s="216"/>
-      <c r="AG3" s="216"/>
-      <c r="AH3" s="216"/>
-      <c r="AI3" s="217"/>
-      <c r="AJ3" s="201"/>
-      <c r="AK3" s="202"/>
-      <c r="AL3" s="202"/>
-      <c r="AM3" s="203"/>
-      <c r="AN3" s="221"/>
-      <c r="AO3" s="222"/>
-      <c r="AP3" s="222"/>
-      <c r="AQ3" s="222"/>
-      <c r="AR3" s="222"/>
-      <c r="AS3" s="222"/>
-      <c r="AT3" s="222"/>
-      <c r="AU3" s="223"/>
-      <c r="AV3" s="201"/>
-      <c r="AW3" s="202"/>
-      <c r="AX3" s="202"/>
-      <c r="AY3" s="203"/>
-      <c r="AZ3" s="221"/>
-      <c r="BA3" s="222"/>
-      <c r="BB3" s="222"/>
-      <c r="BC3" s="222"/>
-      <c r="BD3" s="222"/>
-      <c r="BE3" s="222"/>
-      <c r="BF3" s="222"/>
-      <c r="BG3" s="223"/>
+      <c r="A3" s="271"/>
+      <c r="B3" s="272"/>
+      <c r="C3" s="272"/>
+      <c r="D3" s="272"/>
+      <c r="E3" s="272"/>
+      <c r="F3" s="272"/>
+      <c r="G3" s="273"/>
+      <c r="H3" s="291"/>
+      <c r="I3" s="292"/>
+      <c r="J3" s="292"/>
+      <c r="K3" s="292"/>
+      <c r="L3" s="292"/>
+      <c r="M3" s="292"/>
+      <c r="N3" s="292"/>
+      <c r="O3" s="292"/>
+      <c r="P3" s="292"/>
+      <c r="Q3" s="292"/>
+      <c r="R3" s="292"/>
+      <c r="S3" s="292"/>
+      <c r="T3" s="292"/>
+      <c r="U3" s="292"/>
+      <c r="V3" s="292"/>
+      <c r="W3" s="292"/>
+      <c r="X3" s="292"/>
+      <c r="Y3" s="292"/>
+      <c r="Z3" s="292"/>
+      <c r="AA3" s="292"/>
+      <c r="AB3" s="292"/>
+      <c r="AC3" s="292"/>
+      <c r="AD3" s="292"/>
+      <c r="AE3" s="292"/>
+      <c r="AF3" s="292"/>
+      <c r="AG3" s="292"/>
+      <c r="AH3" s="292"/>
+      <c r="AI3" s="293"/>
+      <c r="AJ3" s="297"/>
+      <c r="AK3" s="298"/>
+      <c r="AL3" s="298"/>
+      <c r="AM3" s="299"/>
+      <c r="AN3" s="300"/>
+      <c r="AO3" s="301"/>
+      <c r="AP3" s="301"/>
+      <c r="AQ3" s="301"/>
+      <c r="AR3" s="301"/>
+      <c r="AS3" s="301"/>
+      <c r="AT3" s="301"/>
+      <c r="AU3" s="302"/>
+      <c r="AV3" s="297"/>
+      <c r="AW3" s="298"/>
+      <c r="AX3" s="298"/>
+      <c r="AY3" s="299"/>
+      <c r="AZ3" s="300"/>
+      <c r="BA3" s="301"/>
+      <c r="BB3" s="301"/>
+      <c r="BC3" s="301"/>
+      <c r="BD3" s="301"/>
+      <c r="BE3" s="301"/>
+      <c r="BF3" s="301"/>
+      <c r="BG3" s="302"/>
       <c r="BH3" s="45"/>
     </row>
     <row r="4" spans="1:60">
-      <c r="A4" s="212"/>
-      <c r="B4" s="213"/>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="213"/>
-      <c r="F4" s="213"/>
-      <c r="G4" s="214"/>
-      <c r="H4" s="218"/>
-      <c r="I4" s="219"/>
-      <c r="J4" s="219"/>
-      <c r="K4" s="219"/>
-      <c r="L4" s="219"/>
-      <c r="M4" s="219"/>
-      <c r="N4" s="219"/>
-      <c r="O4" s="219"/>
-      <c r="P4" s="219"/>
-      <c r="Q4" s="219"/>
-      <c r="R4" s="219"/>
-      <c r="S4" s="219"/>
-      <c r="T4" s="219"/>
-      <c r="U4" s="219"/>
-      <c r="V4" s="219"/>
-      <c r="W4" s="219"/>
-      <c r="X4" s="219"/>
-      <c r="Y4" s="219"/>
-      <c r="Z4" s="219"/>
-      <c r="AA4" s="219"/>
-      <c r="AB4" s="219"/>
-      <c r="AC4" s="219"/>
-      <c r="AD4" s="219"/>
-      <c r="AE4" s="219"/>
-      <c r="AF4" s="219"/>
-      <c r="AG4" s="219"/>
-      <c r="AH4" s="219"/>
-      <c r="AI4" s="220"/>
-      <c r="AJ4" s="192"/>
-      <c r="AK4" s="193"/>
-      <c r="AL4" s="193"/>
-      <c r="AM4" s="194"/>
-      <c r="AN4" s="224"/>
-      <c r="AO4" s="225"/>
-      <c r="AP4" s="225"/>
-      <c r="AQ4" s="225"/>
-      <c r="AR4" s="225"/>
-      <c r="AS4" s="225"/>
-      <c r="AT4" s="225"/>
-      <c r="AU4" s="226"/>
-      <c r="AV4" s="192"/>
-      <c r="AW4" s="193"/>
-      <c r="AX4" s="193"/>
-      <c r="AY4" s="194"/>
-      <c r="AZ4" s="224"/>
-      <c r="BA4" s="225"/>
-      <c r="BB4" s="225"/>
-      <c r="BC4" s="225"/>
-      <c r="BD4" s="225"/>
-      <c r="BE4" s="225"/>
-      <c r="BF4" s="225"/>
-      <c r="BG4" s="226"/>
+      <c r="A4" s="274"/>
+      <c r="B4" s="275"/>
+      <c r="C4" s="275"/>
+      <c r="D4" s="275"/>
+      <c r="E4" s="275"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="276"/>
+      <c r="H4" s="294"/>
+      <c r="I4" s="295"/>
+      <c r="J4" s="295"/>
+      <c r="K4" s="295"/>
+      <c r="L4" s="295"/>
+      <c r="M4" s="295"/>
+      <c r="N4" s="295"/>
+      <c r="O4" s="295"/>
+      <c r="P4" s="295"/>
+      <c r="Q4" s="295"/>
+      <c r="R4" s="295"/>
+      <c r="S4" s="295"/>
+      <c r="T4" s="295"/>
+      <c r="U4" s="295"/>
+      <c r="V4" s="295"/>
+      <c r="W4" s="295"/>
+      <c r="X4" s="295"/>
+      <c r="Y4" s="295"/>
+      <c r="Z4" s="295"/>
+      <c r="AA4" s="295"/>
+      <c r="AB4" s="295"/>
+      <c r="AC4" s="295"/>
+      <c r="AD4" s="295"/>
+      <c r="AE4" s="295"/>
+      <c r="AF4" s="295"/>
+      <c r="AG4" s="295"/>
+      <c r="AH4" s="295"/>
+      <c r="AI4" s="296"/>
+      <c r="AJ4" s="284"/>
+      <c r="AK4" s="281"/>
+      <c r="AL4" s="281"/>
+      <c r="AM4" s="303"/>
+      <c r="AN4" s="304"/>
+      <c r="AO4" s="305"/>
+      <c r="AP4" s="305"/>
+      <c r="AQ4" s="305"/>
+      <c r="AR4" s="305"/>
+      <c r="AS4" s="305"/>
+      <c r="AT4" s="305"/>
+      <c r="AU4" s="306"/>
+      <c r="AV4" s="284"/>
+      <c r="AW4" s="281"/>
+      <c r="AX4" s="281"/>
+      <c r="AY4" s="303"/>
+      <c r="AZ4" s="304"/>
+      <c r="BA4" s="305"/>
+      <c r="BB4" s="305"/>
+      <c r="BC4" s="305"/>
+      <c r="BD4" s="305"/>
+      <c r="BE4" s="305"/>
+      <c r="BF4" s="305"/>
+      <c r="BG4" s="306"/>
     </row>
     <row r="5" spans="1:60" s="48" customFormat="1">
       <c r="A5" s="47"/>
@@ -5457,341 +5469,341 @@
       <c r="BH5" s="47"/>
     </row>
     <row r="6" spans="1:60" ht="14">
-      <c r="A6" s="229" t="s">
+      <c r="A6" s="282" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="229"/>
-      <c r="C6" s="192" t="s">
+      <c r="B6" s="282"/>
+      <c r="C6" s="284" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="193"/>
-      <c r="E6" s="193"/>
-      <c r="F6" s="193"/>
-      <c r="G6" s="193"/>
-      <c r="H6" s="193"/>
-      <c r="I6" s="193"/>
-      <c r="J6" s="193"/>
-      <c r="K6" s="193"/>
-      <c r="L6" s="193"/>
-      <c r="M6" s="193"/>
-      <c r="N6" s="193"/>
-      <c r="O6" s="193"/>
-      <c r="P6" s="193"/>
-      <c r="Q6" s="193"/>
-      <c r="R6" s="193"/>
-      <c r="S6" s="193"/>
-      <c r="T6" s="231" t="s">
+      <c r="D6" s="281"/>
+      <c r="E6" s="281"/>
+      <c r="F6" s="281"/>
+      <c r="G6" s="281"/>
+      <c r="H6" s="281"/>
+      <c r="I6" s="281"/>
+      <c r="J6" s="281"/>
+      <c r="K6" s="281"/>
+      <c r="L6" s="281"/>
+      <c r="M6" s="281"/>
+      <c r="N6" s="281"/>
+      <c r="O6" s="281"/>
+      <c r="P6" s="281"/>
+      <c r="Q6" s="281"/>
+      <c r="R6" s="281"/>
+      <c r="S6" s="281"/>
+      <c r="T6" s="285" t="s">
         <v>32</v>
       </c>
-      <c r="U6" s="232"/>
-      <c r="V6" s="232"/>
-      <c r="W6" s="232"/>
-      <c r="X6" s="232"/>
-      <c r="Y6" s="232"/>
-      <c r="Z6" s="232"/>
-      <c r="AA6" s="232"/>
-      <c r="AB6" s="233"/>
-      <c r="AC6" s="209" t="s">
+      <c r="U6" s="286"/>
+      <c r="V6" s="286"/>
+      <c r="W6" s="286"/>
+      <c r="X6" s="286"/>
+      <c r="Y6" s="286"/>
+      <c r="Z6" s="286"/>
+      <c r="AA6" s="286"/>
+      <c r="AB6" s="287"/>
+      <c r="AC6" s="271" t="s">
         <v>33</v>
       </c>
-      <c r="AD6" s="210"/>
-      <c r="AE6" s="210"/>
-      <c r="AF6" s="210"/>
-      <c r="AG6" s="210"/>
-      <c r="AH6" s="210"/>
-      <c r="AI6" s="210"/>
-      <c r="AJ6" s="210"/>
-      <c r="AK6" s="210"/>
-      <c r="AL6" s="210"/>
-      <c r="AM6" s="211"/>
-      <c r="AN6" s="209" t="s">
+      <c r="AD6" s="272"/>
+      <c r="AE6" s="272"/>
+      <c r="AF6" s="272"/>
+      <c r="AG6" s="272"/>
+      <c r="AH6" s="272"/>
+      <c r="AI6" s="272"/>
+      <c r="AJ6" s="272"/>
+      <c r="AK6" s="272"/>
+      <c r="AL6" s="272"/>
+      <c r="AM6" s="273"/>
+      <c r="AN6" s="271" t="s">
         <v>34</v>
       </c>
-      <c r="AO6" s="210"/>
-      <c r="AP6" s="211"/>
-      <c r="AQ6" s="209" t="s">
+      <c r="AO6" s="272"/>
+      <c r="AP6" s="273"/>
+      <c r="AQ6" s="271" t="s">
         <v>29</v>
       </c>
-      <c r="AR6" s="210"/>
-      <c r="AS6" s="211"/>
-      <c r="AT6" s="209"/>
-      <c r="AU6" s="210"/>
-      <c r="AV6" s="211"/>
-      <c r="AW6" s="209"/>
-      <c r="AX6" s="210"/>
-      <c r="AY6" s="211"/>
-      <c r="AZ6" s="227" t="s">
+      <c r="AR6" s="272"/>
+      <c r="AS6" s="273"/>
+      <c r="AT6" s="271"/>
+      <c r="AU6" s="272"/>
+      <c r="AV6" s="273"/>
+      <c r="AW6" s="271"/>
+      <c r="AX6" s="272"/>
+      <c r="AY6" s="273"/>
+      <c r="AZ6" s="277" t="s">
         <v>35</v>
       </c>
-      <c r="BA6" s="227"/>
-      <c r="BB6" s="227"/>
-      <c r="BC6" s="227"/>
-      <c r="BD6" s="227"/>
-      <c r="BE6" s="227"/>
-      <c r="BF6" s="227"/>
-      <c r="BG6" s="227"/>
+      <c r="BA6" s="277"/>
+      <c r="BB6" s="277"/>
+      <c r="BC6" s="277"/>
+      <c r="BD6" s="277"/>
+      <c r="BE6" s="277"/>
+      <c r="BF6" s="277"/>
+      <c r="BG6" s="277"/>
       <c r="BH6" s="44"/>
     </row>
     <row r="7" spans="1:60" s="42" customFormat="1" ht="14">
-      <c r="A7" s="230"/>
-      <c r="B7" s="230"/>
-      <c r="C7" s="208" t="s">
+      <c r="A7" s="283"/>
+      <c r="B7" s="283"/>
+      <c r="C7" s="278" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="207"/>
-      <c r="E7" s="207"/>
-      <c r="F7" s="207"/>
-      <c r="G7" s="207"/>
-      <c r="H7" s="207" t="s">
+      <c r="D7" s="279"/>
+      <c r="E7" s="279"/>
+      <c r="F7" s="279"/>
+      <c r="G7" s="279"/>
+      <c r="H7" s="279" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="207"/>
-      <c r="J7" s="207"/>
-      <c r="K7" s="207"/>
-      <c r="L7" s="207"/>
-      <c r="M7" s="228" t="s">
+      <c r="I7" s="279"/>
+      <c r="J7" s="279"/>
+      <c r="K7" s="279"/>
+      <c r="L7" s="279"/>
+      <c r="M7" s="280" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="193"/>
-      <c r="O7" s="193"/>
-      <c r="P7" s="193"/>
-      <c r="Q7" s="193"/>
-      <c r="R7" s="193"/>
-      <c r="S7" s="193"/>
-      <c r="T7" s="234"/>
-      <c r="U7" s="235"/>
-      <c r="V7" s="235"/>
-      <c r="W7" s="235"/>
-      <c r="X7" s="235"/>
-      <c r="Y7" s="235"/>
-      <c r="Z7" s="235"/>
-      <c r="AA7" s="235"/>
-      <c r="AB7" s="236"/>
-      <c r="AC7" s="212"/>
-      <c r="AD7" s="213"/>
-      <c r="AE7" s="213"/>
-      <c r="AF7" s="213"/>
-      <c r="AG7" s="213"/>
-      <c r="AH7" s="213"/>
-      <c r="AI7" s="213"/>
-      <c r="AJ7" s="213"/>
-      <c r="AK7" s="213"/>
-      <c r="AL7" s="213"/>
-      <c r="AM7" s="214"/>
-      <c r="AN7" s="212"/>
-      <c r="AO7" s="213"/>
-      <c r="AP7" s="214"/>
-      <c r="AQ7" s="212"/>
-      <c r="AR7" s="213"/>
-      <c r="AS7" s="214"/>
-      <c r="AT7" s="212"/>
-      <c r="AU7" s="213"/>
-      <c r="AV7" s="214"/>
-      <c r="AW7" s="212"/>
-      <c r="AX7" s="213"/>
-      <c r="AY7" s="214"/>
-      <c r="AZ7" s="227"/>
-      <c r="BA7" s="227"/>
-      <c r="BB7" s="227"/>
-      <c r="BC7" s="227"/>
-      <c r="BD7" s="227"/>
-      <c r="BE7" s="227"/>
-      <c r="BF7" s="227"/>
-      <c r="BG7" s="227"/>
+      <c r="N7" s="281"/>
+      <c r="O7" s="281"/>
+      <c r="P7" s="281"/>
+      <c r="Q7" s="281"/>
+      <c r="R7" s="281"/>
+      <c r="S7" s="281"/>
+      <c r="T7" s="288"/>
+      <c r="U7" s="289"/>
+      <c r="V7" s="289"/>
+      <c r="W7" s="289"/>
+      <c r="X7" s="289"/>
+      <c r="Y7" s="289"/>
+      <c r="Z7" s="289"/>
+      <c r="AA7" s="289"/>
+      <c r="AB7" s="290"/>
+      <c r="AC7" s="274"/>
+      <c r="AD7" s="275"/>
+      <c r="AE7" s="275"/>
+      <c r="AF7" s="275"/>
+      <c r="AG7" s="275"/>
+      <c r="AH7" s="275"/>
+      <c r="AI7" s="275"/>
+      <c r="AJ7" s="275"/>
+      <c r="AK7" s="275"/>
+      <c r="AL7" s="275"/>
+      <c r="AM7" s="276"/>
+      <c r="AN7" s="274"/>
+      <c r="AO7" s="275"/>
+      <c r="AP7" s="276"/>
+      <c r="AQ7" s="274"/>
+      <c r="AR7" s="275"/>
+      <c r="AS7" s="276"/>
+      <c r="AT7" s="274"/>
+      <c r="AU7" s="275"/>
+      <c r="AV7" s="276"/>
+      <c r="AW7" s="274"/>
+      <c r="AX7" s="275"/>
+      <c r="AY7" s="276"/>
+      <c r="AZ7" s="277"/>
+      <c r="BA7" s="277"/>
+      <c r="BB7" s="277"/>
+      <c r="BC7" s="277"/>
+      <c r="BD7" s="277"/>
+      <c r="BE7" s="277"/>
+      <c r="BF7" s="277"/>
+      <c r="BG7" s="277"/>
       <c r="BH7" s="43"/>
     </row>
     <row r="8" spans="1:60" s="50" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A8" s="76">
+      <c r="A8" s="247">
         <v>1</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="87" t="s">
+      <c r="B8" s="248"/>
+      <c r="C8" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="87" t="s">
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="106" t="s">
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="211" t="s">
         <v>38</v>
       </c>
-      <c r="N8" s="106"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="106"/>
-      <c r="R8" s="106"/>
-      <c r="S8" s="107"/>
-      <c r="T8" s="105" t="s">
+      <c r="N8" s="211"/>
+      <c r="O8" s="211"/>
+      <c r="P8" s="211"/>
+      <c r="Q8" s="211"/>
+      <c r="R8" s="211"/>
+      <c r="S8" s="212"/>
+      <c r="T8" s="210" t="s">
         <v>42</v>
       </c>
-      <c r="U8" s="106"/>
-      <c r="V8" s="106"/>
-      <c r="W8" s="106"/>
-      <c r="X8" s="106"/>
-      <c r="Y8" s="106"/>
-      <c r="Z8" s="106"/>
-      <c r="AA8" s="106"/>
-      <c r="AB8" s="106"/>
-      <c r="AC8" s="105" t="s">
+      <c r="U8" s="211"/>
+      <c r="V8" s="211"/>
+      <c r="W8" s="211"/>
+      <c r="X8" s="211"/>
+      <c r="Y8" s="211"/>
+      <c r="Z8" s="211"/>
+      <c r="AA8" s="211"/>
+      <c r="AB8" s="211"/>
+      <c r="AC8" s="210" t="s">
         <v>39</v>
       </c>
-      <c r="AD8" s="106"/>
-      <c r="AE8" s="106"/>
-      <c r="AF8" s="106"/>
-      <c r="AG8" s="106"/>
-      <c r="AH8" s="106"/>
-      <c r="AI8" s="106"/>
-      <c r="AJ8" s="106"/>
-      <c r="AK8" s="106"/>
-      <c r="AL8" s="106"/>
-      <c r="AM8" s="107"/>
-      <c r="AN8" s="246" t="s">
+      <c r="AD8" s="211"/>
+      <c r="AE8" s="211"/>
+      <c r="AF8" s="211"/>
+      <c r="AG8" s="211"/>
+      <c r="AH8" s="211"/>
+      <c r="AI8" s="211"/>
+      <c r="AJ8" s="211"/>
+      <c r="AK8" s="211"/>
+      <c r="AL8" s="211"/>
+      <c r="AM8" s="212"/>
+      <c r="AN8" s="204" t="s">
         <v>40</v>
       </c>
-      <c r="AO8" s="247"/>
-      <c r="AP8" s="248"/>
-      <c r="AQ8" s="246" t="s">
+      <c r="AO8" s="205"/>
+      <c r="AP8" s="206"/>
+      <c r="AQ8" s="204" t="s">
         <v>37</v>
       </c>
-      <c r="AR8" s="247"/>
-      <c r="AS8" s="248"/>
-      <c r="AT8" s="246"/>
-      <c r="AU8" s="247"/>
-      <c r="AV8" s="248"/>
-      <c r="AW8" s="252"/>
-      <c r="AX8" s="253"/>
-      <c r="AY8" s="254"/>
-      <c r="AZ8" s="258" t="s">
+      <c r="AR8" s="205"/>
+      <c r="AS8" s="206"/>
+      <c r="AT8" s="204"/>
+      <c r="AU8" s="205"/>
+      <c r="AV8" s="206"/>
+      <c r="AW8" s="257"/>
+      <c r="AX8" s="258"/>
+      <c r="AY8" s="259"/>
+      <c r="AZ8" s="263" t="s">
         <v>9</v>
       </c>
-      <c r="BA8" s="259"/>
-      <c r="BB8" s="259"/>
-      <c r="BC8" s="259"/>
-      <c r="BD8" s="259"/>
-      <c r="BE8" s="259"/>
-      <c r="BF8" s="259"/>
-      <c r="BG8" s="260"/>
+      <c r="BA8" s="264"/>
+      <c r="BB8" s="264"/>
+      <c r="BC8" s="264"/>
+      <c r="BD8" s="264"/>
+      <c r="BE8" s="264"/>
+      <c r="BF8" s="264"/>
+      <c r="BG8" s="265"/>
       <c r="BH8" s="49"/>
     </row>
     <row r="9" spans="1:60" s="50" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A9" s="78"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="243"/>
-      <c r="D9" s="244"/>
-      <c r="E9" s="244"/>
-      <c r="F9" s="244"/>
-      <c r="G9" s="244"/>
-      <c r="H9" s="243"/>
-      <c r="I9" s="244"/>
-      <c r="J9" s="244"/>
-      <c r="K9" s="244"/>
-      <c r="L9" s="245"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="110"/>
-      <c r="T9" s="108"/>
-      <c r="U9" s="109"/>
-      <c r="V9" s="109"/>
-      <c r="W9" s="109"/>
-      <c r="X9" s="109"/>
-      <c r="Y9" s="109"/>
-      <c r="Z9" s="109"/>
-      <c r="AA9" s="109"/>
-      <c r="AB9" s="109"/>
-      <c r="AC9" s="108"/>
-      <c r="AD9" s="109"/>
-      <c r="AE9" s="109"/>
-      <c r="AF9" s="109"/>
-      <c r="AG9" s="109"/>
-      <c r="AH9" s="109"/>
-      <c r="AI9" s="109"/>
-      <c r="AJ9" s="109"/>
-      <c r="AK9" s="109"/>
-      <c r="AL9" s="109"/>
-      <c r="AM9" s="110"/>
-      <c r="AN9" s="249"/>
-      <c r="AO9" s="250"/>
-      <c r="AP9" s="251"/>
-      <c r="AQ9" s="249"/>
-      <c r="AR9" s="250"/>
-      <c r="AS9" s="251"/>
-      <c r="AT9" s="249"/>
-      <c r="AU9" s="250"/>
-      <c r="AV9" s="251"/>
-      <c r="AW9" s="255"/>
-      <c r="AX9" s="256"/>
-      <c r="AY9" s="257"/>
-      <c r="AZ9" s="261" t="s">
+      <c r="A9" s="249"/>
+      <c r="B9" s="250"/>
+      <c r="C9" s="245"/>
+      <c r="D9" s="246"/>
+      <c r="E9" s="246"/>
+      <c r="F9" s="246"/>
+      <c r="G9" s="246"/>
+      <c r="H9" s="245"/>
+      <c r="I9" s="246"/>
+      <c r="J9" s="246"/>
+      <c r="K9" s="246"/>
+      <c r="L9" s="270"/>
+      <c r="M9" s="214"/>
+      <c r="N9" s="214"/>
+      <c r="O9" s="214"/>
+      <c r="P9" s="214"/>
+      <c r="Q9" s="214"/>
+      <c r="R9" s="214"/>
+      <c r="S9" s="215"/>
+      <c r="T9" s="213"/>
+      <c r="U9" s="214"/>
+      <c r="V9" s="214"/>
+      <c r="W9" s="214"/>
+      <c r="X9" s="214"/>
+      <c r="Y9" s="214"/>
+      <c r="Z9" s="214"/>
+      <c r="AA9" s="214"/>
+      <c r="AB9" s="214"/>
+      <c r="AC9" s="213"/>
+      <c r="AD9" s="214"/>
+      <c r="AE9" s="214"/>
+      <c r="AF9" s="214"/>
+      <c r="AG9" s="214"/>
+      <c r="AH9" s="214"/>
+      <c r="AI9" s="214"/>
+      <c r="AJ9" s="214"/>
+      <c r="AK9" s="214"/>
+      <c r="AL9" s="214"/>
+      <c r="AM9" s="215"/>
+      <c r="AN9" s="207"/>
+      <c r="AO9" s="208"/>
+      <c r="AP9" s="209"/>
+      <c r="AQ9" s="207"/>
+      <c r="AR9" s="208"/>
+      <c r="AS9" s="209"/>
+      <c r="AT9" s="207"/>
+      <c r="AU9" s="208"/>
+      <c r="AV9" s="209"/>
+      <c r="AW9" s="260"/>
+      <c r="AX9" s="261"/>
+      <c r="AY9" s="262"/>
+      <c r="AZ9" s="266" t="s">
         <v>1</v>
       </c>
-      <c r="BA9" s="262"/>
-      <c r="BB9" s="262"/>
-      <c r="BC9" s="262"/>
-      <c r="BD9" s="262"/>
-      <c r="BE9" s="262"/>
-      <c r="BF9" s="262"/>
-      <c r="BG9" s="263"/>
+      <c r="BA9" s="267"/>
+      <c r="BB9" s="267"/>
+      <c r="BC9" s="267"/>
+      <c r="BD9" s="267"/>
+      <c r="BE9" s="267"/>
+      <c r="BF9" s="267"/>
+      <c r="BG9" s="268"/>
       <c r="BH9" s="49"/>
     </row>
     <row r="10" spans="1:60" s="50" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A10" s="76">
+      <c r="A10" s="247">
         <v>2</v>
       </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="243"/>
-      <c r="D10" s="244"/>
-      <c r="E10" s="244"/>
-      <c r="F10" s="244"/>
-      <c r="G10" s="244"/>
-      <c r="H10" s="243"/>
-      <c r="I10" s="244"/>
-      <c r="J10" s="244"/>
-      <c r="K10" s="244"/>
-      <c r="L10" s="245"/>
-      <c r="M10" s="164" t="s">
+      <c r="B10" s="248"/>
+      <c r="C10" s="245"/>
+      <c r="D10" s="246"/>
+      <c r="E10" s="246"/>
+      <c r="F10" s="246"/>
+      <c r="G10" s="246"/>
+      <c r="H10" s="245"/>
+      <c r="I10" s="246"/>
+      <c r="J10" s="246"/>
+      <c r="K10" s="246"/>
+      <c r="L10" s="270"/>
+      <c r="M10" s="169" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="164"/>
-      <c r="O10" s="164"/>
-      <c r="P10" s="164"/>
-      <c r="Q10" s="164"/>
-      <c r="R10" s="164"/>
-      <c r="S10" s="165"/>
-      <c r="T10" s="163" t="s">
+      <c r="N10" s="169"/>
+      <c r="O10" s="169"/>
+      <c r="P10" s="169"/>
+      <c r="Q10" s="169"/>
+      <c r="R10" s="169"/>
+      <c r="S10" s="170"/>
+      <c r="T10" s="168" t="s">
         <v>43</v>
       </c>
-      <c r="U10" s="164"/>
-      <c r="V10" s="164"/>
-      <c r="W10" s="164"/>
-      <c r="X10" s="164"/>
-      <c r="Y10" s="164"/>
-      <c r="Z10" s="164"/>
-      <c r="AA10" s="164"/>
-      <c r="AB10" s="165"/>
-      <c r="AC10" s="163" t="s">
+      <c r="U10" s="169"/>
+      <c r="V10" s="169"/>
+      <c r="W10" s="169"/>
+      <c r="X10" s="169"/>
+      <c r="Y10" s="169"/>
+      <c r="Z10" s="169"/>
+      <c r="AA10" s="169"/>
+      <c r="AB10" s="170"/>
+      <c r="AC10" s="168" t="s">
         <v>44</v>
       </c>
-      <c r="AD10" s="164"/>
-      <c r="AE10" s="164"/>
-      <c r="AF10" s="164"/>
-      <c r="AG10" s="164"/>
-      <c r="AH10" s="164"/>
-      <c r="AI10" s="164"/>
-      <c r="AJ10" s="164"/>
-      <c r="AK10" s="164"/>
-      <c r="AL10" s="164"/>
-      <c r="AM10" s="165"/>
+      <c r="AD10" s="169"/>
+      <c r="AE10" s="169"/>
+      <c r="AF10" s="169"/>
+      <c r="AG10" s="169"/>
+      <c r="AH10" s="169"/>
+      <c r="AI10" s="169"/>
+      <c r="AJ10" s="169"/>
+      <c r="AK10" s="169"/>
+      <c r="AL10" s="169"/>
+      <c r="AM10" s="170"/>
       <c r="AN10" s="142" t="s">
         <v>40</v>
       </c>
@@ -5805,59 +5817,59 @@
       <c r="AT10" s="142"/>
       <c r="AU10" s="143"/>
       <c r="AV10" s="144"/>
-      <c r="AW10" s="274"/>
-      <c r="AX10" s="275"/>
-      <c r="AY10" s="276"/>
-      <c r="AZ10" s="280"/>
-      <c r="BA10" s="281"/>
-      <c r="BB10" s="281"/>
-      <c r="BC10" s="281"/>
-      <c r="BD10" s="281"/>
-      <c r="BE10" s="281"/>
-      <c r="BF10" s="281"/>
-      <c r="BG10" s="282"/>
+      <c r="AW10" s="148"/>
+      <c r="AX10" s="149"/>
+      <c r="AY10" s="150"/>
+      <c r="AZ10" s="251"/>
+      <c r="BA10" s="252"/>
+      <c r="BB10" s="252"/>
+      <c r="BC10" s="252"/>
+      <c r="BD10" s="252"/>
+      <c r="BE10" s="252"/>
+      <c r="BF10" s="252"/>
+      <c r="BG10" s="253"/>
       <c r="BH10" s="49"/>
     </row>
     <row r="11" spans="1:60" s="50" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A11" s="78"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="243"/>
-      <c r="D11" s="244"/>
-      <c r="E11" s="244"/>
-      <c r="F11" s="244"/>
-      <c r="G11" s="244"/>
-      <c r="H11" s="243"/>
-      <c r="I11" s="244"/>
-      <c r="J11" s="244"/>
-      <c r="K11" s="244"/>
-      <c r="L11" s="245"/>
-      <c r="M11" s="167"/>
-      <c r="N11" s="167"/>
-      <c r="O11" s="167"/>
-      <c r="P11" s="167"/>
-      <c r="Q11" s="167"/>
-      <c r="R11" s="167"/>
-      <c r="S11" s="168"/>
-      <c r="T11" s="166"/>
-      <c r="U11" s="167"/>
-      <c r="V11" s="167"/>
-      <c r="W11" s="167"/>
-      <c r="X11" s="167"/>
-      <c r="Y11" s="167"/>
-      <c r="Z11" s="167"/>
-      <c r="AA11" s="167"/>
-      <c r="AB11" s="168"/>
-      <c r="AC11" s="166"/>
-      <c r="AD11" s="167"/>
-      <c r="AE11" s="167"/>
-      <c r="AF11" s="167"/>
-      <c r="AG11" s="167"/>
-      <c r="AH11" s="167"/>
-      <c r="AI11" s="167"/>
-      <c r="AJ11" s="167"/>
-      <c r="AK11" s="167"/>
-      <c r="AL11" s="167"/>
-      <c r="AM11" s="168"/>
+      <c r="A11" s="249"/>
+      <c r="B11" s="250"/>
+      <c r="C11" s="245"/>
+      <c r="D11" s="246"/>
+      <c r="E11" s="246"/>
+      <c r="F11" s="246"/>
+      <c r="G11" s="246"/>
+      <c r="H11" s="245"/>
+      <c r="I11" s="246"/>
+      <c r="J11" s="246"/>
+      <c r="K11" s="246"/>
+      <c r="L11" s="270"/>
+      <c r="M11" s="172"/>
+      <c r="N11" s="172"/>
+      <c r="O11" s="172"/>
+      <c r="P11" s="172"/>
+      <c r="Q11" s="172"/>
+      <c r="R11" s="172"/>
+      <c r="S11" s="173"/>
+      <c r="T11" s="171"/>
+      <c r="U11" s="172"/>
+      <c r="V11" s="172"/>
+      <c r="W11" s="172"/>
+      <c r="X11" s="172"/>
+      <c r="Y11" s="172"/>
+      <c r="Z11" s="172"/>
+      <c r="AA11" s="172"/>
+      <c r="AB11" s="173"/>
+      <c r="AC11" s="171"/>
+      <c r="AD11" s="172"/>
+      <c r="AE11" s="172"/>
+      <c r="AF11" s="172"/>
+      <c r="AG11" s="172"/>
+      <c r="AH11" s="172"/>
+      <c r="AI11" s="172"/>
+      <c r="AJ11" s="172"/>
+      <c r="AK11" s="172"/>
+      <c r="AL11" s="172"/>
+      <c r="AM11" s="173"/>
       <c r="AN11" s="145"/>
       <c r="AO11" s="146"/>
       <c r="AP11" s="147"/>
@@ -5867,204 +5879,204 @@
       <c r="AT11" s="145"/>
       <c r="AU11" s="146"/>
       <c r="AV11" s="147"/>
-      <c r="AW11" s="277"/>
-      <c r="AX11" s="278"/>
-      <c r="AY11" s="279"/>
-      <c r="AZ11" s="283"/>
-      <c r="BA11" s="284"/>
-      <c r="BB11" s="284"/>
-      <c r="BC11" s="284"/>
-      <c r="BD11" s="284"/>
-      <c r="BE11" s="284"/>
-      <c r="BF11" s="284"/>
-      <c r="BG11" s="285"/>
+      <c r="AW11" s="151"/>
+      <c r="AX11" s="152"/>
+      <c r="AY11" s="153"/>
+      <c r="AZ11" s="254"/>
+      <c r="BA11" s="255"/>
+      <c r="BB11" s="255"/>
+      <c r="BC11" s="255"/>
+      <c r="BD11" s="255"/>
+      <c r="BE11" s="255"/>
+      <c r="BF11" s="255"/>
+      <c r="BG11" s="256"/>
       <c r="BH11" s="49"/>
     </row>
     <row r="12" spans="1:60" s="50" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A12" s="76">
+      <c r="A12" s="247">
         <v>3</v>
       </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="243"/>
-      <c r="D12" s="244"/>
-      <c r="E12" s="244"/>
-      <c r="F12" s="244"/>
-      <c r="G12" s="244"/>
-      <c r="H12" s="243"/>
-      <c r="I12" s="244"/>
-      <c r="J12" s="244"/>
-      <c r="K12" s="244"/>
-      <c r="L12" s="245"/>
-      <c r="M12" s="264" t="s">
+      <c r="B12" s="248"/>
+      <c r="C12" s="245"/>
+      <c r="D12" s="246"/>
+      <c r="E12" s="246"/>
+      <c r="F12" s="246"/>
+      <c r="G12" s="246"/>
+      <c r="H12" s="245"/>
+      <c r="I12" s="246"/>
+      <c r="J12" s="246"/>
+      <c r="K12" s="246"/>
+      <c r="L12" s="270"/>
+      <c r="M12" s="164" t="s">
         <v>45</v>
       </c>
-      <c r="N12" s="264"/>
-      <c r="O12" s="264"/>
-      <c r="P12" s="264"/>
-      <c r="Q12" s="264"/>
-      <c r="R12" s="264"/>
-      <c r="S12" s="265"/>
-      <c r="T12" s="105" t="s">
+      <c r="N12" s="164"/>
+      <c r="O12" s="164"/>
+      <c r="P12" s="164"/>
+      <c r="Q12" s="164"/>
+      <c r="R12" s="164"/>
+      <c r="S12" s="165"/>
+      <c r="T12" s="210" t="s">
         <v>47</v>
       </c>
-      <c r="U12" s="106"/>
-      <c r="V12" s="106"/>
-      <c r="W12" s="106"/>
-      <c r="X12" s="106"/>
-      <c r="Y12" s="106"/>
-      <c r="Z12" s="106"/>
-      <c r="AA12" s="106"/>
-      <c r="AB12" s="107"/>
-      <c r="AC12" s="327" t="s">
+      <c r="U12" s="211"/>
+      <c r="V12" s="211"/>
+      <c r="W12" s="211"/>
+      <c r="X12" s="211"/>
+      <c r="Y12" s="211"/>
+      <c r="Z12" s="211"/>
+      <c r="AA12" s="211"/>
+      <c r="AB12" s="212"/>
+      <c r="AC12" s="269" t="s">
         <v>46</v>
       </c>
-      <c r="AD12" s="269"/>
-      <c r="AE12" s="269"/>
-      <c r="AF12" s="269"/>
-      <c r="AG12" s="269"/>
-      <c r="AH12" s="269"/>
-      <c r="AI12" s="269"/>
-      <c r="AJ12" s="269"/>
-      <c r="AK12" s="269"/>
-      <c r="AL12" s="269"/>
-      <c r="AM12" s="270"/>
-      <c r="AN12" s="246" t="s">
+      <c r="AD12" s="104"/>
+      <c r="AE12" s="104"/>
+      <c r="AF12" s="104"/>
+      <c r="AG12" s="104"/>
+      <c r="AH12" s="104"/>
+      <c r="AI12" s="104"/>
+      <c r="AJ12" s="104"/>
+      <c r="AK12" s="104"/>
+      <c r="AL12" s="104"/>
+      <c r="AM12" s="105"/>
+      <c r="AN12" s="204" t="s">
         <v>40</v>
       </c>
-      <c r="AO12" s="247"/>
-      <c r="AP12" s="248"/>
+      <c r="AO12" s="205"/>
+      <c r="AP12" s="206"/>
       <c r="AQ12" s="142" t="s">
         <v>37</v>
       </c>
       <c r="AR12" s="143"/>
       <c r="AS12" s="144"/>
-      <c r="AT12" s="246"/>
-      <c r="AU12" s="247"/>
-      <c r="AV12" s="248"/>
-      <c r="AW12" s="252"/>
-      <c r="AX12" s="253"/>
-      <c r="AY12" s="254"/>
-      <c r="AZ12" s="258"/>
-      <c r="BA12" s="259"/>
-      <c r="BB12" s="259"/>
-      <c r="BC12" s="259"/>
-      <c r="BD12" s="259"/>
-      <c r="BE12" s="259"/>
-      <c r="BF12" s="259"/>
-      <c r="BG12" s="260"/>
+      <c r="AT12" s="204"/>
+      <c r="AU12" s="205"/>
+      <c r="AV12" s="206"/>
+      <c r="AW12" s="257"/>
+      <c r="AX12" s="258"/>
+      <c r="AY12" s="259"/>
+      <c r="AZ12" s="263"/>
+      <c r="BA12" s="264"/>
+      <c r="BB12" s="264"/>
+      <c r="BC12" s="264"/>
+      <c r="BD12" s="264"/>
+      <c r="BE12" s="264"/>
+      <c r="BF12" s="264"/>
+      <c r="BG12" s="265"/>
       <c r="BH12" s="49"/>
     </row>
     <row r="13" spans="1:60" s="50" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A13" s="78"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="243"/>
-      <c r="D13" s="244"/>
-      <c r="E13" s="244"/>
-      <c r="F13" s="244"/>
-      <c r="G13" s="244"/>
-      <c r="H13" s="243"/>
-      <c r="I13" s="244"/>
-      <c r="J13" s="244"/>
-      <c r="K13" s="244"/>
-      <c r="L13" s="245"/>
-      <c r="M13" s="266"/>
-      <c r="N13" s="266"/>
-      <c r="O13" s="266"/>
-      <c r="P13" s="266"/>
-      <c r="Q13" s="266"/>
-      <c r="R13" s="266"/>
-      <c r="S13" s="267"/>
-      <c r="T13" s="108"/>
-      <c r="U13" s="109"/>
-      <c r="V13" s="109"/>
-      <c r="W13" s="109"/>
-      <c r="X13" s="109"/>
-      <c r="Y13" s="109"/>
-      <c r="Z13" s="109"/>
-      <c r="AA13" s="109"/>
-      <c r="AB13" s="110"/>
-      <c r="AC13" s="271"/>
-      <c r="AD13" s="272"/>
-      <c r="AE13" s="272"/>
-      <c r="AF13" s="272"/>
-      <c r="AG13" s="272"/>
-      <c r="AH13" s="272"/>
-      <c r="AI13" s="272"/>
-      <c r="AJ13" s="272"/>
-      <c r="AK13" s="272"/>
-      <c r="AL13" s="272"/>
-      <c r="AM13" s="273"/>
-      <c r="AN13" s="249"/>
-      <c r="AO13" s="250"/>
-      <c r="AP13" s="251"/>
+      <c r="A13" s="249"/>
+      <c r="B13" s="250"/>
+      <c r="C13" s="245"/>
+      <c r="D13" s="246"/>
+      <c r="E13" s="246"/>
+      <c r="F13" s="246"/>
+      <c r="G13" s="246"/>
+      <c r="H13" s="245"/>
+      <c r="I13" s="246"/>
+      <c r="J13" s="246"/>
+      <c r="K13" s="246"/>
+      <c r="L13" s="270"/>
+      <c r="M13" s="166"/>
+      <c r="N13" s="166"/>
+      <c r="O13" s="166"/>
+      <c r="P13" s="166"/>
+      <c r="Q13" s="166"/>
+      <c r="R13" s="166"/>
+      <c r="S13" s="167"/>
+      <c r="T13" s="213"/>
+      <c r="U13" s="214"/>
+      <c r="V13" s="214"/>
+      <c r="W13" s="214"/>
+      <c r="X13" s="214"/>
+      <c r="Y13" s="214"/>
+      <c r="Z13" s="214"/>
+      <c r="AA13" s="214"/>
+      <c r="AB13" s="215"/>
+      <c r="AC13" s="106"/>
+      <c r="AD13" s="107"/>
+      <c r="AE13" s="107"/>
+      <c r="AF13" s="107"/>
+      <c r="AG13" s="107"/>
+      <c r="AH13" s="107"/>
+      <c r="AI13" s="107"/>
+      <c r="AJ13" s="107"/>
+      <c r="AK13" s="107"/>
+      <c r="AL13" s="107"/>
+      <c r="AM13" s="108"/>
+      <c r="AN13" s="207"/>
+      <c r="AO13" s="208"/>
+      <c r="AP13" s="209"/>
       <c r="AQ13" s="145"/>
       <c r="AR13" s="146"/>
       <c r="AS13" s="147"/>
-      <c r="AT13" s="249"/>
-      <c r="AU13" s="250"/>
-      <c r="AV13" s="251"/>
-      <c r="AW13" s="255"/>
-      <c r="AX13" s="256"/>
-      <c r="AY13" s="257"/>
-      <c r="AZ13" s="158"/>
-      <c r="BA13" s="159"/>
-      <c r="BB13" s="159"/>
-      <c r="BC13" s="159"/>
-      <c r="BD13" s="159"/>
-      <c r="BE13" s="159"/>
-      <c r="BF13" s="159"/>
-      <c r="BG13" s="160"/>
+      <c r="AT13" s="207"/>
+      <c r="AU13" s="208"/>
+      <c r="AV13" s="209"/>
+      <c r="AW13" s="260"/>
+      <c r="AX13" s="261"/>
+      <c r="AY13" s="262"/>
+      <c r="AZ13" s="135"/>
+      <c r="BA13" s="140"/>
+      <c r="BB13" s="140"/>
+      <c r="BC13" s="140"/>
+      <c r="BD13" s="140"/>
+      <c r="BE13" s="140"/>
+      <c r="BF13" s="140"/>
+      <c r="BG13" s="141"/>
       <c r="BH13" s="49"/>
     </row>
     <row r="14" spans="1:60" s="50" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A14" s="76">
+      <c r="A14" s="247">
         <f>A12+1</f>
         <v>4</v>
       </c>
-      <c r="B14" s="77"/>
-      <c r="C14" s="243"/>
-      <c r="D14" s="244"/>
-      <c r="E14" s="244"/>
-      <c r="F14" s="244"/>
-      <c r="G14" s="244"/>
-      <c r="H14" s="243"/>
-      <c r="I14" s="244"/>
-      <c r="J14" s="244"/>
-      <c r="K14" s="244"/>
-      <c r="L14" s="245"/>
-      <c r="M14" s="126" t="s">
+      <c r="B14" s="248"/>
+      <c r="C14" s="245"/>
+      <c r="D14" s="246"/>
+      <c r="E14" s="246"/>
+      <c r="F14" s="246"/>
+      <c r="G14" s="246"/>
+      <c r="H14" s="245"/>
+      <c r="I14" s="246"/>
+      <c r="J14" s="246"/>
+      <c r="K14" s="246"/>
+      <c r="L14" s="270"/>
+      <c r="M14" s="225" t="s">
         <v>48</v>
       </c>
-      <c r="N14" s="126"/>
-      <c r="O14" s="126"/>
-      <c r="P14" s="126"/>
-      <c r="Q14" s="126"/>
-      <c r="R14" s="126"/>
-      <c r="S14" s="127"/>
-      <c r="T14" s="163" t="s">
+      <c r="N14" s="225"/>
+      <c r="O14" s="225"/>
+      <c r="P14" s="225"/>
+      <c r="Q14" s="225"/>
+      <c r="R14" s="225"/>
+      <c r="S14" s="226"/>
+      <c r="T14" s="168" t="s">
         <v>49</v>
       </c>
-      <c r="U14" s="131"/>
-      <c r="V14" s="131"/>
-      <c r="W14" s="131"/>
-      <c r="X14" s="131"/>
-      <c r="Y14" s="131"/>
-      <c r="Z14" s="131"/>
-      <c r="AA14" s="131"/>
-      <c r="AB14" s="132"/>
-      <c r="AC14" s="328" t="s">
+      <c r="U14" s="175"/>
+      <c r="V14" s="175"/>
+      <c r="W14" s="175"/>
+      <c r="X14" s="175"/>
+      <c r="Y14" s="175"/>
+      <c r="Z14" s="175"/>
+      <c r="AA14" s="175"/>
+      <c r="AB14" s="176"/>
+      <c r="AC14" s="238" t="s">
         <v>50</v>
       </c>
-      <c r="AD14" s="238"/>
-      <c r="AE14" s="238"/>
-      <c r="AF14" s="238"/>
-      <c r="AG14" s="238"/>
-      <c r="AH14" s="238"/>
-      <c r="AI14" s="238"/>
-      <c r="AJ14" s="238"/>
-      <c r="AK14" s="238"/>
-      <c r="AL14" s="238"/>
-      <c r="AM14" s="239"/>
+      <c r="AD14" s="239"/>
+      <c r="AE14" s="239"/>
+      <c r="AF14" s="239"/>
+      <c r="AG14" s="239"/>
+      <c r="AH14" s="239"/>
+      <c r="AI14" s="239"/>
+      <c r="AJ14" s="239"/>
+      <c r="AK14" s="239"/>
+      <c r="AL14" s="239"/>
+      <c r="AM14" s="240"/>
       <c r="AN14" s="142" t="s">
         <v>40</v>
       </c>
@@ -6078,59 +6090,59 @@
       <c r="AT14" s="142"/>
       <c r="AU14" s="143"/>
       <c r="AV14" s="144"/>
-      <c r="AW14" s="274"/>
-      <c r="AX14" s="275"/>
-      <c r="AY14" s="276"/>
-      <c r="AZ14" s="84"/>
-      <c r="BA14" s="85"/>
-      <c r="BB14" s="85"/>
-      <c r="BC14" s="85"/>
-      <c r="BD14" s="85"/>
-      <c r="BE14" s="85"/>
-      <c r="BF14" s="85"/>
-      <c r="BG14" s="86"/>
+      <c r="AW14" s="148"/>
+      <c r="AX14" s="149"/>
+      <c r="AY14" s="150"/>
+      <c r="AZ14" s="120"/>
+      <c r="BA14" s="121"/>
+      <c r="BB14" s="121"/>
+      <c r="BC14" s="121"/>
+      <c r="BD14" s="121"/>
+      <c r="BE14" s="121"/>
+      <c r="BF14" s="121"/>
+      <c r="BG14" s="122"/>
       <c r="BH14" s="49"/>
     </row>
     <row r="15" spans="1:60" s="50" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A15" s="78"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="243"/>
-      <c r="D15" s="244"/>
-      <c r="E15" s="244"/>
-      <c r="F15" s="244"/>
-      <c r="G15" s="244"/>
-      <c r="H15" s="243"/>
-      <c r="I15" s="244"/>
-      <c r="J15" s="244"/>
-      <c r="K15" s="244"/>
-      <c r="L15" s="245"/>
-      <c r="M15" s="128"/>
-      <c r="N15" s="128"/>
-      <c r="O15" s="128"/>
-      <c r="P15" s="128"/>
-      <c r="Q15" s="128"/>
-      <c r="R15" s="128"/>
-      <c r="S15" s="129"/>
-      <c r="T15" s="133"/>
-      <c r="U15" s="134"/>
-      <c r="V15" s="134"/>
-      <c r="W15" s="134"/>
-      <c r="X15" s="134"/>
-      <c r="Y15" s="134"/>
-      <c r="Z15" s="134"/>
-      <c r="AA15" s="134"/>
-      <c r="AB15" s="135"/>
-      <c r="AC15" s="240"/>
-      <c r="AD15" s="241"/>
-      <c r="AE15" s="241"/>
-      <c r="AF15" s="241"/>
-      <c r="AG15" s="241"/>
-      <c r="AH15" s="241"/>
-      <c r="AI15" s="241"/>
-      <c r="AJ15" s="241"/>
-      <c r="AK15" s="241"/>
-      <c r="AL15" s="241"/>
-      <c r="AM15" s="242"/>
+      <c r="A15" s="249"/>
+      <c r="B15" s="250"/>
+      <c r="C15" s="245"/>
+      <c r="D15" s="246"/>
+      <c r="E15" s="246"/>
+      <c r="F15" s="246"/>
+      <c r="G15" s="246"/>
+      <c r="H15" s="245"/>
+      <c r="I15" s="246"/>
+      <c r="J15" s="246"/>
+      <c r="K15" s="246"/>
+      <c r="L15" s="270"/>
+      <c r="M15" s="227"/>
+      <c r="N15" s="227"/>
+      <c r="O15" s="227"/>
+      <c r="P15" s="227"/>
+      <c r="Q15" s="227"/>
+      <c r="R15" s="227"/>
+      <c r="S15" s="228"/>
+      <c r="T15" s="177"/>
+      <c r="U15" s="178"/>
+      <c r="V15" s="178"/>
+      <c r="W15" s="178"/>
+      <c r="X15" s="178"/>
+      <c r="Y15" s="178"/>
+      <c r="Z15" s="178"/>
+      <c r="AA15" s="178"/>
+      <c r="AB15" s="179"/>
+      <c r="AC15" s="241"/>
+      <c r="AD15" s="242"/>
+      <c r="AE15" s="242"/>
+      <c r="AF15" s="242"/>
+      <c r="AG15" s="242"/>
+      <c r="AH15" s="242"/>
+      <c r="AI15" s="242"/>
+      <c r="AJ15" s="242"/>
+      <c r="AK15" s="242"/>
+      <c r="AL15" s="242"/>
+      <c r="AM15" s="243"/>
       <c r="AN15" s="145"/>
       <c r="AO15" s="146"/>
       <c r="AP15" s="147"/>
@@ -6140,2631 +6152,2720 @@
       <c r="AT15" s="145"/>
       <c r="AU15" s="146"/>
       <c r="AV15" s="147"/>
-      <c r="AW15" s="277"/>
-      <c r="AX15" s="278"/>
-      <c r="AY15" s="279"/>
-      <c r="AZ15" s="84"/>
-      <c r="BA15" s="85"/>
-      <c r="BB15" s="85"/>
-      <c r="BC15" s="85"/>
-      <c r="BD15" s="85"/>
-      <c r="BE15" s="85"/>
-      <c r="BF15" s="85"/>
-      <c r="BG15" s="86"/>
+      <c r="AW15" s="151"/>
+      <c r="AX15" s="152"/>
+      <c r="AY15" s="153"/>
+      <c r="AZ15" s="120"/>
+      <c r="BA15" s="121"/>
+      <c r="BB15" s="121"/>
+      <c r="BC15" s="121"/>
+      <c r="BD15" s="121"/>
+      <c r="BE15" s="121"/>
+      <c r="BF15" s="121"/>
+      <c r="BG15" s="122"/>
       <c r="BH15" s="49"/>
     </row>
     <row r="16" spans="1:60" ht="94.5" customHeight="1">
-      <c r="A16" s="76">
+      <c r="A16" s="247">
         <f>A14+1</f>
         <v>5</v>
       </c>
-      <c r="B16" s="77"/>
-      <c r="C16" s="243"/>
-      <c r="D16" s="244"/>
-      <c r="E16" s="244"/>
-      <c r="F16" s="244"/>
-      <c r="G16" s="244"/>
-      <c r="H16" s="243"/>
-      <c r="I16" s="244"/>
-      <c r="J16" s="244"/>
-      <c r="K16" s="244"/>
-      <c r="L16" s="245"/>
-      <c r="M16" s="126" t="s">
+      <c r="B16" s="248"/>
+      <c r="C16" s="245"/>
+      <c r="D16" s="246"/>
+      <c r="E16" s="246"/>
+      <c r="F16" s="246"/>
+      <c r="G16" s="246"/>
+      <c r="H16" s="245"/>
+      <c r="I16" s="246"/>
+      <c r="J16" s="246"/>
+      <c r="K16" s="246"/>
+      <c r="L16" s="270"/>
+      <c r="M16" s="225" t="s">
         <v>48</v>
       </c>
-      <c r="N16" s="126"/>
-      <c r="O16" s="126"/>
-      <c r="P16" s="126"/>
-      <c r="Q16" s="126"/>
-      <c r="R16" s="126"/>
-      <c r="S16" s="127"/>
-      <c r="T16" s="163" t="s">
+      <c r="N16" s="225"/>
+      <c r="O16" s="225"/>
+      <c r="P16" s="225"/>
+      <c r="Q16" s="225"/>
+      <c r="R16" s="225"/>
+      <c r="S16" s="226"/>
+      <c r="T16" s="168" t="s">
         <v>51</v>
       </c>
-      <c r="U16" s="131"/>
-      <c r="V16" s="131"/>
-      <c r="W16" s="131"/>
-      <c r="X16" s="131"/>
-      <c r="Y16" s="131"/>
-      <c r="Z16" s="131"/>
-      <c r="AA16" s="131"/>
-      <c r="AB16" s="132"/>
-      <c r="AC16" s="328" t="s">
+      <c r="U16" s="175"/>
+      <c r="V16" s="175"/>
+      <c r="W16" s="175"/>
+      <c r="X16" s="175"/>
+      <c r="Y16" s="175"/>
+      <c r="Z16" s="175"/>
+      <c r="AA16" s="175"/>
+      <c r="AB16" s="176"/>
+      <c r="AC16" s="238" t="s">
         <v>50</v>
       </c>
-      <c r="AD16" s="238"/>
-      <c r="AE16" s="238"/>
-      <c r="AF16" s="238"/>
-      <c r="AG16" s="238"/>
-      <c r="AH16" s="238"/>
-      <c r="AI16" s="238"/>
-      <c r="AJ16" s="238"/>
-      <c r="AK16" s="238"/>
-      <c r="AL16" s="238"/>
-      <c r="AM16" s="239"/>
-      <c r="AN16" s="152" t="s">
+      <c r="AD16" s="239"/>
+      <c r="AE16" s="239"/>
+      <c r="AF16" s="239"/>
+      <c r="AG16" s="239"/>
+      <c r="AH16" s="239"/>
+      <c r="AI16" s="239"/>
+      <c r="AJ16" s="239"/>
+      <c r="AK16" s="239"/>
+      <c r="AL16" s="239"/>
+      <c r="AM16" s="240"/>
+      <c r="AN16" s="329" t="s">
         <v>40</v>
       </c>
-      <c r="AO16" s="153"/>
-      <c r="AP16" s="154"/>
+      <c r="AO16" s="330"/>
+      <c r="AP16" s="331"/>
       <c r="AQ16" s="142" t="s">
         <v>37</v>
       </c>
       <c r="AR16" s="143"/>
       <c r="AS16" s="144"/>
-      <c r="AT16" s="152"/>
-      <c r="AU16" s="153"/>
-      <c r="AV16" s="154"/>
-      <c r="AW16" s="152"/>
-      <c r="AX16" s="153"/>
-      <c r="AY16" s="154"/>
-      <c r="AZ16" s="158"/>
-      <c r="BA16" s="161"/>
-      <c r="BB16" s="161"/>
-      <c r="BC16" s="161"/>
-      <c r="BD16" s="161"/>
-      <c r="BE16" s="161"/>
-      <c r="BF16" s="161"/>
-      <c r="BG16" s="162"/>
+      <c r="AT16" s="198"/>
+      <c r="AU16" s="199"/>
+      <c r="AV16" s="200"/>
+      <c r="AW16" s="198"/>
+      <c r="AX16" s="199"/>
+      <c r="AY16" s="200"/>
+      <c r="AZ16" s="135"/>
+      <c r="BA16" s="136"/>
+      <c r="BB16" s="136"/>
+      <c r="BC16" s="136"/>
+      <c r="BD16" s="136"/>
+      <c r="BE16" s="136"/>
+      <c r="BF16" s="136"/>
+      <c r="BG16" s="137"/>
     </row>
     <row r="17" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A17" s="78"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="243"/>
-      <c r="D17" s="244"/>
-      <c r="E17" s="244"/>
-      <c r="F17" s="244"/>
-      <c r="G17" s="244"/>
-      <c r="H17" s="243"/>
-      <c r="I17" s="244"/>
-      <c r="J17" s="244"/>
-      <c r="K17" s="244"/>
-      <c r="L17" s="245"/>
-      <c r="M17" s="128"/>
-      <c r="N17" s="128"/>
-      <c r="O17" s="128"/>
-      <c r="P17" s="128"/>
-      <c r="Q17" s="128"/>
-      <c r="R17" s="128"/>
-      <c r="S17" s="129"/>
-      <c r="T17" s="133"/>
-      <c r="U17" s="134"/>
-      <c r="V17" s="134"/>
-      <c r="W17" s="134"/>
-      <c r="X17" s="134"/>
-      <c r="Y17" s="134"/>
-      <c r="Z17" s="134"/>
-      <c r="AA17" s="134"/>
-      <c r="AB17" s="135"/>
-      <c r="AC17" s="240"/>
-      <c r="AD17" s="241"/>
-      <c r="AE17" s="241"/>
-      <c r="AF17" s="241"/>
-      <c r="AG17" s="241"/>
-      <c r="AH17" s="241"/>
-      <c r="AI17" s="241"/>
-      <c r="AJ17" s="241"/>
-      <c r="AK17" s="241"/>
-      <c r="AL17" s="241"/>
-      <c r="AM17" s="242"/>
-      <c r="AN17" s="155"/>
-      <c r="AO17" s="156"/>
-      <c r="AP17" s="157"/>
+      <c r="A17" s="249"/>
+      <c r="B17" s="250"/>
+      <c r="C17" s="245"/>
+      <c r="D17" s="246"/>
+      <c r="E17" s="246"/>
+      <c r="F17" s="246"/>
+      <c r="G17" s="246"/>
+      <c r="H17" s="245"/>
+      <c r="I17" s="246"/>
+      <c r="J17" s="246"/>
+      <c r="K17" s="246"/>
+      <c r="L17" s="270"/>
+      <c r="M17" s="227"/>
+      <c r="N17" s="227"/>
+      <c r="O17" s="227"/>
+      <c r="P17" s="227"/>
+      <c r="Q17" s="227"/>
+      <c r="R17" s="227"/>
+      <c r="S17" s="228"/>
+      <c r="T17" s="177"/>
+      <c r="U17" s="178"/>
+      <c r="V17" s="178"/>
+      <c r="W17" s="178"/>
+      <c r="X17" s="178"/>
+      <c r="Y17" s="178"/>
+      <c r="Z17" s="178"/>
+      <c r="AA17" s="178"/>
+      <c r="AB17" s="179"/>
+      <c r="AC17" s="241"/>
+      <c r="AD17" s="242"/>
+      <c r="AE17" s="242"/>
+      <c r="AF17" s="242"/>
+      <c r="AG17" s="242"/>
+      <c r="AH17" s="242"/>
+      <c r="AI17" s="242"/>
+      <c r="AJ17" s="242"/>
+      <c r="AK17" s="242"/>
+      <c r="AL17" s="242"/>
+      <c r="AM17" s="243"/>
+      <c r="AN17" s="304"/>
+      <c r="AO17" s="305"/>
+      <c r="AP17" s="306"/>
       <c r="AQ17" s="145"/>
       <c r="AR17" s="146"/>
       <c r="AS17" s="147"/>
-      <c r="AT17" s="155"/>
-      <c r="AU17" s="156"/>
-      <c r="AV17" s="157"/>
-      <c r="AW17" s="155"/>
-      <c r="AX17" s="156"/>
-      <c r="AY17" s="157"/>
-      <c r="AZ17" s="158"/>
-      <c r="BA17" s="159"/>
-      <c r="BB17" s="159"/>
-      <c r="BC17" s="159"/>
-      <c r="BD17" s="159"/>
-      <c r="BE17" s="159"/>
-      <c r="BF17" s="159"/>
-      <c r="BG17" s="160"/>
+      <c r="AT17" s="201"/>
+      <c r="AU17" s="202"/>
+      <c r="AV17" s="203"/>
+      <c r="AW17" s="201"/>
+      <c r="AX17" s="202"/>
+      <c r="AY17" s="203"/>
+      <c r="AZ17" s="135"/>
+      <c r="BA17" s="140"/>
+      <c r="BB17" s="140"/>
+      <c r="BC17" s="140"/>
+      <c r="BD17" s="140"/>
+      <c r="BE17" s="140"/>
+      <c r="BF17" s="140"/>
+      <c r="BG17" s="141"/>
     </row>
     <row r="18" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A18" s="76">
+      <c r="A18" s="247">
         <f>A16+1</f>
         <v>6</v>
       </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="243"/>
-      <c r="D18" s="244"/>
-      <c r="E18" s="244"/>
-      <c r="F18" s="244"/>
-      <c r="G18" s="244"/>
-      <c r="H18" s="243"/>
-      <c r="I18" s="244"/>
-      <c r="J18" s="244"/>
-      <c r="K18" s="244"/>
-      <c r="L18" s="245"/>
-      <c r="M18" s="126"/>
-      <c r="N18" s="126"/>
-      <c r="O18" s="126"/>
-      <c r="P18" s="126"/>
-      <c r="Q18" s="126"/>
-      <c r="R18" s="126"/>
-      <c r="S18" s="127"/>
-      <c r="T18" s="163"/>
-      <c r="U18" s="164"/>
-      <c r="V18" s="164"/>
-      <c r="W18" s="164"/>
-      <c r="X18" s="164"/>
-      <c r="Y18" s="164"/>
-      <c r="Z18" s="164"/>
-      <c r="AA18" s="164"/>
-      <c r="AB18" s="165"/>
-      <c r="AC18" s="237"/>
-      <c r="AD18" s="238"/>
-      <c r="AE18" s="238"/>
-      <c r="AF18" s="238"/>
-      <c r="AG18" s="238"/>
-      <c r="AH18" s="238"/>
-      <c r="AI18" s="238"/>
-      <c r="AJ18" s="238"/>
-      <c r="AK18" s="238"/>
-      <c r="AL18" s="238"/>
-      <c r="AM18" s="239"/>
-      <c r="AN18" s="136"/>
-      <c r="AO18" s="137"/>
-      <c r="AP18" s="138"/>
-      <c r="AQ18" s="142"/>
+      <c r="B18" s="248"/>
+      <c r="C18" s="245"/>
+      <c r="D18" s="246"/>
+      <c r="E18" s="246"/>
+      <c r="F18" s="246"/>
+      <c r="G18" s="246"/>
+      <c r="H18" s="245"/>
+      <c r="I18" s="246"/>
+      <c r="J18" s="246"/>
+      <c r="K18" s="246"/>
+      <c r="L18" s="270"/>
+      <c r="M18" s="225" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" s="225"/>
+      <c r="O18" s="225"/>
+      <c r="P18" s="225"/>
+      <c r="Q18" s="225"/>
+      <c r="R18" s="225"/>
+      <c r="S18" s="226"/>
+      <c r="T18" s="168"/>
+      <c r="U18" s="169"/>
+      <c r="V18" s="169"/>
+      <c r="W18" s="169"/>
+      <c r="X18" s="169"/>
+      <c r="Y18" s="169"/>
+      <c r="Z18" s="169"/>
+      <c r="AA18" s="169"/>
+      <c r="AB18" s="170"/>
+      <c r="AC18" s="244"/>
+      <c r="AD18" s="239"/>
+      <c r="AE18" s="239"/>
+      <c r="AF18" s="239"/>
+      <c r="AG18" s="239"/>
+      <c r="AH18" s="239"/>
+      <c r="AI18" s="239"/>
+      <c r="AJ18" s="239"/>
+      <c r="AK18" s="239"/>
+      <c r="AL18" s="239"/>
+      <c r="AM18" s="240"/>
+      <c r="AN18" s="123"/>
+      <c r="AO18" s="124"/>
+      <c r="AP18" s="125"/>
+      <c r="AQ18" s="142" t="s">
+        <v>37</v>
+      </c>
       <c r="AR18" s="143"/>
       <c r="AS18" s="144"/>
-      <c r="AT18" s="136"/>
-      <c r="AU18" s="137"/>
-      <c r="AV18" s="138"/>
-      <c r="AW18" s="136"/>
-      <c r="AX18" s="137"/>
-      <c r="AY18" s="138"/>
-      <c r="AZ18" s="84"/>
-      <c r="BA18" s="150"/>
-      <c r="BB18" s="150"/>
-      <c r="BC18" s="150"/>
-      <c r="BD18" s="150"/>
-      <c r="BE18" s="150"/>
-      <c r="BF18" s="150"/>
-      <c r="BG18" s="151"/>
+      <c r="AT18" s="123"/>
+      <c r="AU18" s="124"/>
+      <c r="AV18" s="125"/>
+      <c r="AW18" s="123"/>
+      <c r="AX18" s="124"/>
+      <c r="AY18" s="125"/>
+      <c r="AZ18" s="120"/>
+      <c r="BA18" s="138"/>
+      <c r="BB18" s="138"/>
+      <c r="BC18" s="138"/>
+      <c r="BD18" s="138"/>
+      <c r="BE18" s="138"/>
+      <c r="BF18" s="138"/>
+      <c r="BG18" s="139"/>
     </row>
     <row r="19" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A19" s="78"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="128"/>
-      <c r="N19" s="128"/>
-      <c r="O19" s="128"/>
-      <c r="P19" s="128"/>
-      <c r="Q19" s="128"/>
-      <c r="R19" s="128"/>
-      <c r="S19" s="129"/>
-      <c r="T19" s="166"/>
-      <c r="U19" s="167"/>
-      <c r="V19" s="167"/>
-      <c r="W19" s="167"/>
-      <c r="X19" s="167"/>
-      <c r="Y19" s="167"/>
-      <c r="Z19" s="167"/>
-      <c r="AA19" s="167"/>
-      <c r="AB19" s="168"/>
-      <c r="AC19" s="240"/>
-      <c r="AD19" s="241"/>
-      <c r="AE19" s="241"/>
-      <c r="AF19" s="241"/>
-      <c r="AG19" s="241"/>
-      <c r="AH19" s="241"/>
-      <c r="AI19" s="241"/>
-      <c r="AJ19" s="241"/>
-      <c r="AK19" s="241"/>
-      <c r="AL19" s="241"/>
-      <c r="AM19" s="242"/>
-      <c r="AN19" s="139"/>
-      <c r="AO19" s="140"/>
-      <c r="AP19" s="141"/>
+      <c r="A19" s="249"/>
+      <c r="B19" s="250"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="227"/>
+      <c r="N19" s="227"/>
+      <c r="O19" s="227"/>
+      <c r="P19" s="227"/>
+      <c r="Q19" s="227"/>
+      <c r="R19" s="227"/>
+      <c r="S19" s="228"/>
+      <c r="T19" s="171"/>
+      <c r="U19" s="172"/>
+      <c r="V19" s="172"/>
+      <c r="W19" s="172"/>
+      <c r="X19" s="172"/>
+      <c r="Y19" s="172"/>
+      <c r="Z19" s="172"/>
+      <c r="AA19" s="172"/>
+      <c r="AB19" s="173"/>
+      <c r="AC19" s="241"/>
+      <c r="AD19" s="242"/>
+      <c r="AE19" s="242"/>
+      <c r="AF19" s="242"/>
+      <c r="AG19" s="242"/>
+      <c r="AH19" s="242"/>
+      <c r="AI19" s="242"/>
+      <c r="AJ19" s="242"/>
+      <c r="AK19" s="242"/>
+      <c r="AL19" s="242"/>
+      <c r="AM19" s="243"/>
+      <c r="AN19" s="126"/>
+      <c r="AO19" s="127"/>
+      <c r="AP19" s="128"/>
       <c r="AQ19" s="145"/>
       <c r="AR19" s="146"/>
       <c r="AS19" s="147"/>
-      <c r="AT19" s="139"/>
-      <c r="AU19" s="140"/>
-      <c r="AV19" s="141"/>
-      <c r="AW19" s="139"/>
-      <c r="AX19" s="140"/>
-      <c r="AY19" s="141"/>
-      <c r="AZ19" s="84"/>
-      <c r="BA19" s="85"/>
-      <c r="BB19" s="85"/>
-      <c r="BC19" s="85"/>
-      <c r="BD19" s="85"/>
-      <c r="BE19" s="85"/>
-      <c r="BF19" s="85"/>
-      <c r="BG19" s="86"/>
+      <c r="AT19" s="126"/>
+      <c r="AU19" s="127"/>
+      <c r="AV19" s="128"/>
+      <c r="AW19" s="126"/>
+      <c r="AX19" s="127"/>
+      <c r="AY19" s="128"/>
+      <c r="AZ19" s="120"/>
+      <c r="BA19" s="121"/>
+      <c r="BB19" s="121"/>
+      <c r="BC19" s="121"/>
+      <c r="BD19" s="121"/>
+      <c r="BE19" s="121"/>
+      <c r="BF19" s="121"/>
+      <c r="BG19" s="122"/>
     </row>
     <row r="20" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A20" s="76">
+      <c r="A20" s="247">
         <f>A18+1</f>
         <v>7</v>
       </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="295" t="s">
+      <c r="B20" s="248"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="229" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="296"/>
-      <c r="J20" s="296"/>
-      <c r="K20" s="296"/>
-      <c r="L20" s="297"/>
-      <c r="M20" s="264"/>
-      <c r="N20" s="264"/>
-      <c r="O20" s="264"/>
-      <c r="P20" s="264"/>
-      <c r="Q20" s="264"/>
-      <c r="R20" s="264"/>
-      <c r="S20" s="265"/>
-      <c r="T20" s="111"/>
-      <c r="U20" s="112"/>
-      <c r="V20" s="112"/>
-      <c r="W20" s="112"/>
-      <c r="X20" s="112"/>
-      <c r="Y20" s="112"/>
-      <c r="Z20" s="112"/>
-      <c r="AA20" s="112"/>
-      <c r="AB20" s="113"/>
-      <c r="AC20" s="111"/>
-      <c r="AD20" s="112"/>
-      <c r="AE20" s="112"/>
-      <c r="AF20" s="112"/>
-      <c r="AG20" s="112"/>
-      <c r="AH20" s="112"/>
-      <c r="AI20" s="112"/>
-      <c r="AJ20" s="112"/>
-      <c r="AK20" s="112"/>
-      <c r="AL20" s="112"/>
-      <c r="AM20" s="113"/>
-      <c r="AN20" s="152"/>
-      <c r="AO20" s="153"/>
-      <c r="AP20" s="154"/>
-      <c r="AQ20" s="246"/>
-      <c r="AR20" s="247"/>
-      <c r="AS20" s="248"/>
-      <c r="AT20" s="152"/>
-      <c r="AU20" s="153"/>
-      <c r="AV20" s="154"/>
-      <c r="AW20" s="152"/>
-      <c r="AX20" s="153"/>
-      <c r="AY20" s="154"/>
-      <c r="AZ20" s="158"/>
-      <c r="BA20" s="161"/>
-      <c r="BB20" s="161"/>
-      <c r="BC20" s="161"/>
-      <c r="BD20" s="161"/>
-      <c r="BE20" s="161"/>
-      <c r="BF20" s="161"/>
-      <c r="BG20" s="162"/>
+      <c r="I20" s="230"/>
+      <c r="J20" s="230"/>
+      <c r="K20" s="230"/>
+      <c r="L20" s="231"/>
+      <c r="M20" s="164"/>
+      <c r="N20" s="164"/>
+      <c r="O20" s="164"/>
+      <c r="P20" s="164"/>
+      <c r="Q20" s="164"/>
+      <c r="R20" s="164"/>
+      <c r="S20" s="165"/>
+      <c r="T20" s="192"/>
+      <c r="U20" s="193"/>
+      <c r="V20" s="193"/>
+      <c r="W20" s="193"/>
+      <c r="X20" s="193"/>
+      <c r="Y20" s="193"/>
+      <c r="Z20" s="193"/>
+      <c r="AA20" s="193"/>
+      <c r="AB20" s="194"/>
+      <c r="AC20" s="192"/>
+      <c r="AD20" s="193"/>
+      <c r="AE20" s="193"/>
+      <c r="AF20" s="193"/>
+      <c r="AG20" s="193"/>
+      <c r="AH20" s="193"/>
+      <c r="AI20" s="193"/>
+      <c r="AJ20" s="193"/>
+      <c r="AK20" s="193"/>
+      <c r="AL20" s="193"/>
+      <c r="AM20" s="194"/>
+      <c r="AN20" s="198"/>
+      <c r="AO20" s="199"/>
+      <c r="AP20" s="200"/>
+      <c r="AQ20" s="142" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR20" s="143"/>
+      <c r="AS20" s="144"/>
+      <c r="AT20" s="198"/>
+      <c r="AU20" s="199"/>
+      <c r="AV20" s="200"/>
+      <c r="AW20" s="198"/>
+      <c r="AX20" s="199"/>
+      <c r="AY20" s="200"/>
+      <c r="AZ20" s="135"/>
+      <c r="BA20" s="136"/>
+      <c r="BB20" s="136"/>
+      <c r="BC20" s="136"/>
+      <c r="BD20" s="136"/>
+      <c r="BE20" s="136"/>
+      <c r="BF20" s="136"/>
+      <c r="BG20" s="137"/>
     </row>
     <row r="21" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A21" s="78"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="243"/>
-      <c r="D21" s="244"/>
-      <c r="E21" s="244"/>
-      <c r="F21" s="244"/>
-      <c r="G21" s="244"/>
-      <c r="H21" s="298"/>
-      <c r="I21" s="299"/>
-      <c r="J21" s="299"/>
-      <c r="K21" s="299"/>
-      <c r="L21" s="300"/>
-      <c r="M21" s="266"/>
-      <c r="N21" s="266"/>
-      <c r="O21" s="266"/>
-      <c r="P21" s="266"/>
-      <c r="Q21" s="266"/>
-      <c r="R21" s="266"/>
-      <c r="S21" s="267"/>
-      <c r="T21" s="114"/>
-      <c r="U21" s="115"/>
-      <c r="V21" s="115"/>
-      <c r="W21" s="115"/>
-      <c r="X21" s="115"/>
-      <c r="Y21" s="115"/>
-      <c r="Z21" s="115"/>
-      <c r="AA21" s="115"/>
-      <c r="AB21" s="116"/>
-      <c r="AC21" s="114"/>
-      <c r="AD21" s="115"/>
-      <c r="AE21" s="115"/>
-      <c r="AF21" s="115"/>
-      <c r="AG21" s="115"/>
-      <c r="AH21" s="115"/>
-      <c r="AI21" s="115"/>
-      <c r="AJ21" s="115"/>
-      <c r="AK21" s="115"/>
-      <c r="AL21" s="115"/>
-      <c r="AM21" s="116"/>
-      <c r="AN21" s="155"/>
-      <c r="AO21" s="156"/>
-      <c r="AP21" s="157"/>
-      <c r="AQ21" s="249"/>
-      <c r="AR21" s="250"/>
-      <c r="AS21" s="251"/>
-      <c r="AT21" s="155"/>
-      <c r="AU21" s="156"/>
-      <c r="AV21" s="157"/>
-      <c r="AW21" s="155"/>
-      <c r="AX21" s="156"/>
-      <c r="AY21" s="157"/>
-      <c r="AZ21" s="158"/>
-      <c r="BA21" s="159"/>
-      <c r="BB21" s="159"/>
-      <c r="BC21" s="159"/>
-      <c r="BD21" s="159"/>
-      <c r="BE21" s="159"/>
-      <c r="BF21" s="159"/>
-      <c r="BG21" s="160"/>
+      <c r="A21" s="249"/>
+      <c r="B21" s="250"/>
+      <c r="C21" s="245"/>
+      <c r="D21" s="246"/>
+      <c r="E21" s="246"/>
+      <c r="F21" s="246"/>
+      <c r="G21" s="246"/>
+      <c r="H21" s="232"/>
+      <c r="I21" s="233"/>
+      <c r="J21" s="233"/>
+      <c r="K21" s="233"/>
+      <c r="L21" s="234"/>
+      <c r="M21" s="166"/>
+      <c r="N21" s="166"/>
+      <c r="O21" s="166"/>
+      <c r="P21" s="166"/>
+      <c r="Q21" s="166"/>
+      <c r="R21" s="166"/>
+      <c r="S21" s="167"/>
+      <c r="T21" s="195"/>
+      <c r="U21" s="196"/>
+      <c r="V21" s="196"/>
+      <c r="W21" s="196"/>
+      <c r="X21" s="196"/>
+      <c r="Y21" s="196"/>
+      <c r="Z21" s="196"/>
+      <c r="AA21" s="196"/>
+      <c r="AB21" s="197"/>
+      <c r="AC21" s="195"/>
+      <c r="AD21" s="196"/>
+      <c r="AE21" s="196"/>
+      <c r="AF21" s="196"/>
+      <c r="AG21" s="196"/>
+      <c r="AH21" s="196"/>
+      <c r="AI21" s="196"/>
+      <c r="AJ21" s="196"/>
+      <c r="AK21" s="196"/>
+      <c r="AL21" s="196"/>
+      <c r="AM21" s="197"/>
+      <c r="AN21" s="201"/>
+      <c r="AO21" s="202"/>
+      <c r="AP21" s="203"/>
+      <c r="AQ21" s="145"/>
+      <c r="AR21" s="146"/>
+      <c r="AS21" s="147"/>
+      <c r="AT21" s="201"/>
+      <c r="AU21" s="202"/>
+      <c r="AV21" s="203"/>
+      <c r="AW21" s="201"/>
+      <c r="AX21" s="202"/>
+      <c r="AY21" s="203"/>
+      <c r="AZ21" s="135"/>
+      <c r="BA21" s="140"/>
+      <c r="BB21" s="140"/>
+      <c r="BC21" s="140"/>
+      <c r="BD21" s="140"/>
+      <c r="BE21" s="140"/>
+      <c r="BF21" s="140"/>
+      <c r="BG21" s="141"/>
     </row>
     <row r="22" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A22" s="76">
+      <c r="A22" s="247">
         <f>A20+1</f>
         <v>8</v>
       </c>
-      <c r="B22" s="77"/>
-      <c r="C22" s="243"/>
-      <c r="D22" s="244"/>
-      <c r="E22" s="244"/>
-      <c r="F22" s="244"/>
-      <c r="G22" s="244"/>
-      <c r="H22" s="298"/>
-      <c r="I22" s="299"/>
-      <c r="J22" s="299"/>
-      <c r="K22" s="299"/>
-      <c r="L22" s="300"/>
-      <c r="M22" s="126"/>
-      <c r="N22" s="126"/>
-      <c r="O22" s="126"/>
-      <c r="P22" s="126"/>
-      <c r="Q22" s="126"/>
-      <c r="R22" s="126"/>
-      <c r="S22" s="127"/>
-      <c r="T22" s="130"/>
-      <c r="U22" s="131"/>
-      <c r="V22" s="131"/>
-      <c r="W22" s="131"/>
-      <c r="X22" s="131"/>
-      <c r="Y22" s="131"/>
-      <c r="Z22" s="131"/>
-      <c r="AA22" s="131"/>
-      <c r="AB22" s="132"/>
-      <c r="AC22" s="130"/>
-      <c r="AD22" s="131"/>
-      <c r="AE22" s="131"/>
-      <c r="AF22" s="131"/>
-      <c r="AG22" s="131"/>
-      <c r="AH22" s="131"/>
-      <c r="AI22" s="131"/>
-      <c r="AJ22" s="131"/>
-      <c r="AK22" s="131"/>
-      <c r="AL22" s="131"/>
-      <c r="AM22" s="132"/>
-      <c r="AN22" s="136"/>
-      <c r="AO22" s="137"/>
-      <c r="AP22" s="138"/>
-      <c r="AQ22" s="142"/>
+      <c r="B22" s="248"/>
+      <c r="C22" s="245"/>
+      <c r="D22" s="246"/>
+      <c r="E22" s="246"/>
+      <c r="F22" s="246"/>
+      <c r="G22" s="246"/>
+      <c r="H22" s="232"/>
+      <c r="I22" s="233"/>
+      <c r="J22" s="233"/>
+      <c r="K22" s="233"/>
+      <c r="L22" s="234"/>
+      <c r="M22" s="225"/>
+      <c r="N22" s="225"/>
+      <c r="O22" s="225"/>
+      <c r="P22" s="225"/>
+      <c r="Q22" s="225"/>
+      <c r="R22" s="225"/>
+      <c r="S22" s="226"/>
+      <c r="T22" s="174"/>
+      <c r="U22" s="175"/>
+      <c r="V22" s="175"/>
+      <c r="W22" s="175"/>
+      <c r="X22" s="175"/>
+      <c r="Y22" s="175"/>
+      <c r="Z22" s="175"/>
+      <c r="AA22" s="175"/>
+      <c r="AB22" s="176"/>
+      <c r="AC22" s="174"/>
+      <c r="AD22" s="175"/>
+      <c r="AE22" s="175"/>
+      <c r="AF22" s="175"/>
+      <c r="AG22" s="175"/>
+      <c r="AH22" s="175"/>
+      <c r="AI22" s="175"/>
+      <c r="AJ22" s="175"/>
+      <c r="AK22" s="175"/>
+      <c r="AL22" s="175"/>
+      <c r="AM22" s="176"/>
+      <c r="AN22" s="123"/>
+      <c r="AO22" s="124"/>
+      <c r="AP22" s="125"/>
+      <c r="AQ22" s="142" t="s">
+        <v>37</v>
+      </c>
       <c r="AR22" s="143"/>
       <c r="AS22" s="144"/>
-      <c r="AT22" s="136"/>
-      <c r="AU22" s="137"/>
-      <c r="AV22" s="138"/>
-      <c r="AW22" s="136"/>
-      <c r="AX22" s="137"/>
-      <c r="AY22" s="138"/>
-      <c r="AZ22" s="84"/>
-      <c r="BA22" s="150"/>
-      <c r="BB22" s="150"/>
-      <c r="BC22" s="150"/>
-      <c r="BD22" s="150"/>
-      <c r="BE22" s="150"/>
-      <c r="BF22" s="150"/>
-      <c r="BG22" s="151"/>
+      <c r="AT22" s="123"/>
+      <c r="AU22" s="124"/>
+      <c r="AV22" s="125"/>
+      <c r="AW22" s="123"/>
+      <c r="AX22" s="124"/>
+      <c r="AY22" s="125"/>
+      <c r="AZ22" s="120"/>
+      <c r="BA22" s="138"/>
+      <c r="BB22" s="138"/>
+      <c r="BC22" s="138"/>
+      <c r="BD22" s="138"/>
+      <c r="BE22" s="138"/>
+      <c r="BF22" s="138"/>
+      <c r="BG22" s="139"/>
     </row>
     <row r="23" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A23" s="78"/>
-      <c r="B23" s="79"/>
-      <c r="C23" s="243"/>
-      <c r="D23" s="244"/>
-      <c r="E23" s="244"/>
-      <c r="F23" s="244"/>
-      <c r="G23" s="244"/>
-      <c r="H23" s="298"/>
-      <c r="I23" s="299"/>
-      <c r="J23" s="299"/>
-      <c r="K23" s="299"/>
-      <c r="L23" s="300"/>
-      <c r="M23" s="128"/>
-      <c r="N23" s="128"/>
-      <c r="O23" s="128"/>
-      <c r="P23" s="128"/>
-      <c r="Q23" s="128"/>
-      <c r="R23" s="128"/>
-      <c r="S23" s="129"/>
-      <c r="T23" s="133"/>
-      <c r="U23" s="134"/>
-      <c r="V23" s="134"/>
-      <c r="W23" s="134"/>
-      <c r="X23" s="134"/>
-      <c r="Y23" s="134"/>
-      <c r="Z23" s="134"/>
-      <c r="AA23" s="134"/>
-      <c r="AB23" s="135"/>
-      <c r="AC23" s="133"/>
-      <c r="AD23" s="134"/>
-      <c r="AE23" s="134"/>
-      <c r="AF23" s="134"/>
-      <c r="AG23" s="134"/>
-      <c r="AH23" s="134"/>
-      <c r="AI23" s="134"/>
-      <c r="AJ23" s="134"/>
-      <c r="AK23" s="134"/>
-      <c r="AL23" s="134"/>
-      <c r="AM23" s="135"/>
-      <c r="AN23" s="139"/>
-      <c r="AO23" s="140"/>
-      <c r="AP23" s="141"/>
+      <c r="A23" s="249"/>
+      <c r="B23" s="250"/>
+      <c r="C23" s="245"/>
+      <c r="D23" s="246"/>
+      <c r="E23" s="246"/>
+      <c r="F23" s="246"/>
+      <c r="G23" s="246"/>
+      <c r="H23" s="232"/>
+      <c r="I23" s="233"/>
+      <c r="J23" s="233"/>
+      <c r="K23" s="233"/>
+      <c r="L23" s="234"/>
+      <c r="M23" s="227"/>
+      <c r="N23" s="227"/>
+      <c r="O23" s="227"/>
+      <c r="P23" s="227"/>
+      <c r="Q23" s="227"/>
+      <c r="R23" s="227"/>
+      <c r="S23" s="228"/>
+      <c r="T23" s="177"/>
+      <c r="U23" s="178"/>
+      <c r="V23" s="178"/>
+      <c r="W23" s="178"/>
+      <c r="X23" s="178"/>
+      <c r="Y23" s="178"/>
+      <c r="Z23" s="178"/>
+      <c r="AA23" s="178"/>
+      <c r="AB23" s="179"/>
+      <c r="AC23" s="177"/>
+      <c r="AD23" s="178"/>
+      <c r="AE23" s="178"/>
+      <c r="AF23" s="178"/>
+      <c r="AG23" s="178"/>
+      <c r="AH23" s="178"/>
+      <c r="AI23" s="178"/>
+      <c r="AJ23" s="178"/>
+      <c r="AK23" s="178"/>
+      <c r="AL23" s="178"/>
+      <c r="AM23" s="179"/>
+      <c r="AN23" s="126"/>
+      <c r="AO23" s="127"/>
+      <c r="AP23" s="128"/>
       <c r="AQ23" s="145"/>
       <c r="AR23" s="146"/>
       <c r="AS23" s="147"/>
-      <c r="AT23" s="139"/>
-      <c r="AU23" s="140"/>
-      <c r="AV23" s="141"/>
-      <c r="AW23" s="139"/>
-      <c r="AX23" s="140"/>
-      <c r="AY23" s="141"/>
-      <c r="AZ23" s="84"/>
-      <c r="BA23" s="85"/>
-      <c r="BB23" s="85"/>
-      <c r="BC23" s="85"/>
-      <c r="BD23" s="85"/>
-      <c r="BE23" s="85"/>
-      <c r="BF23" s="85"/>
-      <c r="BG23" s="86"/>
+      <c r="AT23" s="126"/>
+      <c r="AU23" s="127"/>
+      <c r="AV23" s="128"/>
+      <c r="AW23" s="126"/>
+      <c r="AX23" s="127"/>
+      <c r="AY23" s="128"/>
+      <c r="AZ23" s="120"/>
+      <c r="BA23" s="121"/>
+      <c r="BB23" s="121"/>
+      <c r="BC23" s="121"/>
+      <c r="BD23" s="121"/>
+      <c r="BE23" s="121"/>
+      <c r="BF23" s="121"/>
+      <c r="BG23" s="122"/>
     </row>
     <row r="24" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A24" s="76">
+      <c r="A24" s="247">
         <f>A22+1</f>
         <v>9</v>
       </c>
-      <c r="B24" s="77"/>
-      <c r="C24" s="243"/>
-      <c r="D24" s="244"/>
-      <c r="E24" s="244"/>
-      <c r="F24" s="244"/>
-      <c r="G24" s="244"/>
-      <c r="H24" s="298"/>
-      <c r="I24" s="299"/>
-      <c r="J24" s="299"/>
-      <c r="K24" s="299"/>
-      <c r="L24" s="300"/>
-      <c r="M24" s="264"/>
-      <c r="N24" s="264"/>
-      <c r="O24" s="264"/>
-      <c r="P24" s="264"/>
-      <c r="Q24" s="264"/>
-      <c r="R24" s="264"/>
-      <c r="S24" s="265"/>
-      <c r="T24" s="111"/>
-      <c r="U24" s="112"/>
-      <c r="V24" s="112"/>
-      <c r="W24" s="112"/>
-      <c r="X24" s="112"/>
-      <c r="Y24" s="112"/>
-      <c r="Z24" s="112"/>
-      <c r="AA24" s="112"/>
-      <c r="AB24" s="113"/>
-      <c r="AC24" s="105"/>
-      <c r="AD24" s="106"/>
-      <c r="AE24" s="106"/>
-      <c r="AF24" s="106"/>
-      <c r="AG24" s="106"/>
-      <c r="AH24" s="106"/>
-      <c r="AI24" s="106"/>
-      <c r="AJ24" s="106"/>
-      <c r="AK24" s="106"/>
-      <c r="AL24" s="106"/>
-      <c r="AM24" s="107"/>
-      <c r="AN24" s="152"/>
-      <c r="AO24" s="153"/>
-      <c r="AP24" s="154"/>
-      <c r="AQ24" s="246"/>
-      <c r="AR24" s="247"/>
-      <c r="AS24" s="248"/>
-      <c r="AT24" s="152"/>
-      <c r="AU24" s="153"/>
-      <c r="AV24" s="154"/>
-      <c r="AW24" s="152"/>
-      <c r="AX24" s="153"/>
-      <c r="AY24" s="154"/>
-      <c r="AZ24" s="158"/>
-      <c r="BA24" s="161"/>
-      <c r="BB24" s="161"/>
-      <c r="BC24" s="161"/>
-      <c r="BD24" s="161"/>
-      <c r="BE24" s="161"/>
-      <c r="BF24" s="161"/>
-      <c r="BG24" s="162"/>
+      <c r="B24" s="248"/>
+      <c r="C24" s="245"/>
+      <c r="D24" s="246"/>
+      <c r="E24" s="246"/>
+      <c r="F24" s="246"/>
+      <c r="G24" s="246"/>
+      <c r="H24" s="232"/>
+      <c r="I24" s="233"/>
+      <c r="J24" s="233"/>
+      <c r="K24" s="233"/>
+      <c r="L24" s="234"/>
+      <c r="M24" s="164"/>
+      <c r="N24" s="164"/>
+      <c r="O24" s="164"/>
+      <c r="P24" s="164"/>
+      <c r="Q24" s="164"/>
+      <c r="R24" s="164"/>
+      <c r="S24" s="165"/>
+      <c r="T24" s="192"/>
+      <c r="U24" s="193"/>
+      <c r="V24" s="193"/>
+      <c r="W24" s="193"/>
+      <c r="X24" s="193"/>
+      <c r="Y24" s="193"/>
+      <c r="Z24" s="193"/>
+      <c r="AA24" s="193"/>
+      <c r="AB24" s="194"/>
+      <c r="AC24" s="210"/>
+      <c r="AD24" s="211"/>
+      <c r="AE24" s="211"/>
+      <c r="AF24" s="211"/>
+      <c r="AG24" s="211"/>
+      <c r="AH24" s="211"/>
+      <c r="AI24" s="211"/>
+      <c r="AJ24" s="211"/>
+      <c r="AK24" s="211"/>
+      <c r="AL24" s="211"/>
+      <c r="AM24" s="212"/>
+      <c r="AN24" s="198"/>
+      <c r="AO24" s="199"/>
+      <c r="AP24" s="200"/>
+      <c r="AQ24" s="142" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR24" s="143"/>
+      <c r="AS24" s="144"/>
+      <c r="AT24" s="198"/>
+      <c r="AU24" s="199"/>
+      <c r="AV24" s="200"/>
+      <c r="AW24" s="198"/>
+      <c r="AX24" s="199"/>
+      <c r="AY24" s="200"/>
+      <c r="AZ24" s="135"/>
+      <c r="BA24" s="136"/>
+      <c r="BB24" s="136"/>
+      <c r="BC24" s="136"/>
+      <c r="BD24" s="136"/>
+      <c r="BE24" s="136"/>
+      <c r="BF24" s="136"/>
+      <c r="BG24" s="137"/>
     </row>
     <row r="25" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A25" s="78"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="243"/>
-      <c r="D25" s="244"/>
-      <c r="E25" s="244"/>
-      <c r="F25" s="244"/>
-      <c r="G25" s="244"/>
-      <c r="H25" s="298"/>
-      <c r="I25" s="299"/>
-      <c r="J25" s="299"/>
-      <c r="K25" s="299"/>
-      <c r="L25" s="300"/>
-      <c r="M25" s="266"/>
-      <c r="N25" s="266"/>
-      <c r="O25" s="266"/>
-      <c r="P25" s="266"/>
-      <c r="Q25" s="266"/>
-      <c r="R25" s="266"/>
-      <c r="S25" s="267"/>
-      <c r="T25" s="114"/>
-      <c r="U25" s="115"/>
-      <c r="V25" s="115"/>
-      <c r="W25" s="115"/>
-      <c r="X25" s="115"/>
-      <c r="Y25" s="115"/>
-      <c r="Z25" s="115"/>
-      <c r="AA25" s="115"/>
-      <c r="AB25" s="116"/>
-      <c r="AC25" s="108"/>
-      <c r="AD25" s="109"/>
-      <c r="AE25" s="109"/>
-      <c r="AF25" s="109"/>
-      <c r="AG25" s="109"/>
-      <c r="AH25" s="109"/>
-      <c r="AI25" s="109"/>
-      <c r="AJ25" s="109"/>
-      <c r="AK25" s="109"/>
-      <c r="AL25" s="109"/>
-      <c r="AM25" s="110"/>
-      <c r="AN25" s="155"/>
-      <c r="AO25" s="156"/>
-      <c r="AP25" s="157"/>
-      <c r="AQ25" s="249"/>
-      <c r="AR25" s="250"/>
-      <c r="AS25" s="251"/>
-      <c r="AT25" s="155"/>
-      <c r="AU25" s="156"/>
-      <c r="AV25" s="157"/>
-      <c r="AW25" s="155"/>
-      <c r="AX25" s="156"/>
-      <c r="AY25" s="157"/>
-      <c r="AZ25" s="158"/>
-      <c r="BA25" s="159"/>
-      <c r="BB25" s="159"/>
-      <c r="BC25" s="159"/>
-      <c r="BD25" s="159"/>
-      <c r="BE25" s="159"/>
-      <c r="BF25" s="159"/>
-      <c r="BG25" s="160"/>
+      <c r="A25" s="249"/>
+      <c r="B25" s="250"/>
+      <c r="C25" s="245"/>
+      <c r="D25" s="246"/>
+      <c r="E25" s="246"/>
+      <c r="F25" s="246"/>
+      <c r="G25" s="246"/>
+      <c r="H25" s="232"/>
+      <c r="I25" s="233"/>
+      <c r="J25" s="233"/>
+      <c r="K25" s="233"/>
+      <c r="L25" s="234"/>
+      <c r="M25" s="166"/>
+      <c r="N25" s="166"/>
+      <c r="O25" s="166"/>
+      <c r="P25" s="166"/>
+      <c r="Q25" s="166"/>
+      <c r="R25" s="166"/>
+      <c r="S25" s="167"/>
+      <c r="T25" s="195"/>
+      <c r="U25" s="196"/>
+      <c r="V25" s="196"/>
+      <c r="W25" s="196"/>
+      <c r="X25" s="196"/>
+      <c r="Y25" s="196"/>
+      <c r="Z25" s="196"/>
+      <c r="AA25" s="196"/>
+      <c r="AB25" s="197"/>
+      <c r="AC25" s="213"/>
+      <c r="AD25" s="214"/>
+      <c r="AE25" s="214"/>
+      <c r="AF25" s="214"/>
+      <c r="AG25" s="214"/>
+      <c r="AH25" s="214"/>
+      <c r="AI25" s="214"/>
+      <c r="AJ25" s="214"/>
+      <c r="AK25" s="214"/>
+      <c r="AL25" s="214"/>
+      <c r="AM25" s="215"/>
+      <c r="AN25" s="201"/>
+      <c r="AO25" s="202"/>
+      <c r="AP25" s="203"/>
+      <c r="AQ25" s="145"/>
+      <c r="AR25" s="146"/>
+      <c r="AS25" s="147"/>
+      <c r="AT25" s="201"/>
+      <c r="AU25" s="202"/>
+      <c r="AV25" s="203"/>
+      <c r="AW25" s="201"/>
+      <c r="AX25" s="202"/>
+      <c r="AY25" s="203"/>
+      <c r="AZ25" s="135"/>
+      <c r="BA25" s="140"/>
+      <c r="BB25" s="140"/>
+      <c r="BC25" s="140"/>
+      <c r="BD25" s="140"/>
+      <c r="BE25" s="140"/>
+      <c r="BF25" s="140"/>
+      <c r="BG25" s="141"/>
     </row>
     <row r="26" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A26" s="76">
+      <c r="A26" s="247">
         <f t="shared" ref="A26" si="0">A24+1</f>
         <v>10</v>
       </c>
-      <c r="B26" s="77"/>
-      <c r="C26" s="243"/>
-      <c r="D26" s="244"/>
-      <c r="E26" s="244"/>
-      <c r="F26" s="244"/>
-      <c r="G26" s="244"/>
-      <c r="H26" s="298"/>
-      <c r="I26" s="299"/>
-      <c r="J26" s="299"/>
-      <c r="K26" s="299"/>
-      <c r="L26" s="300"/>
-      <c r="M26" s="126"/>
-      <c r="N26" s="126"/>
-      <c r="O26" s="126"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="126"/>
-      <c r="R26" s="126"/>
-      <c r="S26" s="127"/>
-      <c r="T26" s="163"/>
-      <c r="U26" s="164"/>
-      <c r="V26" s="164"/>
-      <c r="W26" s="164"/>
-      <c r="X26" s="164"/>
-      <c r="Y26" s="164"/>
-      <c r="Z26" s="164"/>
-      <c r="AA26" s="164"/>
-      <c r="AB26" s="165"/>
-      <c r="AC26" s="130"/>
-      <c r="AD26" s="131"/>
-      <c r="AE26" s="131"/>
-      <c r="AF26" s="131"/>
-      <c r="AG26" s="131"/>
-      <c r="AH26" s="131"/>
-      <c r="AI26" s="131"/>
-      <c r="AJ26" s="131"/>
-      <c r="AK26" s="131"/>
-      <c r="AL26" s="131"/>
-      <c r="AM26" s="132"/>
-      <c r="AN26" s="136"/>
-      <c r="AO26" s="137"/>
-      <c r="AP26" s="138"/>
+      <c r="B26" s="248"/>
+      <c r="C26" s="245"/>
+      <c r="D26" s="246"/>
+      <c r="E26" s="246"/>
+      <c r="F26" s="246"/>
+      <c r="G26" s="246"/>
+      <c r="H26" s="232"/>
+      <c r="I26" s="233"/>
+      <c r="J26" s="233"/>
+      <c r="K26" s="233"/>
+      <c r="L26" s="234"/>
+      <c r="M26" s="225"/>
+      <c r="N26" s="225"/>
+      <c r="O26" s="225"/>
+      <c r="P26" s="225"/>
+      <c r="Q26" s="225"/>
+      <c r="R26" s="225"/>
+      <c r="S26" s="226"/>
+      <c r="T26" s="168"/>
+      <c r="U26" s="169"/>
+      <c r="V26" s="169"/>
+      <c r="W26" s="169"/>
+      <c r="X26" s="169"/>
+      <c r="Y26" s="169"/>
+      <c r="Z26" s="169"/>
+      <c r="AA26" s="169"/>
+      <c r="AB26" s="170"/>
+      <c r="AC26" s="174"/>
+      <c r="AD26" s="175"/>
+      <c r="AE26" s="175"/>
+      <c r="AF26" s="175"/>
+      <c r="AG26" s="175"/>
+      <c r="AH26" s="175"/>
+      <c r="AI26" s="175"/>
+      <c r="AJ26" s="175"/>
+      <c r="AK26" s="175"/>
+      <c r="AL26" s="175"/>
+      <c r="AM26" s="176"/>
+      <c r="AN26" s="123"/>
+      <c r="AO26" s="124"/>
+      <c r="AP26" s="125"/>
       <c r="AQ26" s="142"/>
       <c r="AR26" s="143"/>
       <c r="AS26" s="144"/>
-      <c r="AT26" s="136"/>
-      <c r="AU26" s="137"/>
-      <c r="AV26" s="138"/>
-      <c r="AW26" s="136"/>
-      <c r="AX26" s="137"/>
-      <c r="AY26" s="138"/>
-      <c r="AZ26" s="84"/>
-      <c r="BA26" s="85"/>
-      <c r="BB26" s="85"/>
-      <c r="BC26" s="85"/>
-      <c r="BD26" s="85"/>
-      <c r="BE26" s="85"/>
-      <c r="BF26" s="85"/>
-      <c r="BG26" s="86"/>
+      <c r="AT26" s="123"/>
+      <c r="AU26" s="124"/>
+      <c r="AV26" s="125"/>
+      <c r="AW26" s="123"/>
+      <c r="AX26" s="124"/>
+      <c r="AY26" s="125"/>
+      <c r="AZ26" s="120"/>
+      <c r="BA26" s="121"/>
+      <c r="BB26" s="121"/>
+      <c r="BC26" s="121"/>
+      <c r="BD26" s="121"/>
+      <c r="BE26" s="121"/>
+      <c r="BF26" s="121"/>
+      <c r="BG26" s="122"/>
     </row>
     <row r="27" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A27" s="78"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="243"/>
-      <c r="D27" s="244"/>
-      <c r="E27" s="244"/>
-      <c r="F27" s="244"/>
-      <c r="G27" s="244"/>
-      <c r="H27" s="298"/>
-      <c r="I27" s="299"/>
-      <c r="J27" s="299"/>
-      <c r="K27" s="299"/>
-      <c r="L27" s="300"/>
-      <c r="M27" s="128"/>
-      <c r="N27" s="128"/>
-      <c r="O27" s="128"/>
-      <c r="P27" s="128"/>
-      <c r="Q27" s="128"/>
-      <c r="R27" s="128"/>
-      <c r="S27" s="129"/>
-      <c r="T27" s="166"/>
-      <c r="U27" s="167"/>
-      <c r="V27" s="167"/>
-      <c r="W27" s="167"/>
-      <c r="X27" s="167"/>
-      <c r="Y27" s="167"/>
-      <c r="Z27" s="167"/>
-      <c r="AA27" s="167"/>
-      <c r="AB27" s="168"/>
-      <c r="AC27" s="133"/>
-      <c r="AD27" s="134"/>
-      <c r="AE27" s="134"/>
-      <c r="AF27" s="134"/>
-      <c r="AG27" s="134"/>
-      <c r="AH27" s="134"/>
-      <c r="AI27" s="134"/>
-      <c r="AJ27" s="134"/>
-      <c r="AK27" s="134"/>
-      <c r="AL27" s="134"/>
-      <c r="AM27" s="135"/>
-      <c r="AN27" s="139"/>
-      <c r="AO27" s="140"/>
-      <c r="AP27" s="141"/>
+      <c r="A27" s="249"/>
+      <c r="B27" s="250"/>
+      <c r="C27" s="245"/>
+      <c r="D27" s="246"/>
+      <c r="E27" s="246"/>
+      <c r="F27" s="246"/>
+      <c r="G27" s="246"/>
+      <c r="H27" s="232"/>
+      <c r="I27" s="233"/>
+      <c r="J27" s="233"/>
+      <c r="K27" s="233"/>
+      <c r="L27" s="234"/>
+      <c r="M27" s="227"/>
+      <c r="N27" s="227"/>
+      <c r="O27" s="227"/>
+      <c r="P27" s="227"/>
+      <c r="Q27" s="227"/>
+      <c r="R27" s="227"/>
+      <c r="S27" s="228"/>
+      <c r="T27" s="171"/>
+      <c r="U27" s="172"/>
+      <c r="V27" s="172"/>
+      <c r="W27" s="172"/>
+      <c r="X27" s="172"/>
+      <c r="Y27" s="172"/>
+      <c r="Z27" s="172"/>
+      <c r="AA27" s="172"/>
+      <c r="AB27" s="173"/>
+      <c r="AC27" s="177"/>
+      <c r="AD27" s="178"/>
+      <c r="AE27" s="178"/>
+      <c r="AF27" s="178"/>
+      <c r="AG27" s="178"/>
+      <c r="AH27" s="178"/>
+      <c r="AI27" s="178"/>
+      <c r="AJ27" s="178"/>
+      <c r="AK27" s="178"/>
+      <c r="AL27" s="178"/>
+      <c r="AM27" s="179"/>
+      <c r="AN27" s="126"/>
+      <c r="AO27" s="127"/>
+      <c r="AP27" s="128"/>
       <c r="AQ27" s="145"/>
       <c r="AR27" s="146"/>
       <c r="AS27" s="147"/>
-      <c r="AT27" s="139"/>
-      <c r="AU27" s="140"/>
-      <c r="AV27" s="141"/>
-      <c r="AW27" s="139"/>
-      <c r="AX27" s="140"/>
-      <c r="AY27" s="141"/>
-      <c r="AZ27" s="84"/>
-      <c r="BA27" s="85"/>
-      <c r="BB27" s="85"/>
-      <c r="BC27" s="85"/>
-      <c r="BD27" s="85"/>
-      <c r="BE27" s="85"/>
-      <c r="BF27" s="85"/>
-      <c r="BG27" s="86"/>
+      <c r="AT27" s="126"/>
+      <c r="AU27" s="127"/>
+      <c r="AV27" s="128"/>
+      <c r="AW27" s="126"/>
+      <c r="AX27" s="127"/>
+      <c r="AY27" s="128"/>
+      <c r="AZ27" s="120"/>
+      <c r="BA27" s="121"/>
+      <c r="BB27" s="121"/>
+      <c r="BC27" s="121"/>
+      <c r="BD27" s="121"/>
+      <c r="BE27" s="121"/>
+      <c r="BF27" s="121"/>
+      <c r="BG27" s="122"/>
     </row>
     <row r="28" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A28" s="76">
+      <c r="A28" s="247">
         <f>A26+1</f>
         <v>11</v>
       </c>
-      <c r="B28" s="77"/>
-      <c r="C28" s="243"/>
-      <c r="D28" s="244"/>
-      <c r="E28" s="244"/>
-      <c r="F28" s="244"/>
-      <c r="G28" s="244"/>
-      <c r="H28" s="298"/>
-      <c r="I28" s="299"/>
-      <c r="J28" s="299"/>
-      <c r="K28" s="299"/>
-      <c r="L28" s="300"/>
-      <c r="M28" s="264"/>
-      <c r="N28" s="264"/>
-      <c r="O28" s="264"/>
-      <c r="P28" s="264"/>
-      <c r="Q28" s="264"/>
-      <c r="R28" s="264"/>
-      <c r="S28" s="265"/>
-      <c r="T28" s="105"/>
-      <c r="U28" s="106"/>
-      <c r="V28" s="106"/>
-      <c r="W28" s="106"/>
-      <c r="X28" s="106"/>
-      <c r="Y28" s="106"/>
-      <c r="Z28" s="106"/>
-      <c r="AA28" s="106"/>
-      <c r="AB28" s="107"/>
-      <c r="AC28" s="111"/>
-      <c r="AD28" s="112"/>
-      <c r="AE28" s="112"/>
-      <c r="AF28" s="112"/>
-      <c r="AG28" s="112"/>
-      <c r="AH28" s="112"/>
-      <c r="AI28" s="112"/>
-      <c r="AJ28" s="112"/>
-      <c r="AK28" s="112"/>
-      <c r="AL28" s="112"/>
-      <c r="AM28" s="113"/>
-      <c r="AN28" s="152"/>
-      <c r="AO28" s="153"/>
-      <c r="AP28" s="154"/>
-      <c r="AQ28" s="246"/>
-      <c r="AR28" s="247"/>
-      <c r="AS28" s="248"/>
-      <c r="AT28" s="152"/>
-      <c r="AU28" s="153"/>
-      <c r="AV28" s="154"/>
-      <c r="AW28" s="152"/>
-      <c r="AX28" s="153"/>
-      <c r="AY28" s="154"/>
-      <c r="AZ28" s="158"/>
-      <c r="BA28" s="161"/>
-      <c r="BB28" s="161"/>
-      <c r="BC28" s="161"/>
-      <c r="BD28" s="161"/>
-      <c r="BE28" s="161"/>
-      <c r="BF28" s="161"/>
-      <c r="BG28" s="162"/>
+      <c r="B28" s="248"/>
+      <c r="C28" s="245"/>
+      <c r="D28" s="246"/>
+      <c r="E28" s="246"/>
+      <c r="F28" s="246"/>
+      <c r="G28" s="246"/>
+      <c r="H28" s="232"/>
+      <c r="I28" s="233"/>
+      <c r="J28" s="233"/>
+      <c r="K28" s="233"/>
+      <c r="L28" s="234"/>
+      <c r="M28" s="164"/>
+      <c r="N28" s="164"/>
+      <c r="O28" s="164"/>
+      <c r="P28" s="164"/>
+      <c r="Q28" s="164"/>
+      <c r="R28" s="164"/>
+      <c r="S28" s="165"/>
+      <c r="T28" s="210"/>
+      <c r="U28" s="211"/>
+      <c r="V28" s="211"/>
+      <c r="W28" s="211"/>
+      <c r="X28" s="211"/>
+      <c r="Y28" s="211"/>
+      <c r="Z28" s="211"/>
+      <c r="AA28" s="211"/>
+      <c r="AB28" s="212"/>
+      <c r="AC28" s="192"/>
+      <c r="AD28" s="193"/>
+      <c r="AE28" s="193"/>
+      <c r="AF28" s="193"/>
+      <c r="AG28" s="193"/>
+      <c r="AH28" s="193"/>
+      <c r="AI28" s="193"/>
+      <c r="AJ28" s="193"/>
+      <c r="AK28" s="193"/>
+      <c r="AL28" s="193"/>
+      <c r="AM28" s="194"/>
+      <c r="AN28" s="198"/>
+      <c r="AO28" s="199"/>
+      <c r="AP28" s="200"/>
+      <c r="AQ28" s="204"/>
+      <c r="AR28" s="205"/>
+      <c r="AS28" s="206"/>
+      <c r="AT28" s="198"/>
+      <c r="AU28" s="199"/>
+      <c r="AV28" s="200"/>
+      <c r="AW28" s="198"/>
+      <c r="AX28" s="199"/>
+      <c r="AY28" s="200"/>
+      <c r="AZ28" s="135"/>
+      <c r="BA28" s="136"/>
+      <c r="BB28" s="136"/>
+      <c r="BC28" s="136"/>
+      <c r="BD28" s="136"/>
+      <c r="BE28" s="136"/>
+      <c r="BF28" s="136"/>
+      <c r="BG28" s="137"/>
     </row>
     <row r="29" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A29" s="78"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="243"/>
-      <c r="D29" s="244"/>
-      <c r="E29" s="244"/>
-      <c r="F29" s="244"/>
-      <c r="G29" s="244"/>
-      <c r="H29" s="298"/>
-      <c r="I29" s="299"/>
-      <c r="J29" s="299"/>
-      <c r="K29" s="299"/>
-      <c r="L29" s="300"/>
-      <c r="M29" s="266"/>
-      <c r="N29" s="266"/>
-      <c r="O29" s="266"/>
-      <c r="P29" s="266"/>
-      <c r="Q29" s="266"/>
-      <c r="R29" s="266"/>
-      <c r="S29" s="267"/>
-      <c r="T29" s="108"/>
-      <c r="U29" s="109"/>
-      <c r="V29" s="109"/>
-      <c r="W29" s="109"/>
-      <c r="X29" s="109"/>
-      <c r="Y29" s="109"/>
-      <c r="Z29" s="109"/>
-      <c r="AA29" s="109"/>
-      <c r="AB29" s="110"/>
-      <c r="AC29" s="114"/>
-      <c r="AD29" s="115"/>
-      <c r="AE29" s="115"/>
-      <c r="AF29" s="115"/>
-      <c r="AG29" s="115"/>
-      <c r="AH29" s="115"/>
-      <c r="AI29" s="115"/>
-      <c r="AJ29" s="115"/>
-      <c r="AK29" s="115"/>
-      <c r="AL29" s="115"/>
-      <c r="AM29" s="116"/>
-      <c r="AN29" s="155"/>
-      <c r="AO29" s="156"/>
-      <c r="AP29" s="157"/>
-      <c r="AQ29" s="249"/>
-      <c r="AR29" s="250"/>
-      <c r="AS29" s="251"/>
-      <c r="AT29" s="155"/>
-      <c r="AU29" s="156"/>
-      <c r="AV29" s="157"/>
-      <c r="AW29" s="155"/>
-      <c r="AX29" s="156"/>
-      <c r="AY29" s="157"/>
-      <c r="AZ29" s="158"/>
-      <c r="BA29" s="159"/>
-      <c r="BB29" s="159"/>
-      <c r="BC29" s="159"/>
-      <c r="BD29" s="159"/>
-      <c r="BE29" s="159"/>
-      <c r="BF29" s="159"/>
-      <c r="BG29" s="160"/>
+      <c r="A29" s="249"/>
+      <c r="B29" s="250"/>
+      <c r="C29" s="245"/>
+      <c r="D29" s="246"/>
+      <c r="E29" s="246"/>
+      <c r="F29" s="246"/>
+      <c r="G29" s="246"/>
+      <c r="H29" s="232"/>
+      <c r="I29" s="233"/>
+      <c r="J29" s="233"/>
+      <c r="K29" s="233"/>
+      <c r="L29" s="234"/>
+      <c r="M29" s="166"/>
+      <c r="N29" s="166"/>
+      <c r="O29" s="166"/>
+      <c r="P29" s="166"/>
+      <c r="Q29" s="166"/>
+      <c r="R29" s="166"/>
+      <c r="S29" s="167"/>
+      <c r="T29" s="213"/>
+      <c r="U29" s="214"/>
+      <c r="V29" s="214"/>
+      <c r="W29" s="214"/>
+      <c r="X29" s="214"/>
+      <c r="Y29" s="214"/>
+      <c r="Z29" s="214"/>
+      <c r="AA29" s="214"/>
+      <c r="AB29" s="215"/>
+      <c r="AC29" s="195"/>
+      <c r="AD29" s="196"/>
+      <c r="AE29" s="196"/>
+      <c r="AF29" s="196"/>
+      <c r="AG29" s="196"/>
+      <c r="AH29" s="196"/>
+      <c r="AI29" s="196"/>
+      <c r="AJ29" s="196"/>
+      <c r="AK29" s="196"/>
+      <c r="AL29" s="196"/>
+      <c r="AM29" s="197"/>
+      <c r="AN29" s="201"/>
+      <c r="AO29" s="202"/>
+      <c r="AP29" s="203"/>
+      <c r="AQ29" s="207"/>
+      <c r="AR29" s="208"/>
+      <c r="AS29" s="209"/>
+      <c r="AT29" s="201"/>
+      <c r="AU29" s="202"/>
+      <c r="AV29" s="203"/>
+      <c r="AW29" s="201"/>
+      <c r="AX29" s="202"/>
+      <c r="AY29" s="203"/>
+      <c r="AZ29" s="135"/>
+      <c r="BA29" s="140"/>
+      <c r="BB29" s="140"/>
+      <c r="BC29" s="140"/>
+      <c r="BD29" s="140"/>
+      <c r="BE29" s="140"/>
+      <c r="BF29" s="140"/>
+      <c r="BG29" s="141"/>
     </row>
     <row r="30" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A30" s="76">
+      <c r="A30" s="247">
         <f>A28+1</f>
         <v>12</v>
       </c>
-      <c r="B30" s="77"/>
-      <c r="C30" s="243"/>
-      <c r="D30" s="244"/>
-      <c r="E30" s="244"/>
-      <c r="F30" s="244"/>
-      <c r="G30" s="244"/>
-      <c r="H30" s="298"/>
-      <c r="I30" s="299"/>
-      <c r="J30" s="299"/>
-      <c r="K30" s="299"/>
-      <c r="L30" s="300"/>
-      <c r="M30" s="126"/>
-      <c r="N30" s="126"/>
-      <c r="O30" s="126"/>
-      <c r="P30" s="126"/>
-      <c r="Q30" s="126"/>
-      <c r="R30" s="126"/>
-      <c r="S30" s="127"/>
-      <c r="T30" s="163"/>
-      <c r="U30" s="164"/>
-      <c r="V30" s="164"/>
-      <c r="W30" s="164"/>
-      <c r="X30" s="164"/>
-      <c r="Y30" s="164"/>
-      <c r="Z30" s="164"/>
-      <c r="AA30" s="164"/>
-      <c r="AB30" s="165"/>
-      <c r="AC30" s="237"/>
-      <c r="AD30" s="238"/>
-      <c r="AE30" s="238"/>
-      <c r="AF30" s="238"/>
-      <c r="AG30" s="238"/>
-      <c r="AH30" s="238"/>
-      <c r="AI30" s="238"/>
-      <c r="AJ30" s="238"/>
-      <c r="AK30" s="238"/>
-      <c r="AL30" s="238"/>
-      <c r="AM30" s="239"/>
-      <c r="AN30" s="136"/>
-      <c r="AO30" s="137"/>
-      <c r="AP30" s="138"/>
+      <c r="B30" s="248"/>
+      <c r="C30" s="245"/>
+      <c r="D30" s="246"/>
+      <c r="E30" s="246"/>
+      <c r="F30" s="246"/>
+      <c r="G30" s="246"/>
+      <c r="H30" s="232"/>
+      <c r="I30" s="233"/>
+      <c r="J30" s="233"/>
+      <c r="K30" s="233"/>
+      <c r="L30" s="234"/>
+      <c r="M30" s="225"/>
+      <c r="N30" s="225"/>
+      <c r="O30" s="225"/>
+      <c r="P30" s="225"/>
+      <c r="Q30" s="225"/>
+      <c r="R30" s="225"/>
+      <c r="S30" s="226"/>
+      <c r="T30" s="168"/>
+      <c r="U30" s="169"/>
+      <c r="V30" s="169"/>
+      <c r="W30" s="169"/>
+      <c r="X30" s="169"/>
+      <c r="Y30" s="169"/>
+      <c r="Z30" s="169"/>
+      <c r="AA30" s="169"/>
+      <c r="AB30" s="170"/>
+      <c r="AC30" s="244"/>
+      <c r="AD30" s="239"/>
+      <c r="AE30" s="239"/>
+      <c r="AF30" s="239"/>
+      <c r="AG30" s="239"/>
+      <c r="AH30" s="239"/>
+      <c r="AI30" s="239"/>
+      <c r="AJ30" s="239"/>
+      <c r="AK30" s="239"/>
+      <c r="AL30" s="239"/>
+      <c r="AM30" s="240"/>
+      <c r="AN30" s="123"/>
+      <c r="AO30" s="124"/>
+      <c r="AP30" s="125"/>
       <c r="AQ30" s="142"/>
       <c r="AR30" s="143"/>
       <c r="AS30" s="144"/>
-      <c r="AT30" s="136"/>
-      <c r="AU30" s="137"/>
-      <c r="AV30" s="138"/>
-      <c r="AW30" s="136"/>
-      <c r="AX30" s="137"/>
-      <c r="AY30" s="138"/>
-      <c r="AZ30" s="84"/>
-      <c r="BA30" s="150"/>
-      <c r="BB30" s="150"/>
-      <c r="BC30" s="150"/>
-      <c r="BD30" s="150"/>
-      <c r="BE30" s="150"/>
-      <c r="BF30" s="150"/>
-      <c r="BG30" s="151"/>
+      <c r="AT30" s="123"/>
+      <c r="AU30" s="124"/>
+      <c r="AV30" s="125"/>
+      <c r="AW30" s="123"/>
+      <c r="AX30" s="124"/>
+      <c r="AY30" s="125"/>
+      <c r="AZ30" s="120"/>
+      <c r="BA30" s="138"/>
+      <c r="BB30" s="138"/>
+      <c r="BC30" s="138"/>
+      <c r="BD30" s="138"/>
+      <c r="BE30" s="138"/>
+      <c r="BF30" s="138"/>
+      <c r="BG30" s="139"/>
     </row>
     <row r="31" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A31" s="78"/>
-      <c r="B31" s="79"/>
-      <c r="C31" s="243"/>
-      <c r="D31" s="244"/>
-      <c r="E31" s="244"/>
-      <c r="F31" s="244"/>
-      <c r="G31" s="244"/>
-      <c r="H31" s="298"/>
-      <c r="I31" s="299"/>
-      <c r="J31" s="299"/>
-      <c r="K31" s="299"/>
-      <c r="L31" s="300"/>
-      <c r="M31" s="128"/>
-      <c r="N31" s="128"/>
-      <c r="O31" s="128"/>
-      <c r="P31" s="128"/>
-      <c r="Q31" s="128"/>
-      <c r="R31" s="128"/>
-      <c r="S31" s="129"/>
-      <c r="T31" s="166"/>
-      <c r="U31" s="167"/>
-      <c r="V31" s="167"/>
-      <c r="W31" s="167"/>
-      <c r="X31" s="167"/>
-      <c r="Y31" s="167"/>
-      <c r="Z31" s="167"/>
-      <c r="AA31" s="167"/>
-      <c r="AB31" s="168"/>
-      <c r="AC31" s="240"/>
-      <c r="AD31" s="241"/>
-      <c r="AE31" s="241"/>
-      <c r="AF31" s="241"/>
-      <c r="AG31" s="241"/>
-      <c r="AH31" s="241"/>
-      <c r="AI31" s="241"/>
-      <c r="AJ31" s="241"/>
-      <c r="AK31" s="241"/>
-      <c r="AL31" s="241"/>
-      <c r="AM31" s="242"/>
-      <c r="AN31" s="139"/>
-      <c r="AO31" s="140"/>
-      <c r="AP31" s="141"/>
+      <c r="A31" s="249"/>
+      <c r="B31" s="250"/>
+      <c r="C31" s="245"/>
+      <c r="D31" s="246"/>
+      <c r="E31" s="246"/>
+      <c r="F31" s="246"/>
+      <c r="G31" s="246"/>
+      <c r="H31" s="232"/>
+      <c r="I31" s="233"/>
+      <c r="J31" s="233"/>
+      <c r="K31" s="233"/>
+      <c r="L31" s="234"/>
+      <c r="M31" s="227"/>
+      <c r="N31" s="227"/>
+      <c r="O31" s="227"/>
+      <c r="P31" s="227"/>
+      <c r="Q31" s="227"/>
+      <c r="R31" s="227"/>
+      <c r="S31" s="228"/>
+      <c r="T31" s="171"/>
+      <c r="U31" s="172"/>
+      <c r="V31" s="172"/>
+      <c r="W31" s="172"/>
+      <c r="X31" s="172"/>
+      <c r="Y31" s="172"/>
+      <c r="Z31" s="172"/>
+      <c r="AA31" s="172"/>
+      <c r="AB31" s="173"/>
+      <c r="AC31" s="241"/>
+      <c r="AD31" s="242"/>
+      <c r="AE31" s="242"/>
+      <c r="AF31" s="242"/>
+      <c r="AG31" s="242"/>
+      <c r="AH31" s="242"/>
+      <c r="AI31" s="242"/>
+      <c r="AJ31" s="242"/>
+      <c r="AK31" s="242"/>
+      <c r="AL31" s="242"/>
+      <c r="AM31" s="243"/>
+      <c r="AN31" s="126"/>
+      <c r="AO31" s="127"/>
+      <c r="AP31" s="128"/>
       <c r="AQ31" s="145"/>
       <c r="AR31" s="146"/>
       <c r="AS31" s="147"/>
-      <c r="AT31" s="139"/>
-      <c r="AU31" s="140"/>
-      <c r="AV31" s="141"/>
-      <c r="AW31" s="139"/>
-      <c r="AX31" s="140"/>
-      <c r="AY31" s="141"/>
-      <c r="AZ31" s="84"/>
-      <c r="BA31" s="85"/>
-      <c r="BB31" s="85"/>
-      <c r="BC31" s="85"/>
-      <c r="BD31" s="85"/>
-      <c r="BE31" s="85"/>
-      <c r="BF31" s="85"/>
-      <c r="BG31" s="86"/>
+      <c r="AT31" s="126"/>
+      <c r="AU31" s="127"/>
+      <c r="AV31" s="128"/>
+      <c r="AW31" s="126"/>
+      <c r="AX31" s="127"/>
+      <c r="AY31" s="128"/>
+      <c r="AZ31" s="120"/>
+      <c r="BA31" s="121"/>
+      <c r="BB31" s="121"/>
+      <c r="BC31" s="121"/>
+      <c r="BD31" s="121"/>
+      <c r="BE31" s="121"/>
+      <c r="BF31" s="121"/>
+      <c r="BG31" s="122"/>
     </row>
     <row r="32" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A32" s="76">
+      <c r="A32" s="247">
         <f>A30+1</f>
         <v>13</v>
       </c>
-      <c r="B32" s="77"/>
-      <c r="C32" s="243"/>
-      <c r="D32" s="244"/>
-      <c r="E32" s="244"/>
-      <c r="F32" s="244"/>
-      <c r="G32" s="244"/>
-      <c r="H32" s="298"/>
-      <c r="I32" s="299"/>
-      <c r="J32" s="299"/>
-      <c r="K32" s="299"/>
-      <c r="L32" s="300"/>
-      <c r="M32" s="106"/>
-      <c r="N32" s="106"/>
-      <c r="O32" s="106"/>
-      <c r="P32" s="106"/>
-      <c r="Q32" s="106"/>
-      <c r="R32" s="106"/>
-      <c r="S32" s="107"/>
-      <c r="T32" s="105"/>
-      <c r="U32" s="106"/>
-      <c r="V32" s="106"/>
-      <c r="W32" s="106"/>
-      <c r="X32" s="106"/>
-      <c r="Y32" s="106"/>
-      <c r="Z32" s="106"/>
-      <c r="AA32" s="106"/>
-      <c r="AB32" s="107"/>
-      <c r="AC32" s="111"/>
-      <c r="AD32" s="112"/>
-      <c r="AE32" s="112"/>
-      <c r="AF32" s="112"/>
-      <c r="AG32" s="112"/>
-      <c r="AH32" s="112"/>
-      <c r="AI32" s="112"/>
-      <c r="AJ32" s="112"/>
-      <c r="AK32" s="112"/>
-      <c r="AL32" s="112"/>
-      <c r="AM32" s="113"/>
-      <c r="AN32" s="152"/>
-      <c r="AO32" s="153"/>
-      <c r="AP32" s="154"/>
-      <c r="AQ32" s="246"/>
-      <c r="AR32" s="247"/>
-      <c r="AS32" s="248"/>
-      <c r="AT32" s="152"/>
-      <c r="AU32" s="153"/>
-      <c r="AV32" s="154"/>
-      <c r="AW32" s="152"/>
-      <c r="AX32" s="153"/>
-      <c r="AY32" s="154"/>
-      <c r="AZ32" s="158"/>
-      <c r="BA32" s="161"/>
-      <c r="BB32" s="161"/>
-      <c r="BC32" s="161"/>
-      <c r="BD32" s="161"/>
-      <c r="BE32" s="161"/>
-      <c r="BF32" s="161"/>
-      <c r="BG32" s="162"/>
+      <c r="B32" s="248"/>
+      <c r="C32" s="245"/>
+      <c r="D32" s="246"/>
+      <c r="E32" s="246"/>
+      <c r="F32" s="246"/>
+      <c r="G32" s="246"/>
+      <c r="H32" s="232"/>
+      <c r="I32" s="233"/>
+      <c r="J32" s="233"/>
+      <c r="K32" s="233"/>
+      <c r="L32" s="234"/>
+      <c r="M32" s="211"/>
+      <c r="N32" s="211"/>
+      <c r="O32" s="211"/>
+      <c r="P32" s="211"/>
+      <c r="Q32" s="211"/>
+      <c r="R32" s="211"/>
+      <c r="S32" s="212"/>
+      <c r="T32" s="210"/>
+      <c r="U32" s="211"/>
+      <c r="V32" s="211"/>
+      <c r="W32" s="211"/>
+      <c r="X32" s="211"/>
+      <c r="Y32" s="211"/>
+      <c r="Z32" s="211"/>
+      <c r="AA32" s="211"/>
+      <c r="AB32" s="212"/>
+      <c r="AC32" s="192"/>
+      <c r="AD32" s="193"/>
+      <c r="AE32" s="193"/>
+      <c r="AF32" s="193"/>
+      <c r="AG32" s="193"/>
+      <c r="AH32" s="193"/>
+      <c r="AI32" s="193"/>
+      <c r="AJ32" s="193"/>
+      <c r="AK32" s="193"/>
+      <c r="AL32" s="193"/>
+      <c r="AM32" s="194"/>
+      <c r="AN32" s="198"/>
+      <c r="AO32" s="199"/>
+      <c r="AP32" s="200"/>
+      <c r="AQ32" s="204"/>
+      <c r="AR32" s="205"/>
+      <c r="AS32" s="206"/>
+      <c r="AT32" s="198"/>
+      <c r="AU32" s="199"/>
+      <c r="AV32" s="200"/>
+      <c r="AW32" s="198"/>
+      <c r="AX32" s="199"/>
+      <c r="AY32" s="200"/>
+      <c r="AZ32" s="135"/>
+      <c r="BA32" s="136"/>
+      <c r="BB32" s="136"/>
+      <c r="BC32" s="136"/>
+      <c r="BD32" s="136"/>
+      <c r="BE32" s="136"/>
+      <c r="BF32" s="136"/>
+      <c r="BG32" s="137"/>
     </row>
     <row r="33" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A33" s="78"/>
-      <c r="B33" s="79"/>
-      <c r="C33" s="243"/>
-      <c r="D33" s="244"/>
-      <c r="E33" s="244"/>
-      <c r="F33" s="244"/>
-      <c r="G33" s="244"/>
-      <c r="H33" s="298"/>
-      <c r="I33" s="299"/>
-      <c r="J33" s="299"/>
-      <c r="K33" s="299"/>
-      <c r="L33" s="300"/>
-      <c r="M33" s="109"/>
-      <c r="N33" s="109"/>
-      <c r="O33" s="109"/>
-      <c r="P33" s="109"/>
-      <c r="Q33" s="109"/>
-      <c r="R33" s="109"/>
-      <c r="S33" s="110"/>
-      <c r="T33" s="108"/>
-      <c r="U33" s="109"/>
-      <c r="V33" s="109"/>
-      <c r="W33" s="109"/>
-      <c r="X33" s="109"/>
-      <c r="Y33" s="109"/>
-      <c r="Z33" s="109"/>
-      <c r="AA33" s="109"/>
-      <c r="AB33" s="110"/>
-      <c r="AC33" s="114"/>
-      <c r="AD33" s="115"/>
-      <c r="AE33" s="115"/>
-      <c r="AF33" s="115"/>
-      <c r="AG33" s="115"/>
-      <c r="AH33" s="115"/>
-      <c r="AI33" s="115"/>
-      <c r="AJ33" s="115"/>
-      <c r="AK33" s="115"/>
-      <c r="AL33" s="115"/>
-      <c r="AM33" s="116"/>
-      <c r="AN33" s="155"/>
-      <c r="AO33" s="156"/>
-      <c r="AP33" s="157"/>
-      <c r="AQ33" s="249"/>
-      <c r="AR33" s="250"/>
-      <c r="AS33" s="251"/>
-      <c r="AT33" s="155"/>
-      <c r="AU33" s="156"/>
-      <c r="AV33" s="157"/>
-      <c r="AW33" s="155"/>
-      <c r="AX33" s="156"/>
-      <c r="AY33" s="157"/>
-      <c r="AZ33" s="158"/>
-      <c r="BA33" s="159"/>
-      <c r="BB33" s="159"/>
-      <c r="BC33" s="159"/>
-      <c r="BD33" s="159"/>
-      <c r="BE33" s="159"/>
-      <c r="BF33" s="159"/>
-      <c r="BG33" s="160"/>
+      <c r="A33" s="249"/>
+      <c r="B33" s="250"/>
+      <c r="C33" s="245"/>
+      <c r="D33" s="246"/>
+      <c r="E33" s="246"/>
+      <c r="F33" s="246"/>
+      <c r="G33" s="246"/>
+      <c r="H33" s="232"/>
+      <c r="I33" s="233"/>
+      <c r="J33" s="233"/>
+      <c r="K33" s="233"/>
+      <c r="L33" s="234"/>
+      <c r="M33" s="214"/>
+      <c r="N33" s="214"/>
+      <c r="O33" s="214"/>
+      <c r="P33" s="214"/>
+      <c r="Q33" s="214"/>
+      <c r="R33" s="214"/>
+      <c r="S33" s="215"/>
+      <c r="T33" s="213"/>
+      <c r="U33" s="214"/>
+      <c r="V33" s="214"/>
+      <c r="W33" s="214"/>
+      <c r="X33" s="214"/>
+      <c r="Y33" s="214"/>
+      <c r="Z33" s="214"/>
+      <c r="AA33" s="214"/>
+      <c r="AB33" s="215"/>
+      <c r="AC33" s="195"/>
+      <c r="AD33" s="196"/>
+      <c r="AE33" s="196"/>
+      <c r="AF33" s="196"/>
+      <c r="AG33" s="196"/>
+      <c r="AH33" s="196"/>
+      <c r="AI33" s="196"/>
+      <c r="AJ33" s="196"/>
+      <c r="AK33" s="196"/>
+      <c r="AL33" s="196"/>
+      <c r="AM33" s="197"/>
+      <c r="AN33" s="201"/>
+      <c r="AO33" s="202"/>
+      <c r="AP33" s="203"/>
+      <c r="AQ33" s="207"/>
+      <c r="AR33" s="208"/>
+      <c r="AS33" s="209"/>
+      <c r="AT33" s="201"/>
+      <c r="AU33" s="202"/>
+      <c r="AV33" s="203"/>
+      <c r="AW33" s="201"/>
+      <c r="AX33" s="202"/>
+      <c r="AY33" s="203"/>
+      <c r="AZ33" s="135"/>
+      <c r="BA33" s="140"/>
+      <c r="BB33" s="140"/>
+      <c r="BC33" s="140"/>
+      <c r="BD33" s="140"/>
+      <c r="BE33" s="140"/>
+      <c r="BF33" s="140"/>
+      <c r="BG33" s="141"/>
     </row>
     <row r="34" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A34" s="76">
+      <c r="A34" s="247">
         <f>A32+1</f>
         <v>14</v>
       </c>
-      <c r="B34" s="77"/>
-      <c r="C34" s="243"/>
-      <c r="D34" s="244"/>
-      <c r="E34" s="244"/>
-      <c r="F34" s="244"/>
-      <c r="G34" s="244"/>
-      <c r="H34" s="298"/>
-      <c r="I34" s="299"/>
-      <c r="J34" s="299"/>
-      <c r="K34" s="299"/>
-      <c r="L34" s="300"/>
-      <c r="M34" s="126"/>
-      <c r="N34" s="126"/>
-      <c r="O34" s="126"/>
-      <c r="P34" s="126"/>
-      <c r="Q34" s="126"/>
-      <c r="R34" s="126"/>
-      <c r="S34" s="127"/>
-      <c r="T34" s="163"/>
-      <c r="U34" s="164"/>
-      <c r="V34" s="164"/>
-      <c r="W34" s="164"/>
-      <c r="X34" s="164"/>
-      <c r="Y34" s="164"/>
-      <c r="Z34" s="164"/>
-      <c r="AA34" s="164"/>
-      <c r="AB34" s="165"/>
-      <c r="AC34" s="130"/>
-      <c r="AD34" s="131"/>
-      <c r="AE34" s="131"/>
-      <c r="AF34" s="131"/>
-      <c r="AG34" s="131"/>
-      <c r="AH34" s="131"/>
-      <c r="AI34" s="131"/>
-      <c r="AJ34" s="131"/>
-      <c r="AK34" s="131"/>
-      <c r="AL34" s="131"/>
-      <c r="AM34" s="132"/>
-      <c r="AN34" s="136"/>
-      <c r="AO34" s="137"/>
-      <c r="AP34" s="138"/>
+      <c r="B34" s="248"/>
+      <c r="C34" s="245"/>
+      <c r="D34" s="246"/>
+      <c r="E34" s="246"/>
+      <c r="F34" s="246"/>
+      <c r="G34" s="246"/>
+      <c r="H34" s="232"/>
+      <c r="I34" s="233"/>
+      <c r="J34" s="233"/>
+      <c r="K34" s="233"/>
+      <c r="L34" s="234"/>
+      <c r="M34" s="225"/>
+      <c r="N34" s="225"/>
+      <c r="O34" s="225"/>
+      <c r="P34" s="225"/>
+      <c r="Q34" s="225"/>
+      <c r="R34" s="225"/>
+      <c r="S34" s="226"/>
+      <c r="T34" s="168"/>
+      <c r="U34" s="169"/>
+      <c r="V34" s="169"/>
+      <c r="W34" s="169"/>
+      <c r="X34" s="169"/>
+      <c r="Y34" s="169"/>
+      <c r="Z34" s="169"/>
+      <c r="AA34" s="169"/>
+      <c r="AB34" s="170"/>
+      <c r="AC34" s="174"/>
+      <c r="AD34" s="175"/>
+      <c r="AE34" s="175"/>
+      <c r="AF34" s="175"/>
+      <c r="AG34" s="175"/>
+      <c r="AH34" s="175"/>
+      <c r="AI34" s="175"/>
+      <c r="AJ34" s="175"/>
+      <c r="AK34" s="175"/>
+      <c r="AL34" s="175"/>
+      <c r="AM34" s="176"/>
+      <c r="AN34" s="123"/>
+      <c r="AO34" s="124"/>
+      <c r="AP34" s="125"/>
       <c r="AQ34" s="142"/>
       <c r="AR34" s="143"/>
       <c r="AS34" s="144"/>
-      <c r="AT34" s="136"/>
-      <c r="AU34" s="137"/>
-      <c r="AV34" s="138"/>
-      <c r="AW34" s="136"/>
-      <c r="AX34" s="137"/>
-      <c r="AY34" s="138"/>
-      <c r="AZ34" s="84"/>
-      <c r="BA34" s="150"/>
-      <c r="BB34" s="150"/>
-      <c r="BC34" s="150"/>
-      <c r="BD34" s="150"/>
-      <c r="BE34" s="150"/>
-      <c r="BF34" s="150"/>
-      <c r="BG34" s="151"/>
+      <c r="AT34" s="123"/>
+      <c r="AU34" s="124"/>
+      <c r="AV34" s="125"/>
+      <c r="AW34" s="123"/>
+      <c r="AX34" s="124"/>
+      <c r="AY34" s="125"/>
+      <c r="AZ34" s="120"/>
+      <c r="BA34" s="138"/>
+      <c r="BB34" s="138"/>
+      <c r="BC34" s="138"/>
+      <c r="BD34" s="138"/>
+      <c r="BE34" s="138"/>
+      <c r="BF34" s="138"/>
+      <c r="BG34" s="139"/>
     </row>
     <row r="35" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A35" s="78"/>
-      <c r="B35" s="79"/>
-      <c r="C35" s="243"/>
-      <c r="D35" s="244"/>
-      <c r="E35" s="244"/>
-      <c r="F35" s="244"/>
-      <c r="G35" s="244"/>
-      <c r="H35" s="298"/>
-      <c r="I35" s="299"/>
-      <c r="J35" s="299"/>
-      <c r="K35" s="299"/>
-      <c r="L35" s="300"/>
-      <c r="M35" s="128"/>
-      <c r="N35" s="128"/>
-      <c r="O35" s="128"/>
-      <c r="P35" s="128"/>
-      <c r="Q35" s="128"/>
-      <c r="R35" s="128"/>
-      <c r="S35" s="129"/>
-      <c r="T35" s="166"/>
-      <c r="U35" s="167"/>
-      <c r="V35" s="167"/>
-      <c r="W35" s="167"/>
-      <c r="X35" s="167"/>
-      <c r="Y35" s="167"/>
-      <c r="Z35" s="167"/>
-      <c r="AA35" s="167"/>
-      <c r="AB35" s="168"/>
-      <c r="AC35" s="133"/>
-      <c r="AD35" s="134"/>
-      <c r="AE35" s="134"/>
-      <c r="AF35" s="134"/>
-      <c r="AG35" s="134"/>
-      <c r="AH35" s="134"/>
-      <c r="AI35" s="134"/>
-      <c r="AJ35" s="134"/>
-      <c r="AK35" s="134"/>
-      <c r="AL35" s="134"/>
-      <c r="AM35" s="135"/>
-      <c r="AN35" s="139"/>
-      <c r="AO35" s="140"/>
-      <c r="AP35" s="141"/>
+      <c r="A35" s="249"/>
+      <c r="B35" s="250"/>
+      <c r="C35" s="245"/>
+      <c r="D35" s="246"/>
+      <c r="E35" s="246"/>
+      <c r="F35" s="246"/>
+      <c r="G35" s="246"/>
+      <c r="H35" s="232"/>
+      <c r="I35" s="233"/>
+      <c r="J35" s="233"/>
+      <c r="K35" s="233"/>
+      <c r="L35" s="234"/>
+      <c r="M35" s="227"/>
+      <c r="N35" s="227"/>
+      <c r="O35" s="227"/>
+      <c r="P35" s="227"/>
+      <c r="Q35" s="227"/>
+      <c r="R35" s="227"/>
+      <c r="S35" s="228"/>
+      <c r="T35" s="171"/>
+      <c r="U35" s="172"/>
+      <c r="V35" s="172"/>
+      <c r="W35" s="172"/>
+      <c r="X35" s="172"/>
+      <c r="Y35" s="172"/>
+      <c r="Z35" s="172"/>
+      <c r="AA35" s="172"/>
+      <c r="AB35" s="173"/>
+      <c r="AC35" s="177"/>
+      <c r="AD35" s="178"/>
+      <c r="AE35" s="178"/>
+      <c r="AF35" s="178"/>
+      <c r="AG35" s="178"/>
+      <c r="AH35" s="178"/>
+      <c r="AI35" s="178"/>
+      <c r="AJ35" s="178"/>
+      <c r="AK35" s="178"/>
+      <c r="AL35" s="178"/>
+      <c r="AM35" s="179"/>
+      <c r="AN35" s="126"/>
+      <c r="AO35" s="127"/>
+      <c r="AP35" s="128"/>
       <c r="AQ35" s="145"/>
       <c r="AR35" s="146"/>
       <c r="AS35" s="147"/>
-      <c r="AT35" s="139"/>
-      <c r="AU35" s="140"/>
-      <c r="AV35" s="141"/>
-      <c r="AW35" s="139"/>
-      <c r="AX35" s="140"/>
-      <c r="AY35" s="141"/>
-      <c r="AZ35" s="84"/>
-      <c r="BA35" s="85"/>
-      <c r="BB35" s="85"/>
-      <c r="BC35" s="85"/>
-      <c r="BD35" s="85"/>
-      <c r="BE35" s="85"/>
-      <c r="BF35" s="85"/>
-      <c r="BG35" s="86"/>
+      <c r="AT35" s="126"/>
+      <c r="AU35" s="127"/>
+      <c r="AV35" s="128"/>
+      <c r="AW35" s="126"/>
+      <c r="AX35" s="127"/>
+      <c r="AY35" s="128"/>
+      <c r="AZ35" s="120"/>
+      <c r="BA35" s="121"/>
+      <c r="BB35" s="121"/>
+      <c r="BC35" s="121"/>
+      <c r="BD35" s="121"/>
+      <c r="BE35" s="121"/>
+      <c r="BF35" s="121"/>
+      <c r="BG35" s="122"/>
     </row>
     <row r="36" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A36" s="76">
+      <c r="A36" s="247">
         <f>A34+1</f>
         <v>15</v>
       </c>
-      <c r="B36" s="77"/>
-      <c r="C36" s="243"/>
-      <c r="D36" s="244"/>
-      <c r="E36" s="244"/>
-      <c r="F36" s="244"/>
-      <c r="G36" s="244"/>
-      <c r="H36" s="298"/>
-      <c r="I36" s="299"/>
-      <c r="J36" s="299"/>
-      <c r="K36" s="299"/>
-      <c r="L36" s="300"/>
-      <c r="M36" s="264"/>
-      <c r="N36" s="264"/>
-      <c r="O36" s="264"/>
-      <c r="P36" s="264"/>
-      <c r="Q36" s="264"/>
-      <c r="R36" s="264"/>
-      <c r="S36" s="265"/>
-      <c r="T36" s="105"/>
-      <c r="U36" s="106"/>
-      <c r="V36" s="106"/>
-      <c r="W36" s="106"/>
-      <c r="X36" s="106"/>
-      <c r="Y36" s="106"/>
-      <c r="Z36" s="106"/>
-      <c r="AA36" s="106"/>
-      <c r="AB36" s="107"/>
-      <c r="AC36" s="111"/>
-      <c r="AD36" s="112"/>
-      <c r="AE36" s="112"/>
-      <c r="AF36" s="112"/>
-      <c r="AG36" s="112"/>
-      <c r="AH36" s="112"/>
-      <c r="AI36" s="112"/>
-      <c r="AJ36" s="112"/>
-      <c r="AK36" s="112"/>
-      <c r="AL36" s="112"/>
-      <c r="AM36" s="113"/>
-      <c r="AN36" s="152"/>
-      <c r="AO36" s="153"/>
-      <c r="AP36" s="154"/>
-      <c r="AQ36" s="246"/>
-      <c r="AR36" s="247"/>
-      <c r="AS36" s="248"/>
-      <c r="AT36" s="152"/>
-      <c r="AU36" s="153"/>
-      <c r="AV36" s="154"/>
-      <c r="AW36" s="152"/>
-      <c r="AX36" s="153"/>
-      <c r="AY36" s="154"/>
-      <c r="AZ36" s="158"/>
-      <c r="BA36" s="161"/>
-      <c r="BB36" s="161"/>
-      <c r="BC36" s="161"/>
-      <c r="BD36" s="161"/>
-      <c r="BE36" s="161"/>
-      <c r="BF36" s="161"/>
-      <c r="BG36" s="162"/>
+      <c r="B36" s="248"/>
+      <c r="C36" s="245"/>
+      <c r="D36" s="246"/>
+      <c r="E36" s="246"/>
+      <c r="F36" s="246"/>
+      <c r="G36" s="246"/>
+      <c r="H36" s="232"/>
+      <c r="I36" s="233"/>
+      <c r="J36" s="233"/>
+      <c r="K36" s="233"/>
+      <c r="L36" s="234"/>
+      <c r="M36" s="164"/>
+      <c r="N36" s="164"/>
+      <c r="O36" s="164"/>
+      <c r="P36" s="164"/>
+      <c r="Q36" s="164"/>
+      <c r="R36" s="164"/>
+      <c r="S36" s="165"/>
+      <c r="T36" s="210"/>
+      <c r="U36" s="211"/>
+      <c r="V36" s="211"/>
+      <c r="W36" s="211"/>
+      <c r="X36" s="211"/>
+      <c r="Y36" s="211"/>
+      <c r="Z36" s="211"/>
+      <c r="AA36" s="211"/>
+      <c r="AB36" s="212"/>
+      <c r="AC36" s="192"/>
+      <c r="AD36" s="193"/>
+      <c r="AE36" s="193"/>
+      <c r="AF36" s="193"/>
+      <c r="AG36" s="193"/>
+      <c r="AH36" s="193"/>
+      <c r="AI36" s="193"/>
+      <c r="AJ36" s="193"/>
+      <c r="AK36" s="193"/>
+      <c r="AL36" s="193"/>
+      <c r="AM36" s="194"/>
+      <c r="AN36" s="198"/>
+      <c r="AO36" s="199"/>
+      <c r="AP36" s="200"/>
+      <c r="AQ36" s="204"/>
+      <c r="AR36" s="205"/>
+      <c r="AS36" s="206"/>
+      <c r="AT36" s="198"/>
+      <c r="AU36" s="199"/>
+      <c r="AV36" s="200"/>
+      <c r="AW36" s="198"/>
+      <c r="AX36" s="199"/>
+      <c r="AY36" s="200"/>
+      <c r="AZ36" s="135"/>
+      <c r="BA36" s="136"/>
+      <c r="BB36" s="136"/>
+      <c r="BC36" s="136"/>
+      <c r="BD36" s="136"/>
+      <c r="BE36" s="136"/>
+      <c r="BF36" s="136"/>
+      <c r="BG36" s="137"/>
     </row>
     <row r="37" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A37" s="78"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="243"/>
-      <c r="D37" s="244"/>
-      <c r="E37" s="244"/>
-      <c r="F37" s="244"/>
-      <c r="G37" s="244"/>
-      <c r="H37" s="298"/>
-      <c r="I37" s="299"/>
-      <c r="J37" s="299"/>
-      <c r="K37" s="299"/>
-      <c r="L37" s="300"/>
-      <c r="M37" s="266"/>
-      <c r="N37" s="266"/>
-      <c r="O37" s="266"/>
-      <c r="P37" s="266"/>
-      <c r="Q37" s="266"/>
-      <c r="R37" s="266"/>
-      <c r="S37" s="267"/>
-      <c r="T37" s="108"/>
-      <c r="U37" s="109"/>
-      <c r="V37" s="109"/>
-      <c r="W37" s="109"/>
-      <c r="X37" s="109"/>
-      <c r="Y37" s="109"/>
-      <c r="Z37" s="109"/>
-      <c r="AA37" s="109"/>
-      <c r="AB37" s="110"/>
-      <c r="AC37" s="114"/>
-      <c r="AD37" s="115"/>
-      <c r="AE37" s="115"/>
-      <c r="AF37" s="115"/>
-      <c r="AG37" s="115"/>
-      <c r="AH37" s="115"/>
-      <c r="AI37" s="115"/>
-      <c r="AJ37" s="115"/>
-      <c r="AK37" s="115"/>
-      <c r="AL37" s="115"/>
-      <c r="AM37" s="116"/>
-      <c r="AN37" s="155"/>
-      <c r="AO37" s="156"/>
-      <c r="AP37" s="157"/>
-      <c r="AQ37" s="249"/>
-      <c r="AR37" s="250"/>
-      <c r="AS37" s="251"/>
-      <c r="AT37" s="155"/>
-      <c r="AU37" s="156"/>
-      <c r="AV37" s="157"/>
-      <c r="AW37" s="155"/>
-      <c r="AX37" s="156"/>
-      <c r="AY37" s="157"/>
-      <c r="AZ37" s="158"/>
-      <c r="BA37" s="159"/>
-      <c r="BB37" s="159"/>
-      <c r="BC37" s="159"/>
-      <c r="BD37" s="159"/>
-      <c r="BE37" s="159"/>
-      <c r="BF37" s="159"/>
-      <c r="BG37" s="160"/>
+      <c r="A37" s="249"/>
+      <c r="B37" s="250"/>
+      <c r="C37" s="245"/>
+      <c r="D37" s="246"/>
+      <c r="E37" s="246"/>
+      <c r="F37" s="246"/>
+      <c r="G37" s="246"/>
+      <c r="H37" s="232"/>
+      <c r="I37" s="233"/>
+      <c r="J37" s="233"/>
+      <c r="K37" s="233"/>
+      <c r="L37" s="234"/>
+      <c r="M37" s="166"/>
+      <c r="N37" s="166"/>
+      <c r="O37" s="166"/>
+      <c r="P37" s="166"/>
+      <c r="Q37" s="166"/>
+      <c r="R37" s="166"/>
+      <c r="S37" s="167"/>
+      <c r="T37" s="213"/>
+      <c r="U37" s="214"/>
+      <c r="V37" s="214"/>
+      <c r="W37" s="214"/>
+      <c r="X37" s="214"/>
+      <c r="Y37" s="214"/>
+      <c r="Z37" s="214"/>
+      <c r="AA37" s="214"/>
+      <c r="AB37" s="215"/>
+      <c r="AC37" s="195"/>
+      <c r="AD37" s="196"/>
+      <c r="AE37" s="196"/>
+      <c r="AF37" s="196"/>
+      <c r="AG37" s="196"/>
+      <c r="AH37" s="196"/>
+      <c r="AI37" s="196"/>
+      <c r="AJ37" s="196"/>
+      <c r="AK37" s="196"/>
+      <c r="AL37" s="196"/>
+      <c r="AM37" s="197"/>
+      <c r="AN37" s="201"/>
+      <c r="AO37" s="202"/>
+      <c r="AP37" s="203"/>
+      <c r="AQ37" s="207"/>
+      <c r="AR37" s="208"/>
+      <c r="AS37" s="209"/>
+      <c r="AT37" s="201"/>
+      <c r="AU37" s="202"/>
+      <c r="AV37" s="203"/>
+      <c r="AW37" s="201"/>
+      <c r="AX37" s="202"/>
+      <c r="AY37" s="203"/>
+      <c r="AZ37" s="135"/>
+      <c r="BA37" s="140"/>
+      <c r="BB37" s="140"/>
+      <c r="BC37" s="140"/>
+      <c r="BD37" s="140"/>
+      <c r="BE37" s="140"/>
+      <c r="BF37" s="140"/>
+      <c r="BG37" s="141"/>
     </row>
     <row r="38" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A38" s="76">
+      <c r="A38" s="247">
         <f>A36+1</f>
         <v>16</v>
       </c>
-      <c r="B38" s="77"/>
-      <c r="C38" s="243"/>
-      <c r="D38" s="244"/>
-      <c r="E38" s="244"/>
-      <c r="F38" s="244"/>
-      <c r="G38" s="244"/>
-      <c r="H38" s="298"/>
-      <c r="I38" s="299"/>
-      <c r="J38" s="299"/>
-      <c r="K38" s="299"/>
-      <c r="L38" s="300"/>
-      <c r="M38" s="264"/>
-      <c r="N38" s="264"/>
-      <c r="O38" s="264"/>
-      <c r="P38" s="264"/>
-      <c r="Q38" s="264"/>
-      <c r="R38" s="264"/>
-      <c r="S38" s="265"/>
-      <c r="T38" s="163"/>
-      <c r="U38" s="164"/>
-      <c r="V38" s="164"/>
-      <c r="W38" s="164"/>
-      <c r="X38" s="164"/>
-      <c r="Y38" s="164"/>
-      <c r="Z38" s="164"/>
-      <c r="AA38" s="164"/>
-      <c r="AB38" s="165"/>
-      <c r="AC38" s="130"/>
-      <c r="AD38" s="131"/>
-      <c r="AE38" s="131"/>
-      <c r="AF38" s="131"/>
-      <c r="AG38" s="131"/>
-      <c r="AH38" s="131"/>
-      <c r="AI38" s="131"/>
-      <c r="AJ38" s="131"/>
-      <c r="AK38" s="131"/>
-      <c r="AL38" s="131"/>
-      <c r="AM38" s="132"/>
-      <c r="AN38" s="136"/>
-      <c r="AO38" s="137"/>
-      <c r="AP38" s="138"/>
+      <c r="B38" s="248"/>
+      <c r="C38" s="245"/>
+      <c r="D38" s="246"/>
+      <c r="E38" s="246"/>
+      <c r="F38" s="246"/>
+      <c r="G38" s="246"/>
+      <c r="H38" s="232"/>
+      <c r="I38" s="233"/>
+      <c r="J38" s="233"/>
+      <c r="K38" s="233"/>
+      <c r="L38" s="234"/>
+      <c r="M38" s="164"/>
+      <c r="N38" s="164"/>
+      <c r="O38" s="164"/>
+      <c r="P38" s="164"/>
+      <c r="Q38" s="164"/>
+      <c r="R38" s="164"/>
+      <c r="S38" s="165"/>
+      <c r="T38" s="168"/>
+      <c r="U38" s="169"/>
+      <c r="V38" s="169"/>
+      <c r="W38" s="169"/>
+      <c r="X38" s="169"/>
+      <c r="Y38" s="169"/>
+      <c r="Z38" s="169"/>
+      <c r="AA38" s="169"/>
+      <c r="AB38" s="170"/>
+      <c r="AC38" s="174"/>
+      <c r="AD38" s="175"/>
+      <c r="AE38" s="175"/>
+      <c r="AF38" s="175"/>
+      <c r="AG38" s="175"/>
+      <c r="AH38" s="175"/>
+      <c r="AI38" s="175"/>
+      <c r="AJ38" s="175"/>
+      <c r="AK38" s="175"/>
+      <c r="AL38" s="175"/>
+      <c r="AM38" s="176"/>
+      <c r="AN38" s="123"/>
+      <c r="AO38" s="124"/>
+      <c r="AP38" s="125"/>
       <c r="AQ38" s="142"/>
       <c r="AR38" s="143"/>
       <c r="AS38" s="144"/>
-      <c r="AT38" s="136"/>
-      <c r="AU38" s="137"/>
-      <c r="AV38" s="138"/>
-      <c r="AW38" s="136"/>
-      <c r="AX38" s="137"/>
-      <c r="AY38" s="138"/>
-      <c r="AZ38" s="84"/>
-      <c r="BA38" s="150"/>
-      <c r="BB38" s="150"/>
-      <c r="BC38" s="150"/>
-      <c r="BD38" s="150"/>
-      <c r="BE38" s="150"/>
-      <c r="BF38" s="150"/>
-      <c r="BG38" s="151"/>
+      <c r="AT38" s="123"/>
+      <c r="AU38" s="124"/>
+      <c r="AV38" s="125"/>
+      <c r="AW38" s="123"/>
+      <c r="AX38" s="124"/>
+      <c r="AY38" s="125"/>
+      <c r="AZ38" s="120"/>
+      <c r="BA38" s="138"/>
+      <c r="BB38" s="138"/>
+      <c r="BC38" s="138"/>
+      <c r="BD38" s="138"/>
+      <c r="BE38" s="138"/>
+      <c r="BF38" s="138"/>
+      <c r="BG38" s="139"/>
     </row>
     <row r="39" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A39" s="78"/>
-      <c r="B39" s="79"/>
-      <c r="C39" s="90"/>
-      <c r="D39" s="91"/>
-      <c r="E39" s="91"/>
-      <c r="F39" s="91"/>
-      <c r="G39" s="91"/>
-      <c r="H39" s="301"/>
-      <c r="I39" s="302"/>
-      <c r="J39" s="302"/>
-      <c r="K39" s="302"/>
-      <c r="L39" s="303"/>
-      <c r="M39" s="266"/>
-      <c r="N39" s="266"/>
-      <c r="O39" s="266"/>
-      <c r="P39" s="266"/>
-      <c r="Q39" s="266"/>
-      <c r="R39" s="266"/>
-      <c r="S39" s="267"/>
-      <c r="T39" s="166"/>
-      <c r="U39" s="167"/>
-      <c r="V39" s="167"/>
-      <c r="W39" s="167"/>
-      <c r="X39" s="167"/>
-      <c r="Y39" s="167"/>
-      <c r="Z39" s="167"/>
-      <c r="AA39" s="167"/>
-      <c r="AB39" s="168"/>
-      <c r="AC39" s="133"/>
-      <c r="AD39" s="134"/>
-      <c r="AE39" s="134"/>
-      <c r="AF39" s="134"/>
-      <c r="AG39" s="134"/>
-      <c r="AH39" s="134"/>
-      <c r="AI39" s="134"/>
-      <c r="AJ39" s="134"/>
-      <c r="AK39" s="134"/>
-      <c r="AL39" s="134"/>
-      <c r="AM39" s="135"/>
-      <c r="AN39" s="139"/>
-      <c r="AO39" s="140"/>
-      <c r="AP39" s="141"/>
+      <c r="A39" s="249"/>
+      <c r="B39" s="250"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="235"/>
+      <c r="I39" s="236"/>
+      <c r="J39" s="236"/>
+      <c r="K39" s="236"/>
+      <c r="L39" s="237"/>
+      <c r="M39" s="166"/>
+      <c r="N39" s="166"/>
+      <c r="O39" s="166"/>
+      <c r="P39" s="166"/>
+      <c r="Q39" s="166"/>
+      <c r="R39" s="166"/>
+      <c r="S39" s="167"/>
+      <c r="T39" s="171"/>
+      <c r="U39" s="172"/>
+      <c r="V39" s="172"/>
+      <c r="W39" s="172"/>
+      <c r="X39" s="172"/>
+      <c r="Y39" s="172"/>
+      <c r="Z39" s="172"/>
+      <c r="AA39" s="172"/>
+      <c r="AB39" s="173"/>
+      <c r="AC39" s="177"/>
+      <c r="AD39" s="178"/>
+      <c r="AE39" s="178"/>
+      <c r="AF39" s="178"/>
+      <c r="AG39" s="178"/>
+      <c r="AH39" s="178"/>
+      <c r="AI39" s="178"/>
+      <c r="AJ39" s="178"/>
+      <c r="AK39" s="178"/>
+      <c r="AL39" s="178"/>
+      <c r="AM39" s="179"/>
+      <c r="AN39" s="126"/>
+      <c r="AO39" s="127"/>
+      <c r="AP39" s="128"/>
       <c r="AQ39" s="145"/>
       <c r="AR39" s="146"/>
       <c r="AS39" s="147"/>
-      <c r="AT39" s="139"/>
-      <c r="AU39" s="140"/>
-      <c r="AV39" s="141"/>
-      <c r="AW39" s="139"/>
-      <c r="AX39" s="140"/>
-      <c r="AY39" s="141"/>
-      <c r="AZ39" s="84"/>
-      <c r="BA39" s="85"/>
-      <c r="BB39" s="85"/>
-      <c r="BC39" s="85"/>
-      <c r="BD39" s="85"/>
-      <c r="BE39" s="85"/>
-      <c r="BF39" s="85"/>
-      <c r="BG39" s="86"/>
+      <c r="AT39" s="126"/>
+      <c r="AU39" s="127"/>
+      <c r="AV39" s="128"/>
+      <c r="AW39" s="126"/>
+      <c r="AX39" s="127"/>
+      <c r="AY39" s="128"/>
+      <c r="AZ39" s="120"/>
+      <c r="BA39" s="121"/>
+      <c r="BB39" s="121"/>
+      <c r="BC39" s="121"/>
+      <c r="BD39" s="121"/>
+      <c r="BE39" s="121"/>
+      <c r="BF39" s="121"/>
+      <c r="BG39" s="122"/>
     </row>
     <row r="40" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A40" s="76">
+      <c r="A40" s="247">
         <f>A38+1</f>
         <v>17</v>
       </c>
-      <c r="B40" s="77"/>
-      <c r="C40" s="286"/>
-      <c r="D40" s="287"/>
-      <c r="E40" s="287"/>
-      <c r="F40" s="287"/>
-      <c r="G40" s="288"/>
-      <c r="H40" s="286" t="s">
+      <c r="B40" s="248"/>
+      <c r="C40" s="216"/>
+      <c r="D40" s="217"/>
+      <c r="E40" s="217"/>
+      <c r="F40" s="217"/>
+      <c r="G40" s="218"/>
+      <c r="H40" s="216" t="s">
         <v>4</v>
       </c>
-      <c r="I40" s="287"/>
-      <c r="J40" s="287"/>
-      <c r="K40" s="287"/>
-      <c r="L40" s="288"/>
-      <c r="M40" s="169"/>
-      <c r="N40" s="169"/>
-      <c r="O40" s="169"/>
-      <c r="P40" s="169"/>
-      <c r="Q40" s="169"/>
-      <c r="R40" s="169"/>
-      <c r="S40" s="170"/>
-      <c r="T40" s="179"/>
-      <c r="U40" s="180"/>
-      <c r="V40" s="180"/>
-      <c r="W40" s="180"/>
-      <c r="X40" s="180"/>
-      <c r="Y40" s="180"/>
-      <c r="Z40" s="180"/>
-      <c r="AA40" s="180"/>
-      <c r="AB40" s="181"/>
-      <c r="AC40" s="173"/>
-      <c r="AD40" s="174"/>
-      <c r="AE40" s="174"/>
-      <c r="AF40" s="174"/>
-      <c r="AG40" s="174"/>
-      <c r="AH40" s="174"/>
-      <c r="AI40" s="174"/>
-      <c r="AJ40" s="174"/>
-      <c r="AK40" s="174"/>
-      <c r="AL40" s="174"/>
-      <c r="AM40" s="175"/>
-      <c r="AN40" s="117"/>
-      <c r="AO40" s="118"/>
-      <c r="AP40" s="119"/>
-      <c r="AQ40" s="185"/>
-      <c r="AR40" s="186"/>
-      <c r="AS40" s="187"/>
-      <c r="AT40" s="117"/>
-      <c r="AU40" s="118"/>
-      <c r="AV40" s="119"/>
-      <c r="AW40" s="117"/>
-      <c r="AX40" s="118"/>
-      <c r="AY40" s="119"/>
-      <c r="AZ40" s="123"/>
-      <c r="BA40" s="148"/>
-      <c r="BB40" s="148"/>
-      <c r="BC40" s="148"/>
-      <c r="BD40" s="148"/>
-      <c r="BE40" s="148"/>
-      <c r="BF40" s="148"/>
-      <c r="BG40" s="149"/>
+      <c r="I40" s="217"/>
+      <c r="J40" s="217"/>
+      <c r="K40" s="217"/>
+      <c r="L40" s="218"/>
+      <c r="M40" s="154"/>
+      <c r="N40" s="154"/>
+      <c r="O40" s="154"/>
+      <c r="P40" s="154"/>
+      <c r="Q40" s="154"/>
+      <c r="R40" s="154"/>
+      <c r="S40" s="155"/>
+      <c r="T40" s="158"/>
+      <c r="U40" s="159"/>
+      <c r="V40" s="159"/>
+      <c r="W40" s="159"/>
+      <c r="X40" s="159"/>
+      <c r="Y40" s="159"/>
+      <c r="Z40" s="159"/>
+      <c r="AA40" s="159"/>
+      <c r="AB40" s="160"/>
+      <c r="AC40" s="180"/>
+      <c r="AD40" s="181"/>
+      <c r="AE40" s="181"/>
+      <c r="AF40" s="181"/>
+      <c r="AG40" s="181"/>
+      <c r="AH40" s="181"/>
+      <c r="AI40" s="181"/>
+      <c r="AJ40" s="181"/>
+      <c r="AK40" s="181"/>
+      <c r="AL40" s="181"/>
+      <c r="AM40" s="182"/>
+      <c r="AN40" s="129"/>
+      <c r="AO40" s="130"/>
+      <c r="AP40" s="131"/>
+      <c r="AQ40" s="186"/>
+      <c r="AR40" s="187"/>
+      <c r="AS40" s="188"/>
+      <c r="AT40" s="129"/>
+      <c r="AU40" s="130"/>
+      <c r="AV40" s="131"/>
+      <c r="AW40" s="129"/>
+      <c r="AX40" s="130"/>
+      <c r="AY40" s="131"/>
+      <c r="AZ40" s="79"/>
+      <c r="BA40" s="77"/>
+      <c r="BB40" s="77"/>
+      <c r="BC40" s="77"/>
+      <c r="BD40" s="77"/>
+      <c r="BE40" s="77"/>
+      <c r="BF40" s="77"/>
+      <c r="BG40" s="78"/>
     </row>
     <row r="41" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A41" s="78"/>
-      <c r="B41" s="79"/>
-      <c r="C41" s="289"/>
-      <c r="D41" s="290"/>
-      <c r="E41" s="290"/>
-      <c r="F41" s="290"/>
-      <c r="G41" s="291"/>
-      <c r="H41" s="289"/>
-      <c r="I41" s="290"/>
-      <c r="J41" s="290"/>
-      <c r="K41" s="290"/>
-      <c r="L41" s="291"/>
-      <c r="M41" s="171"/>
-      <c r="N41" s="171"/>
-      <c r="O41" s="171"/>
-      <c r="P41" s="171"/>
-      <c r="Q41" s="171"/>
-      <c r="R41" s="171"/>
-      <c r="S41" s="172"/>
-      <c r="T41" s="182"/>
-      <c r="U41" s="183"/>
-      <c r="V41" s="183"/>
-      <c r="W41" s="183"/>
-      <c r="X41" s="183"/>
-      <c r="Y41" s="183"/>
-      <c r="Z41" s="183"/>
-      <c r="AA41" s="183"/>
-      <c r="AB41" s="184"/>
-      <c r="AC41" s="176"/>
-      <c r="AD41" s="177"/>
-      <c r="AE41" s="177"/>
-      <c r="AF41" s="177"/>
-      <c r="AG41" s="177"/>
-      <c r="AH41" s="177"/>
-      <c r="AI41" s="177"/>
-      <c r="AJ41" s="177"/>
-      <c r="AK41" s="177"/>
-      <c r="AL41" s="177"/>
-      <c r="AM41" s="178"/>
-      <c r="AN41" s="120"/>
-      <c r="AO41" s="121"/>
-      <c r="AP41" s="122"/>
-      <c r="AQ41" s="188"/>
-      <c r="AR41" s="189"/>
-      <c r="AS41" s="190"/>
-      <c r="AT41" s="120"/>
-      <c r="AU41" s="121"/>
-      <c r="AV41" s="122"/>
-      <c r="AW41" s="120"/>
-      <c r="AX41" s="121"/>
-      <c r="AY41" s="122"/>
-      <c r="AZ41" s="123"/>
-      <c r="BA41" s="124"/>
-      <c r="BB41" s="124"/>
-      <c r="BC41" s="124"/>
-      <c r="BD41" s="124"/>
-      <c r="BE41" s="124"/>
-      <c r="BF41" s="124"/>
-      <c r="BG41" s="125"/>
+      <c r="A41" s="249"/>
+      <c r="B41" s="250"/>
+      <c r="C41" s="219"/>
+      <c r="D41" s="220"/>
+      <c r="E41" s="220"/>
+      <c r="F41" s="220"/>
+      <c r="G41" s="221"/>
+      <c r="H41" s="219"/>
+      <c r="I41" s="220"/>
+      <c r="J41" s="220"/>
+      <c r="K41" s="220"/>
+      <c r="L41" s="221"/>
+      <c r="M41" s="156"/>
+      <c r="N41" s="156"/>
+      <c r="O41" s="156"/>
+      <c r="P41" s="156"/>
+      <c r="Q41" s="156"/>
+      <c r="R41" s="156"/>
+      <c r="S41" s="157"/>
+      <c r="T41" s="161"/>
+      <c r="U41" s="162"/>
+      <c r="V41" s="162"/>
+      <c r="W41" s="162"/>
+      <c r="X41" s="162"/>
+      <c r="Y41" s="162"/>
+      <c r="Z41" s="162"/>
+      <c r="AA41" s="162"/>
+      <c r="AB41" s="163"/>
+      <c r="AC41" s="183"/>
+      <c r="AD41" s="184"/>
+      <c r="AE41" s="184"/>
+      <c r="AF41" s="184"/>
+      <c r="AG41" s="184"/>
+      <c r="AH41" s="184"/>
+      <c r="AI41" s="184"/>
+      <c r="AJ41" s="184"/>
+      <c r="AK41" s="184"/>
+      <c r="AL41" s="184"/>
+      <c r="AM41" s="185"/>
+      <c r="AN41" s="132"/>
+      <c r="AO41" s="133"/>
+      <c r="AP41" s="134"/>
+      <c r="AQ41" s="189"/>
+      <c r="AR41" s="190"/>
+      <c r="AS41" s="191"/>
+      <c r="AT41" s="132"/>
+      <c r="AU41" s="133"/>
+      <c r="AV41" s="134"/>
+      <c r="AW41" s="132"/>
+      <c r="AX41" s="133"/>
+      <c r="AY41" s="134"/>
+      <c r="AZ41" s="79"/>
+      <c r="BA41" s="76"/>
+      <c r="BB41" s="76"/>
+      <c r="BC41" s="76"/>
+      <c r="BD41" s="76"/>
+      <c r="BE41" s="76"/>
+      <c r="BF41" s="76"/>
+      <c r="BG41" s="80"/>
     </row>
     <row r="42" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A42" s="76">
+      <c r="A42" s="247">
         <f>A40+1</f>
         <v>18</v>
       </c>
-      <c r="B42" s="77"/>
-      <c r="C42" s="289"/>
-      <c r="D42" s="290"/>
-      <c r="E42" s="290"/>
-      <c r="F42" s="290"/>
-      <c r="G42" s="291"/>
-      <c r="H42" s="289"/>
-      <c r="I42" s="290"/>
-      <c r="J42" s="290"/>
-      <c r="K42" s="290"/>
-      <c r="L42" s="291"/>
-      <c r="M42" s="264"/>
-      <c r="N42" s="264"/>
-      <c r="O42" s="264"/>
-      <c r="P42" s="264"/>
-      <c r="Q42" s="264"/>
-      <c r="R42" s="264"/>
-      <c r="S42" s="265"/>
-      <c r="T42" s="163"/>
-      <c r="U42" s="164"/>
-      <c r="V42" s="164"/>
-      <c r="W42" s="164"/>
-      <c r="X42" s="164"/>
-      <c r="Y42" s="164"/>
-      <c r="Z42" s="164"/>
-      <c r="AA42" s="164"/>
-      <c r="AB42" s="165"/>
-      <c r="AC42" s="130"/>
-      <c r="AD42" s="131"/>
-      <c r="AE42" s="131"/>
-      <c r="AF42" s="131"/>
-      <c r="AG42" s="131"/>
-      <c r="AH42" s="131"/>
-      <c r="AI42" s="131"/>
-      <c r="AJ42" s="131"/>
-      <c r="AK42" s="131"/>
-      <c r="AL42" s="131"/>
-      <c r="AM42" s="132"/>
-      <c r="AN42" s="136"/>
-      <c r="AO42" s="137"/>
-      <c r="AP42" s="138"/>
+      <c r="B42" s="248"/>
+      <c r="C42" s="219"/>
+      <c r="D42" s="220"/>
+      <c r="E42" s="220"/>
+      <c r="F42" s="220"/>
+      <c r="G42" s="221"/>
+      <c r="H42" s="219"/>
+      <c r="I42" s="220"/>
+      <c r="J42" s="220"/>
+      <c r="K42" s="220"/>
+      <c r="L42" s="221"/>
+      <c r="M42" s="164"/>
+      <c r="N42" s="164"/>
+      <c r="O42" s="164"/>
+      <c r="P42" s="164"/>
+      <c r="Q42" s="164"/>
+      <c r="R42" s="164"/>
+      <c r="S42" s="165"/>
+      <c r="T42" s="168"/>
+      <c r="U42" s="169"/>
+      <c r="V42" s="169"/>
+      <c r="W42" s="169"/>
+      <c r="X42" s="169"/>
+      <c r="Y42" s="169"/>
+      <c r="Z42" s="169"/>
+      <c r="AA42" s="169"/>
+      <c r="AB42" s="170"/>
+      <c r="AC42" s="174"/>
+      <c r="AD42" s="175"/>
+      <c r="AE42" s="175"/>
+      <c r="AF42" s="175"/>
+      <c r="AG42" s="175"/>
+      <c r="AH42" s="175"/>
+      <c r="AI42" s="175"/>
+      <c r="AJ42" s="175"/>
+      <c r="AK42" s="175"/>
+      <c r="AL42" s="175"/>
+      <c r="AM42" s="176"/>
+      <c r="AN42" s="123"/>
+      <c r="AO42" s="124"/>
+      <c r="AP42" s="125"/>
       <c r="AQ42" s="142"/>
       <c r="AR42" s="143"/>
       <c r="AS42" s="144"/>
-      <c r="AT42" s="136"/>
-      <c r="AU42" s="137"/>
-      <c r="AV42" s="138"/>
-      <c r="AW42" s="136"/>
-      <c r="AX42" s="137"/>
-      <c r="AY42" s="138"/>
-      <c r="AZ42" s="84"/>
-      <c r="BA42" s="150"/>
-      <c r="BB42" s="150"/>
-      <c r="BC42" s="150"/>
-      <c r="BD42" s="150"/>
-      <c r="BE42" s="150"/>
-      <c r="BF42" s="150"/>
-      <c r="BG42" s="151"/>
+      <c r="AT42" s="123"/>
+      <c r="AU42" s="124"/>
+      <c r="AV42" s="125"/>
+      <c r="AW42" s="123"/>
+      <c r="AX42" s="124"/>
+      <c r="AY42" s="125"/>
+      <c r="AZ42" s="120"/>
+      <c r="BA42" s="138"/>
+      <c r="BB42" s="138"/>
+      <c r="BC42" s="138"/>
+      <c r="BD42" s="138"/>
+      <c r="BE42" s="138"/>
+      <c r="BF42" s="138"/>
+      <c r="BG42" s="139"/>
     </row>
     <row r="43" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A43" s="78"/>
-      <c r="B43" s="79"/>
-      <c r="C43" s="289"/>
-      <c r="D43" s="290"/>
-      <c r="E43" s="290"/>
-      <c r="F43" s="290"/>
-      <c r="G43" s="291"/>
-      <c r="H43" s="289"/>
-      <c r="I43" s="290"/>
-      <c r="J43" s="290"/>
-      <c r="K43" s="290"/>
-      <c r="L43" s="291"/>
-      <c r="M43" s="266"/>
-      <c r="N43" s="266"/>
-      <c r="O43" s="266"/>
-      <c r="P43" s="266"/>
-      <c r="Q43" s="266"/>
-      <c r="R43" s="266"/>
-      <c r="S43" s="267"/>
-      <c r="T43" s="166"/>
-      <c r="U43" s="167"/>
-      <c r="V43" s="167"/>
-      <c r="W43" s="167"/>
-      <c r="X43" s="167"/>
-      <c r="Y43" s="167"/>
-      <c r="Z43" s="167"/>
-      <c r="AA43" s="167"/>
-      <c r="AB43" s="168"/>
-      <c r="AC43" s="133"/>
-      <c r="AD43" s="134"/>
-      <c r="AE43" s="134"/>
-      <c r="AF43" s="134"/>
-      <c r="AG43" s="134"/>
-      <c r="AH43" s="134"/>
-      <c r="AI43" s="134"/>
-      <c r="AJ43" s="134"/>
-      <c r="AK43" s="134"/>
-      <c r="AL43" s="134"/>
-      <c r="AM43" s="135"/>
-      <c r="AN43" s="139"/>
-      <c r="AO43" s="140"/>
-      <c r="AP43" s="141"/>
+      <c r="A43" s="249"/>
+      <c r="B43" s="250"/>
+      <c r="C43" s="219"/>
+      <c r="D43" s="220"/>
+      <c r="E43" s="220"/>
+      <c r="F43" s="220"/>
+      <c r="G43" s="221"/>
+      <c r="H43" s="219"/>
+      <c r="I43" s="220"/>
+      <c r="J43" s="220"/>
+      <c r="K43" s="220"/>
+      <c r="L43" s="221"/>
+      <c r="M43" s="166"/>
+      <c r="N43" s="166"/>
+      <c r="O43" s="166"/>
+      <c r="P43" s="166"/>
+      <c r="Q43" s="166"/>
+      <c r="R43" s="166"/>
+      <c r="S43" s="167"/>
+      <c r="T43" s="171"/>
+      <c r="U43" s="172"/>
+      <c r="V43" s="172"/>
+      <c r="W43" s="172"/>
+      <c r="X43" s="172"/>
+      <c r="Y43" s="172"/>
+      <c r="Z43" s="172"/>
+      <c r="AA43" s="172"/>
+      <c r="AB43" s="173"/>
+      <c r="AC43" s="177"/>
+      <c r="AD43" s="178"/>
+      <c r="AE43" s="178"/>
+      <c r="AF43" s="178"/>
+      <c r="AG43" s="178"/>
+      <c r="AH43" s="178"/>
+      <c r="AI43" s="178"/>
+      <c r="AJ43" s="178"/>
+      <c r="AK43" s="178"/>
+      <c r="AL43" s="178"/>
+      <c r="AM43" s="179"/>
+      <c r="AN43" s="126"/>
+      <c r="AO43" s="127"/>
+      <c r="AP43" s="128"/>
       <c r="AQ43" s="145"/>
       <c r="AR43" s="146"/>
       <c r="AS43" s="147"/>
-      <c r="AT43" s="139"/>
-      <c r="AU43" s="140"/>
-      <c r="AV43" s="141"/>
-      <c r="AW43" s="139"/>
-      <c r="AX43" s="140"/>
-      <c r="AY43" s="141"/>
-      <c r="AZ43" s="84"/>
-      <c r="BA43" s="85"/>
-      <c r="BB43" s="85"/>
-      <c r="BC43" s="85"/>
-      <c r="BD43" s="85"/>
-      <c r="BE43" s="85"/>
-      <c r="BF43" s="85"/>
-      <c r="BG43" s="86"/>
+      <c r="AT43" s="126"/>
+      <c r="AU43" s="127"/>
+      <c r="AV43" s="128"/>
+      <c r="AW43" s="126"/>
+      <c r="AX43" s="127"/>
+      <c r="AY43" s="128"/>
+      <c r="AZ43" s="120"/>
+      <c r="BA43" s="121"/>
+      <c r="BB43" s="121"/>
+      <c r="BC43" s="121"/>
+      <c r="BD43" s="121"/>
+      <c r="BE43" s="121"/>
+      <c r="BF43" s="121"/>
+      <c r="BG43" s="122"/>
     </row>
     <row r="44" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A44" s="76">
+      <c r="A44" s="247">
         <f>A42+1</f>
         <v>19</v>
       </c>
-      <c r="B44" s="77"/>
-      <c r="C44" s="289"/>
-      <c r="D44" s="290"/>
-      <c r="E44" s="290"/>
-      <c r="F44" s="290"/>
-      <c r="G44" s="291"/>
-      <c r="H44" s="289"/>
-      <c r="I44" s="290"/>
-      <c r="J44" s="290"/>
-      <c r="K44" s="290"/>
-      <c r="L44" s="291"/>
-      <c r="M44" s="169"/>
-      <c r="N44" s="169"/>
-      <c r="O44" s="169"/>
-      <c r="P44" s="169"/>
-      <c r="Q44" s="169"/>
-      <c r="R44" s="169"/>
-      <c r="S44" s="170"/>
-      <c r="T44" s="173"/>
-      <c r="U44" s="174"/>
-      <c r="V44" s="174"/>
-      <c r="W44" s="174"/>
-      <c r="X44" s="174"/>
-      <c r="Y44" s="174"/>
-      <c r="Z44" s="174"/>
-      <c r="AA44" s="174"/>
-      <c r="AB44" s="175"/>
-      <c r="AC44" s="179"/>
-      <c r="AD44" s="180"/>
-      <c r="AE44" s="180"/>
-      <c r="AF44" s="180"/>
-      <c r="AG44" s="180"/>
-      <c r="AH44" s="180"/>
-      <c r="AI44" s="180"/>
-      <c r="AJ44" s="180"/>
-      <c r="AK44" s="180"/>
-      <c r="AL44" s="180"/>
-      <c r="AM44" s="181"/>
-      <c r="AN44" s="117"/>
-      <c r="AO44" s="118"/>
-      <c r="AP44" s="119"/>
-      <c r="AQ44" s="185"/>
-      <c r="AR44" s="186"/>
-      <c r="AS44" s="187"/>
-      <c r="AT44" s="117"/>
-      <c r="AU44" s="118"/>
-      <c r="AV44" s="119"/>
-      <c r="AW44" s="117"/>
-      <c r="AX44" s="118"/>
-      <c r="AY44" s="119"/>
-      <c r="AZ44" s="123"/>
-      <c r="BA44" s="148"/>
-      <c r="BB44" s="148"/>
-      <c r="BC44" s="148"/>
-      <c r="BD44" s="148"/>
-      <c r="BE44" s="148"/>
-      <c r="BF44" s="148"/>
-      <c r="BG44" s="149"/>
+      <c r="B44" s="248"/>
+      <c r="C44" s="219"/>
+      <c r="D44" s="220"/>
+      <c r="E44" s="220"/>
+      <c r="F44" s="220"/>
+      <c r="G44" s="221"/>
+      <c r="H44" s="219"/>
+      <c r="I44" s="220"/>
+      <c r="J44" s="220"/>
+      <c r="K44" s="220"/>
+      <c r="L44" s="221"/>
+      <c r="M44" s="154"/>
+      <c r="N44" s="154"/>
+      <c r="O44" s="154"/>
+      <c r="P44" s="154"/>
+      <c r="Q44" s="154"/>
+      <c r="R44" s="154"/>
+      <c r="S44" s="155"/>
+      <c r="T44" s="180"/>
+      <c r="U44" s="181"/>
+      <c r="V44" s="181"/>
+      <c r="W44" s="181"/>
+      <c r="X44" s="181"/>
+      <c r="Y44" s="181"/>
+      <c r="Z44" s="181"/>
+      <c r="AA44" s="181"/>
+      <c r="AB44" s="182"/>
+      <c r="AC44" s="158"/>
+      <c r="AD44" s="159"/>
+      <c r="AE44" s="159"/>
+      <c r="AF44" s="159"/>
+      <c r="AG44" s="159"/>
+      <c r="AH44" s="159"/>
+      <c r="AI44" s="159"/>
+      <c r="AJ44" s="159"/>
+      <c r="AK44" s="159"/>
+      <c r="AL44" s="159"/>
+      <c r="AM44" s="160"/>
+      <c r="AN44" s="129"/>
+      <c r="AO44" s="130"/>
+      <c r="AP44" s="131"/>
+      <c r="AQ44" s="186"/>
+      <c r="AR44" s="187"/>
+      <c r="AS44" s="188"/>
+      <c r="AT44" s="129"/>
+      <c r="AU44" s="130"/>
+      <c r="AV44" s="131"/>
+      <c r="AW44" s="129"/>
+      <c r="AX44" s="130"/>
+      <c r="AY44" s="131"/>
+      <c r="AZ44" s="79"/>
+      <c r="BA44" s="77"/>
+      <c r="BB44" s="77"/>
+      <c r="BC44" s="77"/>
+      <c r="BD44" s="77"/>
+      <c r="BE44" s="77"/>
+      <c r="BF44" s="77"/>
+      <c r="BG44" s="78"/>
     </row>
     <row r="45" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A45" s="78"/>
-      <c r="B45" s="79"/>
-      <c r="C45" s="289"/>
-      <c r="D45" s="290"/>
-      <c r="E45" s="290"/>
-      <c r="F45" s="290"/>
-      <c r="G45" s="291"/>
-      <c r="H45" s="289"/>
-      <c r="I45" s="290"/>
-      <c r="J45" s="290"/>
-      <c r="K45" s="290"/>
-      <c r="L45" s="291"/>
-      <c r="M45" s="171"/>
-      <c r="N45" s="171"/>
-      <c r="O45" s="171"/>
-      <c r="P45" s="171"/>
-      <c r="Q45" s="171"/>
-      <c r="R45" s="171"/>
-      <c r="S45" s="172"/>
-      <c r="T45" s="176"/>
-      <c r="U45" s="177"/>
-      <c r="V45" s="177"/>
-      <c r="W45" s="177"/>
-      <c r="X45" s="177"/>
-      <c r="Y45" s="177"/>
-      <c r="Z45" s="177"/>
-      <c r="AA45" s="177"/>
-      <c r="AB45" s="178"/>
-      <c r="AC45" s="182"/>
-      <c r="AD45" s="183"/>
-      <c r="AE45" s="183"/>
-      <c r="AF45" s="183"/>
-      <c r="AG45" s="183"/>
-      <c r="AH45" s="183"/>
-      <c r="AI45" s="183"/>
-      <c r="AJ45" s="183"/>
-      <c r="AK45" s="183"/>
-      <c r="AL45" s="183"/>
-      <c r="AM45" s="184"/>
-      <c r="AN45" s="120"/>
-      <c r="AO45" s="121"/>
-      <c r="AP45" s="122"/>
-      <c r="AQ45" s="188"/>
-      <c r="AR45" s="189"/>
-      <c r="AS45" s="190"/>
-      <c r="AT45" s="120"/>
-      <c r="AU45" s="121"/>
-      <c r="AV45" s="122"/>
-      <c r="AW45" s="120"/>
-      <c r="AX45" s="121"/>
-      <c r="AY45" s="122"/>
-      <c r="AZ45" s="123"/>
-      <c r="BA45" s="124"/>
-      <c r="BB45" s="124"/>
-      <c r="BC45" s="124"/>
-      <c r="BD45" s="124"/>
-      <c r="BE45" s="124"/>
-      <c r="BF45" s="124"/>
-      <c r="BG45" s="125"/>
+      <c r="A45" s="249"/>
+      <c r="B45" s="250"/>
+      <c r="C45" s="219"/>
+      <c r="D45" s="220"/>
+      <c r="E45" s="220"/>
+      <c r="F45" s="220"/>
+      <c r="G45" s="221"/>
+      <c r="H45" s="219"/>
+      <c r="I45" s="220"/>
+      <c r="J45" s="220"/>
+      <c r="K45" s="220"/>
+      <c r="L45" s="221"/>
+      <c r="M45" s="156"/>
+      <c r="N45" s="156"/>
+      <c r="O45" s="156"/>
+      <c r="P45" s="156"/>
+      <c r="Q45" s="156"/>
+      <c r="R45" s="156"/>
+      <c r="S45" s="157"/>
+      <c r="T45" s="183"/>
+      <c r="U45" s="184"/>
+      <c r="V45" s="184"/>
+      <c r="W45" s="184"/>
+      <c r="X45" s="184"/>
+      <c r="Y45" s="184"/>
+      <c r="Z45" s="184"/>
+      <c r="AA45" s="184"/>
+      <c r="AB45" s="185"/>
+      <c r="AC45" s="161"/>
+      <c r="AD45" s="162"/>
+      <c r="AE45" s="162"/>
+      <c r="AF45" s="162"/>
+      <c r="AG45" s="162"/>
+      <c r="AH45" s="162"/>
+      <c r="AI45" s="162"/>
+      <c r="AJ45" s="162"/>
+      <c r="AK45" s="162"/>
+      <c r="AL45" s="162"/>
+      <c r="AM45" s="163"/>
+      <c r="AN45" s="132"/>
+      <c r="AO45" s="133"/>
+      <c r="AP45" s="134"/>
+      <c r="AQ45" s="189"/>
+      <c r="AR45" s="190"/>
+      <c r="AS45" s="191"/>
+      <c r="AT45" s="132"/>
+      <c r="AU45" s="133"/>
+      <c r="AV45" s="134"/>
+      <c r="AW45" s="132"/>
+      <c r="AX45" s="133"/>
+      <c r="AY45" s="134"/>
+      <c r="AZ45" s="79"/>
+      <c r="BA45" s="76"/>
+      <c r="BB45" s="76"/>
+      <c r="BC45" s="76"/>
+      <c r="BD45" s="76"/>
+      <c r="BE45" s="76"/>
+      <c r="BF45" s="76"/>
+      <c r="BG45" s="80"/>
     </row>
     <row r="46" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A46" s="76">
+      <c r="A46" s="247">
         <f>A44+1</f>
         <v>20</v>
       </c>
-      <c r="B46" s="77"/>
-      <c r="C46" s="289"/>
-      <c r="D46" s="290"/>
-      <c r="E46" s="290"/>
-      <c r="F46" s="290"/>
-      <c r="G46" s="291"/>
-      <c r="H46" s="289"/>
-      <c r="I46" s="290"/>
-      <c r="J46" s="290"/>
-      <c r="K46" s="290"/>
-      <c r="L46" s="291"/>
-      <c r="M46" s="126"/>
-      <c r="N46" s="126"/>
-      <c r="O46" s="126"/>
-      <c r="P46" s="126"/>
-      <c r="Q46" s="126"/>
-      <c r="R46" s="126"/>
-      <c r="S46" s="127"/>
-      <c r="T46" s="163"/>
-      <c r="U46" s="164"/>
-      <c r="V46" s="164"/>
-      <c r="W46" s="164"/>
-      <c r="X46" s="164"/>
-      <c r="Y46" s="164"/>
-      <c r="Z46" s="164"/>
-      <c r="AA46" s="164"/>
-      <c r="AB46" s="165"/>
-      <c r="AC46" s="130"/>
-      <c r="AD46" s="131"/>
-      <c r="AE46" s="131"/>
-      <c r="AF46" s="131"/>
-      <c r="AG46" s="131"/>
-      <c r="AH46" s="131"/>
-      <c r="AI46" s="131"/>
-      <c r="AJ46" s="131"/>
-      <c r="AK46" s="131"/>
-      <c r="AL46" s="131"/>
-      <c r="AM46" s="132"/>
-      <c r="AN46" s="136"/>
-      <c r="AO46" s="137"/>
-      <c r="AP46" s="138"/>
+      <c r="B46" s="248"/>
+      <c r="C46" s="219"/>
+      <c r="D46" s="220"/>
+      <c r="E46" s="220"/>
+      <c r="F46" s="220"/>
+      <c r="G46" s="221"/>
+      <c r="H46" s="219"/>
+      <c r="I46" s="220"/>
+      <c r="J46" s="220"/>
+      <c r="K46" s="220"/>
+      <c r="L46" s="221"/>
+      <c r="M46" s="225"/>
+      <c r="N46" s="225"/>
+      <c r="O46" s="225"/>
+      <c r="P46" s="225"/>
+      <c r="Q46" s="225"/>
+      <c r="R46" s="225"/>
+      <c r="S46" s="226"/>
+      <c r="T46" s="168"/>
+      <c r="U46" s="169"/>
+      <c r="V46" s="169"/>
+      <c r="W46" s="169"/>
+      <c r="X46" s="169"/>
+      <c r="Y46" s="169"/>
+      <c r="Z46" s="169"/>
+      <c r="AA46" s="169"/>
+      <c r="AB46" s="170"/>
+      <c r="AC46" s="174"/>
+      <c r="AD46" s="175"/>
+      <c r="AE46" s="175"/>
+      <c r="AF46" s="175"/>
+      <c r="AG46" s="175"/>
+      <c r="AH46" s="175"/>
+      <c r="AI46" s="175"/>
+      <c r="AJ46" s="175"/>
+      <c r="AK46" s="175"/>
+      <c r="AL46" s="175"/>
+      <c r="AM46" s="176"/>
+      <c r="AN46" s="123"/>
+      <c r="AO46" s="124"/>
+      <c r="AP46" s="125"/>
       <c r="AQ46" s="142"/>
       <c r="AR46" s="143"/>
       <c r="AS46" s="144"/>
-      <c r="AT46" s="136"/>
-      <c r="AU46" s="137"/>
-      <c r="AV46" s="138"/>
-      <c r="AW46" s="136"/>
-      <c r="AX46" s="137"/>
-      <c r="AY46" s="138"/>
-      <c r="AZ46" s="84"/>
-      <c r="BA46" s="150"/>
-      <c r="BB46" s="150"/>
-      <c r="BC46" s="150"/>
-      <c r="BD46" s="150"/>
-      <c r="BE46" s="150"/>
-      <c r="BF46" s="150"/>
-      <c r="BG46" s="151"/>
+      <c r="AT46" s="123"/>
+      <c r="AU46" s="124"/>
+      <c r="AV46" s="125"/>
+      <c r="AW46" s="123"/>
+      <c r="AX46" s="124"/>
+      <c r="AY46" s="125"/>
+      <c r="AZ46" s="120"/>
+      <c r="BA46" s="138"/>
+      <c r="BB46" s="138"/>
+      <c r="BC46" s="138"/>
+      <c r="BD46" s="138"/>
+      <c r="BE46" s="138"/>
+      <c r="BF46" s="138"/>
+      <c r="BG46" s="139"/>
     </row>
     <row r="47" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A47" s="78"/>
-      <c r="B47" s="79"/>
-      <c r="C47" s="289"/>
-      <c r="D47" s="290"/>
-      <c r="E47" s="290"/>
-      <c r="F47" s="290"/>
-      <c r="G47" s="291"/>
-      <c r="H47" s="289"/>
-      <c r="I47" s="290"/>
-      <c r="J47" s="290"/>
-      <c r="K47" s="290"/>
-      <c r="L47" s="291"/>
-      <c r="M47" s="128"/>
-      <c r="N47" s="128"/>
-      <c r="O47" s="128"/>
-      <c r="P47" s="128"/>
-      <c r="Q47" s="128"/>
-      <c r="R47" s="128"/>
-      <c r="S47" s="129"/>
-      <c r="T47" s="166"/>
-      <c r="U47" s="167"/>
-      <c r="V47" s="167"/>
-      <c r="W47" s="167"/>
-      <c r="X47" s="167"/>
-      <c r="Y47" s="167"/>
-      <c r="Z47" s="167"/>
-      <c r="AA47" s="167"/>
-      <c r="AB47" s="168"/>
-      <c r="AC47" s="133"/>
-      <c r="AD47" s="134"/>
-      <c r="AE47" s="134"/>
-      <c r="AF47" s="134"/>
-      <c r="AG47" s="134"/>
-      <c r="AH47" s="134"/>
-      <c r="AI47" s="134"/>
-      <c r="AJ47" s="134"/>
-      <c r="AK47" s="134"/>
-      <c r="AL47" s="134"/>
-      <c r="AM47" s="135"/>
-      <c r="AN47" s="139"/>
-      <c r="AO47" s="140"/>
-      <c r="AP47" s="141"/>
+      <c r="A47" s="249"/>
+      <c r="B47" s="250"/>
+      <c r="C47" s="219"/>
+      <c r="D47" s="220"/>
+      <c r="E47" s="220"/>
+      <c r="F47" s="220"/>
+      <c r="G47" s="221"/>
+      <c r="H47" s="219"/>
+      <c r="I47" s="220"/>
+      <c r="J47" s="220"/>
+      <c r="K47" s="220"/>
+      <c r="L47" s="221"/>
+      <c r="M47" s="227"/>
+      <c r="N47" s="227"/>
+      <c r="O47" s="227"/>
+      <c r="P47" s="227"/>
+      <c r="Q47" s="227"/>
+      <c r="R47" s="227"/>
+      <c r="S47" s="228"/>
+      <c r="T47" s="171"/>
+      <c r="U47" s="172"/>
+      <c r="V47" s="172"/>
+      <c r="W47" s="172"/>
+      <c r="X47" s="172"/>
+      <c r="Y47" s="172"/>
+      <c r="Z47" s="172"/>
+      <c r="AA47" s="172"/>
+      <c r="AB47" s="173"/>
+      <c r="AC47" s="177"/>
+      <c r="AD47" s="178"/>
+      <c r="AE47" s="178"/>
+      <c r="AF47" s="178"/>
+      <c r="AG47" s="178"/>
+      <c r="AH47" s="178"/>
+      <c r="AI47" s="178"/>
+      <c r="AJ47" s="178"/>
+      <c r="AK47" s="178"/>
+      <c r="AL47" s="178"/>
+      <c r="AM47" s="179"/>
+      <c r="AN47" s="126"/>
+      <c r="AO47" s="127"/>
+      <c r="AP47" s="128"/>
       <c r="AQ47" s="145"/>
       <c r="AR47" s="146"/>
       <c r="AS47" s="147"/>
-      <c r="AT47" s="139"/>
-      <c r="AU47" s="140"/>
-      <c r="AV47" s="141"/>
-      <c r="AW47" s="139"/>
-      <c r="AX47" s="140"/>
-      <c r="AY47" s="141"/>
-      <c r="AZ47" s="84"/>
-      <c r="BA47" s="85"/>
-      <c r="BB47" s="85"/>
-      <c r="BC47" s="85"/>
-      <c r="BD47" s="85"/>
-      <c r="BE47" s="85"/>
-      <c r="BF47" s="85"/>
-      <c r="BG47" s="86"/>
+      <c r="AT47" s="126"/>
+      <c r="AU47" s="127"/>
+      <c r="AV47" s="128"/>
+      <c r="AW47" s="126"/>
+      <c r="AX47" s="127"/>
+      <c r="AY47" s="128"/>
+      <c r="AZ47" s="120"/>
+      <c r="BA47" s="121"/>
+      <c r="BB47" s="121"/>
+      <c r="BC47" s="121"/>
+      <c r="BD47" s="121"/>
+      <c r="BE47" s="121"/>
+      <c r="BF47" s="121"/>
+      <c r="BG47" s="122"/>
     </row>
     <row r="48" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A48" s="76">
+      <c r="A48" s="247">
         <f>A46+1</f>
         <v>21</v>
       </c>
-      <c r="B48" s="77"/>
-      <c r="C48" s="289"/>
-      <c r="D48" s="290"/>
-      <c r="E48" s="290"/>
-      <c r="F48" s="290"/>
-      <c r="G48" s="291"/>
-      <c r="H48" s="289"/>
-      <c r="I48" s="290"/>
-      <c r="J48" s="290"/>
-      <c r="K48" s="290"/>
-      <c r="L48" s="291"/>
-      <c r="M48" s="169"/>
-      <c r="N48" s="169"/>
-      <c r="O48" s="169"/>
-      <c r="P48" s="169"/>
-      <c r="Q48" s="169"/>
-      <c r="R48" s="169"/>
-      <c r="S48" s="170"/>
-      <c r="T48" s="179"/>
-      <c r="U48" s="180"/>
-      <c r="V48" s="180"/>
-      <c r="W48" s="180"/>
-      <c r="X48" s="180"/>
-      <c r="Y48" s="180"/>
-      <c r="Z48" s="180"/>
-      <c r="AA48" s="180"/>
-      <c r="AB48" s="181"/>
-      <c r="AC48" s="179"/>
-      <c r="AD48" s="174"/>
-      <c r="AE48" s="174"/>
-      <c r="AF48" s="174"/>
-      <c r="AG48" s="174"/>
-      <c r="AH48" s="174"/>
-      <c r="AI48" s="174"/>
-      <c r="AJ48" s="174"/>
-      <c r="AK48" s="174"/>
-      <c r="AL48" s="174"/>
-      <c r="AM48" s="175"/>
-      <c r="AN48" s="117"/>
-      <c r="AO48" s="118"/>
-      <c r="AP48" s="119"/>
-      <c r="AQ48" s="185"/>
-      <c r="AR48" s="186"/>
-      <c r="AS48" s="187"/>
-      <c r="AT48" s="117"/>
-      <c r="AU48" s="118"/>
-      <c r="AV48" s="119"/>
-      <c r="AW48" s="117"/>
-      <c r="AX48" s="118"/>
-      <c r="AY48" s="119"/>
-      <c r="AZ48" s="123"/>
-      <c r="BA48" s="148"/>
-      <c r="BB48" s="148"/>
-      <c r="BC48" s="148"/>
-      <c r="BD48" s="148"/>
-      <c r="BE48" s="148"/>
-      <c r="BF48" s="148"/>
-      <c r="BG48" s="149"/>
+      <c r="B48" s="248"/>
+      <c r="C48" s="219"/>
+      <c r="D48" s="220"/>
+      <c r="E48" s="220"/>
+      <c r="F48" s="220"/>
+      <c r="G48" s="221"/>
+      <c r="H48" s="219"/>
+      <c r="I48" s="220"/>
+      <c r="J48" s="220"/>
+      <c r="K48" s="220"/>
+      <c r="L48" s="221"/>
+      <c r="M48" s="154"/>
+      <c r="N48" s="154"/>
+      <c r="O48" s="154"/>
+      <c r="P48" s="154"/>
+      <c r="Q48" s="154"/>
+      <c r="R48" s="154"/>
+      <c r="S48" s="155"/>
+      <c r="T48" s="158"/>
+      <c r="U48" s="159"/>
+      <c r="V48" s="159"/>
+      <c r="W48" s="159"/>
+      <c r="X48" s="159"/>
+      <c r="Y48" s="159"/>
+      <c r="Z48" s="159"/>
+      <c r="AA48" s="159"/>
+      <c r="AB48" s="160"/>
+      <c r="AC48" s="158"/>
+      <c r="AD48" s="181"/>
+      <c r="AE48" s="181"/>
+      <c r="AF48" s="181"/>
+      <c r="AG48" s="181"/>
+      <c r="AH48" s="181"/>
+      <c r="AI48" s="181"/>
+      <c r="AJ48" s="181"/>
+      <c r="AK48" s="181"/>
+      <c r="AL48" s="181"/>
+      <c r="AM48" s="182"/>
+      <c r="AN48" s="129"/>
+      <c r="AO48" s="130"/>
+      <c r="AP48" s="131"/>
+      <c r="AQ48" s="186"/>
+      <c r="AR48" s="187"/>
+      <c r="AS48" s="188"/>
+      <c r="AT48" s="129"/>
+      <c r="AU48" s="130"/>
+      <c r="AV48" s="131"/>
+      <c r="AW48" s="129"/>
+      <c r="AX48" s="130"/>
+      <c r="AY48" s="131"/>
+      <c r="AZ48" s="79"/>
+      <c r="BA48" s="77"/>
+      <c r="BB48" s="77"/>
+      <c r="BC48" s="77"/>
+      <c r="BD48" s="77"/>
+      <c r="BE48" s="77"/>
+      <c r="BF48" s="77"/>
+      <c r="BG48" s="78"/>
     </row>
     <row r="49" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A49" s="78"/>
-      <c r="B49" s="79"/>
-      <c r="C49" s="292"/>
-      <c r="D49" s="293"/>
-      <c r="E49" s="293"/>
-      <c r="F49" s="293"/>
-      <c r="G49" s="294"/>
-      <c r="H49" s="292"/>
-      <c r="I49" s="293"/>
-      <c r="J49" s="293"/>
-      <c r="K49" s="293"/>
-      <c r="L49" s="294"/>
-      <c r="M49" s="171"/>
-      <c r="N49" s="171"/>
-      <c r="O49" s="171"/>
-      <c r="P49" s="171"/>
-      <c r="Q49" s="171"/>
-      <c r="R49" s="171"/>
-      <c r="S49" s="172"/>
-      <c r="T49" s="182"/>
-      <c r="U49" s="183"/>
-      <c r="V49" s="183"/>
-      <c r="W49" s="183"/>
-      <c r="X49" s="183"/>
-      <c r="Y49" s="183"/>
-      <c r="Z49" s="183"/>
-      <c r="AA49" s="183"/>
-      <c r="AB49" s="184"/>
-      <c r="AC49" s="176"/>
-      <c r="AD49" s="177"/>
-      <c r="AE49" s="177"/>
-      <c r="AF49" s="177"/>
-      <c r="AG49" s="177"/>
-      <c r="AH49" s="177"/>
-      <c r="AI49" s="177"/>
-      <c r="AJ49" s="177"/>
-      <c r="AK49" s="177"/>
-      <c r="AL49" s="177"/>
-      <c r="AM49" s="178"/>
-      <c r="AN49" s="120"/>
-      <c r="AO49" s="121"/>
-      <c r="AP49" s="122"/>
-      <c r="AQ49" s="188"/>
-      <c r="AR49" s="189"/>
-      <c r="AS49" s="190"/>
-      <c r="AT49" s="120"/>
-      <c r="AU49" s="121"/>
-      <c r="AV49" s="122"/>
-      <c r="AW49" s="120"/>
-      <c r="AX49" s="121"/>
-      <c r="AY49" s="122"/>
-      <c r="AZ49" s="123"/>
-      <c r="BA49" s="124"/>
-      <c r="BB49" s="124"/>
-      <c r="BC49" s="124"/>
-      <c r="BD49" s="124"/>
-      <c r="BE49" s="124"/>
-      <c r="BF49" s="124"/>
-      <c r="BG49" s="125"/>
+      <c r="A49" s="249"/>
+      <c r="B49" s="250"/>
+      <c r="C49" s="222"/>
+      <c r="D49" s="223"/>
+      <c r="E49" s="223"/>
+      <c r="F49" s="223"/>
+      <c r="G49" s="224"/>
+      <c r="H49" s="222"/>
+      <c r="I49" s="223"/>
+      <c r="J49" s="223"/>
+      <c r="K49" s="223"/>
+      <c r="L49" s="224"/>
+      <c r="M49" s="156"/>
+      <c r="N49" s="156"/>
+      <c r="O49" s="156"/>
+      <c r="P49" s="156"/>
+      <c r="Q49" s="156"/>
+      <c r="R49" s="156"/>
+      <c r="S49" s="157"/>
+      <c r="T49" s="161"/>
+      <c r="U49" s="162"/>
+      <c r="V49" s="162"/>
+      <c r="W49" s="162"/>
+      <c r="X49" s="162"/>
+      <c r="Y49" s="162"/>
+      <c r="Z49" s="162"/>
+      <c r="AA49" s="162"/>
+      <c r="AB49" s="163"/>
+      <c r="AC49" s="183"/>
+      <c r="AD49" s="184"/>
+      <c r="AE49" s="184"/>
+      <c r="AF49" s="184"/>
+      <c r="AG49" s="184"/>
+      <c r="AH49" s="184"/>
+      <c r="AI49" s="184"/>
+      <c r="AJ49" s="184"/>
+      <c r="AK49" s="184"/>
+      <c r="AL49" s="184"/>
+      <c r="AM49" s="185"/>
+      <c r="AN49" s="132"/>
+      <c r="AO49" s="133"/>
+      <c r="AP49" s="134"/>
+      <c r="AQ49" s="189"/>
+      <c r="AR49" s="190"/>
+      <c r="AS49" s="191"/>
+      <c r="AT49" s="132"/>
+      <c r="AU49" s="133"/>
+      <c r="AV49" s="134"/>
+      <c r="AW49" s="132"/>
+      <c r="AX49" s="133"/>
+      <c r="AY49" s="134"/>
+      <c r="AZ49" s="79"/>
+      <c r="BA49" s="76"/>
+      <c r="BB49" s="76"/>
+      <c r="BC49" s="76"/>
+      <c r="BD49" s="76"/>
+      <c r="BE49" s="76"/>
+      <c r="BF49" s="76"/>
+      <c r="BG49" s="80"/>
     </row>
     <row r="50" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A50" s="76">
+      <c r="A50" s="247">
         <f t="shared" ref="A50" si="1">A48+1</f>
         <v>22</v>
       </c>
-      <c r="B50" s="77"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="88"/>
-      <c r="E50" s="88"/>
-      <c r="F50" s="88"/>
-      <c r="G50" s="89"/>
-      <c r="H50" s="87" t="s">
+      <c r="B50" s="248"/>
+      <c r="C50" s="85"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="86"/>
+      <c r="G50" s="87"/>
+      <c r="H50" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="I50" s="88"/>
-      <c r="J50" s="88"/>
-      <c r="K50" s="88"/>
-      <c r="L50" s="89"/>
-      <c r="M50" s="126"/>
-      <c r="N50" s="126"/>
-      <c r="O50" s="126"/>
-      <c r="P50" s="126"/>
-      <c r="Q50" s="126"/>
-      <c r="R50" s="126"/>
-      <c r="S50" s="127"/>
-      <c r="T50" s="130"/>
-      <c r="U50" s="131"/>
-      <c r="V50" s="131"/>
-      <c r="W50" s="131"/>
-      <c r="X50" s="131"/>
-      <c r="Y50" s="131"/>
-      <c r="Z50" s="131"/>
-      <c r="AA50" s="131"/>
-      <c r="AB50" s="132"/>
-      <c r="AC50" s="130"/>
-      <c r="AD50" s="131"/>
-      <c r="AE50" s="131"/>
-      <c r="AF50" s="131"/>
-      <c r="AG50" s="131"/>
-      <c r="AH50" s="131"/>
-      <c r="AI50" s="131"/>
-      <c r="AJ50" s="131"/>
-      <c r="AK50" s="131"/>
-      <c r="AL50" s="131"/>
-      <c r="AM50" s="132"/>
-      <c r="AN50" s="136"/>
-      <c r="AO50" s="137"/>
-      <c r="AP50" s="138"/>
+      <c r="I50" s="86"/>
+      <c r="J50" s="86"/>
+      <c r="K50" s="86"/>
+      <c r="L50" s="87"/>
+      <c r="M50" s="225"/>
+      <c r="N50" s="225"/>
+      <c r="O50" s="225"/>
+      <c r="P50" s="225"/>
+      <c r="Q50" s="225"/>
+      <c r="R50" s="225"/>
+      <c r="S50" s="226"/>
+      <c r="T50" s="174"/>
+      <c r="U50" s="175"/>
+      <c r="V50" s="175"/>
+      <c r="W50" s="175"/>
+      <c r="X50" s="175"/>
+      <c r="Y50" s="175"/>
+      <c r="Z50" s="175"/>
+      <c r="AA50" s="175"/>
+      <c r="AB50" s="176"/>
+      <c r="AC50" s="174"/>
+      <c r="AD50" s="175"/>
+      <c r="AE50" s="175"/>
+      <c r="AF50" s="175"/>
+      <c r="AG50" s="175"/>
+      <c r="AH50" s="175"/>
+      <c r="AI50" s="175"/>
+      <c r="AJ50" s="175"/>
+      <c r="AK50" s="175"/>
+      <c r="AL50" s="175"/>
+      <c r="AM50" s="176"/>
+      <c r="AN50" s="123"/>
+      <c r="AO50" s="124"/>
+      <c r="AP50" s="125"/>
       <c r="AQ50" s="142"/>
       <c r="AR50" s="143"/>
       <c r="AS50" s="144"/>
-      <c r="AT50" s="136"/>
-      <c r="AU50" s="137"/>
-      <c r="AV50" s="138"/>
-      <c r="AW50" s="136"/>
-      <c r="AX50" s="137"/>
-      <c r="AY50" s="138"/>
-      <c r="AZ50" s="84"/>
-      <c r="BA50" s="150"/>
-      <c r="BB50" s="150"/>
-      <c r="BC50" s="150"/>
-      <c r="BD50" s="150"/>
-      <c r="BE50" s="150"/>
-      <c r="BF50" s="150"/>
-      <c r="BG50" s="151"/>
+      <c r="AT50" s="123"/>
+      <c r="AU50" s="124"/>
+      <c r="AV50" s="125"/>
+      <c r="AW50" s="123"/>
+      <c r="AX50" s="124"/>
+      <c r="AY50" s="125"/>
+      <c r="AZ50" s="120"/>
+      <c r="BA50" s="138"/>
+      <c r="BB50" s="138"/>
+      <c r="BC50" s="138"/>
+      <c r="BD50" s="138"/>
+      <c r="BE50" s="138"/>
+      <c r="BF50" s="138"/>
+      <c r="BG50" s="139"/>
     </row>
     <row r="51" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A51" s="78"/>
-      <c r="B51" s="79"/>
-      <c r="C51" s="90"/>
-      <c r="D51" s="91"/>
-      <c r="E51" s="91"/>
-      <c r="F51" s="91"/>
-      <c r="G51" s="92"/>
-      <c r="H51" s="90"/>
-      <c r="I51" s="91"/>
-      <c r="J51" s="91"/>
-      <c r="K51" s="91"/>
-      <c r="L51" s="92"/>
-      <c r="M51" s="128"/>
-      <c r="N51" s="128"/>
-      <c r="O51" s="128"/>
-      <c r="P51" s="128"/>
-      <c r="Q51" s="128"/>
-      <c r="R51" s="128"/>
-      <c r="S51" s="129"/>
-      <c r="T51" s="133"/>
-      <c r="U51" s="134"/>
-      <c r="V51" s="134"/>
-      <c r="W51" s="134"/>
-      <c r="X51" s="134"/>
-      <c r="Y51" s="134"/>
-      <c r="Z51" s="134"/>
-      <c r="AA51" s="134"/>
-      <c r="AB51" s="135"/>
-      <c r="AC51" s="133"/>
-      <c r="AD51" s="134"/>
-      <c r="AE51" s="134"/>
-      <c r="AF51" s="134"/>
-      <c r="AG51" s="134"/>
-      <c r="AH51" s="134"/>
-      <c r="AI51" s="134"/>
-      <c r="AJ51" s="134"/>
-      <c r="AK51" s="134"/>
-      <c r="AL51" s="134"/>
-      <c r="AM51" s="135"/>
-      <c r="AN51" s="139"/>
-      <c r="AO51" s="140"/>
-      <c r="AP51" s="141"/>
+      <c r="A51" s="249"/>
+      <c r="B51" s="250"/>
+      <c r="C51" s="88"/>
+      <c r="D51" s="89"/>
+      <c r="E51" s="89"/>
+      <c r="F51" s="89"/>
+      <c r="G51" s="90"/>
+      <c r="H51" s="88"/>
+      <c r="I51" s="89"/>
+      <c r="J51" s="89"/>
+      <c r="K51" s="89"/>
+      <c r="L51" s="90"/>
+      <c r="M51" s="227"/>
+      <c r="N51" s="227"/>
+      <c r="O51" s="227"/>
+      <c r="P51" s="227"/>
+      <c r="Q51" s="227"/>
+      <c r="R51" s="227"/>
+      <c r="S51" s="228"/>
+      <c r="T51" s="177"/>
+      <c r="U51" s="178"/>
+      <c r="V51" s="178"/>
+      <c r="W51" s="178"/>
+      <c r="X51" s="178"/>
+      <c r="Y51" s="178"/>
+      <c r="Z51" s="178"/>
+      <c r="AA51" s="178"/>
+      <c r="AB51" s="179"/>
+      <c r="AC51" s="177"/>
+      <c r="AD51" s="178"/>
+      <c r="AE51" s="178"/>
+      <c r="AF51" s="178"/>
+      <c r="AG51" s="178"/>
+      <c r="AH51" s="178"/>
+      <c r="AI51" s="178"/>
+      <c r="AJ51" s="178"/>
+      <c r="AK51" s="178"/>
+      <c r="AL51" s="178"/>
+      <c r="AM51" s="179"/>
+      <c r="AN51" s="126"/>
+      <c r="AO51" s="127"/>
+      <c r="AP51" s="128"/>
       <c r="AQ51" s="145"/>
       <c r="AR51" s="146"/>
       <c r="AS51" s="147"/>
-      <c r="AT51" s="139"/>
-      <c r="AU51" s="140"/>
-      <c r="AV51" s="141"/>
-      <c r="AW51" s="139"/>
-      <c r="AX51" s="140"/>
-      <c r="AY51" s="141"/>
-      <c r="AZ51" s="84"/>
-      <c r="BA51" s="85"/>
-      <c r="BB51" s="85"/>
-      <c r="BC51" s="85"/>
-      <c r="BD51" s="85"/>
-      <c r="BE51" s="85"/>
-      <c r="BF51" s="85"/>
-      <c r="BG51" s="86"/>
+      <c r="AT51" s="126"/>
+      <c r="AU51" s="127"/>
+      <c r="AV51" s="128"/>
+      <c r="AW51" s="126"/>
+      <c r="AX51" s="127"/>
+      <c r="AY51" s="128"/>
+      <c r="AZ51" s="120"/>
+      <c r="BA51" s="121"/>
+      <c r="BB51" s="121"/>
+      <c r="BC51" s="121"/>
+      <c r="BD51" s="121"/>
+      <c r="BE51" s="121"/>
+      <c r="BF51" s="121"/>
+      <c r="BG51" s="122"/>
     </row>
     <row r="52" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A52" s="80">
+      <c r="A52" s="81">
         <f>A50+1</f>
         <v>23</v>
       </c>
-      <c r="B52" s="81"/>
-      <c r="C52" s="87"/>
-      <c r="D52" s="88"/>
-      <c r="E52" s="88"/>
-      <c r="F52" s="88"/>
-      <c r="G52" s="89"/>
-      <c r="H52" s="93" t="s">
+      <c r="B52" s="82"/>
+      <c r="C52" s="85"/>
+      <c r="D52" s="86"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="87"/>
+      <c r="H52" s="317" t="s">
         <v>3</v>
       </c>
-      <c r="I52" s="94"/>
-      <c r="J52" s="94"/>
-      <c r="K52" s="94"/>
-      <c r="L52" s="95"/>
-      <c r="M52" s="99"/>
-      <c r="N52" s="100"/>
-      <c r="O52" s="100"/>
-      <c r="P52" s="100"/>
-      <c r="Q52" s="100"/>
-      <c r="R52" s="100"/>
-      <c r="S52" s="101"/>
-      <c r="T52" s="105"/>
-      <c r="U52" s="106"/>
-      <c r="V52" s="106"/>
-      <c r="W52" s="106"/>
-      <c r="X52" s="106"/>
-      <c r="Y52" s="106"/>
-      <c r="Z52" s="106"/>
-      <c r="AA52" s="106"/>
-      <c r="AB52" s="107"/>
-      <c r="AC52" s="111"/>
-      <c r="AD52" s="112"/>
-      <c r="AE52" s="112"/>
-      <c r="AF52" s="112"/>
-      <c r="AG52" s="112"/>
-      <c r="AH52" s="112"/>
-      <c r="AI52" s="112"/>
-      <c r="AJ52" s="112"/>
-      <c r="AK52" s="112"/>
-      <c r="AL52" s="112"/>
-      <c r="AM52" s="113"/>
-      <c r="AN52" s="117"/>
-      <c r="AO52" s="118"/>
-      <c r="AP52" s="119"/>
+      <c r="I52" s="318"/>
+      <c r="J52" s="318"/>
+      <c r="K52" s="318"/>
+      <c r="L52" s="319"/>
+      <c r="M52" s="323"/>
+      <c r="N52" s="324"/>
+      <c r="O52" s="324"/>
+      <c r="P52" s="324"/>
+      <c r="Q52" s="324"/>
+      <c r="R52" s="324"/>
+      <c r="S52" s="325"/>
+      <c r="T52" s="210"/>
+      <c r="U52" s="211"/>
+      <c r="V52" s="211"/>
+      <c r="W52" s="211"/>
+      <c r="X52" s="211"/>
+      <c r="Y52" s="211"/>
+      <c r="Z52" s="211"/>
+      <c r="AA52" s="211"/>
+      <c r="AB52" s="212"/>
+      <c r="AC52" s="192"/>
+      <c r="AD52" s="193"/>
+      <c r="AE52" s="193"/>
+      <c r="AF52" s="193"/>
+      <c r="AG52" s="193"/>
+      <c r="AH52" s="193"/>
+      <c r="AI52" s="193"/>
+      <c r="AJ52" s="193"/>
+      <c r="AK52" s="193"/>
+      <c r="AL52" s="193"/>
+      <c r="AM52" s="194"/>
+      <c r="AN52" s="129"/>
+      <c r="AO52" s="130"/>
+      <c r="AP52" s="131"/>
       <c r="AQ52" s="62"/>
       <c r="AR52" s="61"/>
       <c r="AS52" s="63"/>
-      <c r="AT52" s="117"/>
-      <c r="AU52" s="118"/>
-      <c r="AV52" s="119"/>
-      <c r="AW52" s="117"/>
-      <c r="AX52" s="118"/>
-      <c r="AY52" s="119"/>
-      <c r="AZ52" s="124"/>
-      <c r="BA52" s="148"/>
-      <c r="BB52" s="148"/>
-      <c r="BC52" s="148"/>
-      <c r="BD52" s="148"/>
-      <c r="BE52" s="148"/>
-      <c r="BF52" s="148"/>
-      <c r="BG52" s="149"/>
+      <c r="AT52" s="129"/>
+      <c r="AU52" s="130"/>
+      <c r="AV52" s="131"/>
+      <c r="AW52" s="129"/>
+      <c r="AX52" s="130"/>
+      <c r="AY52" s="131"/>
+      <c r="AZ52" s="76"/>
+      <c r="BA52" s="77"/>
+      <c r="BB52" s="77"/>
+      <c r="BC52" s="77"/>
+      <c r="BD52" s="77"/>
+      <c r="BE52" s="77"/>
+      <c r="BF52" s="77"/>
+      <c r="BG52" s="78"/>
     </row>
     <row r="53" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A53" s="82"/>
-      <c r="B53" s="83"/>
-      <c r="C53" s="90"/>
-      <c r="D53" s="91"/>
-      <c r="E53" s="91"/>
-      <c r="F53" s="91"/>
-      <c r="G53" s="92"/>
-      <c r="H53" s="96"/>
-      <c r="I53" s="97"/>
-      <c r="J53" s="97"/>
-      <c r="K53" s="97"/>
-      <c r="L53" s="98"/>
-      <c r="M53" s="102"/>
-      <c r="N53" s="103"/>
-      <c r="O53" s="103"/>
-      <c r="P53" s="103"/>
-      <c r="Q53" s="103"/>
-      <c r="R53" s="103"/>
-      <c r="S53" s="104"/>
-      <c r="T53" s="108"/>
-      <c r="U53" s="109"/>
-      <c r="V53" s="109"/>
-      <c r="W53" s="109"/>
-      <c r="X53" s="109"/>
-      <c r="Y53" s="109"/>
-      <c r="Z53" s="109"/>
-      <c r="AA53" s="109"/>
-      <c r="AB53" s="110"/>
-      <c r="AC53" s="114"/>
-      <c r="AD53" s="115"/>
-      <c r="AE53" s="115"/>
-      <c r="AF53" s="115"/>
-      <c r="AG53" s="115"/>
-      <c r="AH53" s="115"/>
-      <c r="AI53" s="115"/>
-      <c r="AJ53" s="115"/>
-      <c r="AK53" s="115"/>
-      <c r="AL53" s="115"/>
-      <c r="AM53" s="116"/>
-      <c r="AN53" s="120"/>
-      <c r="AO53" s="121"/>
-      <c r="AP53" s="122"/>
+      <c r="A53" s="83"/>
+      <c r="B53" s="84"/>
+      <c r="C53" s="88"/>
+      <c r="D53" s="89"/>
+      <c r="E53" s="89"/>
+      <c r="F53" s="89"/>
+      <c r="G53" s="90"/>
+      <c r="H53" s="320"/>
+      <c r="I53" s="321"/>
+      <c r="J53" s="321"/>
+      <c r="K53" s="321"/>
+      <c r="L53" s="322"/>
+      <c r="M53" s="326"/>
+      <c r="N53" s="327"/>
+      <c r="O53" s="327"/>
+      <c r="P53" s="327"/>
+      <c r="Q53" s="327"/>
+      <c r="R53" s="327"/>
+      <c r="S53" s="328"/>
+      <c r="T53" s="213"/>
+      <c r="U53" s="214"/>
+      <c r="V53" s="214"/>
+      <c r="W53" s="214"/>
+      <c r="X53" s="214"/>
+      <c r="Y53" s="214"/>
+      <c r="Z53" s="214"/>
+      <c r="AA53" s="214"/>
+      <c r="AB53" s="215"/>
+      <c r="AC53" s="195"/>
+      <c r="AD53" s="196"/>
+      <c r="AE53" s="196"/>
+      <c r="AF53" s="196"/>
+      <c r="AG53" s="196"/>
+      <c r="AH53" s="196"/>
+      <c r="AI53" s="196"/>
+      <c r="AJ53" s="196"/>
+      <c r="AK53" s="196"/>
+      <c r="AL53" s="196"/>
+      <c r="AM53" s="197"/>
+      <c r="AN53" s="132"/>
+      <c r="AO53" s="133"/>
+      <c r="AP53" s="134"/>
       <c r="AQ53" s="64"/>
       <c r="AR53" s="65"/>
       <c r="AS53" s="66"/>
-      <c r="AT53" s="120"/>
-      <c r="AU53" s="121"/>
-      <c r="AV53" s="122"/>
-      <c r="AW53" s="120"/>
-      <c r="AX53" s="121"/>
-      <c r="AY53" s="122"/>
-      <c r="AZ53" s="123"/>
-      <c r="BA53" s="124"/>
-      <c r="BB53" s="124"/>
-      <c r="BC53" s="124"/>
-      <c r="BD53" s="124"/>
-      <c r="BE53" s="124"/>
-      <c r="BF53" s="124"/>
-      <c r="BG53" s="125"/>
+      <c r="AT53" s="132"/>
+      <c r="AU53" s="133"/>
+      <c r="AV53" s="134"/>
+      <c r="AW53" s="132"/>
+      <c r="AX53" s="133"/>
+      <c r="AY53" s="134"/>
+      <c r="AZ53" s="79"/>
+      <c r="BA53" s="76"/>
+      <c r="BB53" s="76"/>
+      <c r="BC53" s="76"/>
+      <c r="BD53" s="76"/>
+      <c r="BE53" s="76"/>
+      <c r="BF53" s="76"/>
+      <c r="BG53" s="80"/>
     </row>
     <row r="54" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A54" s="80">
+      <c r="A54" s="81">
         <f>A52+1</f>
         <v>24</v>
       </c>
-      <c r="B54" s="81"/>
-      <c r="C54" s="87"/>
-      <c r="D54" s="88"/>
-      <c r="E54" s="88"/>
-      <c r="F54" s="88"/>
-      <c r="G54" s="89"/>
-      <c r="H54" s="304" t="s">
+      <c r="B54" s="82"/>
+      <c r="C54" s="85"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="87"/>
+      <c r="H54" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="I54" s="305"/>
-      <c r="J54" s="305"/>
-      <c r="K54" s="305"/>
-      <c r="L54" s="306"/>
-      <c r="M54" s="310"/>
-      <c r="N54" s="311"/>
-      <c r="O54" s="311"/>
-      <c r="P54" s="311"/>
-      <c r="Q54" s="311"/>
-      <c r="R54" s="311"/>
-      <c r="S54" s="312"/>
-      <c r="T54" s="268"/>
-      <c r="U54" s="269"/>
-      <c r="V54" s="269"/>
-      <c r="W54" s="269"/>
-      <c r="X54" s="269"/>
-      <c r="Y54" s="269"/>
-      <c r="Z54" s="269"/>
-      <c r="AA54" s="269"/>
-      <c r="AB54" s="270"/>
-      <c r="AC54" s="268"/>
-      <c r="AD54" s="316"/>
-      <c r="AE54" s="316"/>
-      <c r="AF54" s="316"/>
-      <c r="AG54" s="316"/>
-      <c r="AH54" s="316"/>
-      <c r="AI54" s="316"/>
-      <c r="AJ54" s="316"/>
-      <c r="AK54" s="316"/>
-      <c r="AL54" s="316"/>
-      <c r="AM54" s="317"/>
-      <c r="AN54" s="321"/>
-      <c r="AO54" s="322"/>
-      <c r="AP54" s="323"/>
+      <c r="I54" s="92"/>
+      <c r="J54" s="92"/>
+      <c r="K54" s="92"/>
+      <c r="L54" s="93"/>
+      <c r="M54" s="97"/>
+      <c r="N54" s="98"/>
+      <c r="O54" s="98"/>
+      <c r="P54" s="98"/>
+      <c r="Q54" s="98"/>
+      <c r="R54" s="98"/>
+      <c r="S54" s="99"/>
+      <c r="T54" s="103"/>
+      <c r="U54" s="104"/>
+      <c r="V54" s="104"/>
+      <c r="W54" s="104"/>
+      <c r="X54" s="104"/>
+      <c r="Y54" s="104"/>
+      <c r="Z54" s="104"/>
+      <c r="AA54" s="104"/>
+      <c r="AB54" s="105"/>
+      <c r="AC54" s="103"/>
+      <c r="AD54" s="109"/>
+      <c r="AE54" s="109"/>
+      <c r="AF54" s="109"/>
+      <c r="AG54" s="109"/>
+      <c r="AH54" s="109"/>
+      <c r="AI54" s="109"/>
+      <c r="AJ54" s="109"/>
+      <c r="AK54" s="109"/>
+      <c r="AL54" s="109"/>
+      <c r="AM54" s="110"/>
+      <c r="AN54" s="114"/>
+      <c r="AO54" s="115"/>
+      <c r="AP54" s="116"/>
       <c r="AQ54" s="68"/>
       <c r="AR54" s="69"/>
       <c r="AS54" s="70"/>
-      <c r="AT54" s="321"/>
-      <c r="AU54" s="322"/>
-      <c r="AV54" s="323"/>
-      <c r="AW54" s="321"/>
-      <c r="AX54" s="322"/>
-      <c r="AY54" s="323"/>
-      <c r="AZ54" s="124"/>
-      <c r="BA54" s="148"/>
-      <c r="BB54" s="148"/>
-      <c r="BC54" s="148"/>
-      <c r="BD54" s="148"/>
-      <c r="BE54" s="148"/>
-      <c r="BF54" s="148"/>
-      <c r="BG54" s="149"/>
+      <c r="AT54" s="114"/>
+      <c r="AU54" s="115"/>
+      <c r="AV54" s="116"/>
+      <c r="AW54" s="114"/>
+      <c r="AX54" s="115"/>
+      <c r="AY54" s="116"/>
+      <c r="AZ54" s="76"/>
+      <c r="BA54" s="77"/>
+      <c r="BB54" s="77"/>
+      <c r="BC54" s="77"/>
+      <c r="BD54" s="77"/>
+      <c r="BE54" s="77"/>
+      <c r="BF54" s="77"/>
+      <c r="BG54" s="78"/>
     </row>
     <row r="55" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A55" s="82"/>
-      <c r="B55" s="83"/>
-      <c r="C55" s="90"/>
-      <c r="D55" s="91"/>
-      <c r="E55" s="91"/>
-      <c r="F55" s="91"/>
-      <c r="G55" s="92"/>
-      <c r="H55" s="307"/>
-      <c r="I55" s="308"/>
-      <c r="J55" s="308"/>
-      <c r="K55" s="308"/>
-      <c r="L55" s="309"/>
-      <c r="M55" s="313"/>
-      <c r="N55" s="314"/>
-      <c r="O55" s="314"/>
-      <c r="P55" s="314"/>
-      <c r="Q55" s="314"/>
-      <c r="R55" s="314"/>
-      <c r="S55" s="315"/>
-      <c r="T55" s="271"/>
-      <c r="U55" s="272"/>
-      <c r="V55" s="272"/>
-      <c r="W55" s="272"/>
-      <c r="X55" s="272"/>
-      <c r="Y55" s="272"/>
-      <c r="Z55" s="272"/>
-      <c r="AA55" s="272"/>
-      <c r="AB55" s="273"/>
-      <c r="AC55" s="318"/>
-      <c r="AD55" s="319"/>
-      <c r="AE55" s="319"/>
-      <c r="AF55" s="319"/>
-      <c r="AG55" s="319"/>
-      <c r="AH55" s="319"/>
-      <c r="AI55" s="319"/>
-      <c r="AJ55" s="319"/>
-      <c r="AK55" s="319"/>
-      <c r="AL55" s="319"/>
-      <c r="AM55" s="320"/>
-      <c r="AN55" s="324"/>
-      <c r="AO55" s="325"/>
-      <c r="AP55" s="326"/>
+      <c r="A55" s="83"/>
+      <c r="B55" s="84"/>
+      <c r="C55" s="88"/>
+      <c r="D55" s="89"/>
+      <c r="E55" s="89"/>
+      <c r="F55" s="89"/>
+      <c r="G55" s="90"/>
+      <c r="H55" s="94"/>
+      <c r="I55" s="95"/>
+      <c r="J55" s="95"/>
+      <c r="K55" s="95"/>
+      <c r="L55" s="96"/>
+      <c r="M55" s="100"/>
+      <c r="N55" s="101"/>
+      <c r="O55" s="101"/>
+      <c r="P55" s="101"/>
+      <c r="Q55" s="101"/>
+      <c r="R55" s="101"/>
+      <c r="S55" s="102"/>
+      <c r="T55" s="106"/>
+      <c r="U55" s="107"/>
+      <c r="V55" s="107"/>
+      <c r="W55" s="107"/>
+      <c r="X55" s="107"/>
+      <c r="Y55" s="107"/>
+      <c r="Z55" s="107"/>
+      <c r="AA55" s="107"/>
+      <c r="AB55" s="108"/>
+      <c r="AC55" s="111"/>
+      <c r="AD55" s="112"/>
+      <c r="AE55" s="112"/>
+      <c r="AF55" s="112"/>
+      <c r="AG55" s="112"/>
+      <c r="AH55" s="112"/>
+      <c r="AI55" s="112"/>
+      <c r="AJ55" s="112"/>
+      <c r="AK55" s="112"/>
+      <c r="AL55" s="112"/>
+      <c r="AM55" s="113"/>
+      <c r="AN55" s="117"/>
+      <c r="AO55" s="118"/>
+      <c r="AP55" s="119"/>
       <c r="AQ55" s="71"/>
       <c r="AR55" s="72"/>
       <c r="AS55" s="73"/>
-      <c r="AT55" s="324"/>
-      <c r="AU55" s="325"/>
-      <c r="AV55" s="326"/>
-      <c r="AW55" s="324"/>
-      <c r="AX55" s="325"/>
-      <c r="AY55" s="326"/>
-      <c r="AZ55" s="123"/>
-      <c r="BA55" s="124"/>
-      <c r="BB55" s="124"/>
-      <c r="BC55" s="124"/>
-      <c r="BD55" s="124"/>
-      <c r="BE55" s="124"/>
-      <c r="BF55" s="124"/>
-      <c r="BG55" s="125"/>
+      <c r="AT55" s="117"/>
+      <c r="AU55" s="118"/>
+      <c r="AV55" s="119"/>
+      <c r="AW55" s="117"/>
+      <c r="AX55" s="118"/>
+      <c r="AY55" s="119"/>
+      <c r="AZ55" s="79"/>
+      <c r="BA55" s="76"/>
+      <c r="BB55" s="76"/>
+      <c r="BC55" s="76"/>
+      <c r="BD55" s="76"/>
+      <c r="BE55" s="76"/>
+      <c r="BF55" s="76"/>
+      <c r="BG55" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="286">
-    <mergeCell ref="AZ54:BG54"/>
-    <mergeCell ref="AZ55:BG55"/>
-    <mergeCell ref="A54:B55"/>
-    <mergeCell ref="C54:G55"/>
-    <mergeCell ref="H54:L55"/>
-    <mergeCell ref="M54:S55"/>
-    <mergeCell ref="T54:AB55"/>
-    <mergeCell ref="AC54:AM55"/>
-    <mergeCell ref="AN54:AP55"/>
-    <mergeCell ref="AT54:AV55"/>
-    <mergeCell ref="AW54:AY55"/>
-    <mergeCell ref="AZ14:BG14"/>
-    <mergeCell ref="AZ15:BG15"/>
-    <mergeCell ref="AZ19:BG19"/>
-    <mergeCell ref="AT38:AV39"/>
-    <mergeCell ref="AW38:AY39"/>
-    <mergeCell ref="AZ39:BG39"/>
-    <mergeCell ref="AT40:AV41"/>
-    <mergeCell ref="AZ32:BG32"/>
-    <mergeCell ref="AZ34:BG34"/>
-    <mergeCell ref="AZ29:BG29"/>
-    <mergeCell ref="AZ30:BG30"/>
-    <mergeCell ref="AZ21:BG21"/>
-    <mergeCell ref="AT14:AV15"/>
-    <mergeCell ref="AW14:AY15"/>
-    <mergeCell ref="AZ16:BG16"/>
-    <mergeCell ref="AZ18:BG18"/>
-    <mergeCell ref="AT34:AV35"/>
-    <mergeCell ref="AW34:AY35"/>
-    <mergeCell ref="AZ35:BG35"/>
-    <mergeCell ref="AZ38:BG38"/>
-    <mergeCell ref="AW48:AY49"/>
-    <mergeCell ref="AZ49:BG49"/>
-    <mergeCell ref="M48:S49"/>
-    <mergeCell ref="T48:AB49"/>
-    <mergeCell ref="AZ48:BG48"/>
-    <mergeCell ref="AZ44:BG44"/>
-    <mergeCell ref="AW40:AY41"/>
-    <mergeCell ref="AZ41:BG41"/>
-    <mergeCell ref="M42:S43"/>
-    <mergeCell ref="T42:AB43"/>
-    <mergeCell ref="AC42:AM43"/>
-    <mergeCell ref="AN42:AP43"/>
-    <mergeCell ref="AQ42:AS43"/>
-    <mergeCell ref="AT42:AV43"/>
-    <mergeCell ref="AW42:AY43"/>
-    <mergeCell ref="AZ43:BG43"/>
-    <mergeCell ref="AZ40:BG40"/>
-    <mergeCell ref="AZ42:BG42"/>
-    <mergeCell ref="M40:S41"/>
-    <mergeCell ref="T40:AB41"/>
-    <mergeCell ref="AC40:AM41"/>
-    <mergeCell ref="AN40:AP41"/>
-    <mergeCell ref="AQ40:AS41"/>
-    <mergeCell ref="AC32:AM33"/>
-    <mergeCell ref="AT48:AV49"/>
-    <mergeCell ref="AN32:AP33"/>
-    <mergeCell ref="AQ32:AS33"/>
-    <mergeCell ref="AT32:AV33"/>
-    <mergeCell ref="M36:S37"/>
-    <mergeCell ref="T36:AB37"/>
-    <mergeCell ref="AC36:AM37"/>
-    <mergeCell ref="AN36:AP37"/>
-    <mergeCell ref="AQ36:AS37"/>
-    <mergeCell ref="AT36:AV37"/>
-    <mergeCell ref="AZ24:BG24"/>
-    <mergeCell ref="C40:G49"/>
-    <mergeCell ref="H40:L49"/>
-    <mergeCell ref="AC48:AM49"/>
-    <mergeCell ref="AN48:AP49"/>
-    <mergeCell ref="AQ48:AS49"/>
-    <mergeCell ref="M34:S35"/>
-    <mergeCell ref="T34:AB35"/>
-    <mergeCell ref="AC34:AM35"/>
-    <mergeCell ref="AN34:AP35"/>
-    <mergeCell ref="AQ34:AS35"/>
-    <mergeCell ref="M38:S39"/>
-    <mergeCell ref="T38:AB39"/>
-    <mergeCell ref="AC38:AM39"/>
-    <mergeCell ref="AN38:AP39"/>
-    <mergeCell ref="AQ38:AS39"/>
-    <mergeCell ref="H20:L39"/>
-    <mergeCell ref="M24:S25"/>
-    <mergeCell ref="T24:AB25"/>
-    <mergeCell ref="AC24:AM25"/>
-    <mergeCell ref="AN24:AP25"/>
-    <mergeCell ref="AQ24:AS25"/>
-    <mergeCell ref="M32:S33"/>
-    <mergeCell ref="T32:AB33"/>
-    <mergeCell ref="AW18:AY19"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="A50:B51"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="A46:B47"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="A38:B39"/>
+    <mergeCell ref="A36:B37"/>
+    <mergeCell ref="AZ51:BG51"/>
+    <mergeCell ref="C52:G53"/>
+    <mergeCell ref="H52:L53"/>
+    <mergeCell ref="M52:S53"/>
+    <mergeCell ref="T52:AB53"/>
+    <mergeCell ref="AC52:AM53"/>
+    <mergeCell ref="AN52:AP53"/>
+    <mergeCell ref="AT52:AV53"/>
+    <mergeCell ref="AW52:AY53"/>
+    <mergeCell ref="AZ53:BG53"/>
+    <mergeCell ref="C50:G51"/>
+    <mergeCell ref="H50:L51"/>
+    <mergeCell ref="M50:S51"/>
+    <mergeCell ref="T50:AB51"/>
+    <mergeCell ref="AC50:AM51"/>
+    <mergeCell ref="AN50:AP51"/>
+    <mergeCell ref="AQ50:AS51"/>
+    <mergeCell ref="AT50:AV51"/>
+    <mergeCell ref="AW50:AY51"/>
+    <mergeCell ref="AZ52:BG52"/>
+    <mergeCell ref="AZ50:BG50"/>
+    <mergeCell ref="AW36:AY37"/>
+    <mergeCell ref="AZ37:BG37"/>
+    <mergeCell ref="AZ36:BG36"/>
+    <mergeCell ref="AT44:AV45"/>
+    <mergeCell ref="AW44:AY45"/>
+    <mergeCell ref="AZ45:BG45"/>
+    <mergeCell ref="M46:S47"/>
+    <mergeCell ref="T46:AB47"/>
+    <mergeCell ref="AC46:AM47"/>
+    <mergeCell ref="AN46:AP47"/>
+    <mergeCell ref="AQ46:AS47"/>
+    <mergeCell ref="AT46:AV47"/>
+    <mergeCell ref="AW46:AY47"/>
+    <mergeCell ref="AZ47:BG47"/>
+    <mergeCell ref="M44:S45"/>
+    <mergeCell ref="T44:AB45"/>
+    <mergeCell ref="AC44:AM45"/>
+    <mergeCell ref="AN44:AP45"/>
+    <mergeCell ref="AQ44:AS45"/>
+    <mergeCell ref="AZ46:BG46"/>
+    <mergeCell ref="AZ1:BG1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:AI2"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="AV2:AY2"/>
+    <mergeCell ref="AZ2:BG2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:AI1"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AN1:AQ1"/>
+    <mergeCell ref="AR1:AU1"/>
+    <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="A3:G4"/>
+    <mergeCell ref="H3:AI4"/>
+    <mergeCell ref="AJ3:AM3"/>
+    <mergeCell ref="AN3:AU3"/>
+    <mergeCell ref="AV3:AY3"/>
+    <mergeCell ref="AZ3:BG3"/>
+    <mergeCell ref="AJ4:AM4"/>
+    <mergeCell ref="AN4:AU4"/>
+    <mergeCell ref="AV4:AY4"/>
+    <mergeCell ref="AZ4:BG4"/>
+    <mergeCell ref="AT6:AV7"/>
+    <mergeCell ref="AW6:AY7"/>
+    <mergeCell ref="AZ6:BG7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="C6:S6"/>
+    <mergeCell ref="T6:AB7"/>
+    <mergeCell ref="AC6:AM7"/>
+    <mergeCell ref="AN6:AP7"/>
+    <mergeCell ref="AQ6:AS7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="M8:S9"/>
+    <mergeCell ref="T8:AB9"/>
+    <mergeCell ref="AC8:AM9"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="M10:S11"/>
+    <mergeCell ref="T10:AB11"/>
+    <mergeCell ref="AC10:AM11"/>
+    <mergeCell ref="M14:S15"/>
+    <mergeCell ref="T14:AB15"/>
+    <mergeCell ref="AC14:AM15"/>
+    <mergeCell ref="C8:G19"/>
+    <mergeCell ref="H8:L19"/>
+    <mergeCell ref="M18:S19"/>
+    <mergeCell ref="T18:AB19"/>
+    <mergeCell ref="AN8:AP9"/>
+    <mergeCell ref="AQ8:AS9"/>
+    <mergeCell ref="AT8:AV9"/>
+    <mergeCell ref="AW8:AY9"/>
+    <mergeCell ref="AZ8:BG8"/>
+    <mergeCell ref="AZ9:BG9"/>
+    <mergeCell ref="AN10:AP11"/>
+    <mergeCell ref="AQ10:AS11"/>
+    <mergeCell ref="M12:S13"/>
+    <mergeCell ref="T12:AB13"/>
+    <mergeCell ref="AC12:AM13"/>
+    <mergeCell ref="AN12:AP13"/>
+    <mergeCell ref="AQ12:AS13"/>
+    <mergeCell ref="AZ12:BG12"/>
+    <mergeCell ref="AT12:AV13"/>
+    <mergeCell ref="AW12:AY13"/>
+    <mergeCell ref="AZ13:BG13"/>
+    <mergeCell ref="AZ23:BG23"/>
+    <mergeCell ref="AZ20:BG20"/>
+    <mergeCell ref="AZ22:BG22"/>
+    <mergeCell ref="AT16:AV17"/>
+    <mergeCell ref="AW16:AY17"/>
+    <mergeCell ref="AZ17:BG17"/>
+    <mergeCell ref="AN18:AP19"/>
+    <mergeCell ref="AQ18:AS19"/>
+    <mergeCell ref="AT18:AV19"/>
+    <mergeCell ref="AT10:AV11"/>
+    <mergeCell ref="AW10:AY11"/>
+    <mergeCell ref="AZ10:BG10"/>
+    <mergeCell ref="AZ11:BG11"/>
+    <mergeCell ref="AC18:AM19"/>
+    <mergeCell ref="AN14:AP15"/>
+    <mergeCell ref="AQ14:AS15"/>
+    <mergeCell ref="AN16:AP17"/>
+    <mergeCell ref="AQ16:AS17"/>
+    <mergeCell ref="M22:S23"/>
+    <mergeCell ref="AQ20:AS21"/>
+    <mergeCell ref="AT20:AV21"/>
+    <mergeCell ref="AW20:AY21"/>
+    <mergeCell ref="T22:AB23"/>
+    <mergeCell ref="AC22:AM23"/>
+    <mergeCell ref="AN22:AP23"/>
+    <mergeCell ref="AQ22:AS23"/>
+    <mergeCell ref="AT22:AV23"/>
+    <mergeCell ref="AW22:AY23"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="AZ26:BG26"/>
+    <mergeCell ref="M26:S27"/>
+    <mergeCell ref="T26:AB27"/>
+    <mergeCell ref="AC26:AM27"/>
+    <mergeCell ref="AN26:AP27"/>
+    <mergeCell ref="AQ26:AS27"/>
+    <mergeCell ref="AT26:AV27"/>
+    <mergeCell ref="AW26:AY27"/>
+    <mergeCell ref="AZ27:BG27"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="AZ28:BG28"/>
+    <mergeCell ref="M28:S29"/>
     <mergeCell ref="M16:S17"/>
     <mergeCell ref="T16:AB17"/>
     <mergeCell ref="AC16:AM17"/>
@@ -8789,181 +8890,102 @@
     <mergeCell ref="AC20:AM21"/>
     <mergeCell ref="AN20:AP21"/>
     <mergeCell ref="AT24:AV25"/>
+    <mergeCell ref="C40:G49"/>
+    <mergeCell ref="H40:L49"/>
+    <mergeCell ref="AC48:AM49"/>
+    <mergeCell ref="AN48:AP49"/>
+    <mergeCell ref="AQ48:AS49"/>
+    <mergeCell ref="M34:S35"/>
+    <mergeCell ref="T34:AB35"/>
+    <mergeCell ref="AC34:AM35"/>
+    <mergeCell ref="AN34:AP35"/>
+    <mergeCell ref="AQ34:AS35"/>
+    <mergeCell ref="M38:S39"/>
+    <mergeCell ref="T38:AB39"/>
+    <mergeCell ref="AC38:AM39"/>
+    <mergeCell ref="AN38:AP39"/>
+    <mergeCell ref="AQ38:AS39"/>
+    <mergeCell ref="H20:L39"/>
+    <mergeCell ref="M24:S25"/>
+    <mergeCell ref="T24:AB25"/>
+    <mergeCell ref="AC24:AM25"/>
+    <mergeCell ref="AN24:AP25"/>
+    <mergeCell ref="AQ24:AS25"/>
+    <mergeCell ref="M32:S33"/>
+    <mergeCell ref="T32:AB33"/>
+    <mergeCell ref="C20:G39"/>
+    <mergeCell ref="AC32:AM33"/>
+    <mergeCell ref="AT48:AV49"/>
+    <mergeCell ref="AN32:AP33"/>
+    <mergeCell ref="AQ32:AS33"/>
+    <mergeCell ref="AT32:AV33"/>
+    <mergeCell ref="M36:S37"/>
+    <mergeCell ref="T36:AB37"/>
+    <mergeCell ref="AC36:AM37"/>
+    <mergeCell ref="AN36:AP37"/>
+    <mergeCell ref="AQ36:AS37"/>
+    <mergeCell ref="AT36:AV37"/>
+    <mergeCell ref="AW48:AY49"/>
+    <mergeCell ref="AZ49:BG49"/>
+    <mergeCell ref="M48:S49"/>
+    <mergeCell ref="T48:AB49"/>
+    <mergeCell ref="AZ48:BG48"/>
+    <mergeCell ref="AZ44:BG44"/>
+    <mergeCell ref="AW40:AY41"/>
+    <mergeCell ref="AZ41:BG41"/>
+    <mergeCell ref="M42:S43"/>
+    <mergeCell ref="T42:AB43"/>
+    <mergeCell ref="AC42:AM43"/>
+    <mergeCell ref="AN42:AP43"/>
+    <mergeCell ref="AQ42:AS43"/>
+    <mergeCell ref="AT42:AV43"/>
+    <mergeCell ref="AW42:AY43"/>
+    <mergeCell ref="AZ43:BG43"/>
+    <mergeCell ref="AZ40:BG40"/>
+    <mergeCell ref="AZ42:BG42"/>
+    <mergeCell ref="M40:S41"/>
+    <mergeCell ref="T40:AB41"/>
+    <mergeCell ref="AC40:AM41"/>
+    <mergeCell ref="AN40:AP41"/>
+    <mergeCell ref="AQ40:AS41"/>
+    <mergeCell ref="AZ14:BG14"/>
+    <mergeCell ref="AZ15:BG15"/>
+    <mergeCell ref="AZ19:BG19"/>
+    <mergeCell ref="AT38:AV39"/>
+    <mergeCell ref="AW38:AY39"/>
+    <mergeCell ref="AZ39:BG39"/>
+    <mergeCell ref="AT40:AV41"/>
+    <mergeCell ref="AZ32:BG32"/>
+    <mergeCell ref="AZ34:BG34"/>
+    <mergeCell ref="AZ29:BG29"/>
+    <mergeCell ref="AZ30:BG30"/>
+    <mergeCell ref="AZ21:BG21"/>
+    <mergeCell ref="AT14:AV15"/>
+    <mergeCell ref="AW14:AY15"/>
+    <mergeCell ref="AZ16:BG16"/>
+    <mergeCell ref="AZ18:BG18"/>
+    <mergeCell ref="AT34:AV35"/>
+    <mergeCell ref="AW34:AY35"/>
+    <mergeCell ref="AZ35:BG35"/>
+    <mergeCell ref="AZ38:BG38"/>
+    <mergeCell ref="AZ24:BG24"/>
+    <mergeCell ref="AW18:AY19"/>
     <mergeCell ref="AW24:AY25"/>
     <mergeCell ref="AZ25:BG25"/>
-    <mergeCell ref="C20:G39"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="A32:B33"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="AZ26:BG26"/>
-    <mergeCell ref="M26:S27"/>
-    <mergeCell ref="T26:AB27"/>
-    <mergeCell ref="AC26:AM27"/>
-    <mergeCell ref="AN26:AP27"/>
-    <mergeCell ref="AQ26:AS27"/>
-    <mergeCell ref="AT26:AV27"/>
-    <mergeCell ref="AW26:AY27"/>
-    <mergeCell ref="AZ27:BG27"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="AZ28:BG28"/>
-    <mergeCell ref="M28:S29"/>
-    <mergeCell ref="M22:S23"/>
-    <mergeCell ref="AQ20:AS21"/>
-    <mergeCell ref="AT20:AV21"/>
-    <mergeCell ref="AW20:AY21"/>
-    <mergeCell ref="T22:AB23"/>
-    <mergeCell ref="AC22:AM23"/>
-    <mergeCell ref="AN22:AP23"/>
-    <mergeCell ref="AQ22:AS23"/>
-    <mergeCell ref="AT22:AV23"/>
-    <mergeCell ref="AW22:AY23"/>
-    <mergeCell ref="AT10:AV11"/>
-    <mergeCell ref="AW10:AY11"/>
-    <mergeCell ref="AZ10:BG10"/>
-    <mergeCell ref="AZ11:BG11"/>
-    <mergeCell ref="AC18:AM19"/>
-    <mergeCell ref="AN14:AP15"/>
-    <mergeCell ref="AQ14:AS15"/>
-    <mergeCell ref="AN16:AP17"/>
-    <mergeCell ref="AQ16:AS17"/>
-    <mergeCell ref="AZ23:BG23"/>
-    <mergeCell ref="AZ20:BG20"/>
-    <mergeCell ref="AZ22:BG22"/>
-    <mergeCell ref="AT16:AV17"/>
-    <mergeCell ref="AW16:AY17"/>
-    <mergeCell ref="AZ17:BG17"/>
-    <mergeCell ref="AN18:AP19"/>
-    <mergeCell ref="AQ18:AS19"/>
-    <mergeCell ref="AT18:AV19"/>
-    <mergeCell ref="AN8:AP9"/>
-    <mergeCell ref="AQ8:AS9"/>
-    <mergeCell ref="AT8:AV9"/>
-    <mergeCell ref="AW8:AY9"/>
-    <mergeCell ref="AZ8:BG8"/>
-    <mergeCell ref="AZ9:BG9"/>
-    <mergeCell ref="AN10:AP11"/>
-    <mergeCell ref="AQ10:AS11"/>
-    <mergeCell ref="M12:S13"/>
-    <mergeCell ref="T12:AB13"/>
-    <mergeCell ref="AC12:AM13"/>
-    <mergeCell ref="AN12:AP13"/>
-    <mergeCell ref="AQ12:AS13"/>
-    <mergeCell ref="AZ12:BG12"/>
-    <mergeCell ref="AT12:AV13"/>
-    <mergeCell ref="AW12:AY13"/>
-    <mergeCell ref="AZ13:BG13"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="M8:S9"/>
-    <mergeCell ref="T8:AB9"/>
-    <mergeCell ref="AC8:AM9"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="M10:S11"/>
-    <mergeCell ref="T10:AB11"/>
-    <mergeCell ref="AC10:AM11"/>
-    <mergeCell ref="M14:S15"/>
-    <mergeCell ref="T14:AB15"/>
-    <mergeCell ref="AC14:AM15"/>
-    <mergeCell ref="C8:G19"/>
-    <mergeCell ref="H8:L19"/>
-    <mergeCell ref="M18:S19"/>
-    <mergeCell ref="T18:AB19"/>
-    <mergeCell ref="AT6:AV7"/>
-    <mergeCell ref="AW6:AY7"/>
-    <mergeCell ref="AZ6:BG7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="C6:S6"/>
-    <mergeCell ref="T6:AB7"/>
-    <mergeCell ref="AC6:AM7"/>
-    <mergeCell ref="AN6:AP7"/>
-    <mergeCell ref="AQ6:AS7"/>
-    <mergeCell ref="A3:G4"/>
-    <mergeCell ref="H3:AI4"/>
-    <mergeCell ref="AJ3:AM3"/>
-    <mergeCell ref="AN3:AU3"/>
-    <mergeCell ref="AV3:AY3"/>
-    <mergeCell ref="AZ3:BG3"/>
-    <mergeCell ref="AJ4:AM4"/>
-    <mergeCell ref="AN4:AU4"/>
-    <mergeCell ref="AV4:AY4"/>
-    <mergeCell ref="AZ4:BG4"/>
-    <mergeCell ref="AZ1:BG1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="H2:AI2"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="AR2:AU2"/>
-    <mergeCell ref="AV2:AY2"/>
-    <mergeCell ref="AZ2:BG2"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:AI1"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AN1:AQ1"/>
-    <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="AV1:AY1"/>
-    <mergeCell ref="AW36:AY37"/>
-    <mergeCell ref="AZ37:BG37"/>
-    <mergeCell ref="AZ36:BG36"/>
-    <mergeCell ref="AT44:AV45"/>
-    <mergeCell ref="AW44:AY45"/>
-    <mergeCell ref="AZ45:BG45"/>
-    <mergeCell ref="M46:S47"/>
-    <mergeCell ref="T46:AB47"/>
-    <mergeCell ref="AC46:AM47"/>
-    <mergeCell ref="AN46:AP47"/>
-    <mergeCell ref="AQ46:AS47"/>
-    <mergeCell ref="AT46:AV47"/>
-    <mergeCell ref="AW46:AY47"/>
-    <mergeCell ref="AZ47:BG47"/>
-    <mergeCell ref="M44:S45"/>
-    <mergeCell ref="T44:AB45"/>
-    <mergeCell ref="AC44:AM45"/>
-    <mergeCell ref="AN44:AP45"/>
-    <mergeCell ref="AQ44:AS45"/>
-    <mergeCell ref="AZ46:BG46"/>
-    <mergeCell ref="AZ51:BG51"/>
-    <mergeCell ref="C52:G53"/>
-    <mergeCell ref="H52:L53"/>
-    <mergeCell ref="M52:S53"/>
-    <mergeCell ref="T52:AB53"/>
-    <mergeCell ref="AC52:AM53"/>
-    <mergeCell ref="AN52:AP53"/>
-    <mergeCell ref="AT52:AV53"/>
-    <mergeCell ref="AW52:AY53"/>
-    <mergeCell ref="AZ53:BG53"/>
-    <mergeCell ref="C50:G51"/>
-    <mergeCell ref="H50:L51"/>
-    <mergeCell ref="M50:S51"/>
-    <mergeCell ref="T50:AB51"/>
-    <mergeCell ref="AC50:AM51"/>
-    <mergeCell ref="AN50:AP51"/>
-    <mergeCell ref="AQ50:AS51"/>
-    <mergeCell ref="AT50:AV51"/>
-    <mergeCell ref="AW50:AY51"/>
-    <mergeCell ref="AZ52:BG52"/>
-    <mergeCell ref="AZ50:BG50"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="A52:B53"/>
-    <mergeCell ref="A50:B51"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="A46:B47"/>
-    <mergeCell ref="A44:B45"/>
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="A40:B41"/>
-    <mergeCell ref="A38:B39"/>
-    <mergeCell ref="A36:B37"/>
+    <mergeCell ref="AZ54:BG54"/>
+    <mergeCell ref="AZ55:BG55"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="C54:G55"/>
+    <mergeCell ref="H54:L55"/>
+    <mergeCell ref="M54:S55"/>
+    <mergeCell ref="T54:AB55"/>
+    <mergeCell ref="AC54:AM55"/>
+    <mergeCell ref="AN54:AP55"/>
+    <mergeCell ref="AT54:AV55"/>
+    <mergeCell ref="AW54:AY55"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ8 AQ10 AQ14 AQ18 AQ20 AQ22 AQ24 AQ26 AQ28 AQ30 AQ32 AQ34 AQ36 AQ38 AQ40 AQ42 AQ44 AQ46 AQ48 AQ50 AQ52 AQ54 AQ12 AQ16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ8 AQ10 AQ14 AQ52 AQ54 AQ12 AQ16 AQ26 AQ28 AQ30 AQ32 AQ34 AQ36 AQ38 AQ40 AQ42 AQ44 AQ46 AQ48 AQ50 AQ18 AQ20 AQ22 AQ24">
       <formula1>"N/A,OK,NG"</formula1>
     </dataValidation>
   </dataValidations>

--- a/test-case.xlsx
+++ b/test-case.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20440" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20440" windowHeight="7620" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="2" r:id="rId1"/>
     <sheet name="version" sheetId="3" r:id="rId2"/>
     <sheet name="test-case" sheetId="11" r:id="rId3"/>
     <sheet name="evidence" sheetId="10" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
@@ -21,6 +21,7 @@
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
     <definedName name="_DAY01">[1]外部設計WBS!#REF!</definedName>
@@ -162,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="94">
   <si>
     <t>VVC</t>
   </si>
@@ -433,6 +434,21 @@
 The password field is required.
 The username field is required.
 The tel field is required."</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>- Thêm bảng quản lý Hãng bay , Loại vé</t>
+  </si>
+  <si>
+    <t>- Ngày tháng bay</t>
+  </si>
+  <si>
+    <t>- Flight-Details : Chưa có kiểu bay</t>
+  </si>
+  <si>
+    <t>Sử dụng HeidiSQL</t>
   </si>
 </sst>
 </file>
@@ -885,7 +901,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="339">
+  <cellXfs count="341">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1027,12 +1043,399 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="8" borderId="7" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="8" borderId="6" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="8" borderId="2" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="7" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="6" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="2" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="8" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="8" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="6" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1042,15 +1445,39 @@
     <xf numFmtId="49" fontId="13" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="7" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="6" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1060,37 +1487,6 @@
     <xf numFmtId="49" fontId="13" fillId="6" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="6" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="6" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="7" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="6" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1100,6 +1496,15 @@
     <xf numFmtId="49" fontId="13" fillId="6" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1109,6 +1514,15 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1118,24 +1532,6 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="6" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="6" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="6" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1145,16 +1541,18 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="6" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="6" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1164,18 +1562,6 @@
     <xf numFmtId="49" fontId="13" fillId="6" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="6" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="6" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="6" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1185,34 +1571,49 @@
     <xf numFmtId="49" fontId="13" fillId="6" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="8" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="8" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="8" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="8" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="8" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="8" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="18" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="16" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1224,6 +1625,24 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1233,54 +1652,6 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="18" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="16" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1293,30 +1664,18 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="7" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="8" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="8" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="8" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="8" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="8" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="8" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="8" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1326,6 +1685,15 @@
     <xf numFmtId="49" fontId="16" fillId="8" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="17" fillId="8" borderId="10" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1335,129 +1703,6 @@
     <xf numFmtId="49" fontId="17" fillId="8" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="8" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="8" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="8" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="8" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="8" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="8" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="8" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="8" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="8" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="8" borderId="7" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="8" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="8" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="8" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="8" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="8" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="8" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="8" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="8" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="8" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="8" borderId="6" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="8" borderId="2" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="8" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="8" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="8" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="8" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="8" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="8" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="8" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="8" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1485,32 +1730,62 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="18" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="0" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="16" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="9" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="9" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="9" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="9" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1521,15 +1796,6 @@
     <xf numFmtId="49" fontId="21" fillId="0" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="18" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1539,18 +1805,6 @@
     <xf numFmtId="49" fontId="21" fillId="0" borderId="16" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="8" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1560,174 +1814,6 @@
     <xf numFmtId="49" fontId="21" fillId="0" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="7" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="18" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="0" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="16" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="6" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="2" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1737,6 +1823,15 @@
     <xf numFmtId="49" fontId="22" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1746,6 +1841,15 @@
     <xf numFmtId="49" fontId="20" fillId="0" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1755,6 +1859,33 @@
     <xf numFmtId="49" fontId="20" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="3" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="3" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="3" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="3" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="3" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="3" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="23" fillId="3" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1764,42 +1895,6 @@
     <xf numFmtId="49" fontId="23" fillId="3" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="3" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="3" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="3" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="23" fillId="3" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1809,84 +1904,7 @@
     <xf numFmtId="49" fontId="23" fillId="3" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="3" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="3" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="3" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="9" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="9" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="9" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="9" borderId="11" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
@@ -3732,35 +3750,35 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="51"/>
-      <c r="U17" s="51"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="52"/>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="52"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="75"/>
+      <c r="S17" s="75"/>
+      <c r="T17" s="75"/>
+      <c r="U17" s="75"/>
+      <c r="V17" s="76"/>
+      <c r="W17" s="76"/>
+      <c r="X17" s="76"/>
+      <c r="Y17" s="76"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
-      <c r="AF17" s="51"/>
-      <c r="AG17" s="52"/>
-      <c r="AH17" s="52"/>
-      <c r="AI17" s="52"/>
-      <c r="AJ17" s="52"/>
-      <c r="AK17" s="52"/>
-      <c r="AL17" s="52"/>
-      <c r="AM17" s="52"/>
-      <c r="AN17" s="52"/>
-      <c r="AO17" s="52"/>
-      <c r="AP17" s="52"/>
-      <c r="AQ17" s="52"/>
-      <c r="AR17" s="52"/>
+      <c r="AF17" s="75"/>
+      <c r="AG17" s="76"/>
+      <c r="AH17" s="76"/>
+      <c r="AI17" s="76"/>
+      <c r="AJ17" s="76"/>
+      <c r="AK17" s="76"/>
+      <c r="AL17" s="76"/>
+      <c r="AM17" s="76"/>
+      <c r="AN17" s="76"/>
+      <c r="AO17" s="76"/>
+      <c r="AP17" s="76"/>
+      <c r="AQ17" s="76"/>
+      <c r="AR17" s="76"/>
       <c r="AS17" s="3"/>
       <c r="AT17" s="3"/>
       <c r="AU17" s="3"/>
@@ -3964,16 +3982,16 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="51"/>
-      <c r="V21" s="51"/>
-      <c r="W21" s="51"/>
-      <c r="X21" s="51"/>
-      <c r="Y21" s="51"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="75"/>
+      <c r="R21" s="75"/>
+      <c r="S21" s="75"/>
+      <c r="T21" s="75"/>
+      <c r="U21" s="75"/>
+      <c r="V21" s="75"/>
+      <c r="W21" s="75"/>
+      <c r="X21" s="75"/>
+      <c r="Y21" s="75"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
@@ -5243,3684 +5261,3686 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH55"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A44" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AC44" sqref="AC44:AM45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="11.5"/>
   <cols>
-    <col min="1" max="19" width="3" style="67"/>
-    <col min="20" max="28" width="3" style="316"/>
-    <col min="29" max="39" width="3" style="67"/>
-    <col min="40" max="42" width="3" style="125"/>
-    <col min="43" max="50" width="3" style="67"/>
-    <col min="51" max="51" width="5.453125" style="67" customWidth="1"/>
-    <col min="52" max="58" width="3" style="67"/>
-    <col min="59" max="59" width="19.54296875" style="67" customWidth="1"/>
-    <col min="60" max="16384" width="3" style="67"/>
+    <col min="1" max="19" width="3" style="52"/>
+    <col min="20" max="28" width="3" style="73"/>
+    <col min="29" max="39" width="3" style="52"/>
+    <col min="40" max="42" width="3" style="60"/>
+    <col min="43" max="50" width="3" style="52"/>
+    <col min="51" max="51" width="5.453125" style="52" customWidth="1"/>
+    <col min="52" max="58" width="3" style="52"/>
+    <col min="59" max="59" width="19.54296875" style="52" customWidth="1"/>
+    <col min="60" max="16384" width="3" style="52"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:60">
-      <c r="A1" s="53"/>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="59" t="s">
+      <c r="A1" s="184"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="188"/>
+      <c r="J1" s="188"/>
+      <c r="K1" s="188"/>
+      <c r="L1" s="188"/>
+      <c r="M1" s="188"/>
+      <c r="N1" s="188"/>
+      <c r="O1" s="188"/>
+      <c r="P1" s="188"/>
+      <c r="Q1" s="188"/>
+      <c r="R1" s="188"/>
+      <c r="S1" s="188"/>
+      <c r="T1" s="188"/>
+      <c r="U1" s="188"/>
+      <c r="V1" s="188"/>
+      <c r="W1" s="188"/>
+      <c r="X1" s="188"/>
+      <c r="Y1" s="188"/>
+      <c r="Z1" s="188"/>
+      <c r="AA1" s="188"/>
+      <c r="AB1" s="188"/>
+      <c r="AC1" s="188"/>
+      <c r="AD1" s="188"/>
+      <c r="AE1" s="188"/>
+      <c r="AF1" s="188"/>
+      <c r="AG1" s="188"/>
+      <c r="AH1" s="188"/>
+      <c r="AI1" s="189"/>
+      <c r="AJ1" s="198" t="s">
         <v>24</v>
       </c>
-      <c r="AK1" s="60"/>
-      <c r="AL1" s="60"/>
-      <c r="AM1" s="60"/>
-      <c r="AN1" s="61" t="s">
+      <c r="AK1" s="199"/>
+      <c r="AL1" s="199"/>
+      <c r="AM1" s="199"/>
+      <c r="AN1" s="200" t="s">
         <v>25</v>
       </c>
-      <c r="AO1" s="60"/>
-      <c r="AP1" s="60"/>
-      <c r="AQ1" s="60"/>
-      <c r="AR1" s="61"/>
-      <c r="AS1" s="60"/>
-      <c r="AT1" s="60"/>
-      <c r="AU1" s="60"/>
-      <c r="AV1" s="62" t="s">
+      <c r="AO1" s="199"/>
+      <c r="AP1" s="199"/>
+      <c r="AQ1" s="199"/>
+      <c r="AR1" s="200"/>
+      <c r="AS1" s="199"/>
+      <c r="AT1" s="199"/>
+      <c r="AU1" s="199"/>
+      <c r="AV1" s="193" t="s">
         <v>20</v>
       </c>
-      <c r="AW1" s="63"/>
-      <c r="AX1" s="63"/>
-      <c r="AY1" s="64"/>
-      <c r="AZ1" s="65" t="s">
+      <c r="AW1" s="194"/>
+      <c r="AX1" s="194"/>
+      <c r="AY1" s="195"/>
+      <c r="AZ1" s="183" t="s">
         <v>27</v>
       </c>
-      <c r="BA1" s="65"/>
-      <c r="BB1" s="65"/>
-      <c r="BC1" s="65"/>
-      <c r="BD1" s="65"/>
-      <c r="BE1" s="65"/>
-      <c r="BF1" s="65"/>
-      <c r="BG1" s="65"/>
-      <c r="BH1" s="66"/>
+      <c r="BA1" s="183"/>
+      <c r="BB1" s="183"/>
+      <c r="BC1" s="183"/>
+      <c r="BD1" s="183"/>
+      <c r="BE1" s="183"/>
+      <c r="BF1" s="183"/>
+      <c r="BG1" s="183"/>
+      <c r="BH1" s="51"/>
     </row>
     <row r="2" spans="1:60">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="69" t="s">
+      <c r="A2" s="184"/>
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="188"/>
+      <c r="L2" s="188"/>
+      <c r="M2" s="188"/>
+      <c r="N2" s="188"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="188"/>
+      <c r="T2" s="188"/>
+      <c r="U2" s="188"/>
+      <c r="V2" s="188"/>
+      <c r="W2" s="188"/>
+      <c r="X2" s="188"/>
+      <c r="Y2" s="188"/>
+      <c r="Z2" s="188"/>
+      <c r="AA2" s="188"/>
+      <c r="AB2" s="188"/>
+      <c r="AC2" s="188"/>
+      <c r="AD2" s="188"/>
+      <c r="AE2" s="188"/>
+      <c r="AF2" s="188"/>
+      <c r="AG2" s="188"/>
+      <c r="AH2" s="188"/>
+      <c r="AI2" s="189"/>
+      <c r="AJ2" s="190" t="s">
         <v>6</v>
       </c>
-      <c r="AK2" s="70"/>
-      <c r="AL2" s="70"/>
-      <c r="AM2" s="70"/>
-      <c r="AN2" s="71">
+      <c r="AK2" s="191"/>
+      <c r="AL2" s="191"/>
+      <c r="AM2" s="191"/>
+      <c r="AN2" s="192">
         <f>COUNTIF($AQ:$AQ,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="AO2" s="70"/>
-      <c r="AP2" s="70"/>
-      <c r="AQ2" s="70"/>
-      <c r="AR2" s="71"/>
-      <c r="AS2" s="70"/>
-      <c r="AT2" s="70"/>
-      <c r="AU2" s="70"/>
-      <c r="AV2" s="62" t="s">
+      <c r="AO2" s="191"/>
+      <c r="AP2" s="191"/>
+      <c r="AQ2" s="191"/>
+      <c r="AR2" s="192"/>
+      <c r="AS2" s="191"/>
+      <c r="AT2" s="191"/>
+      <c r="AU2" s="191"/>
+      <c r="AV2" s="193" t="s">
         <v>26</v>
       </c>
-      <c r="AW2" s="63"/>
-      <c r="AX2" s="63"/>
-      <c r="AY2" s="64"/>
-      <c r="AZ2" s="72" t="s">
+      <c r="AW2" s="194"/>
+      <c r="AX2" s="194"/>
+      <c r="AY2" s="195"/>
+      <c r="AZ2" s="196" t="s">
         <v>7</v>
       </c>
-      <c r="BA2" s="65"/>
-      <c r="BB2" s="65"/>
-      <c r="BC2" s="65"/>
-      <c r="BD2" s="65"/>
-      <c r="BE2" s="65"/>
-      <c r="BF2" s="65"/>
-      <c r="BG2" s="65"/>
-      <c r="BH2" s="66"/>
+      <c r="BA2" s="183"/>
+      <c r="BB2" s="183"/>
+      <c r="BC2" s="183"/>
+      <c r="BD2" s="183"/>
+      <c r="BE2" s="183"/>
+      <c r="BF2" s="183"/>
+      <c r="BG2" s="183"/>
+      <c r="BH2" s="51"/>
     </row>
     <row r="3" spans="1:60">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="77"/>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="77"/>
-      <c r="AF3" s="77"/>
-      <c r="AG3" s="77"/>
-      <c r="AH3" s="77"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="62"/>
-      <c r="AK3" s="63"/>
-      <c r="AL3" s="63"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="79"/>
-      <c r="AO3" s="80"/>
-      <c r="AP3" s="80"/>
-      <c r="AQ3" s="80"/>
-      <c r="AR3" s="80"/>
-      <c r="AS3" s="80"/>
-      <c r="AT3" s="80"/>
-      <c r="AU3" s="81"/>
-      <c r="AV3" s="62"/>
-      <c r="AW3" s="63"/>
-      <c r="AX3" s="63"/>
-      <c r="AY3" s="64"/>
-      <c r="AZ3" s="79"/>
-      <c r="BA3" s="80"/>
-      <c r="BB3" s="80"/>
-      <c r="BC3" s="80"/>
-      <c r="BD3" s="80"/>
-      <c r="BE3" s="80"/>
-      <c r="BF3" s="80"/>
-      <c r="BG3" s="81"/>
-      <c r="BH3" s="66"/>
+      <c r="A3" s="201"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
+      <c r="N3" s="208"/>
+      <c r="O3" s="208"/>
+      <c r="P3" s="208"/>
+      <c r="Q3" s="208"/>
+      <c r="R3" s="208"/>
+      <c r="S3" s="208"/>
+      <c r="T3" s="208"/>
+      <c r="U3" s="208"/>
+      <c r="V3" s="208"/>
+      <c r="W3" s="208"/>
+      <c r="X3" s="208"/>
+      <c r="Y3" s="208"/>
+      <c r="Z3" s="208"/>
+      <c r="AA3" s="208"/>
+      <c r="AB3" s="208"/>
+      <c r="AC3" s="208"/>
+      <c r="AD3" s="208"/>
+      <c r="AE3" s="208"/>
+      <c r="AF3" s="208"/>
+      <c r="AG3" s="208"/>
+      <c r="AH3" s="208"/>
+      <c r="AI3" s="209"/>
+      <c r="AJ3" s="193"/>
+      <c r="AK3" s="194"/>
+      <c r="AL3" s="194"/>
+      <c r="AM3" s="195"/>
+      <c r="AN3" s="213"/>
+      <c r="AO3" s="214"/>
+      <c r="AP3" s="214"/>
+      <c r="AQ3" s="214"/>
+      <c r="AR3" s="214"/>
+      <c r="AS3" s="214"/>
+      <c r="AT3" s="214"/>
+      <c r="AU3" s="215"/>
+      <c r="AV3" s="193"/>
+      <c r="AW3" s="194"/>
+      <c r="AX3" s="194"/>
+      <c r="AY3" s="195"/>
+      <c r="AZ3" s="213"/>
+      <c r="BA3" s="214"/>
+      <c r="BB3" s="214"/>
+      <c r="BC3" s="214"/>
+      <c r="BD3" s="214"/>
+      <c r="BE3" s="214"/>
+      <c r="BF3" s="214"/>
+      <c r="BG3" s="215"/>
+      <c r="BH3" s="51"/>
     </row>
     <row r="4" spans="1:60">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="86"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="86"/>
-      <c r="W4" s="86"/>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="86"/>
-      <c r="Z4" s="86"/>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="86"/>
-      <c r="AD4" s="86"/>
-      <c r="AE4" s="86"/>
-      <c r="AF4" s="86"/>
-      <c r="AG4" s="86"/>
-      <c r="AH4" s="86"/>
-      <c r="AI4" s="87"/>
-      <c r="AJ4" s="53"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="55"/>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="89"/>
-      <c r="AP4" s="89"/>
-      <c r="AQ4" s="89"/>
-      <c r="AR4" s="89"/>
-      <c r="AS4" s="89"/>
-      <c r="AT4" s="89"/>
-      <c r="AU4" s="90"/>
-      <c r="AV4" s="53"/>
-      <c r="AW4" s="54"/>
-      <c r="AX4" s="54"/>
-      <c r="AY4" s="55"/>
-      <c r="AZ4" s="88"/>
-      <c r="BA4" s="89"/>
-      <c r="BB4" s="89"/>
-      <c r="BC4" s="89"/>
-      <c r="BD4" s="89"/>
-      <c r="BE4" s="89"/>
-      <c r="BF4" s="89"/>
-      <c r="BG4" s="90"/>
-    </row>
-    <row r="5" spans="1:60" s="93" customFormat="1">
-      <c r="A5" s="91"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="91"/>
-      <c r="T5" s="92"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
-      <c r="W5" s="92"/>
-      <c r="X5" s="92"/>
-      <c r="Y5" s="92"/>
-      <c r="Z5" s="92"/>
-      <c r="AA5" s="92"/>
-      <c r="AB5" s="92"/>
-      <c r="AC5" s="91"/>
-      <c r="AD5" s="91"/>
-      <c r="AE5" s="91"/>
-      <c r="AF5" s="91"/>
-      <c r="AG5" s="91"/>
-      <c r="AH5" s="91"/>
-      <c r="AI5" s="91"/>
-      <c r="AJ5" s="91"/>
-      <c r="AK5" s="91"/>
-      <c r="AL5" s="91"/>
-      <c r="AM5" s="91"/>
-      <c r="AN5" s="91"/>
-      <c r="AO5" s="91"/>
-      <c r="AP5" s="91"/>
-      <c r="AQ5" s="91"/>
-      <c r="AR5" s="91"/>
-      <c r="AS5" s="91"/>
-      <c r="AT5" s="91"/>
-      <c r="AU5" s="91"/>
-      <c r="AV5" s="91"/>
-      <c r="AW5" s="91"/>
-      <c r="AX5" s="91"/>
-      <c r="AY5" s="91"/>
-      <c r="AZ5" s="91"/>
-      <c r="BA5" s="91"/>
-      <c r="BB5" s="91"/>
-      <c r="BC5" s="91"/>
-      <c r="BD5" s="91"/>
-      <c r="BE5" s="91"/>
-      <c r="BF5" s="91"/>
-      <c r="BG5" s="91"/>
-      <c r="BH5" s="91"/>
+      <c r="A4" s="204"/>
+      <c r="B4" s="205"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="206"/>
+      <c r="H4" s="210"/>
+      <c r="I4" s="211"/>
+      <c r="J4" s="211"/>
+      <c r="K4" s="211"/>
+      <c r="L4" s="211"/>
+      <c r="M4" s="211"/>
+      <c r="N4" s="211"/>
+      <c r="O4" s="211"/>
+      <c r="P4" s="211"/>
+      <c r="Q4" s="211"/>
+      <c r="R4" s="211"/>
+      <c r="S4" s="211"/>
+      <c r="T4" s="211"/>
+      <c r="U4" s="211"/>
+      <c r="V4" s="211"/>
+      <c r="W4" s="211"/>
+      <c r="X4" s="211"/>
+      <c r="Y4" s="211"/>
+      <c r="Z4" s="211"/>
+      <c r="AA4" s="211"/>
+      <c r="AB4" s="211"/>
+      <c r="AC4" s="211"/>
+      <c r="AD4" s="211"/>
+      <c r="AE4" s="211"/>
+      <c r="AF4" s="211"/>
+      <c r="AG4" s="211"/>
+      <c r="AH4" s="211"/>
+      <c r="AI4" s="212"/>
+      <c r="AJ4" s="184"/>
+      <c r="AK4" s="185"/>
+      <c r="AL4" s="185"/>
+      <c r="AM4" s="186"/>
+      <c r="AN4" s="216"/>
+      <c r="AO4" s="217"/>
+      <c r="AP4" s="217"/>
+      <c r="AQ4" s="217"/>
+      <c r="AR4" s="217"/>
+      <c r="AS4" s="217"/>
+      <c r="AT4" s="217"/>
+      <c r="AU4" s="218"/>
+      <c r="AV4" s="184"/>
+      <c r="AW4" s="185"/>
+      <c r="AX4" s="185"/>
+      <c r="AY4" s="186"/>
+      <c r="AZ4" s="216"/>
+      <c r="BA4" s="217"/>
+      <c r="BB4" s="217"/>
+      <c r="BC4" s="217"/>
+      <c r="BD4" s="217"/>
+      <c r="BE4" s="217"/>
+      <c r="BF4" s="217"/>
+      <c r="BG4" s="218"/>
+    </row>
+    <row r="5" spans="1:60" s="55" customFormat="1">
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="54"/>
+      <c r="AC5" s="53"/>
+      <c r="AD5" s="53"/>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="53"/>
+      <c r="AJ5" s="53"/>
+      <c r="AK5" s="53"/>
+      <c r="AL5" s="53"/>
+      <c r="AM5" s="53"/>
+      <c r="AN5" s="53"/>
+      <c r="AO5" s="53"/>
+      <c r="AP5" s="53"/>
+      <c r="AQ5" s="53"/>
+      <c r="AR5" s="53"/>
+      <c r="AS5" s="53"/>
+      <c r="AT5" s="53"/>
+      <c r="AU5" s="53"/>
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="53"/>
+      <c r="AX5" s="53"/>
+      <c r="AY5" s="53"/>
+      <c r="AZ5" s="53"/>
+      <c r="BA5" s="53"/>
+      <c r="BB5" s="53"/>
+      <c r="BC5" s="53"/>
+      <c r="BD5" s="53"/>
+      <c r="BE5" s="53"/>
+      <c r="BF5" s="53"/>
+      <c r="BG5" s="53"/>
+      <c r="BH5" s="53"/>
     </row>
     <row r="6" spans="1:60" ht="15.5">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="53" t="s">
+      <c r="B6" s="221"/>
+      <c r="C6" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="95" t="s">
+      <c r="D6" s="185"/>
+      <c r="E6" s="185"/>
+      <c r="F6" s="185"/>
+      <c r="G6" s="185"/>
+      <c r="H6" s="185"/>
+      <c r="I6" s="185"/>
+      <c r="J6" s="185"/>
+      <c r="K6" s="185"/>
+      <c r="L6" s="185"/>
+      <c r="M6" s="185"/>
+      <c r="N6" s="185"/>
+      <c r="O6" s="185"/>
+      <c r="P6" s="185"/>
+      <c r="Q6" s="185"/>
+      <c r="R6" s="185"/>
+      <c r="S6" s="185"/>
+      <c r="T6" s="223" t="s">
         <v>32</v>
       </c>
-      <c r="U6" s="96"/>
-      <c r="V6" s="96"/>
-      <c r="W6" s="96"/>
-      <c r="X6" s="96"/>
-      <c r="Y6" s="96"/>
-      <c r="Z6" s="96"/>
-      <c r="AA6" s="96"/>
-      <c r="AB6" s="97"/>
-      <c r="AC6" s="73" t="s">
+      <c r="U6" s="224"/>
+      <c r="V6" s="224"/>
+      <c r="W6" s="224"/>
+      <c r="X6" s="224"/>
+      <c r="Y6" s="224"/>
+      <c r="Z6" s="224"/>
+      <c r="AA6" s="224"/>
+      <c r="AB6" s="225"/>
+      <c r="AC6" s="201" t="s">
         <v>33</v>
       </c>
-      <c r="AD6" s="74"/>
-      <c r="AE6" s="74"/>
-      <c r="AF6" s="74"/>
-      <c r="AG6" s="74"/>
-      <c r="AH6" s="74"/>
-      <c r="AI6" s="74"/>
-      <c r="AJ6" s="74"/>
-      <c r="AK6" s="74"/>
-      <c r="AL6" s="74"/>
-      <c r="AM6" s="75"/>
-      <c r="AN6" s="73" t="s">
+      <c r="AD6" s="202"/>
+      <c r="AE6" s="202"/>
+      <c r="AF6" s="202"/>
+      <c r="AG6" s="202"/>
+      <c r="AH6" s="202"/>
+      <c r="AI6" s="202"/>
+      <c r="AJ6" s="202"/>
+      <c r="AK6" s="202"/>
+      <c r="AL6" s="202"/>
+      <c r="AM6" s="203"/>
+      <c r="AN6" s="201" t="s">
         <v>34</v>
       </c>
-      <c r="AO6" s="74"/>
-      <c r="AP6" s="75"/>
-      <c r="AQ6" s="73" t="s">
+      <c r="AO6" s="202"/>
+      <c r="AP6" s="203"/>
+      <c r="AQ6" s="201" t="s">
         <v>29</v>
       </c>
-      <c r="AR6" s="74"/>
-      <c r="AS6" s="75"/>
-      <c r="AT6" s="73"/>
-      <c r="AU6" s="74"/>
-      <c r="AV6" s="75"/>
-      <c r="AW6" s="73"/>
-      <c r="AX6" s="74"/>
-      <c r="AY6" s="75"/>
-      <c r="AZ6" s="98" t="s">
+      <c r="AR6" s="202"/>
+      <c r="AS6" s="203"/>
+      <c r="AT6" s="201"/>
+      <c r="AU6" s="202"/>
+      <c r="AV6" s="203"/>
+      <c r="AW6" s="201"/>
+      <c r="AX6" s="202"/>
+      <c r="AY6" s="203"/>
+      <c r="AZ6" s="219" t="s">
         <v>35</v>
       </c>
-      <c r="BA6" s="98"/>
-      <c r="BB6" s="98"/>
-      <c r="BC6" s="98"/>
-      <c r="BD6" s="98"/>
-      <c r="BE6" s="98"/>
-      <c r="BF6" s="98"/>
-      <c r="BG6" s="98"/>
-      <c r="BH6" s="99"/>
-    </row>
-    <row r="7" spans="1:60" s="106" customFormat="1" ht="15.5">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="61" t="s">
+      <c r="BA6" s="219"/>
+      <c r="BB6" s="219"/>
+      <c r="BC6" s="219"/>
+      <c r="BD6" s="219"/>
+      <c r="BE6" s="219"/>
+      <c r="BF6" s="219"/>
+      <c r="BG6" s="219"/>
+      <c r="BH6" s="56"/>
+    </row>
+    <row r="7" spans="1:60" s="58" customFormat="1" ht="15.5">
+      <c r="A7" s="222"/>
+      <c r="B7" s="222"/>
+      <c r="C7" s="200" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60" t="s">
+      <c r="D7" s="199"/>
+      <c r="E7" s="199"/>
+      <c r="F7" s="199"/>
+      <c r="G7" s="199"/>
+      <c r="H7" s="199" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="101" t="s">
+      <c r="I7" s="199"/>
+      <c r="J7" s="199"/>
+      <c r="K7" s="199"/>
+      <c r="L7" s="199"/>
+      <c r="M7" s="220" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="103"/>
-      <c r="W7" s="103"/>
-      <c r="X7" s="103"/>
-      <c r="Y7" s="103"/>
-      <c r="Z7" s="103"/>
-      <c r="AA7" s="103"/>
-      <c r="AB7" s="104"/>
-      <c r="AC7" s="82"/>
-      <c r="AD7" s="83"/>
-      <c r="AE7" s="83"/>
-      <c r="AF7" s="83"/>
-      <c r="AG7" s="83"/>
-      <c r="AH7" s="83"/>
-      <c r="AI7" s="83"/>
-      <c r="AJ7" s="83"/>
-      <c r="AK7" s="83"/>
-      <c r="AL7" s="83"/>
-      <c r="AM7" s="84"/>
-      <c r="AN7" s="82"/>
-      <c r="AO7" s="83"/>
-      <c r="AP7" s="84"/>
-      <c r="AQ7" s="82"/>
-      <c r="AR7" s="83"/>
-      <c r="AS7" s="84"/>
-      <c r="AT7" s="82"/>
-      <c r="AU7" s="83"/>
-      <c r="AV7" s="84"/>
-      <c r="AW7" s="82"/>
-      <c r="AX7" s="83"/>
-      <c r="AY7" s="84"/>
-      <c r="AZ7" s="98"/>
-      <c r="BA7" s="98"/>
-      <c r="BB7" s="98"/>
-      <c r="BC7" s="98"/>
-      <c r="BD7" s="98"/>
-      <c r="BE7" s="98"/>
-      <c r="BF7" s="98"/>
-      <c r="BG7" s="98"/>
-      <c r="BH7" s="105"/>
-    </row>
-    <row r="8" spans="1:60" s="125" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A8" s="107">
+      <c r="N7" s="185"/>
+      <c r="O7" s="185"/>
+      <c r="P7" s="185"/>
+      <c r="Q7" s="185"/>
+      <c r="R7" s="185"/>
+      <c r="S7" s="185"/>
+      <c r="T7" s="226"/>
+      <c r="U7" s="227"/>
+      <c r="V7" s="227"/>
+      <c r="W7" s="227"/>
+      <c r="X7" s="227"/>
+      <c r="Y7" s="227"/>
+      <c r="Z7" s="227"/>
+      <c r="AA7" s="227"/>
+      <c r="AB7" s="228"/>
+      <c r="AC7" s="204"/>
+      <c r="AD7" s="205"/>
+      <c r="AE7" s="205"/>
+      <c r="AF7" s="205"/>
+      <c r="AG7" s="205"/>
+      <c r="AH7" s="205"/>
+      <c r="AI7" s="205"/>
+      <c r="AJ7" s="205"/>
+      <c r="AK7" s="205"/>
+      <c r="AL7" s="205"/>
+      <c r="AM7" s="206"/>
+      <c r="AN7" s="204"/>
+      <c r="AO7" s="205"/>
+      <c r="AP7" s="206"/>
+      <c r="AQ7" s="204"/>
+      <c r="AR7" s="205"/>
+      <c r="AS7" s="206"/>
+      <c r="AT7" s="204"/>
+      <c r="AU7" s="205"/>
+      <c r="AV7" s="206"/>
+      <c r="AW7" s="204"/>
+      <c r="AX7" s="205"/>
+      <c r="AY7" s="206"/>
+      <c r="AZ7" s="219"/>
+      <c r="BA7" s="219"/>
+      <c r="BB7" s="219"/>
+      <c r="BC7" s="219"/>
+      <c r="BD7" s="219"/>
+      <c r="BE7" s="219"/>
+      <c r="BF7" s="219"/>
+      <c r="BG7" s="219"/>
+      <c r="BH7" s="57"/>
+    </row>
+    <row r="8" spans="1:60" s="60" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A8" s="77">
         <v>1</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="109" t="s">
+      <c r="B8" s="78"/>
+      <c r="C8" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="109" t="s">
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="112" t="s">
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="N8" s="112"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="112"/>
-      <c r="R8" s="112"/>
-      <c r="S8" s="113"/>
-      <c r="T8" s="114" t="s">
+      <c r="N8" s="121"/>
+      <c r="O8" s="121"/>
+      <c r="P8" s="121"/>
+      <c r="Q8" s="121"/>
+      <c r="R8" s="121"/>
+      <c r="S8" s="122"/>
+      <c r="T8" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="U8" s="112"/>
-      <c r="V8" s="112"/>
-      <c r="W8" s="112"/>
-      <c r="X8" s="112"/>
-      <c r="Y8" s="112"/>
-      <c r="Z8" s="112"/>
-      <c r="AA8" s="112"/>
-      <c r="AB8" s="112"/>
-      <c r="AC8" s="114" t="s">
+      <c r="U8" s="121"/>
+      <c r="V8" s="121"/>
+      <c r="W8" s="121"/>
+      <c r="X8" s="121"/>
+      <c r="Y8" s="121"/>
+      <c r="Z8" s="121"/>
+      <c r="AA8" s="121"/>
+      <c r="AB8" s="121"/>
+      <c r="AC8" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="AD8" s="112"/>
-      <c r="AE8" s="112"/>
-      <c r="AF8" s="112"/>
-      <c r="AG8" s="112"/>
-      <c r="AH8" s="112"/>
-      <c r="AI8" s="112"/>
-      <c r="AJ8" s="112"/>
-      <c r="AK8" s="112"/>
-      <c r="AL8" s="112"/>
-      <c r="AM8" s="113"/>
-      <c r="AN8" s="115" t="s">
+      <c r="AD8" s="121"/>
+      <c r="AE8" s="121"/>
+      <c r="AF8" s="121"/>
+      <c r="AG8" s="121"/>
+      <c r="AH8" s="121"/>
+      <c r="AI8" s="121"/>
+      <c r="AJ8" s="121"/>
+      <c r="AK8" s="121"/>
+      <c r="AL8" s="121"/>
+      <c r="AM8" s="122"/>
+      <c r="AN8" s="244" t="s">
         <v>40</v>
       </c>
-      <c r="AO8" s="116"/>
-      <c r="AP8" s="117"/>
-      <c r="AQ8" s="115" t="s">
+      <c r="AO8" s="245"/>
+      <c r="AP8" s="246"/>
+      <c r="AQ8" s="244" t="s">
         <v>37</v>
       </c>
-      <c r="AR8" s="116"/>
-      <c r="AS8" s="117"/>
-      <c r="AT8" s="115"/>
-      <c r="AU8" s="116"/>
-      <c r="AV8" s="117"/>
-      <c r="AW8" s="118"/>
-      <c r="AX8" s="119"/>
-      <c r="AY8" s="120"/>
-      <c r="AZ8" s="121" t="s">
+      <c r="AR8" s="245"/>
+      <c r="AS8" s="246"/>
+      <c r="AT8" s="244"/>
+      <c r="AU8" s="245"/>
+      <c r="AV8" s="246"/>
+      <c r="AW8" s="253"/>
+      <c r="AX8" s="254"/>
+      <c r="AY8" s="255"/>
+      <c r="AZ8" s="250" t="s">
         <v>9</v>
       </c>
-      <c r="BA8" s="122"/>
-      <c r="BB8" s="122"/>
-      <c r="BC8" s="122"/>
-      <c r="BD8" s="122"/>
-      <c r="BE8" s="122"/>
-      <c r="BF8" s="122"/>
-      <c r="BG8" s="123"/>
-      <c r="BH8" s="124"/>
-    </row>
-    <row r="9" spans="1:60" s="125" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A9" s="126"/>
-      <c r="B9" s="127"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="129"/>
-      <c r="K9" s="129"/>
-      <c r="L9" s="130"/>
-      <c r="M9" s="131"/>
-      <c r="N9" s="131"/>
-      <c r="O9" s="131"/>
-      <c r="P9" s="131"/>
-      <c r="Q9" s="131"/>
-      <c r="R9" s="131"/>
-      <c r="S9" s="132"/>
-      <c r="T9" s="133"/>
-      <c r="U9" s="131"/>
-      <c r="V9" s="131"/>
-      <c r="W9" s="131"/>
-      <c r="X9" s="131"/>
-      <c r="Y9" s="131"/>
-      <c r="Z9" s="131"/>
-      <c r="AA9" s="131"/>
-      <c r="AB9" s="131"/>
-      <c r="AC9" s="133"/>
-      <c r="AD9" s="131"/>
-      <c r="AE9" s="131"/>
-      <c r="AF9" s="131"/>
-      <c r="AG9" s="131"/>
-      <c r="AH9" s="131"/>
-      <c r="AI9" s="131"/>
-      <c r="AJ9" s="131"/>
-      <c r="AK9" s="131"/>
-      <c r="AL9" s="131"/>
-      <c r="AM9" s="132"/>
-      <c r="AN9" s="134"/>
-      <c r="AO9" s="135"/>
-      <c r="AP9" s="136"/>
-      <c r="AQ9" s="134"/>
-      <c r="AR9" s="135"/>
-      <c r="AS9" s="136"/>
-      <c r="AT9" s="134"/>
-      <c r="AU9" s="135"/>
-      <c r="AV9" s="136"/>
-      <c r="AW9" s="137"/>
-      <c r="AX9" s="138"/>
-      <c r="AY9" s="139"/>
-      <c r="AZ9" s="140" t="s">
+      <c r="BA8" s="251"/>
+      <c r="BB8" s="251"/>
+      <c r="BC8" s="251"/>
+      <c r="BD8" s="251"/>
+      <c r="BE8" s="251"/>
+      <c r="BF8" s="251"/>
+      <c r="BG8" s="252"/>
+      <c r="BH8" s="59"/>
+    </row>
+    <row r="9" spans="1:60" s="60" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A9" s="79"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="235"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="236"/>
+      <c r="G9" s="236"/>
+      <c r="H9" s="235"/>
+      <c r="I9" s="236"/>
+      <c r="J9" s="236"/>
+      <c r="K9" s="236"/>
+      <c r="L9" s="237"/>
+      <c r="M9" s="124"/>
+      <c r="N9" s="124"/>
+      <c r="O9" s="124"/>
+      <c r="P9" s="124"/>
+      <c r="Q9" s="124"/>
+      <c r="R9" s="124"/>
+      <c r="S9" s="125"/>
+      <c r="T9" s="123"/>
+      <c r="U9" s="124"/>
+      <c r="V9" s="124"/>
+      <c r="W9" s="124"/>
+      <c r="X9" s="124"/>
+      <c r="Y9" s="124"/>
+      <c r="Z9" s="124"/>
+      <c r="AA9" s="124"/>
+      <c r="AB9" s="124"/>
+      <c r="AC9" s="123"/>
+      <c r="AD9" s="124"/>
+      <c r="AE9" s="124"/>
+      <c r="AF9" s="124"/>
+      <c r="AG9" s="124"/>
+      <c r="AH9" s="124"/>
+      <c r="AI9" s="124"/>
+      <c r="AJ9" s="124"/>
+      <c r="AK9" s="124"/>
+      <c r="AL9" s="124"/>
+      <c r="AM9" s="125"/>
+      <c r="AN9" s="247"/>
+      <c r="AO9" s="248"/>
+      <c r="AP9" s="249"/>
+      <c r="AQ9" s="247"/>
+      <c r="AR9" s="248"/>
+      <c r="AS9" s="249"/>
+      <c r="AT9" s="247"/>
+      <c r="AU9" s="248"/>
+      <c r="AV9" s="249"/>
+      <c r="AW9" s="256"/>
+      <c r="AX9" s="257"/>
+      <c r="AY9" s="258"/>
+      <c r="AZ9" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="BA9" s="141"/>
-      <c r="BB9" s="141"/>
-      <c r="BC9" s="141"/>
-      <c r="BD9" s="141"/>
-      <c r="BE9" s="141"/>
-      <c r="BF9" s="141"/>
-      <c r="BG9" s="142"/>
-      <c r="BH9" s="124"/>
-    </row>
-    <row r="10" spans="1:60" s="125" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A10" s="107">
+      <c r="BA9" s="262"/>
+      <c r="BB9" s="262"/>
+      <c r="BC9" s="262"/>
+      <c r="BD9" s="262"/>
+      <c r="BE9" s="262"/>
+      <c r="BF9" s="262"/>
+      <c r="BG9" s="263"/>
+      <c r="BH9" s="59"/>
+    </row>
+    <row r="10" spans="1:60" s="60" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A10" s="77">
         <v>2</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="128"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="129"/>
-      <c r="K10" s="129"/>
-      <c r="L10" s="130"/>
-      <c r="M10" s="143" t="s">
+      <c r="B10" s="78"/>
+      <c r="C10" s="235"/>
+      <c r="D10" s="236"/>
+      <c r="E10" s="236"/>
+      <c r="F10" s="236"/>
+      <c r="G10" s="236"/>
+      <c r="H10" s="235"/>
+      <c r="I10" s="236"/>
+      <c r="J10" s="236"/>
+      <c r="K10" s="236"/>
+      <c r="L10" s="237"/>
+      <c r="M10" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="143"/>
-      <c r="O10" s="143"/>
-      <c r="P10" s="143"/>
-      <c r="Q10" s="143"/>
-      <c r="R10" s="143"/>
-      <c r="S10" s="144"/>
-      <c r="T10" s="145" t="s">
+      <c r="N10" s="162"/>
+      <c r="O10" s="162"/>
+      <c r="P10" s="162"/>
+      <c r="Q10" s="162"/>
+      <c r="R10" s="162"/>
+      <c r="S10" s="163"/>
+      <c r="T10" s="161" t="s">
         <v>43</v>
       </c>
-      <c r="U10" s="143"/>
-      <c r="V10" s="143"/>
-      <c r="W10" s="143"/>
-      <c r="X10" s="143"/>
-      <c r="Y10" s="143"/>
-      <c r="Z10" s="143"/>
-      <c r="AA10" s="143"/>
-      <c r="AB10" s="144"/>
-      <c r="AC10" s="145" t="s">
+      <c r="U10" s="162"/>
+      <c r="V10" s="162"/>
+      <c r="W10" s="162"/>
+      <c r="X10" s="162"/>
+      <c r="Y10" s="162"/>
+      <c r="Z10" s="162"/>
+      <c r="AA10" s="162"/>
+      <c r="AB10" s="163"/>
+      <c r="AC10" s="161" t="s">
         <v>44</v>
       </c>
-      <c r="AD10" s="143"/>
-      <c r="AE10" s="143"/>
-      <c r="AF10" s="143"/>
-      <c r="AG10" s="143"/>
-      <c r="AH10" s="143"/>
-      <c r="AI10" s="143"/>
-      <c r="AJ10" s="143"/>
-      <c r="AK10" s="143"/>
-      <c r="AL10" s="143"/>
-      <c r="AM10" s="144"/>
-      <c r="AN10" s="146" t="s">
+      <c r="AD10" s="162"/>
+      <c r="AE10" s="162"/>
+      <c r="AF10" s="162"/>
+      <c r="AG10" s="162"/>
+      <c r="AH10" s="162"/>
+      <c r="AI10" s="162"/>
+      <c r="AJ10" s="162"/>
+      <c r="AK10" s="162"/>
+      <c r="AL10" s="162"/>
+      <c r="AM10" s="163"/>
+      <c r="AN10" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="AO10" s="147"/>
-      <c r="AP10" s="148"/>
-      <c r="AQ10" s="146" t="s">
+      <c r="AO10" s="94"/>
+      <c r="AP10" s="95"/>
+      <c r="AQ10" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="AR10" s="147"/>
-      <c r="AS10" s="148"/>
-      <c r="AT10" s="146"/>
-      <c r="AU10" s="147"/>
-      <c r="AV10" s="148"/>
-      <c r="AW10" s="149"/>
-      <c r="AX10" s="150"/>
-      <c r="AY10" s="151"/>
-      <c r="AZ10" s="152"/>
-      <c r="BA10" s="153"/>
-      <c r="BB10" s="153"/>
-      <c r="BC10" s="153"/>
-      <c r="BD10" s="153"/>
-      <c r="BE10" s="153"/>
-      <c r="BF10" s="153"/>
-      <c r="BG10" s="154"/>
-      <c r="BH10" s="124"/>
-    </row>
-    <row r="11" spans="1:60" s="125" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A11" s="126"/>
-      <c r="B11" s="127"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="128"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="129"/>
-      <c r="L11" s="130"/>
-      <c r="M11" s="155"/>
-      <c r="N11" s="155"/>
-      <c r="O11" s="155"/>
-      <c r="P11" s="155"/>
-      <c r="Q11" s="155"/>
-      <c r="R11" s="155"/>
-      <c r="S11" s="156"/>
-      <c r="T11" s="157"/>
-      <c r="U11" s="155"/>
-      <c r="V11" s="155"/>
-      <c r="W11" s="155"/>
-      <c r="X11" s="155"/>
-      <c r="Y11" s="155"/>
-      <c r="Z11" s="155"/>
-      <c r="AA11" s="155"/>
-      <c r="AB11" s="156"/>
-      <c r="AC11" s="157"/>
-      <c r="AD11" s="155"/>
-      <c r="AE11" s="155"/>
-      <c r="AF11" s="155"/>
-      <c r="AG11" s="155"/>
-      <c r="AH11" s="155"/>
-      <c r="AI11" s="155"/>
-      <c r="AJ11" s="155"/>
-      <c r="AK11" s="155"/>
-      <c r="AL11" s="155"/>
-      <c r="AM11" s="156"/>
-      <c r="AN11" s="158"/>
-      <c r="AO11" s="159"/>
-      <c r="AP11" s="160"/>
-      <c r="AQ11" s="158"/>
-      <c r="AR11" s="159"/>
-      <c r="AS11" s="160"/>
-      <c r="AT11" s="158"/>
-      <c r="AU11" s="159"/>
-      <c r="AV11" s="160"/>
-      <c r="AW11" s="161"/>
-      <c r="AX11" s="162"/>
-      <c r="AY11" s="163"/>
-      <c r="AZ11" s="164"/>
-      <c r="BA11" s="165"/>
-      <c r="BB11" s="165"/>
-      <c r="BC11" s="165"/>
-      <c r="BD11" s="165"/>
-      <c r="BE11" s="165"/>
-      <c r="BF11" s="165"/>
-      <c r="BG11" s="166"/>
-      <c r="BH11" s="124"/>
-    </row>
-    <row r="12" spans="1:60" s="125" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A12" s="107">
+      <c r="AR10" s="94"/>
+      <c r="AS10" s="95"/>
+      <c r="AT10" s="93"/>
+      <c r="AU10" s="94"/>
+      <c r="AV10" s="95"/>
+      <c r="AW10" s="264"/>
+      <c r="AX10" s="265"/>
+      <c r="AY10" s="266"/>
+      <c r="AZ10" s="270"/>
+      <c r="BA10" s="271"/>
+      <c r="BB10" s="271"/>
+      <c r="BC10" s="271"/>
+      <c r="BD10" s="271"/>
+      <c r="BE10" s="271"/>
+      <c r="BF10" s="271"/>
+      <c r="BG10" s="272"/>
+      <c r="BH10" s="59"/>
+    </row>
+    <row r="11" spans="1:60" s="60" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A11" s="79"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="235"/>
+      <c r="D11" s="236"/>
+      <c r="E11" s="236"/>
+      <c r="F11" s="236"/>
+      <c r="G11" s="236"/>
+      <c r="H11" s="235"/>
+      <c r="I11" s="236"/>
+      <c r="J11" s="236"/>
+      <c r="K11" s="236"/>
+      <c r="L11" s="237"/>
+      <c r="M11" s="165"/>
+      <c r="N11" s="165"/>
+      <c r="O11" s="165"/>
+      <c r="P11" s="165"/>
+      <c r="Q11" s="165"/>
+      <c r="R11" s="165"/>
+      <c r="S11" s="166"/>
+      <c r="T11" s="164"/>
+      <c r="U11" s="165"/>
+      <c r="V11" s="165"/>
+      <c r="W11" s="165"/>
+      <c r="X11" s="165"/>
+      <c r="Y11" s="165"/>
+      <c r="Z11" s="165"/>
+      <c r="AA11" s="165"/>
+      <c r="AB11" s="166"/>
+      <c r="AC11" s="164"/>
+      <c r="AD11" s="165"/>
+      <c r="AE11" s="165"/>
+      <c r="AF11" s="165"/>
+      <c r="AG11" s="165"/>
+      <c r="AH11" s="165"/>
+      <c r="AI11" s="165"/>
+      <c r="AJ11" s="165"/>
+      <c r="AK11" s="165"/>
+      <c r="AL11" s="165"/>
+      <c r="AM11" s="166"/>
+      <c r="AN11" s="96"/>
+      <c r="AO11" s="97"/>
+      <c r="AP11" s="98"/>
+      <c r="AQ11" s="96"/>
+      <c r="AR11" s="97"/>
+      <c r="AS11" s="98"/>
+      <c r="AT11" s="96"/>
+      <c r="AU11" s="97"/>
+      <c r="AV11" s="98"/>
+      <c r="AW11" s="267"/>
+      <c r="AX11" s="268"/>
+      <c r="AY11" s="269"/>
+      <c r="AZ11" s="99"/>
+      <c r="BA11" s="159"/>
+      <c r="BB11" s="159"/>
+      <c r="BC11" s="159"/>
+      <c r="BD11" s="159"/>
+      <c r="BE11" s="159"/>
+      <c r="BF11" s="159"/>
+      <c r="BG11" s="160"/>
+      <c r="BH11" s="59"/>
+    </row>
+    <row r="12" spans="1:60" s="60" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A12" s="77">
         <v>3</v>
       </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="128"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="130"/>
-      <c r="M12" s="167" t="s">
+      <c r="B12" s="78"/>
+      <c r="C12" s="235"/>
+      <c r="D12" s="236"/>
+      <c r="E12" s="236"/>
+      <c r="F12" s="236"/>
+      <c r="G12" s="236"/>
+      <c r="H12" s="235"/>
+      <c r="I12" s="236"/>
+      <c r="J12" s="236"/>
+      <c r="K12" s="236"/>
+      <c r="L12" s="237"/>
+      <c r="M12" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="N12" s="167"/>
-      <c r="O12" s="167"/>
-      <c r="P12" s="167"/>
-      <c r="Q12" s="167"/>
-      <c r="R12" s="167"/>
-      <c r="S12" s="168"/>
-      <c r="T12" s="114" t="s">
+      <c r="N12" s="115"/>
+      <c r="O12" s="115"/>
+      <c r="P12" s="115"/>
+      <c r="Q12" s="115"/>
+      <c r="R12" s="115"/>
+      <c r="S12" s="116"/>
+      <c r="T12" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="U12" s="112"/>
-      <c r="V12" s="112"/>
-      <c r="W12" s="112"/>
-      <c r="X12" s="112"/>
-      <c r="Y12" s="112"/>
-      <c r="Z12" s="112"/>
-      <c r="AA12" s="112"/>
-      <c r="AB12" s="113"/>
-      <c r="AC12" s="169" t="s">
+      <c r="U12" s="121"/>
+      <c r="V12" s="121"/>
+      <c r="W12" s="121"/>
+      <c r="X12" s="121"/>
+      <c r="Y12" s="121"/>
+      <c r="Z12" s="121"/>
+      <c r="AA12" s="121"/>
+      <c r="AB12" s="122"/>
+      <c r="AC12" s="238" t="s">
         <v>46</v>
       </c>
-      <c r="AD12" s="170"/>
-      <c r="AE12" s="170"/>
-      <c r="AF12" s="170"/>
-      <c r="AG12" s="170"/>
-      <c r="AH12" s="170"/>
-      <c r="AI12" s="170"/>
-      <c r="AJ12" s="170"/>
-      <c r="AK12" s="170"/>
-      <c r="AL12" s="170"/>
-      <c r="AM12" s="171"/>
-      <c r="AN12" s="115" t="s">
+      <c r="AD12" s="239"/>
+      <c r="AE12" s="239"/>
+      <c r="AF12" s="239"/>
+      <c r="AG12" s="239"/>
+      <c r="AH12" s="239"/>
+      <c r="AI12" s="239"/>
+      <c r="AJ12" s="239"/>
+      <c r="AK12" s="239"/>
+      <c r="AL12" s="239"/>
+      <c r="AM12" s="240"/>
+      <c r="AN12" s="244" t="s">
         <v>40</v>
       </c>
-      <c r="AO12" s="116"/>
-      <c r="AP12" s="117"/>
-      <c r="AQ12" s="146" t="s">
+      <c r="AO12" s="245"/>
+      <c r="AP12" s="246"/>
+      <c r="AQ12" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="AR12" s="147"/>
-      <c r="AS12" s="148"/>
-      <c r="AT12" s="115"/>
-      <c r="AU12" s="116"/>
-      <c r="AV12" s="117"/>
-      <c r="AW12" s="118"/>
-      <c r="AX12" s="119"/>
-      <c r="AY12" s="120"/>
-      <c r="AZ12" s="121"/>
-      <c r="BA12" s="122"/>
-      <c r="BB12" s="122"/>
-      <c r="BC12" s="122"/>
-      <c r="BD12" s="122"/>
-      <c r="BE12" s="122"/>
-      <c r="BF12" s="122"/>
-      <c r="BG12" s="123"/>
-      <c r="BH12" s="124"/>
-    </row>
-    <row r="13" spans="1:60" s="125" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A13" s="126"/>
-      <c r="B13" s="127"/>
-      <c r="C13" s="128"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="129"/>
-      <c r="K13" s="129"/>
-      <c r="L13" s="130"/>
-      <c r="M13" s="172"/>
-      <c r="N13" s="172"/>
-      <c r="O13" s="172"/>
-      <c r="P13" s="172"/>
-      <c r="Q13" s="172"/>
-      <c r="R13" s="172"/>
-      <c r="S13" s="173"/>
-      <c r="T13" s="133"/>
-      <c r="U13" s="131"/>
-      <c r="V13" s="131"/>
-      <c r="W13" s="131"/>
-      <c r="X13" s="131"/>
-      <c r="Y13" s="131"/>
-      <c r="Z13" s="131"/>
-      <c r="AA13" s="131"/>
-      <c r="AB13" s="132"/>
-      <c r="AC13" s="174"/>
-      <c r="AD13" s="175"/>
-      <c r="AE13" s="175"/>
-      <c r="AF13" s="175"/>
-      <c r="AG13" s="175"/>
-      <c r="AH13" s="175"/>
-      <c r="AI13" s="175"/>
-      <c r="AJ13" s="175"/>
-      <c r="AK13" s="175"/>
-      <c r="AL13" s="175"/>
-      <c r="AM13" s="176"/>
-      <c r="AN13" s="134"/>
-      <c r="AO13" s="135"/>
-      <c r="AP13" s="136"/>
-      <c r="AQ13" s="158"/>
-      <c r="AR13" s="159"/>
-      <c r="AS13" s="160"/>
-      <c r="AT13" s="134"/>
-      <c r="AU13" s="135"/>
-      <c r="AV13" s="136"/>
-      <c r="AW13" s="137"/>
-      <c r="AX13" s="138"/>
-      <c r="AY13" s="139"/>
-      <c r="AZ13" s="140"/>
-      <c r="BA13" s="177"/>
-      <c r="BB13" s="177"/>
-      <c r="BC13" s="177"/>
-      <c r="BD13" s="177"/>
-      <c r="BE13" s="177"/>
-      <c r="BF13" s="177"/>
-      <c r="BG13" s="178"/>
-      <c r="BH13" s="124"/>
-    </row>
-    <row r="14" spans="1:60" s="125" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A14" s="107">
+      <c r="AR12" s="94"/>
+      <c r="AS12" s="95"/>
+      <c r="AT12" s="244"/>
+      <c r="AU12" s="245"/>
+      <c r="AV12" s="246"/>
+      <c r="AW12" s="253"/>
+      <c r="AX12" s="254"/>
+      <c r="AY12" s="255"/>
+      <c r="AZ12" s="250"/>
+      <c r="BA12" s="251"/>
+      <c r="BB12" s="251"/>
+      <c r="BC12" s="251"/>
+      <c r="BD12" s="251"/>
+      <c r="BE12" s="251"/>
+      <c r="BF12" s="251"/>
+      <c r="BG12" s="252"/>
+      <c r="BH12" s="59"/>
+    </row>
+    <row r="13" spans="1:60" s="60" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A13" s="79"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="235"/>
+      <c r="D13" s="236"/>
+      <c r="E13" s="236"/>
+      <c r="F13" s="236"/>
+      <c r="G13" s="236"/>
+      <c r="H13" s="235"/>
+      <c r="I13" s="236"/>
+      <c r="J13" s="236"/>
+      <c r="K13" s="236"/>
+      <c r="L13" s="237"/>
+      <c r="M13" s="118"/>
+      <c r="N13" s="118"/>
+      <c r="O13" s="118"/>
+      <c r="P13" s="118"/>
+      <c r="Q13" s="118"/>
+      <c r="R13" s="118"/>
+      <c r="S13" s="119"/>
+      <c r="T13" s="123"/>
+      <c r="U13" s="124"/>
+      <c r="V13" s="124"/>
+      <c r="W13" s="124"/>
+      <c r="X13" s="124"/>
+      <c r="Y13" s="124"/>
+      <c r="Z13" s="124"/>
+      <c r="AA13" s="124"/>
+      <c r="AB13" s="125"/>
+      <c r="AC13" s="241"/>
+      <c r="AD13" s="242"/>
+      <c r="AE13" s="242"/>
+      <c r="AF13" s="242"/>
+      <c r="AG13" s="242"/>
+      <c r="AH13" s="242"/>
+      <c r="AI13" s="242"/>
+      <c r="AJ13" s="242"/>
+      <c r="AK13" s="242"/>
+      <c r="AL13" s="242"/>
+      <c r="AM13" s="243"/>
+      <c r="AN13" s="247"/>
+      <c r="AO13" s="248"/>
+      <c r="AP13" s="249"/>
+      <c r="AQ13" s="96"/>
+      <c r="AR13" s="97"/>
+      <c r="AS13" s="98"/>
+      <c r="AT13" s="247"/>
+      <c r="AU13" s="248"/>
+      <c r="AV13" s="249"/>
+      <c r="AW13" s="256"/>
+      <c r="AX13" s="257"/>
+      <c r="AY13" s="258"/>
+      <c r="AZ13" s="259"/>
+      <c r="BA13" s="260"/>
+      <c r="BB13" s="260"/>
+      <c r="BC13" s="260"/>
+      <c r="BD13" s="260"/>
+      <c r="BE13" s="260"/>
+      <c r="BF13" s="260"/>
+      <c r="BG13" s="261"/>
+      <c r="BH13" s="59"/>
+    </row>
+    <row r="14" spans="1:60" s="60" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A14" s="77">
         <f>A12+1</f>
         <v>4</v>
       </c>
-      <c r="B14" s="108"/>
-      <c r="C14" s="128"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="128"/>
-      <c r="I14" s="129"/>
-      <c r="J14" s="129"/>
-      <c r="K14" s="129"/>
-      <c r="L14" s="130"/>
-      <c r="M14" s="179" t="s">
+      <c r="B14" s="78"/>
+      <c r="C14" s="235"/>
+      <c r="D14" s="236"/>
+      <c r="E14" s="236"/>
+      <c r="F14" s="236"/>
+      <c r="G14" s="236"/>
+      <c r="H14" s="235"/>
+      <c r="I14" s="236"/>
+      <c r="J14" s="236"/>
+      <c r="K14" s="236"/>
+      <c r="L14" s="237"/>
+      <c r="M14" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="N14" s="179"/>
-      <c r="O14" s="179"/>
-      <c r="P14" s="179"/>
-      <c r="Q14" s="179"/>
-      <c r="R14" s="179"/>
-      <c r="S14" s="180"/>
-      <c r="T14" s="145" t="s">
+      <c r="N14" s="147"/>
+      <c r="O14" s="147"/>
+      <c r="P14" s="147"/>
+      <c r="Q14" s="147"/>
+      <c r="R14" s="147"/>
+      <c r="S14" s="148"/>
+      <c r="T14" s="161" t="s">
         <v>49</v>
       </c>
-      <c r="U14" s="181"/>
-      <c r="V14" s="181"/>
-      <c r="W14" s="181"/>
-      <c r="X14" s="181"/>
-      <c r="Y14" s="181"/>
-      <c r="Z14" s="181"/>
-      <c r="AA14" s="181"/>
-      <c r="AB14" s="182"/>
-      <c r="AC14" s="183" t="s">
+      <c r="U14" s="82"/>
+      <c r="V14" s="82"/>
+      <c r="W14" s="82"/>
+      <c r="X14" s="82"/>
+      <c r="Y14" s="82"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="83"/>
+      <c r="AC14" s="229" t="s">
         <v>50</v>
       </c>
-      <c r="AD14" s="184"/>
-      <c r="AE14" s="184"/>
-      <c r="AF14" s="184"/>
-      <c r="AG14" s="184"/>
-      <c r="AH14" s="184"/>
-      <c r="AI14" s="184"/>
-      <c r="AJ14" s="184"/>
-      <c r="AK14" s="184"/>
-      <c r="AL14" s="184"/>
-      <c r="AM14" s="185"/>
-      <c r="AN14" s="146" t="s">
+      <c r="AD14" s="230"/>
+      <c r="AE14" s="230"/>
+      <c r="AF14" s="230"/>
+      <c r="AG14" s="230"/>
+      <c r="AH14" s="230"/>
+      <c r="AI14" s="230"/>
+      <c r="AJ14" s="230"/>
+      <c r="AK14" s="230"/>
+      <c r="AL14" s="230"/>
+      <c r="AM14" s="231"/>
+      <c r="AN14" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="AO14" s="147"/>
-      <c r="AP14" s="148"/>
-      <c r="AQ14" s="146" t="s">
+      <c r="AO14" s="94"/>
+      <c r="AP14" s="95"/>
+      <c r="AQ14" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="AR14" s="147"/>
-      <c r="AS14" s="148"/>
-      <c r="AT14" s="146"/>
-      <c r="AU14" s="147"/>
-      <c r="AV14" s="148"/>
-      <c r="AW14" s="149"/>
-      <c r="AX14" s="150"/>
-      <c r="AY14" s="151"/>
-      <c r="AZ14" s="164"/>
-      <c r="BA14" s="186"/>
-      <c r="BB14" s="186"/>
-      <c r="BC14" s="186"/>
-      <c r="BD14" s="186"/>
-      <c r="BE14" s="186"/>
-      <c r="BF14" s="186"/>
-      <c r="BG14" s="187"/>
-      <c r="BH14" s="124"/>
-    </row>
-    <row r="15" spans="1:60" s="125" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A15" s="126"/>
-      <c r="B15" s="127"/>
-      <c r="C15" s="128"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="130"/>
-      <c r="M15" s="188"/>
-      <c r="N15" s="188"/>
-      <c r="O15" s="188"/>
-      <c r="P15" s="188"/>
-      <c r="Q15" s="188"/>
-      <c r="R15" s="188"/>
-      <c r="S15" s="189"/>
-      <c r="T15" s="190"/>
-      <c r="U15" s="191"/>
-      <c r="V15" s="191"/>
-      <c r="W15" s="191"/>
-      <c r="X15" s="191"/>
-      <c r="Y15" s="191"/>
-      <c r="Z15" s="191"/>
-      <c r="AA15" s="191"/>
-      <c r="AB15" s="192"/>
-      <c r="AC15" s="193"/>
-      <c r="AD15" s="194"/>
-      <c r="AE15" s="194"/>
-      <c r="AF15" s="194"/>
-      <c r="AG15" s="194"/>
-      <c r="AH15" s="194"/>
-      <c r="AI15" s="194"/>
-      <c r="AJ15" s="194"/>
-      <c r="AK15" s="194"/>
-      <c r="AL15" s="194"/>
-      <c r="AM15" s="195"/>
-      <c r="AN15" s="158"/>
-      <c r="AO15" s="159"/>
-      <c r="AP15" s="160"/>
-      <c r="AQ15" s="158"/>
-      <c r="AR15" s="159"/>
-      <c r="AS15" s="160"/>
-      <c r="AT15" s="158"/>
-      <c r="AU15" s="159"/>
-      <c r="AV15" s="160"/>
-      <c r="AW15" s="161"/>
-      <c r="AX15" s="162"/>
-      <c r="AY15" s="163"/>
-      <c r="AZ15" s="164"/>
-      <c r="BA15" s="186"/>
-      <c r="BB15" s="186"/>
-      <c r="BC15" s="186"/>
-      <c r="BD15" s="186"/>
-      <c r="BE15" s="186"/>
-      <c r="BF15" s="186"/>
-      <c r="BG15" s="187"/>
-      <c r="BH15" s="124"/>
+      <c r="AR14" s="94"/>
+      <c r="AS14" s="95"/>
+      <c r="AT14" s="93"/>
+      <c r="AU14" s="94"/>
+      <c r="AV14" s="95"/>
+      <c r="AW14" s="264"/>
+      <c r="AX14" s="265"/>
+      <c r="AY14" s="266"/>
+      <c r="AZ14" s="99"/>
+      <c r="BA14" s="100"/>
+      <c r="BB14" s="100"/>
+      <c r="BC14" s="100"/>
+      <c r="BD14" s="100"/>
+      <c r="BE14" s="100"/>
+      <c r="BF14" s="100"/>
+      <c r="BG14" s="101"/>
+      <c r="BH14" s="59"/>
+    </row>
+    <row r="15" spans="1:60" s="60" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A15" s="79"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="235"/>
+      <c r="D15" s="236"/>
+      <c r="E15" s="236"/>
+      <c r="F15" s="236"/>
+      <c r="G15" s="236"/>
+      <c r="H15" s="235"/>
+      <c r="I15" s="236"/>
+      <c r="J15" s="236"/>
+      <c r="K15" s="236"/>
+      <c r="L15" s="237"/>
+      <c r="M15" s="149"/>
+      <c r="N15" s="149"/>
+      <c r="O15" s="149"/>
+      <c r="P15" s="149"/>
+      <c r="Q15" s="149"/>
+      <c r="R15" s="149"/>
+      <c r="S15" s="150"/>
+      <c r="T15" s="84"/>
+      <c r="U15" s="85"/>
+      <c r="V15" s="85"/>
+      <c r="W15" s="85"/>
+      <c r="X15" s="85"/>
+      <c r="Y15" s="85"/>
+      <c r="Z15" s="85"/>
+      <c r="AA15" s="85"/>
+      <c r="AB15" s="86"/>
+      <c r="AC15" s="232"/>
+      <c r="AD15" s="233"/>
+      <c r="AE15" s="233"/>
+      <c r="AF15" s="233"/>
+      <c r="AG15" s="233"/>
+      <c r="AH15" s="233"/>
+      <c r="AI15" s="233"/>
+      <c r="AJ15" s="233"/>
+      <c r="AK15" s="233"/>
+      <c r="AL15" s="233"/>
+      <c r="AM15" s="234"/>
+      <c r="AN15" s="96"/>
+      <c r="AO15" s="97"/>
+      <c r="AP15" s="98"/>
+      <c r="AQ15" s="96"/>
+      <c r="AR15" s="97"/>
+      <c r="AS15" s="98"/>
+      <c r="AT15" s="96"/>
+      <c r="AU15" s="97"/>
+      <c r="AV15" s="98"/>
+      <c r="AW15" s="267"/>
+      <c r="AX15" s="268"/>
+      <c r="AY15" s="269"/>
+      <c r="AZ15" s="99"/>
+      <c r="BA15" s="100"/>
+      <c r="BB15" s="100"/>
+      <c r="BC15" s="100"/>
+      <c r="BD15" s="100"/>
+      <c r="BE15" s="100"/>
+      <c r="BF15" s="100"/>
+      <c r="BG15" s="101"/>
+      <c r="BH15" s="59"/>
     </row>
     <row r="16" spans="1:60" ht="94.5" customHeight="1">
-      <c r="A16" s="107">
+      <c r="A16" s="77">
         <f>A14+1</f>
         <v>5</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="128"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="129"/>
-      <c r="L16" s="130"/>
-      <c r="M16" s="179" t="s">
+      <c r="B16" s="78"/>
+      <c r="C16" s="235"/>
+      <c r="D16" s="236"/>
+      <c r="E16" s="236"/>
+      <c r="F16" s="236"/>
+      <c r="G16" s="236"/>
+      <c r="H16" s="235"/>
+      <c r="I16" s="236"/>
+      <c r="J16" s="236"/>
+      <c r="K16" s="236"/>
+      <c r="L16" s="237"/>
+      <c r="M16" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="N16" s="179"/>
-      <c r="O16" s="179"/>
-      <c r="P16" s="179"/>
-      <c r="Q16" s="179"/>
-      <c r="R16" s="179"/>
-      <c r="S16" s="180"/>
-      <c r="T16" s="145" t="s">
+      <c r="N16" s="147"/>
+      <c r="O16" s="147"/>
+      <c r="P16" s="147"/>
+      <c r="Q16" s="147"/>
+      <c r="R16" s="147"/>
+      <c r="S16" s="148"/>
+      <c r="T16" s="161" t="s">
         <v>51</v>
       </c>
-      <c r="U16" s="181"/>
-      <c r="V16" s="181"/>
-      <c r="W16" s="181"/>
-      <c r="X16" s="181"/>
-      <c r="Y16" s="181"/>
-      <c r="Z16" s="181"/>
-      <c r="AA16" s="181"/>
-      <c r="AB16" s="182"/>
-      <c r="AC16" s="183" t="s">
+      <c r="U16" s="82"/>
+      <c r="V16" s="82"/>
+      <c r="W16" s="82"/>
+      <c r="X16" s="82"/>
+      <c r="Y16" s="82"/>
+      <c r="Z16" s="82"/>
+      <c r="AA16" s="82"/>
+      <c r="AB16" s="83"/>
+      <c r="AC16" s="229" t="s">
         <v>50</v>
       </c>
-      <c r="AD16" s="184"/>
-      <c r="AE16" s="184"/>
-      <c r="AF16" s="184"/>
-      <c r="AG16" s="184"/>
-      <c r="AH16" s="184"/>
-      <c r="AI16" s="184"/>
-      <c r="AJ16" s="184"/>
-      <c r="AK16" s="184"/>
-      <c r="AL16" s="184"/>
-      <c r="AM16" s="185"/>
-      <c r="AN16" s="196" t="s">
+      <c r="AD16" s="230"/>
+      <c r="AE16" s="230"/>
+      <c r="AF16" s="230"/>
+      <c r="AG16" s="230"/>
+      <c r="AH16" s="230"/>
+      <c r="AI16" s="230"/>
+      <c r="AJ16" s="230"/>
+      <c r="AK16" s="230"/>
+      <c r="AL16" s="230"/>
+      <c r="AM16" s="231"/>
+      <c r="AN16" s="273" t="s">
         <v>40</v>
       </c>
-      <c r="AO16" s="197"/>
-      <c r="AP16" s="198"/>
-      <c r="AQ16" s="146" t="s">
+      <c r="AO16" s="274"/>
+      <c r="AP16" s="275"/>
+      <c r="AQ16" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="AR16" s="147"/>
-      <c r="AS16" s="148"/>
-      <c r="AT16" s="199"/>
-      <c r="AU16" s="200"/>
-      <c r="AV16" s="201"/>
-      <c r="AW16" s="199"/>
-      <c r="AX16" s="200"/>
-      <c r="AY16" s="201"/>
-      <c r="AZ16" s="140"/>
-      <c r="BA16" s="141"/>
-      <c r="BB16" s="141"/>
-      <c r="BC16" s="141"/>
-      <c r="BD16" s="141"/>
-      <c r="BE16" s="141"/>
-      <c r="BF16" s="141"/>
-      <c r="BG16" s="142"/>
+      <c r="AR16" s="94"/>
+      <c r="AS16" s="95"/>
+      <c r="AT16" s="276"/>
+      <c r="AU16" s="277"/>
+      <c r="AV16" s="278"/>
+      <c r="AW16" s="276"/>
+      <c r="AX16" s="277"/>
+      <c r="AY16" s="278"/>
+      <c r="AZ16" s="259"/>
+      <c r="BA16" s="262"/>
+      <c r="BB16" s="262"/>
+      <c r="BC16" s="262"/>
+      <c r="BD16" s="262"/>
+      <c r="BE16" s="262"/>
+      <c r="BF16" s="262"/>
+      <c r="BG16" s="263"/>
     </row>
     <row r="17" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A17" s="126"/>
-      <c r="B17" s="127"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="130"/>
-      <c r="M17" s="188"/>
-      <c r="N17" s="188"/>
-      <c r="O17" s="188"/>
-      <c r="P17" s="188"/>
-      <c r="Q17" s="188"/>
-      <c r="R17" s="188"/>
-      <c r="S17" s="189"/>
-      <c r="T17" s="190"/>
-      <c r="U17" s="191"/>
-      <c r="V17" s="191"/>
-      <c r="W17" s="191"/>
-      <c r="X17" s="191"/>
-      <c r="Y17" s="191"/>
-      <c r="Z17" s="191"/>
-      <c r="AA17" s="191"/>
-      <c r="AB17" s="192"/>
-      <c r="AC17" s="193"/>
-      <c r="AD17" s="194"/>
-      <c r="AE17" s="194"/>
-      <c r="AF17" s="194"/>
-      <c r="AG17" s="194"/>
-      <c r="AH17" s="194"/>
-      <c r="AI17" s="194"/>
-      <c r="AJ17" s="194"/>
-      <c r="AK17" s="194"/>
-      <c r="AL17" s="194"/>
-      <c r="AM17" s="195"/>
-      <c r="AN17" s="88"/>
-      <c r="AO17" s="89"/>
-      <c r="AP17" s="90"/>
-      <c r="AQ17" s="158"/>
-      <c r="AR17" s="159"/>
-      <c r="AS17" s="160"/>
-      <c r="AT17" s="202"/>
-      <c r="AU17" s="203"/>
-      <c r="AV17" s="204"/>
-      <c r="AW17" s="202"/>
-      <c r="AX17" s="203"/>
-      <c r="AY17" s="204"/>
-      <c r="AZ17" s="140"/>
-      <c r="BA17" s="177"/>
-      <c r="BB17" s="177"/>
-      <c r="BC17" s="177"/>
-      <c r="BD17" s="177"/>
-      <c r="BE17" s="177"/>
-      <c r="BF17" s="177"/>
-      <c r="BG17" s="178"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="235"/>
+      <c r="D17" s="236"/>
+      <c r="E17" s="236"/>
+      <c r="F17" s="236"/>
+      <c r="G17" s="236"/>
+      <c r="H17" s="235"/>
+      <c r="I17" s="236"/>
+      <c r="J17" s="236"/>
+      <c r="K17" s="236"/>
+      <c r="L17" s="237"/>
+      <c r="M17" s="149"/>
+      <c r="N17" s="149"/>
+      <c r="O17" s="149"/>
+      <c r="P17" s="149"/>
+      <c r="Q17" s="149"/>
+      <c r="R17" s="149"/>
+      <c r="S17" s="150"/>
+      <c r="T17" s="84"/>
+      <c r="U17" s="85"/>
+      <c r="V17" s="85"/>
+      <c r="W17" s="85"/>
+      <c r="X17" s="85"/>
+      <c r="Y17" s="85"/>
+      <c r="Z17" s="85"/>
+      <c r="AA17" s="85"/>
+      <c r="AB17" s="86"/>
+      <c r="AC17" s="232"/>
+      <c r="AD17" s="233"/>
+      <c r="AE17" s="233"/>
+      <c r="AF17" s="233"/>
+      <c r="AG17" s="233"/>
+      <c r="AH17" s="233"/>
+      <c r="AI17" s="233"/>
+      <c r="AJ17" s="233"/>
+      <c r="AK17" s="233"/>
+      <c r="AL17" s="233"/>
+      <c r="AM17" s="234"/>
+      <c r="AN17" s="216"/>
+      <c r="AO17" s="217"/>
+      <c r="AP17" s="218"/>
+      <c r="AQ17" s="96"/>
+      <c r="AR17" s="97"/>
+      <c r="AS17" s="98"/>
+      <c r="AT17" s="279"/>
+      <c r="AU17" s="280"/>
+      <c r="AV17" s="281"/>
+      <c r="AW17" s="279"/>
+      <c r="AX17" s="280"/>
+      <c r="AY17" s="281"/>
+      <c r="AZ17" s="259"/>
+      <c r="BA17" s="260"/>
+      <c r="BB17" s="260"/>
+      <c r="BC17" s="260"/>
+      <c r="BD17" s="260"/>
+      <c r="BE17" s="260"/>
+      <c r="BF17" s="260"/>
+      <c r="BG17" s="261"/>
     </row>
     <row r="18" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A18" s="107">
+      <c r="A18" s="77">
         <f>A16+1</f>
         <v>6</v>
       </c>
-      <c r="B18" s="108"/>
-      <c r="C18" s="128"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="129"/>
-      <c r="J18" s="129"/>
-      <c r="K18" s="129"/>
-      <c r="L18" s="130"/>
-      <c r="M18" s="179" t="s">
+      <c r="B18" s="78"/>
+      <c r="C18" s="235"/>
+      <c r="D18" s="236"/>
+      <c r="E18" s="236"/>
+      <c r="F18" s="236"/>
+      <c r="G18" s="236"/>
+      <c r="H18" s="235"/>
+      <c r="I18" s="236"/>
+      <c r="J18" s="236"/>
+      <c r="K18" s="236"/>
+      <c r="L18" s="237"/>
+      <c r="M18" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="N18" s="179"/>
-      <c r="O18" s="179"/>
-      <c r="P18" s="179"/>
-      <c r="Q18" s="179"/>
-      <c r="R18" s="179"/>
-      <c r="S18" s="180"/>
-      <c r="T18" s="145" t="s">
+      <c r="N18" s="147"/>
+      <c r="O18" s="147"/>
+      <c r="P18" s="147"/>
+      <c r="Q18" s="147"/>
+      <c r="R18" s="147"/>
+      <c r="S18" s="148"/>
+      <c r="T18" s="161" t="s">
         <v>53</v>
       </c>
-      <c r="U18" s="143"/>
-      <c r="V18" s="143"/>
-      <c r="W18" s="143"/>
-      <c r="X18" s="143"/>
-      <c r="Y18" s="143"/>
-      <c r="Z18" s="143"/>
-      <c r="AA18" s="143"/>
-      <c r="AB18" s="144"/>
-      <c r="AC18" s="183" t="s">
+      <c r="U18" s="162"/>
+      <c r="V18" s="162"/>
+      <c r="W18" s="162"/>
+      <c r="X18" s="162"/>
+      <c r="Y18" s="162"/>
+      <c r="Z18" s="162"/>
+      <c r="AA18" s="162"/>
+      <c r="AB18" s="163"/>
+      <c r="AC18" s="229" t="s">
         <v>54</v>
       </c>
-      <c r="AD18" s="184"/>
-      <c r="AE18" s="184"/>
-      <c r="AF18" s="184"/>
-      <c r="AG18" s="184"/>
-      <c r="AH18" s="184"/>
-      <c r="AI18" s="184"/>
-      <c r="AJ18" s="184"/>
-      <c r="AK18" s="184"/>
-      <c r="AL18" s="184"/>
-      <c r="AM18" s="185"/>
-      <c r="AN18" s="317" t="s">
+      <c r="AD18" s="230"/>
+      <c r="AE18" s="230"/>
+      <c r="AF18" s="230"/>
+      <c r="AG18" s="230"/>
+      <c r="AH18" s="230"/>
+      <c r="AI18" s="230"/>
+      <c r="AJ18" s="230"/>
+      <c r="AK18" s="230"/>
+      <c r="AL18" s="230"/>
+      <c r="AM18" s="231"/>
+      <c r="AN18" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="AO18" s="318"/>
-      <c r="AP18" s="319"/>
-      <c r="AQ18" s="146" t="s">
+      <c r="AO18" s="88"/>
+      <c r="AP18" s="89"/>
+      <c r="AQ18" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="AR18" s="147"/>
-      <c r="AS18" s="148"/>
-      <c r="AT18" s="205"/>
-      <c r="AU18" s="206"/>
-      <c r="AV18" s="207"/>
-      <c r="AW18" s="205"/>
-      <c r="AX18" s="206"/>
-      <c r="AY18" s="207"/>
-      <c r="AZ18" s="164"/>
-      <c r="BA18" s="165"/>
-      <c r="BB18" s="165"/>
-      <c r="BC18" s="165"/>
-      <c r="BD18" s="165"/>
-      <c r="BE18" s="165"/>
-      <c r="BF18" s="165"/>
-      <c r="BG18" s="166"/>
+      <c r="AR18" s="94"/>
+      <c r="AS18" s="95"/>
+      <c r="AT18" s="151"/>
+      <c r="AU18" s="152"/>
+      <c r="AV18" s="153"/>
+      <c r="AW18" s="151"/>
+      <c r="AX18" s="152"/>
+      <c r="AY18" s="153"/>
+      <c r="AZ18" s="99"/>
+      <c r="BA18" s="159"/>
+      <c r="BB18" s="159"/>
+      <c r="BC18" s="159"/>
+      <c r="BD18" s="159"/>
+      <c r="BE18" s="159"/>
+      <c r="BF18" s="159"/>
+      <c r="BG18" s="160"/>
     </row>
     <row r="19" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A19" s="126"/>
-      <c r="B19" s="127"/>
-      <c r="C19" s="208"/>
-      <c r="D19" s="209"/>
-      <c r="E19" s="209"/>
-      <c r="F19" s="209"/>
-      <c r="G19" s="209"/>
-      <c r="H19" s="208"/>
-      <c r="I19" s="209"/>
-      <c r="J19" s="209"/>
-      <c r="K19" s="209"/>
-      <c r="L19" s="210"/>
-      <c r="M19" s="188"/>
-      <c r="N19" s="188"/>
-      <c r="O19" s="188"/>
-      <c r="P19" s="188"/>
-      <c r="Q19" s="188"/>
-      <c r="R19" s="188"/>
-      <c r="S19" s="189"/>
-      <c r="T19" s="157"/>
-      <c r="U19" s="155"/>
-      <c r="V19" s="155"/>
-      <c r="W19" s="155"/>
-      <c r="X19" s="155"/>
-      <c r="Y19" s="155"/>
-      <c r="Z19" s="155"/>
-      <c r="AA19" s="155"/>
-      <c r="AB19" s="156"/>
-      <c r="AC19" s="193"/>
-      <c r="AD19" s="194"/>
-      <c r="AE19" s="194"/>
-      <c r="AF19" s="194"/>
-      <c r="AG19" s="194"/>
-      <c r="AH19" s="194"/>
-      <c r="AI19" s="194"/>
-      <c r="AJ19" s="194"/>
-      <c r="AK19" s="194"/>
-      <c r="AL19" s="194"/>
-      <c r="AM19" s="195"/>
-      <c r="AN19" s="320"/>
-      <c r="AO19" s="321"/>
-      <c r="AP19" s="322"/>
-      <c r="AQ19" s="158"/>
-      <c r="AR19" s="159"/>
-      <c r="AS19" s="160"/>
-      <c r="AT19" s="211"/>
-      <c r="AU19" s="212"/>
-      <c r="AV19" s="213"/>
-      <c r="AW19" s="211"/>
-      <c r="AX19" s="212"/>
-      <c r="AY19" s="213"/>
-      <c r="AZ19" s="164"/>
-      <c r="BA19" s="186"/>
-      <c r="BB19" s="186"/>
-      <c r="BC19" s="186"/>
-      <c r="BD19" s="186"/>
-      <c r="BE19" s="186"/>
-      <c r="BF19" s="186"/>
-      <c r="BG19" s="187"/>
+      <c r="A19" s="79"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="149"/>
+      <c r="N19" s="149"/>
+      <c r="O19" s="149"/>
+      <c r="P19" s="149"/>
+      <c r="Q19" s="149"/>
+      <c r="R19" s="149"/>
+      <c r="S19" s="150"/>
+      <c r="T19" s="164"/>
+      <c r="U19" s="165"/>
+      <c r="V19" s="165"/>
+      <c r="W19" s="165"/>
+      <c r="X19" s="165"/>
+      <c r="Y19" s="165"/>
+      <c r="Z19" s="165"/>
+      <c r="AA19" s="165"/>
+      <c r="AB19" s="166"/>
+      <c r="AC19" s="232"/>
+      <c r="AD19" s="233"/>
+      <c r="AE19" s="233"/>
+      <c r="AF19" s="233"/>
+      <c r="AG19" s="233"/>
+      <c r="AH19" s="233"/>
+      <c r="AI19" s="233"/>
+      <c r="AJ19" s="233"/>
+      <c r="AK19" s="233"/>
+      <c r="AL19" s="233"/>
+      <c r="AM19" s="234"/>
+      <c r="AN19" s="90"/>
+      <c r="AO19" s="91"/>
+      <c r="AP19" s="92"/>
+      <c r="AQ19" s="96"/>
+      <c r="AR19" s="97"/>
+      <c r="AS19" s="98"/>
+      <c r="AT19" s="154"/>
+      <c r="AU19" s="155"/>
+      <c r="AV19" s="156"/>
+      <c r="AW19" s="154"/>
+      <c r="AX19" s="155"/>
+      <c r="AY19" s="156"/>
+      <c r="AZ19" s="99"/>
+      <c r="BA19" s="100"/>
+      <c r="BB19" s="100"/>
+      <c r="BC19" s="100"/>
+      <c r="BD19" s="100"/>
+      <c r="BE19" s="100"/>
+      <c r="BF19" s="100"/>
+      <c r="BG19" s="101"/>
     </row>
     <row r="20" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A20" s="107">
+      <c r="A20" s="77">
         <f>A18+1</f>
         <v>7</v>
       </c>
-      <c r="B20" s="108"/>
-      <c r="C20" s="109" t="s">
+      <c r="B20" s="78"/>
+      <c r="C20" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="214" t="s">
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="301" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="215"/>
-      <c r="J20" s="215"/>
-      <c r="K20" s="215"/>
-      <c r="L20" s="216"/>
-      <c r="M20" s="167" t="s">
+      <c r="I20" s="302"/>
+      <c r="J20" s="302"/>
+      <c r="K20" s="302"/>
+      <c r="L20" s="303"/>
+      <c r="M20" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="N20" s="167"/>
-      <c r="O20" s="167"/>
-      <c r="P20" s="167"/>
-      <c r="Q20" s="167"/>
-      <c r="R20" s="167"/>
-      <c r="S20" s="168"/>
-      <c r="T20" s="114" t="s">
+      <c r="N20" s="115"/>
+      <c r="O20" s="115"/>
+      <c r="P20" s="115"/>
+      <c r="Q20" s="115"/>
+      <c r="R20" s="115"/>
+      <c r="S20" s="116"/>
+      <c r="T20" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="U20" s="218"/>
-      <c r="V20" s="218"/>
-      <c r="W20" s="218"/>
-      <c r="X20" s="218"/>
-      <c r="Y20" s="218"/>
-      <c r="Z20" s="218"/>
-      <c r="AA20" s="218"/>
-      <c r="AB20" s="219"/>
-      <c r="AC20" s="114" t="s">
+      <c r="U20" s="127"/>
+      <c r="V20" s="127"/>
+      <c r="W20" s="127"/>
+      <c r="X20" s="127"/>
+      <c r="Y20" s="127"/>
+      <c r="Z20" s="127"/>
+      <c r="AA20" s="127"/>
+      <c r="AB20" s="128"/>
+      <c r="AC20" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="AD20" s="218"/>
-      <c r="AE20" s="218"/>
-      <c r="AF20" s="218"/>
-      <c r="AG20" s="218"/>
-      <c r="AH20" s="218"/>
-      <c r="AI20" s="218"/>
-      <c r="AJ20" s="218"/>
-      <c r="AK20" s="218"/>
-      <c r="AL20" s="218"/>
-      <c r="AM20" s="219"/>
-      <c r="AN20" s="196" t="s">
+      <c r="AD20" s="127"/>
+      <c r="AE20" s="127"/>
+      <c r="AF20" s="127"/>
+      <c r="AG20" s="127"/>
+      <c r="AH20" s="127"/>
+      <c r="AI20" s="127"/>
+      <c r="AJ20" s="127"/>
+      <c r="AK20" s="127"/>
+      <c r="AL20" s="127"/>
+      <c r="AM20" s="128"/>
+      <c r="AN20" s="273" t="s">
         <v>59</v>
       </c>
-      <c r="AO20" s="197"/>
-      <c r="AP20" s="198"/>
-      <c r="AQ20" s="146" t="s">
+      <c r="AO20" s="274"/>
+      <c r="AP20" s="275"/>
+      <c r="AQ20" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="AR20" s="147"/>
-      <c r="AS20" s="148"/>
-      <c r="AT20" s="199"/>
-      <c r="AU20" s="200"/>
-      <c r="AV20" s="201"/>
-      <c r="AW20" s="199"/>
-      <c r="AX20" s="200"/>
-      <c r="AY20" s="201"/>
-      <c r="AZ20" s="140"/>
-      <c r="BA20" s="141"/>
-      <c r="BB20" s="141"/>
-      <c r="BC20" s="141"/>
-      <c r="BD20" s="141"/>
-      <c r="BE20" s="141"/>
-      <c r="BF20" s="141"/>
-      <c r="BG20" s="142"/>
+      <c r="AR20" s="94"/>
+      <c r="AS20" s="95"/>
+      <c r="AT20" s="276"/>
+      <c r="AU20" s="277"/>
+      <c r="AV20" s="278"/>
+      <c r="AW20" s="276"/>
+      <c r="AX20" s="277"/>
+      <c r="AY20" s="278"/>
+      <c r="AZ20" s="259"/>
+      <c r="BA20" s="262"/>
+      <c r="BB20" s="262"/>
+      <c r="BC20" s="262"/>
+      <c r="BD20" s="262"/>
+      <c r="BE20" s="262"/>
+      <c r="BF20" s="262"/>
+      <c r="BG20" s="263"/>
     </row>
     <row r="21" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A21" s="126"/>
-      <c r="B21" s="127"/>
-      <c r="C21" s="128"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="129"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="220"/>
-      <c r="I21" s="221"/>
-      <c r="J21" s="221"/>
-      <c r="K21" s="221"/>
-      <c r="L21" s="222"/>
-      <c r="M21" s="172"/>
-      <c r="N21" s="172"/>
-      <c r="O21" s="172"/>
-      <c r="P21" s="172"/>
-      <c r="Q21" s="172"/>
-      <c r="R21" s="172"/>
-      <c r="S21" s="173"/>
-      <c r="T21" s="223"/>
-      <c r="U21" s="224"/>
-      <c r="V21" s="224"/>
-      <c r="W21" s="224"/>
-      <c r="X21" s="224"/>
-      <c r="Y21" s="224"/>
-      <c r="Z21" s="224"/>
-      <c r="AA21" s="224"/>
-      <c r="AB21" s="225"/>
-      <c r="AC21" s="223"/>
-      <c r="AD21" s="224"/>
-      <c r="AE21" s="224"/>
-      <c r="AF21" s="224"/>
-      <c r="AG21" s="224"/>
-      <c r="AH21" s="224"/>
-      <c r="AI21" s="224"/>
-      <c r="AJ21" s="224"/>
-      <c r="AK21" s="224"/>
-      <c r="AL21" s="224"/>
-      <c r="AM21" s="225"/>
-      <c r="AN21" s="88"/>
-      <c r="AO21" s="89"/>
-      <c r="AP21" s="90"/>
-      <c r="AQ21" s="158"/>
-      <c r="AR21" s="159"/>
-      <c r="AS21" s="160"/>
-      <c r="AT21" s="202"/>
-      <c r="AU21" s="203"/>
-      <c r="AV21" s="204"/>
-      <c r="AW21" s="202"/>
-      <c r="AX21" s="203"/>
-      <c r="AY21" s="204"/>
-      <c r="AZ21" s="140"/>
-      <c r="BA21" s="177"/>
-      <c r="BB21" s="177"/>
-      <c r="BC21" s="177"/>
-      <c r="BD21" s="177"/>
-      <c r="BE21" s="177"/>
-      <c r="BF21" s="177"/>
-      <c r="BG21" s="178"/>
+      <c r="A21" s="79"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="235"/>
+      <c r="D21" s="236"/>
+      <c r="E21" s="236"/>
+      <c r="F21" s="236"/>
+      <c r="G21" s="236"/>
+      <c r="H21" s="304"/>
+      <c r="I21" s="305"/>
+      <c r="J21" s="305"/>
+      <c r="K21" s="305"/>
+      <c r="L21" s="306"/>
+      <c r="M21" s="118"/>
+      <c r="N21" s="118"/>
+      <c r="O21" s="118"/>
+      <c r="P21" s="118"/>
+      <c r="Q21" s="118"/>
+      <c r="R21" s="118"/>
+      <c r="S21" s="119"/>
+      <c r="T21" s="129"/>
+      <c r="U21" s="130"/>
+      <c r="V21" s="130"/>
+      <c r="W21" s="130"/>
+      <c r="X21" s="130"/>
+      <c r="Y21" s="130"/>
+      <c r="Z21" s="130"/>
+      <c r="AA21" s="130"/>
+      <c r="AB21" s="131"/>
+      <c r="AC21" s="129"/>
+      <c r="AD21" s="130"/>
+      <c r="AE21" s="130"/>
+      <c r="AF21" s="130"/>
+      <c r="AG21" s="130"/>
+      <c r="AH21" s="130"/>
+      <c r="AI21" s="130"/>
+      <c r="AJ21" s="130"/>
+      <c r="AK21" s="130"/>
+      <c r="AL21" s="130"/>
+      <c r="AM21" s="131"/>
+      <c r="AN21" s="216"/>
+      <c r="AO21" s="217"/>
+      <c r="AP21" s="218"/>
+      <c r="AQ21" s="96"/>
+      <c r="AR21" s="97"/>
+      <c r="AS21" s="98"/>
+      <c r="AT21" s="279"/>
+      <c r="AU21" s="280"/>
+      <c r="AV21" s="281"/>
+      <c r="AW21" s="279"/>
+      <c r="AX21" s="280"/>
+      <c r="AY21" s="281"/>
+      <c r="AZ21" s="259"/>
+      <c r="BA21" s="260"/>
+      <c r="BB21" s="260"/>
+      <c r="BC21" s="260"/>
+      <c r="BD21" s="260"/>
+      <c r="BE21" s="260"/>
+      <c r="BF21" s="260"/>
+      <c r="BG21" s="261"/>
     </row>
     <row r="22" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A22" s="107">
+      <c r="A22" s="77">
         <f>A20+1</f>
         <v>8</v>
       </c>
-      <c r="B22" s="108"/>
-      <c r="C22" s="128"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="220"/>
-      <c r="I22" s="221"/>
-      <c r="J22" s="221"/>
-      <c r="K22" s="221"/>
-      <c r="L22" s="222"/>
-      <c r="M22" s="179" t="s">
+      <c r="B22" s="78"/>
+      <c r="C22" s="235"/>
+      <c r="D22" s="236"/>
+      <c r="E22" s="236"/>
+      <c r="F22" s="236"/>
+      <c r="G22" s="236"/>
+      <c r="H22" s="304"/>
+      <c r="I22" s="305"/>
+      <c r="J22" s="305"/>
+      <c r="K22" s="305"/>
+      <c r="L22" s="306"/>
+      <c r="M22" s="147" t="s">
         <v>60</v>
       </c>
-      <c r="N22" s="179"/>
-      <c r="O22" s="179"/>
-      <c r="P22" s="179"/>
-      <c r="Q22" s="179"/>
-      <c r="R22" s="179"/>
-      <c r="S22" s="180"/>
-      <c r="T22" s="145" t="s">
+      <c r="N22" s="147"/>
+      <c r="O22" s="147"/>
+      <c r="P22" s="147"/>
+      <c r="Q22" s="147"/>
+      <c r="R22" s="147"/>
+      <c r="S22" s="148"/>
+      <c r="T22" s="161" t="s">
         <v>61</v>
       </c>
-      <c r="U22" s="181"/>
-      <c r="V22" s="181"/>
-      <c r="W22" s="181"/>
-      <c r="X22" s="181"/>
-      <c r="Y22" s="181"/>
-      <c r="Z22" s="181"/>
-      <c r="AA22" s="181"/>
-      <c r="AB22" s="182"/>
-      <c r="AC22" s="145" t="s">
+      <c r="U22" s="82"/>
+      <c r="V22" s="82"/>
+      <c r="W22" s="82"/>
+      <c r="X22" s="82"/>
+      <c r="Y22" s="82"/>
+      <c r="Z22" s="82"/>
+      <c r="AA22" s="82"/>
+      <c r="AB22" s="83"/>
+      <c r="AC22" s="161" t="s">
         <v>62</v>
       </c>
-      <c r="AD22" s="181"/>
-      <c r="AE22" s="181"/>
-      <c r="AF22" s="181"/>
-      <c r="AG22" s="181"/>
-      <c r="AH22" s="181"/>
-      <c r="AI22" s="181"/>
-      <c r="AJ22" s="181"/>
-      <c r="AK22" s="181"/>
-      <c r="AL22" s="181"/>
-      <c r="AM22" s="182"/>
-      <c r="AN22" s="317" t="s">
+      <c r="AD22" s="82"/>
+      <c r="AE22" s="82"/>
+      <c r="AF22" s="82"/>
+      <c r="AG22" s="82"/>
+      <c r="AH22" s="82"/>
+      <c r="AI22" s="82"/>
+      <c r="AJ22" s="82"/>
+      <c r="AK22" s="82"/>
+      <c r="AL22" s="82"/>
+      <c r="AM22" s="83"/>
+      <c r="AN22" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="AO22" s="318"/>
-      <c r="AP22" s="319"/>
-      <c r="AQ22" s="146" t="s">
+      <c r="AO22" s="88"/>
+      <c r="AP22" s="89"/>
+      <c r="AQ22" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="AR22" s="147"/>
-      <c r="AS22" s="148"/>
-      <c r="AT22" s="205"/>
-      <c r="AU22" s="206"/>
-      <c r="AV22" s="207"/>
-      <c r="AW22" s="205"/>
-      <c r="AX22" s="206"/>
-      <c r="AY22" s="207"/>
-      <c r="AZ22" s="164"/>
-      <c r="BA22" s="165"/>
-      <c r="BB22" s="165"/>
-      <c r="BC22" s="165"/>
-      <c r="BD22" s="165"/>
-      <c r="BE22" s="165"/>
-      <c r="BF22" s="165"/>
-      <c r="BG22" s="166"/>
+      <c r="AR22" s="94"/>
+      <c r="AS22" s="95"/>
+      <c r="AT22" s="151"/>
+      <c r="AU22" s="152"/>
+      <c r="AV22" s="153"/>
+      <c r="AW22" s="151"/>
+      <c r="AX22" s="152"/>
+      <c r="AY22" s="153"/>
+      <c r="AZ22" s="99"/>
+      <c r="BA22" s="159"/>
+      <c r="BB22" s="159"/>
+      <c r="BC22" s="159"/>
+      <c r="BD22" s="159"/>
+      <c r="BE22" s="159"/>
+      <c r="BF22" s="159"/>
+      <c r="BG22" s="160"/>
     </row>
     <row r="23" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A23" s="126"/>
-      <c r="B23" s="127"/>
-      <c r="C23" s="128"/>
-      <c r="D23" s="129"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="129"/>
-      <c r="G23" s="129"/>
-      <c r="H23" s="220"/>
-      <c r="I23" s="221"/>
-      <c r="J23" s="221"/>
-      <c r="K23" s="221"/>
-      <c r="L23" s="222"/>
-      <c r="M23" s="188"/>
-      <c r="N23" s="188"/>
-      <c r="O23" s="188"/>
-      <c r="P23" s="188"/>
-      <c r="Q23" s="188"/>
-      <c r="R23" s="188"/>
-      <c r="S23" s="189"/>
-      <c r="T23" s="190"/>
-      <c r="U23" s="191"/>
-      <c r="V23" s="191"/>
-      <c r="W23" s="191"/>
-      <c r="X23" s="191"/>
-      <c r="Y23" s="191"/>
-      <c r="Z23" s="191"/>
-      <c r="AA23" s="191"/>
-      <c r="AB23" s="192"/>
-      <c r="AC23" s="190"/>
-      <c r="AD23" s="191"/>
-      <c r="AE23" s="191"/>
-      <c r="AF23" s="191"/>
-      <c r="AG23" s="191"/>
-      <c r="AH23" s="191"/>
-      <c r="AI23" s="191"/>
-      <c r="AJ23" s="191"/>
-      <c r="AK23" s="191"/>
-      <c r="AL23" s="191"/>
-      <c r="AM23" s="192"/>
-      <c r="AN23" s="320"/>
-      <c r="AO23" s="321"/>
-      <c r="AP23" s="322"/>
-      <c r="AQ23" s="158"/>
-      <c r="AR23" s="159"/>
-      <c r="AS23" s="160"/>
-      <c r="AT23" s="211"/>
-      <c r="AU23" s="212"/>
-      <c r="AV23" s="213"/>
-      <c r="AW23" s="211"/>
-      <c r="AX23" s="212"/>
-      <c r="AY23" s="213"/>
-      <c r="AZ23" s="164"/>
-      <c r="BA23" s="186"/>
-      <c r="BB23" s="186"/>
-      <c r="BC23" s="186"/>
-      <c r="BD23" s="186"/>
-      <c r="BE23" s="186"/>
-      <c r="BF23" s="186"/>
-      <c r="BG23" s="187"/>
+      <c r="A23" s="79"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="235"/>
+      <c r="D23" s="236"/>
+      <c r="E23" s="236"/>
+      <c r="F23" s="236"/>
+      <c r="G23" s="236"/>
+      <c r="H23" s="304"/>
+      <c r="I23" s="305"/>
+      <c r="J23" s="305"/>
+      <c r="K23" s="305"/>
+      <c r="L23" s="306"/>
+      <c r="M23" s="149"/>
+      <c r="N23" s="149"/>
+      <c r="O23" s="149"/>
+      <c r="P23" s="149"/>
+      <c r="Q23" s="149"/>
+      <c r="R23" s="149"/>
+      <c r="S23" s="150"/>
+      <c r="T23" s="84"/>
+      <c r="U23" s="85"/>
+      <c r="V23" s="85"/>
+      <c r="W23" s="85"/>
+      <c r="X23" s="85"/>
+      <c r="Y23" s="85"/>
+      <c r="Z23" s="85"/>
+      <c r="AA23" s="85"/>
+      <c r="AB23" s="86"/>
+      <c r="AC23" s="84"/>
+      <c r="AD23" s="85"/>
+      <c r="AE23" s="85"/>
+      <c r="AF23" s="85"/>
+      <c r="AG23" s="85"/>
+      <c r="AH23" s="85"/>
+      <c r="AI23" s="85"/>
+      <c r="AJ23" s="85"/>
+      <c r="AK23" s="85"/>
+      <c r="AL23" s="85"/>
+      <c r="AM23" s="86"/>
+      <c r="AN23" s="90"/>
+      <c r="AO23" s="91"/>
+      <c r="AP23" s="92"/>
+      <c r="AQ23" s="96"/>
+      <c r="AR23" s="97"/>
+      <c r="AS23" s="98"/>
+      <c r="AT23" s="154"/>
+      <c r="AU23" s="155"/>
+      <c r="AV23" s="156"/>
+      <c r="AW23" s="154"/>
+      <c r="AX23" s="155"/>
+      <c r="AY23" s="156"/>
+      <c r="AZ23" s="99"/>
+      <c r="BA23" s="100"/>
+      <c r="BB23" s="100"/>
+      <c r="BC23" s="100"/>
+      <c r="BD23" s="100"/>
+      <c r="BE23" s="100"/>
+      <c r="BF23" s="100"/>
+      <c r="BG23" s="101"/>
     </row>
     <row r="24" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A24" s="107">
+      <c r="A24" s="77">
         <f>A22+1</f>
         <v>9</v>
       </c>
-      <c r="B24" s="108"/>
-      <c r="C24" s="128"/>
-      <c r="D24" s="129"/>
-      <c r="E24" s="129"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="220"/>
-      <c r="I24" s="221"/>
-      <c r="J24" s="221"/>
-      <c r="K24" s="221"/>
-      <c r="L24" s="222"/>
-      <c r="M24" s="179" t="s">
+      <c r="B24" s="78"/>
+      <c r="C24" s="235"/>
+      <c r="D24" s="236"/>
+      <c r="E24" s="236"/>
+      <c r="F24" s="236"/>
+      <c r="G24" s="236"/>
+      <c r="H24" s="304"/>
+      <c r="I24" s="305"/>
+      <c r="J24" s="305"/>
+      <c r="K24" s="305"/>
+      <c r="L24" s="306"/>
+      <c r="M24" s="147" t="s">
         <v>60</v>
       </c>
-      <c r="N24" s="179"/>
-      <c r="O24" s="179"/>
-      <c r="P24" s="179"/>
-      <c r="Q24" s="179"/>
-      <c r="R24" s="179"/>
-      <c r="S24" s="180"/>
-      <c r="T24" s="114" t="s">
+      <c r="N24" s="147"/>
+      <c r="O24" s="147"/>
+      <c r="P24" s="147"/>
+      <c r="Q24" s="147"/>
+      <c r="R24" s="147"/>
+      <c r="S24" s="148"/>
+      <c r="T24" s="120" t="s">
         <v>78</v>
       </c>
-      <c r="U24" s="218"/>
-      <c r="V24" s="218"/>
-      <c r="W24" s="218"/>
-      <c r="X24" s="218"/>
-      <c r="Y24" s="218"/>
-      <c r="Z24" s="218"/>
-      <c r="AA24" s="218"/>
-      <c r="AB24" s="219"/>
-      <c r="AC24" s="114" t="s">
+      <c r="U24" s="127"/>
+      <c r="V24" s="127"/>
+      <c r="W24" s="127"/>
+      <c r="X24" s="127"/>
+      <c r="Y24" s="127"/>
+      <c r="Z24" s="127"/>
+      <c r="AA24" s="127"/>
+      <c r="AB24" s="128"/>
+      <c r="AC24" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="AD24" s="112"/>
-      <c r="AE24" s="112"/>
-      <c r="AF24" s="112"/>
-      <c r="AG24" s="112"/>
-      <c r="AH24" s="112"/>
-      <c r="AI24" s="112"/>
-      <c r="AJ24" s="112"/>
-      <c r="AK24" s="112"/>
-      <c r="AL24" s="112"/>
-      <c r="AM24" s="113"/>
-      <c r="AN24" s="196" t="s">
+      <c r="AD24" s="121"/>
+      <c r="AE24" s="121"/>
+      <c r="AF24" s="121"/>
+      <c r="AG24" s="121"/>
+      <c r="AH24" s="121"/>
+      <c r="AI24" s="121"/>
+      <c r="AJ24" s="121"/>
+      <c r="AK24" s="121"/>
+      <c r="AL24" s="121"/>
+      <c r="AM24" s="122"/>
+      <c r="AN24" s="273" t="s">
         <v>40</v>
       </c>
-      <c r="AO24" s="197"/>
-      <c r="AP24" s="198"/>
-      <c r="AQ24" s="146" t="s">
+      <c r="AO24" s="274"/>
+      <c r="AP24" s="275"/>
+      <c r="AQ24" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="AR24" s="147"/>
-      <c r="AS24" s="148"/>
-      <c r="AT24" s="199"/>
-      <c r="AU24" s="200"/>
-      <c r="AV24" s="201"/>
-      <c r="AW24" s="199"/>
-      <c r="AX24" s="200"/>
-      <c r="AY24" s="201"/>
-      <c r="AZ24" s="140"/>
-      <c r="BA24" s="141"/>
-      <c r="BB24" s="141"/>
-      <c r="BC24" s="141"/>
-      <c r="BD24" s="141"/>
-      <c r="BE24" s="141"/>
-      <c r="BF24" s="141"/>
-      <c r="BG24" s="142"/>
+      <c r="AR24" s="94"/>
+      <c r="AS24" s="95"/>
+      <c r="AT24" s="276"/>
+      <c r="AU24" s="277"/>
+      <c r="AV24" s="278"/>
+      <c r="AW24" s="276"/>
+      <c r="AX24" s="277"/>
+      <c r="AY24" s="278"/>
+      <c r="AZ24" s="259"/>
+      <c r="BA24" s="262"/>
+      <c r="BB24" s="262"/>
+      <c r="BC24" s="262"/>
+      <c r="BD24" s="262"/>
+      <c r="BE24" s="262"/>
+      <c r="BF24" s="262"/>
+      <c r="BG24" s="263"/>
     </row>
     <row r="25" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A25" s="126"/>
-      <c r="B25" s="127"/>
-      <c r="C25" s="128"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="220"/>
-      <c r="I25" s="221"/>
-      <c r="J25" s="221"/>
-      <c r="K25" s="221"/>
-      <c r="L25" s="222"/>
-      <c r="M25" s="188"/>
-      <c r="N25" s="188"/>
-      <c r="O25" s="188"/>
-      <c r="P25" s="188"/>
-      <c r="Q25" s="188"/>
-      <c r="R25" s="188"/>
-      <c r="S25" s="189"/>
-      <c r="T25" s="223"/>
-      <c r="U25" s="224"/>
-      <c r="V25" s="224"/>
-      <c r="W25" s="224"/>
-      <c r="X25" s="224"/>
-      <c r="Y25" s="224"/>
-      <c r="Z25" s="224"/>
-      <c r="AA25" s="224"/>
-      <c r="AB25" s="225"/>
-      <c r="AC25" s="133"/>
-      <c r="AD25" s="131"/>
-      <c r="AE25" s="131"/>
-      <c r="AF25" s="131"/>
-      <c r="AG25" s="131"/>
-      <c r="AH25" s="131"/>
-      <c r="AI25" s="131"/>
-      <c r="AJ25" s="131"/>
-      <c r="AK25" s="131"/>
-      <c r="AL25" s="131"/>
-      <c r="AM25" s="132"/>
-      <c r="AN25" s="88"/>
-      <c r="AO25" s="89"/>
-      <c r="AP25" s="90"/>
-      <c r="AQ25" s="158"/>
-      <c r="AR25" s="159"/>
-      <c r="AS25" s="160"/>
-      <c r="AT25" s="202"/>
-      <c r="AU25" s="203"/>
-      <c r="AV25" s="204"/>
-      <c r="AW25" s="202"/>
-      <c r="AX25" s="203"/>
-      <c r="AY25" s="204"/>
-      <c r="AZ25" s="140"/>
-      <c r="BA25" s="177"/>
-      <c r="BB25" s="177"/>
-      <c r="BC25" s="177"/>
-      <c r="BD25" s="177"/>
-      <c r="BE25" s="177"/>
-      <c r="BF25" s="177"/>
-      <c r="BG25" s="178"/>
+      <c r="A25" s="79"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="235"/>
+      <c r="D25" s="236"/>
+      <c r="E25" s="236"/>
+      <c r="F25" s="236"/>
+      <c r="G25" s="236"/>
+      <c r="H25" s="304"/>
+      <c r="I25" s="305"/>
+      <c r="J25" s="305"/>
+      <c r="K25" s="305"/>
+      <c r="L25" s="306"/>
+      <c r="M25" s="149"/>
+      <c r="N25" s="149"/>
+      <c r="O25" s="149"/>
+      <c r="P25" s="149"/>
+      <c r="Q25" s="149"/>
+      <c r="R25" s="149"/>
+      <c r="S25" s="150"/>
+      <c r="T25" s="129"/>
+      <c r="U25" s="130"/>
+      <c r="V25" s="130"/>
+      <c r="W25" s="130"/>
+      <c r="X25" s="130"/>
+      <c r="Y25" s="130"/>
+      <c r="Z25" s="130"/>
+      <c r="AA25" s="130"/>
+      <c r="AB25" s="131"/>
+      <c r="AC25" s="123"/>
+      <c r="AD25" s="124"/>
+      <c r="AE25" s="124"/>
+      <c r="AF25" s="124"/>
+      <c r="AG25" s="124"/>
+      <c r="AH25" s="124"/>
+      <c r="AI25" s="124"/>
+      <c r="AJ25" s="124"/>
+      <c r="AK25" s="124"/>
+      <c r="AL25" s="124"/>
+      <c r="AM25" s="125"/>
+      <c r="AN25" s="216"/>
+      <c r="AO25" s="217"/>
+      <c r="AP25" s="218"/>
+      <c r="AQ25" s="96"/>
+      <c r="AR25" s="97"/>
+      <c r="AS25" s="98"/>
+      <c r="AT25" s="279"/>
+      <c r="AU25" s="280"/>
+      <c r="AV25" s="281"/>
+      <c r="AW25" s="279"/>
+      <c r="AX25" s="280"/>
+      <c r="AY25" s="281"/>
+      <c r="AZ25" s="259"/>
+      <c r="BA25" s="260"/>
+      <c r="BB25" s="260"/>
+      <c r="BC25" s="260"/>
+      <c r="BD25" s="260"/>
+      <c r="BE25" s="260"/>
+      <c r="BF25" s="260"/>
+      <c r="BG25" s="261"/>
     </row>
     <row r="26" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A26" s="107">
+      <c r="A26" s="77">
         <f t="shared" ref="A26" si="0">A24+1</f>
         <v>10</v>
       </c>
-      <c r="B26" s="108"/>
-      <c r="C26" s="128"/>
-      <c r="D26" s="129"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="220"/>
-      <c r="I26" s="221"/>
-      <c r="J26" s="221"/>
-      <c r="K26" s="221"/>
-      <c r="L26" s="222"/>
-      <c r="M26" s="179" t="s">
+      <c r="B26" s="78"/>
+      <c r="C26" s="235"/>
+      <c r="D26" s="236"/>
+      <c r="E26" s="236"/>
+      <c r="F26" s="236"/>
+      <c r="G26" s="236"/>
+      <c r="H26" s="304"/>
+      <c r="I26" s="305"/>
+      <c r="J26" s="305"/>
+      <c r="K26" s="305"/>
+      <c r="L26" s="306"/>
+      <c r="M26" s="147" t="s">
         <v>64</v>
       </c>
-      <c r="N26" s="179"/>
-      <c r="O26" s="179"/>
-      <c r="P26" s="179"/>
-      <c r="Q26" s="179"/>
-      <c r="R26" s="179"/>
-      <c r="S26" s="180"/>
-      <c r="T26" s="145" t="s">
+      <c r="N26" s="147"/>
+      <c r="O26" s="147"/>
+      <c r="P26" s="147"/>
+      <c r="Q26" s="147"/>
+      <c r="R26" s="147"/>
+      <c r="S26" s="148"/>
+      <c r="T26" s="161" t="s">
         <v>65</v>
       </c>
-      <c r="U26" s="143"/>
-      <c r="V26" s="143"/>
-      <c r="W26" s="143"/>
-      <c r="X26" s="143"/>
-      <c r="Y26" s="143"/>
-      <c r="Z26" s="143"/>
-      <c r="AA26" s="143"/>
-      <c r="AB26" s="144"/>
-      <c r="AC26" s="145" t="s">
+      <c r="U26" s="162"/>
+      <c r="V26" s="162"/>
+      <c r="W26" s="162"/>
+      <c r="X26" s="162"/>
+      <c r="Y26" s="162"/>
+      <c r="Z26" s="162"/>
+      <c r="AA26" s="162"/>
+      <c r="AB26" s="163"/>
+      <c r="AC26" s="161" t="s">
         <v>69</v>
       </c>
-      <c r="AD26" s="181"/>
-      <c r="AE26" s="181"/>
-      <c r="AF26" s="181"/>
-      <c r="AG26" s="181"/>
-      <c r="AH26" s="181"/>
-      <c r="AI26" s="181"/>
-      <c r="AJ26" s="181"/>
-      <c r="AK26" s="181"/>
-      <c r="AL26" s="181"/>
-      <c r="AM26" s="182"/>
-      <c r="AN26" s="317" t="s">
+      <c r="AD26" s="82"/>
+      <c r="AE26" s="82"/>
+      <c r="AF26" s="82"/>
+      <c r="AG26" s="82"/>
+      <c r="AH26" s="82"/>
+      <c r="AI26" s="82"/>
+      <c r="AJ26" s="82"/>
+      <c r="AK26" s="82"/>
+      <c r="AL26" s="82"/>
+      <c r="AM26" s="83"/>
+      <c r="AN26" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="AO26" s="318"/>
-      <c r="AP26" s="319"/>
-      <c r="AQ26" s="146" t="s">
+      <c r="AO26" s="88"/>
+      <c r="AP26" s="89"/>
+      <c r="AQ26" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="AR26" s="147"/>
-      <c r="AS26" s="148"/>
-      <c r="AT26" s="205"/>
-      <c r="AU26" s="206"/>
-      <c r="AV26" s="207"/>
-      <c r="AW26" s="205"/>
-      <c r="AX26" s="206"/>
-      <c r="AY26" s="207"/>
-      <c r="AZ26" s="164"/>
-      <c r="BA26" s="186"/>
-      <c r="BB26" s="186"/>
-      <c r="BC26" s="186"/>
-      <c r="BD26" s="186"/>
-      <c r="BE26" s="186"/>
-      <c r="BF26" s="186"/>
-      <c r="BG26" s="187"/>
+      <c r="AR26" s="94"/>
+      <c r="AS26" s="95"/>
+      <c r="AT26" s="151"/>
+      <c r="AU26" s="152"/>
+      <c r="AV26" s="153"/>
+      <c r="AW26" s="151"/>
+      <c r="AX26" s="152"/>
+      <c r="AY26" s="153"/>
+      <c r="AZ26" s="99"/>
+      <c r="BA26" s="100"/>
+      <c r="BB26" s="100"/>
+      <c r="BC26" s="100"/>
+      <c r="BD26" s="100"/>
+      <c r="BE26" s="100"/>
+      <c r="BF26" s="100"/>
+      <c r="BG26" s="101"/>
     </row>
     <row r="27" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A27" s="126"/>
-      <c r="B27" s="127"/>
-      <c r="C27" s="128"/>
-      <c r="D27" s="129"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="220"/>
-      <c r="I27" s="221"/>
-      <c r="J27" s="221"/>
-      <c r="K27" s="221"/>
-      <c r="L27" s="222"/>
-      <c r="M27" s="188"/>
-      <c r="N27" s="188"/>
-      <c r="O27" s="188"/>
-      <c r="P27" s="188"/>
-      <c r="Q27" s="188"/>
-      <c r="R27" s="188"/>
-      <c r="S27" s="189"/>
-      <c r="T27" s="157"/>
-      <c r="U27" s="155"/>
-      <c r="V27" s="155"/>
-      <c r="W27" s="155"/>
-      <c r="X27" s="155"/>
-      <c r="Y27" s="155"/>
-      <c r="Z27" s="155"/>
-      <c r="AA27" s="155"/>
-      <c r="AB27" s="156"/>
-      <c r="AC27" s="190"/>
-      <c r="AD27" s="191"/>
-      <c r="AE27" s="191"/>
-      <c r="AF27" s="191"/>
-      <c r="AG27" s="191"/>
-      <c r="AH27" s="191"/>
-      <c r="AI27" s="191"/>
-      <c r="AJ27" s="191"/>
-      <c r="AK27" s="191"/>
-      <c r="AL27" s="191"/>
-      <c r="AM27" s="192"/>
-      <c r="AN27" s="320"/>
-      <c r="AO27" s="321"/>
-      <c r="AP27" s="322"/>
-      <c r="AQ27" s="158"/>
-      <c r="AR27" s="159"/>
-      <c r="AS27" s="160"/>
-      <c r="AT27" s="211"/>
-      <c r="AU27" s="212"/>
-      <c r="AV27" s="213"/>
-      <c r="AW27" s="211"/>
-      <c r="AX27" s="212"/>
-      <c r="AY27" s="213"/>
-      <c r="AZ27" s="164"/>
-      <c r="BA27" s="186"/>
-      <c r="BB27" s="186"/>
-      <c r="BC27" s="186"/>
-      <c r="BD27" s="186"/>
-      <c r="BE27" s="186"/>
-      <c r="BF27" s="186"/>
-      <c r="BG27" s="187"/>
+      <c r="A27" s="79"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="235"/>
+      <c r="D27" s="236"/>
+      <c r="E27" s="236"/>
+      <c r="F27" s="236"/>
+      <c r="G27" s="236"/>
+      <c r="H27" s="304"/>
+      <c r="I27" s="305"/>
+      <c r="J27" s="305"/>
+      <c r="K27" s="305"/>
+      <c r="L27" s="306"/>
+      <c r="M27" s="149"/>
+      <c r="N27" s="149"/>
+      <c r="O27" s="149"/>
+      <c r="P27" s="149"/>
+      <c r="Q27" s="149"/>
+      <c r="R27" s="149"/>
+      <c r="S27" s="150"/>
+      <c r="T27" s="164"/>
+      <c r="U27" s="165"/>
+      <c r="V27" s="165"/>
+      <c r="W27" s="165"/>
+      <c r="X27" s="165"/>
+      <c r="Y27" s="165"/>
+      <c r="Z27" s="165"/>
+      <c r="AA27" s="165"/>
+      <c r="AB27" s="166"/>
+      <c r="AC27" s="84"/>
+      <c r="AD27" s="85"/>
+      <c r="AE27" s="85"/>
+      <c r="AF27" s="85"/>
+      <c r="AG27" s="85"/>
+      <c r="AH27" s="85"/>
+      <c r="AI27" s="85"/>
+      <c r="AJ27" s="85"/>
+      <c r="AK27" s="85"/>
+      <c r="AL27" s="85"/>
+      <c r="AM27" s="86"/>
+      <c r="AN27" s="90"/>
+      <c r="AO27" s="91"/>
+      <c r="AP27" s="92"/>
+      <c r="AQ27" s="96"/>
+      <c r="AR27" s="97"/>
+      <c r="AS27" s="98"/>
+      <c r="AT27" s="154"/>
+      <c r="AU27" s="155"/>
+      <c r="AV27" s="156"/>
+      <c r="AW27" s="154"/>
+      <c r="AX27" s="155"/>
+      <c r="AY27" s="156"/>
+      <c r="AZ27" s="99"/>
+      <c r="BA27" s="100"/>
+      <c r="BB27" s="100"/>
+      <c r="BC27" s="100"/>
+      <c r="BD27" s="100"/>
+      <c r="BE27" s="100"/>
+      <c r="BF27" s="100"/>
+      <c r="BG27" s="101"/>
     </row>
     <row r="28" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A28" s="107">
+      <c r="A28" s="77">
         <f>A26+1</f>
         <v>11</v>
       </c>
-      <c r="B28" s="108"/>
-      <c r="C28" s="128"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="129"/>
-      <c r="H28" s="220"/>
-      <c r="I28" s="221"/>
-      <c r="J28" s="221"/>
-      <c r="K28" s="221"/>
-      <c r="L28" s="222"/>
-      <c r="M28" s="167" t="s">
+      <c r="B28" s="78"/>
+      <c r="C28" s="235"/>
+      <c r="D28" s="236"/>
+      <c r="E28" s="236"/>
+      <c r="F28" s="236"/>
+      <c r="G28" s="236"/>
+      <c r="H28" s="304"/>
+      <c r="I28" s="305"/>
+      <c r="J28" s="305"/>
+      <c r="K28" s="305"/>
+      <c r="L28" s="306"/>
+      <c r="M28" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="N28" s="167"/>
-      <c r="O28" s="167"/>
-      <c r="P28" s="167"/>
-      <c r="Q28" s="167"/>
-      <c r="R28" s="167"/>
-      <c r="S28" s="168"/>
-      <c r="T28" s="114" t="s">
+      <c r="N28" s="115"/>
+      <c r="O28" s="115"/>
+      <c r="P28" s="115"/>
+      <c r="Q28" s="115"/>
+      <c r="R28" s="115"/>
+      <c r="S28" s="116"/>
+      <c r="T28" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="U28" s="112"/>
-      <c r="V28" s="112"/>
-      <c r="W28" s="112"/>
-      <c r="X28" s="112"/>
-      <c r="Y28" s="112"/>
-      <c r="Z28" s="112"/>
-      <c r="AA28" s="112"/>
-      <c r="AB28" s="113"/>
-      <c r="AC28" s="114" t="s">
+      <c r="U28" s="121"/>
+      <c r="V28" s="121"/>
+      <c r="W28" s="121"/>
+      <c r="X28" s="121"/>
+      <c r="Y28" s="121"/>
+      <c r="Z28" s="121"/>
+      <c r="AA28" s="121"/>
+      <c r="AB28" s="122"/>
+      <c r="AC28" s="120" t="s">
         <v>68</v>
       </c>
-      <c r="AD28" s="218"/>
-      <c r="AE28" s="218"/>
-      <c r="AF28" s="218"/>
-      <c r="AG28" s="218"/>
-      <c r="AH28" s="218"/>
-      <c r="AI28" s="218"/>
-      <c r="AJ28" s="218"/>
-      <c r="AK28" s="218"/>
-      <c r="AL28" s="218"/>
-      <c r="AM28" s="219"/>
-      <c r="AN28" s="196" t="s">
+      <c r="AD28" s="127"/>
+      <c r="AE28" s="127"/>
+      <c r="AF28" s="127"/>
+      <c r="AG28" s="127"/>
+      <c r="AH28" s="127"/>
+      <c r="AI28" s="127"/>
+      <c r="AJ28" s="127"/>
+      <c r="AK28" s="127"/>
+      <c r="AL28" s="127"/>
+      <c r="AM28" s="128"/>
+      <c r="AN28" s="273" t="s">
         <v>70</v>
       </c>
-      <c r="AO28" s="197"/>
-      <c r="AP28" s="198"/>
-      <c r="AQ28" s="115" t="s">
+      <c r="AO28" s="274"/>
+      <c r="AP28" s="275"/>
+      <c r="AQ28" s="244" t="s">
         <v>37</v>
       </c>
-      <c r="AR28" s="116"/>
-      <c r="AS28" s="117"/>
-      <c r="AT28" s="199"/>
-      <c r="AU28" s="200"/>
-      <c r="AV28" s="201"/>
-      <c r="AW28" s="199"/>
-      <c r="AX28" s="200"/>
-      <c r="AY28" s="201"/>
-      <c r="AZ28" s="140"/>
-      <c r="BA28" s="141"/>
-      <c r="BB28" s="141"/>
-      <c r="BC28" s="141"/>
-      <c r="BD28" s="141"/>
-      <c r="BE28" s="141"/>
-      <c r="BF28" s="141"/>
-      <c r="BG28" s="142"/>
+      <c r="AR28" s="245"/>
+      <c r="AS28" s="246"/>
+      <c r="AT28" s="276"/>
+      <c r="AU28" s="277"/>
+      <c r="AV28" s="278"/>
+      <c r="AW28" s="276"/>
+      <c r="AX28" s="277"/>
+      <c r="AY28" s="278"/>
+      <c r="AZ28" s="259"/>
+      <c r="BA28" s="262"/>
+      <c r="BB28" s="262"/>
+      <c r="BC28" s="262"/>
+      <c r="BD28" s="262"/>
+      <c r="BE28" s="262"/>
+      <c r="BF28" s="262"/>
+      <c r="BG28" s="263"/>
     </row>
     <row r="29" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A29" s="126"/>
-      <c r="B29" s="127"/>
-      <c r="C29" s="128"/>
-      <c r="D29" s="129"/>
-      <c r="E29" s="129"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="129"/>
-      <c r="H29" s="220"/>
-      <c r="I29" s="221"/>
-      <c r="J29" s="221"/>
-      <c r="K29" s="221"/>
-      <c r="L29" s="222"/>
-      <c r="M29" s="172"/>
-      <c r="N29" s="172"/>
-      <c r="O29" s="172"/>
-      <c r="P29" s="172"/>
-      <c r="Q29" s="172"/>
-      <c r="R29" s="172"/>
-      <c r="S29" s="173"/>
-      <c r="T29" s="133"/>
-      <c r="U29" s="131"/>
-      <c r="V29" s="131"/>
-      <c r="W29" s="131"/>
-      <c r="X29" s="131"/>
-      <c r="Y29" s="131"/>
-      <c r="Z29" s="131"/>
-      <c r="AA29" s="131"/>
-      <c r="AB29" s="132"/>
-      <c r="AC29" s="223"/>
-      <c r="AD29" s="224"/>
-      <c r="AE29" s="224"/>
-      <c r="AF29" s="224"/>
-      <c r="AG29" s="224"/>
-      <c r="AH29" s="224"/>
-      <c r="AI29" s="224"/>
-      <c r="AJ29" s="224"/>
-      <c r="AK29" s="224"/>
-      <c r="AL29" s="224"/>
-      <c r="AM29" s="225"/>
-      <c r="AN29" s="88"/>
-      <c r="AO29" s="89"/>
-      <c r="AP29" s="90"/>
-      <c r="AQ29" s="134"/>
-      <c r="AR29" s="135"/>
-      <c r="AS29" s="136"/>
-      <c r="AT29" s="202"/>
-      <c r="AU29" s="203"/>
-      <c r="AV29" s="204"/>
-      <c r="AW29" s="202"/>
-      <c r="AX29" s="203"/>
-      <c r="AY29" s="204"/>
-      <c r="AZ29" s="140"/>
-      <c r="BA29" s="177"/>
-      <c r="BB29" s="177"/>
-      <c r="BC29" s="177"/>
-      <c r="BD29" s="177"/>
-      <c r="BE29" s="177"/>
-      <c r="BF29" s="177"/>
-      <c r="BG29" s="178"/>
+      <c r="A29" s="79"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="235"/>
+      <c r="D29" s="236"/>
+      <c r="E29" s="236"/>
+      <c r="F29" s="236"/>
+      <c r="G29" s="236"/>
+      <c r="H29" s="304"/>
+      <c r="I29" s="305"/>
+      <c r="J29" s="305"/>
+      <c r="K29" s="305"/>
+      <c r="L29" s="306"/>
+      <c r="M29" s="118"/>
+      <c r="N29" s="118"/>
+      <c r="O29" s="118"/>
+      <c r="P29" s="118"/>
+      <c r="Q29" s="118"/>
+      <c r="R29" s="118"/>
+      <c r="S29" s="119"/>
+      <c r="T29" s="123"/>
+      <c r="U29" s="124"/>
+      <c r="V29" s="124"/>
+      <c r="W29" s="124"/>
+      <c r="X29" s="124"/>
+      <c r="Y29" s="124"/>
+      <c r="Z29" s="124"/>
+      <c r="AA29" s="124"/>
+      <c r="AB29" s="125"/>
+      <c r="AC29" s="129"/>
+      <c r="AD29" s="130"/>
+      <c r="AE29" s="130"/>
+      <c r="AF29" s="130"/>
+      <c r="AG29" s="130"/>
+      <c r="AH29" s="130"/>
+      <c r="AI29" s="130"/>
+      <c r="AJ29" s="130"/>
+      <c r="AK29" s="130"/>
+      <c r="AL29" s="130"/>
+      <c r="AM29" s="131"/>
+      <c r="AN29" s="216"/>
+      <c r="AO29" s="217"/>
+      <c r="AP29" s="218"/>
+      <c r="AQ29" s="247"/>
+      <c r="AR29" s="248"/>
+      <c r="AS29" s="249"/>
+      <c r="AT29" s="279"/>
+      <c r="AU29" s="280"/>
+      <c r="AV29" s="281"/>
+      <c r="AW29" s="279"/>
+      <c r="AX29" s="280"/>
+      <c r="AY29" s="281"/>
+      <c r="AZ29" s="259"/>
+      <c r="BA29" s="260"/>
+      <c r="BB29" s="260"/>
+      <c r="BC29" s="260"/>
+      <c r="BD29" s="260"/>
+      <c r="BE29" s="260"/>
+      <c r="BF29" s="260"/>
+      <c r="BG29" s="261"/>
     </row>
     <row r="30" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A30" s="107">
+      <c r="A30" s="77">
         <f>A28+1</f>
         <v>12</v>
       </c>
-      <c r="B30" s="108"/>
-      <c r="C30" s="128"/>
-      <c r="D30" s="129"/>
-      <c r="E30" s="129"/>
-      <c r="F30" s="129"/>
-      <c r="G30" s="129"/>
-      <c r="H30" s="220"/>
-      <c r="I30" s="221"/>
-      <c r="J30" s="221"/>
-      <c r="K30" s="221"/>
-      <c r="L30" s="222"/>
-      <c r="M30" s="179" t="s">
+      <c r="B30" s="78"/>
+      <c r="C30" s="235"/>
+      <c r="D30" s="236"/>
+      <c r="E30" s="236"/>
+      <c r="F30" s="236"/>
+      <c r="G30" s="236"/>
+      <c r="H30" s="304"/>
+      <c r="I30" s="305"/>
+      <c r="J30" s="305"/>
+      <c r="K30" s="305"/>
+      <c r="L30" s="306"/>
+      <c r="M30" s="147" t="s">
         <v>71</v>
       </c>
-      <c r="N30" s="179"/>
-      <c r="O30" s="179"/>
-      <c r="P30" s="179"/>
-      <c r="Q30" s="179"/>
-      <c r="R30" s="179"/>
-      <c r="S30" s="180"/>
-      <c r="T30" s="145" t="s">
+      <c r="N30" s="147"/>
+      <c r="O30" s="147"/>
+      <c r="P30" s="147"/>
+      <c r="Q30" s="147"/>
+      <c r="R30" s="147"/>
+      <c r="S30" s="148"/>
+      <c r="T30" s="161" t="s">
         <v>72</v>
       </c>
-      <c r="U30" s="143"/>
-      <c r="V30" s="143"/>
-      <c r="W30" s="143"/>
-      <c r="X30" s="143"/>
-      <c r="Y30" s="143"/>
-      <c r="Z30" s="143"/>
-      <c r="AA30" s="143"/>
-      <c r="AB30" s="144"/>
-      <c r="AC30" s="183" t="s">
+      <c r="U30" s="162"/>
+      <c r="V30" s="162"/>
+      <c r="W30" s="162"/>
+      <c r="X30" s="162"/>
+      <c r="Y30" s="162"/>
+      <c r="Z30" s="162"/>
+      <c r="AA30" s="162"/>
+      <c r="AB30" s="163"/>
+      <c r="AC30" s="229" t="s">
         <v>73</v>
       </c>
-      <c r="AD30" s="184"/>
-      <c r="AE30" s="184"/>
-      <c r="AF30" s="184"/>
-      <c r="AG30" s="184"/>
-      <c r="AH30" s="184"/>
-      <c r="AI30" s="184"/>
-      <c r="AJ30" s="184"/>
-      <c r="AK30" s="184"/>
-      <c r="AL30" s="184"/>
-      <c r="AM30" s="185"/>
-      <c r="AN30" s="317" t="s">
+      <c r="AD30" s="230"/>
+      <c r="AE30" s="230"/>
+      <c r="AF30" s="230"/>
+      <c r="AG30" s="230"/>
+      <c r="AH30" s="230"/>
+      <c r="AI30" s="230"/>
+      <c r="AJ30" s="230"/>
+      <c r="AK30" s="230"/>
+      <c r="AL30" s="230"/>
+      <c r="AM30" s="231"/>
+      <c r="AN30" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="AO30" s="318"/>
-      <c r="AP30" s="319"/>
-      <c r="AQ30" s="146" t="s">
+      <c r="AO30" s="88"/>
+      <c r="AP30" s="89"/>
+      <c r="AQ30" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="AR30" s="147"/>
-      <c r="AS30" s="148"/>
-      <c r="AT30" s="205"/>
-      <c r="AU30" s="206"/>
-      <c r="AV30" s="207"/>
-      <c r="AW30" s="205"/>
-      <c r="AX30" s="206"/>
-      <c r="AY30" s="207"/>
-      <c r="AZ30" s="164"/>
-      <c r="BA30" s="165"/>
-      <c r="BB30" s="165"/>
-      <c r="BC30" s="165"/>
-      <c r="BD30" s="165"/>
-      <c r="BE30" s="165"/>
-      <c r="BF30" s="165"/>
-      <c r="BG30" s="166"/>
+      <c r="AR30" s="94"/>
+      <c r="AS30" s="95"/>
+      <c r="AT30" s="151"/>
+      <c r="AU30" s="152"/>
+      <c r="AV30" s="153"/>
+      <c r="AW30" s="151"/>
+      <c r="AX30" s="152"/>
+      <c r="AY30" s="153"/>
+      <c r="AZ30" s="99"/>
+      <c r="BA30" s="159"/>
+      <c r="BB30" s="159"/>
+      <c r="BC30" s="159"/>
+      <c r="BD30" s="159"/>
+      <c r="BE30" s="159"/>
+      <c r="BF30" s="159"/>
+      <c r="BG30" s="160"/>
     </row>
     <row r="31" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A31" s="126"/>
-      <c r="B31" s="127"/>
-      <c r="C31" s="128"/>
-      <c r="D31" s="129"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="129"/>
-      <c r="H31" s="220"/>
-      <c r="I31" s="221"/>
-      <c r="J31" s="221"/>
-      <c r="K31" s="221"/>
-      <c r="L31" s="222"/>
-      <c r="M31" s="188"/>
-      <c r="N31" s="188"/>
-      <c r="O31" s="188"/>
-      <c r="P31" s="188"/>
-      <c r="Q31" s="188"/>
-      <c r="R31" s="188"/>
-      <c r="S31" s="189"/>
-      <c r="T31" s="157"/>
-      <c r="U31" s="155"/>
-      <c r="V31" s="155"/>
-      <c r="W31" s="155"/>
-      <c r="X31" s="155"/>
-      <c r="Y31" s="155"/>
-      <c r="Z31" s="155"/>
-      <c r="AA31" s="155"/>
-      <c r="AB31" s="156"/>
-      <c r="AC31" s="193"/>
-      <c r="AD31" s="194"/>
-      <c r="AE31" s="194"/>
-      <c r="AF31" s="194"/>
-      <c r="AG31" s="194"/>
-      <c r="AH31" s="194"/>
-      <c r="AI31" s="194"/>
-      <c r="AJ31" s="194"/>
-      <c r="AK31" s="194"/>
-      <c r="AL31" s="194"/>
-      <c r="AM31" s="195"/>
-      <c r="AN31" s="320"/>
-      <c r="AO31" s="321"/>
-      <c r="AP31" s="322"/>
-      <c r="AQ31" s="158"/>
-      <c r="AR31" s="159"/>
-      <c r="AS31" s="160"/>
-      <c r="AT31" s="211"/>
-      <c r="AU31" s="212"/>
-      <c r="AV31" s="213"/>
-      <c r="AW31" s="211"/>
-      <c r="AX31" s="212"/>
-      <c r="AY31" s="213"/>
-      <c r="AZ31" s="164"/>
-      <c r="BA31" s="186"/>
-      <c r="BB31" s="186"/>
-      <c r="BC31" s="186"/>
-      <c r="BD31" s="186"/>
-      <c r="BE31" s="186"/>
-      <c r="BF31" s="186"/>
-      <c r="BG31" s="187"/>
+      <c r="A31" s="79"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="235"/>
+      <c r="D31" s="236"/>
+      <c r="E31" s="236"/>
+      <c r="F31" s="236"/>
+      <c r="G31" s="236"/>
+      <c r="H31" s="304"/>
+      <c r="I31" s="305"/>
+      <c r="J31" s="305"/>
+      <c r="K31" s="305"/>
+      <c r="L31" s="306"/>
+      <c r="M31" s="149"/>
+      <c r="N31" s="149"/>
+      <c r="O31" s="149"/>
+      <c r="P31" s="149"/>
+      <c r="Q31" s="149"/>
+      <c r="R31" s="149"/>
+      <c r="S31" s="150"/>
+      <c r="T31" s="164"/>
+      <c r="U31" s="165"/>
+      <c r="V31" s="165"/>
+      <c r="W31" s="165"/>
+      <c r="X31" s="165"/>
+      <c r="Y31" s="165"/>
+      <c r="Z31" s="165"/>
+      <c r="AA31" s="165"/>
+      <c r="AB31" s="166"/>
+      <c r="AC31" s="232"/>
+      <c r="AD31" s="233"/>
+      <c r="AE31" s="233"/>
+      <c r="AF31" s="233"/>
+      <c r="AG31" s="233"/>
+      <c r="AH31" s="233"/>
+      <c r="AI31" s="233"/>
+      <c r="AJ31" s="233"/>
+      <c r="AK31" s="233"/>
+      <c r="AL31" s="233"/>
+      <c r="AM31" s="234"/>
+      <c r="AN31" s="90"/>
+      <c r="AO31" s="91"/>
+      <c r="AP31" s="92"/>
+      <c r="AQ31" s="96"/>
+      <c r="AR31" s="97"/>
+      <c r="AS31" s="98"/>
+      <c r="AT31" s="154"/>
+      <c r="AU31" s="155"/>
+      <c r="AV31" s="156"/>
+      <c r="AW31" s="154"/>
+      <c r="AX31" s="155"/>
+      <c r="AY31" s="156"/>
+      <c r="AZ31" s="99"/>
+      <c r="BA31" s="100"/>
+      <c r="BB31" s="100"/>
+      <c r="BC31" s="100"/>
+      <c r="BD31" s="100"/>
+      <c r="BE31" s="100"/>
+      <c r="BF31" s="100"/>
+      <c r="BG31" s="101"/>
     </row>
     <row r="32" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A32" s="107">
+      <c r="A32" s="77">
         <f>A30+1</f>
         <v>13</v>
       </c>
-      <c r="B32" s="108"/>
-      <c r="C32" s="128"/>
-      <c r="D32" s="129"/>
-      <c r="E32" s="129"/>
-      <c r="F32" s="129"/>
-      <c r="G32" s="129"/>
-      <c r="H32" s="220"/>
-      <c r="I32" s="221"/>
-      <c r="J32" s="221"/>
-      <c r="K32" s="221"/>
-      <c r="L32" s="222"/>
-      <c r="M32" s="112" t="s">
+      <c r="B32" s="78"/>
+      <c r="C32" s="235"/>
+      <c r="D32" s="236"/>
+      <c r="E32" s="236"/>
+      <c r="F32" s="236"/>
+      <c r="G32" s="236"/>
+      <c r="H32" s="304"/>
+      <c r="I32" s="305"/>
+      <c r="J32" s="305"/>
+      <c r="K32" s="305"/>
+      <c r="L32" s="306"/>
+      <c r="M32" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="N32" s="112"/>
-      <c r="O32" s="112"/>
-      <c r="P32" s="112"/>
-      <c r="Q32" s="112"/>
-      <c r="R32" s="112"/>
-      <c r="S32" s="113"/>
-      <c r="T32" s="114" t="s">
+      <c r="N32" s="121"/>
+      <c r="O32" s="121"/>
+      <c r="P32" s="121"/>
+      <c r="Q32" s="121"/>
+      <c r="R32" s="121"/>
+      <c r="S32" s="122"/>
+      <c r="T32" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="U32" s="112"/>
-      <c r="V32" s="112"/>
-      <c r="W32" s="112"/>
-      <c r="X32" s="112"/>
-      <c r="Y32" s="112"/>
-      <c r="Z32" s="112"/>
-      <c r="AA32" s="112"/>
-      <c r="AB32" s="113"/>
-      <c r="AC32" s="114" t="s">
+      <c r="U32" s="121"/>
+      <c r="V32" s="121"/>
+      <c r="W32" s="121"/>
+      <c r="X32" s="121"/>
+      <c r="Y32" s="121"/>
+      <c r="Z32" s="121"/>
+      <c r="AA32" s="121"/>
+      <c r="AB32" s="122"/>
+      <c r="AC32" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="AD32" s="218"/>
-      <c r="AE32" s="218"/>
-      <c r="AF32" s="218"/>
-      <c r="AG32" s="218"/>
-      <c r="AH32" s="218"/>
-      <c r="AI32" s="218"/>
-      <c r="AJ32" s="218"/>
-      <c r="AK32" s="218"/>
-      <c r="AL32" s="218"/>
-      <c r="AM32" s="219"/>
-      <c r="AN32" s="196" t="s">
+      <c r="AD32" s="127"/>
+      <c r="AE32" s="127"/>
+      <c r="AF32" s="127"/>
+      <c r="AG32" s="127"/>
+      <c r="AH32" s="127"/>
+      <c r="AI32" s="127"/>
+      <c r="AJ32" s="127"/>
+      <c r="AK32" s="127"/>
+      <c r="AL32" s="127"/>
+      <c r="AM32" s="128"/>
+      <c r="AN32" s="273" t="s">
         <v>40</v>
       </c>
-      <c r="AO32" s="197"/>
-      <c r="AP32" s="198"/>
-      <c r="AQ32" s="115" t="s">
+      <c r="AO32" s="274"/>
+      <c r="AP32" s="275"/>
+      <c r="AQ32" s="244" t="s">
         <v>37</v>
       </c>
-      <c r="AR32" s="116"/>
-      <c r="AS32" s="117"/>
-      <c r="AT32" s="199"/>
-      <c r="AU32" s="200"/>
-      <c r="AV32" s="201"/>
-      <c r="AW32" s="199"/>
-      <c r="AX32" s="200"/>
-      <c r="AY32" s="201"/>
-      <c r="AZ32" s="140"/>
-      <c r="BA32" s="141"/>
-      <c r="BB32" s="141"/>
-      <c r="BC32" s="141"/>
-      <c r="BD32" s="141"/>
-      <c r="BE32" s="141"/>
-      <c r="BF32" s="141"/>
-      <c r="BG32" s="142"/>
+      <c r="AR32" s="245"/>
+      <c r="AS32" s="246"/>
+      <c r="AT32" s="276"/>
+      <c r="AU32" s="277"/>
+      <c r="AV32" s="278"/>
+      <c r="AW32" s="276"/>
+      <c r="AX32" s="277"/>
+      <c r="AY32" s="278"/>
+      <c r="AZ32" s="259"/>
+      <c r="BA32" s="262"/>
+      <c r="BB32" s="262"/>
+      <c r="BC32" s="262"/>
+      <c r="BD32" s="262"/>
+      <c r="BE32" s="262"/>
+      <c r="BF32" s="262"/>
+      <c r="BG32" s="263"/>
     </row>
     <row r="33" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A33" s="126"/>
-      <c r="B33" s="127"/>
-      <c r="C33" s="128"/>
-      <c r="D33" s="129"/>
-      <c r="E33" s="129"/>
-      <c r="F33" s="129"/>
-      <c r="G33" s="129"/>
-      <c r="H33" s="220"/>
-      <c r="I33" s="221"/>
-      <c r="J33" s="221"/>
-      <c r="K33" s="221"/>
-      <c r="L33" s="222"/>
-      <c r="M33" s="131"/>
-      <c r="N33" s="131"/>
-      <c r="O33" s="131"/>
-      <c r="P33" s="131"/>
-      <c r="Q33" s="131"/>
-      <c r="R33" s="131"/>
-      <c r="S33" s="132"/>
-      <c r="T33" s="133"/>
-      <c r="U33" s="131"/>
-      <c r="V33" s="131"/>
-      <c r="W33" s="131"/>
-      <c r="X33" s="131"/>
-      <c r="Y33" s="131"/>
-      <c r="Z33" s="131"/>
-      <c r="AA33" s="131"/>
-      <c r="AB33" s="132"/>
-      <c r="AC33" s="223"/>
-      <c r="AD33" s="224"/>
-      <c r="AE33" s="224"/>
-      <c r="AF33" s="224"/>
-      <c r="AG33" s="224"/>
-      <c r="AH33" s="224"/>
-      <c r="AI33" s="224"/>
-      <c r="AJ33" s="224"/>
-      <c r="AK33" s="224"/>
-      <c r="AL33" s="224"/>
-      <c r="AM33" s="225"/>
-      <c r="AN33" s="88"/>
-      <c r="AO33" s="89"/>
-      <c r="AP33" s="90"/>
-      <c r="AQ33" s="134"/>
-      <c r="AR33" s="135"/>
-      <c r="AS33" s="136"/>
-      <c r="AT33" s="202"/>
-      <c r="AU33" s="203"/>
-      <c r="AV33" s="204"/>
-      <c r="AW33" s="202"/>
-      <c r="AX33" s="203"/>
-      <c r="AY33" s="204"/>
-      <c r="AZ33" s="140"/>
-      <c r="BA33" s="177"/>
-      <c r="BB33" s="177"/>
-      <c r="BC33" s="177"/>
-      <c r="BD33" s="177"/>
-      <c r="BE33" s="177"/>
-      <c r="BF33" s="177"/>
-      <c r="BG33" s="178"/>
+      <c r="A33" s="79"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="235"/>
+      <c r="D33" s="236"/>
+      <c r="E33" s="236"/>
+      <c r="F33" s="236"/>
+      <c r="G33" s="236"/>
+      <c r="H33" s="304"/>
+      <c r="I33" s="305"/>
+      <c r="J33" s="305"/>
+      <c r="K33" s="305"/>
+      <c r="L33" s="306"/>
+      <c r="M33" s="124"/>
+      <c r="N33" s="124"/>
+      <c r="O33" s="124"/>
+      <c r="P33" s="124"/>
+      <c r="Q33" s="124"/>
+      <c r="R33" s="124"/>
+      <c r="S33" s="125"/>
+      <c r="T33" s="123"/>
+      <c r="U33" s="124"/>
+      <c r="V33" s="124"/>
+      <c r="W33" s="124"/>
+      <c r="X33" s="124"/>
+      <c r="Y33" s="124"/>
+      <c r="Z33" s="124"/>
+      <c r="AA33" s="124"/>
+      <c r="AB33" s="125"/>
+      <c r="AC33" s="129"/>
+      <c r="AD33" s="130"/>
+      <c r="AE33" s="130"/>
+      <c r="AF33" s="130"/>
+      <c r="AG33" s="130"/>
+      <c r="AH33" s="130"/>
+      <c r="AI33" s="130"/>
+      <c r="AJ33" s="130"/>
+      <c r="AK33" s="130"/>
+      <c r="AL33" s="130"/>
+      <c r="AM33" s="131"/>
+      <c r="AN33" s="216"/>
+      <c r="AO33" s="217"/>
+      <c r="AP33" s="218"/>
+      <c r="AQ33" s="247"/>
+      <c r="AR33" s="248"/>
+      <c r="AS33" s="249"/>
+      <c r="AT33" s="279"/>
+      <c r="AU33" s="280"/>
+      <c r="AV33" s="281"/>
+      <c r="AW33" s="279"/>
+      <c r="AX33" s="280"/>
+      <c r="AY33" s="281"/>
+      <c r="AZ33" s="259"/>
+      <c r="BA33" s="260"/>
+      <c r="BB33" s="260"/>
+      <c r="BC33" s="260"/>
+      <c r="BD33" s="260"/>
+      <c r="BE33" s="260"/>
+      <c r="BF33" s="260"/>
+      <c r="BG33" s="261"/>
     </row>
     <row r="34" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A34" s="107">
+      <c r="A34" s="77">
         <f>A32+1</f>
         <v>14</v>
       </c>
-      <c r="B34" s="108"/>
-      <c r="C34" s="128"/>
-      <c r="D34" s="129"/>
-      <c r="E34" s="129"/>
-      <c r="F34" s="129"/>
-      <c r="G34" s="129"/>
-      <c r="H34" s="220"/>
-      <c r="I34" s="221"/>
-      <c r="J34" s="221"/>
-      <c r="K34" s="221"/>
-      <c r="L34" s="222"/>
-      <c r="M34" s="179" t="s">
+      <c r="B34" s="78"/>
+      <c r="C34" s="235"/>
+      <c r="D34" s="236"/>
+      <c r="E34" s="236"/>
+      <c r="F34" s="236"/>
+      <c r="G34" s="236"/>
+      <c r="H34" s="304"/>
+      <c r="I34" s="305"/>
+      <c r="J34" s="305"/>
+      <c r="K34" s="305"/>
+      <c r="L34" s="306"/>
+      <c r="M34" s="147" t="s">
         <v>77</v>
       </c>
-      <c r="N34" s="179"/>
-      <c r="O34" s="179"/>
-      <c r="P34" s="179"/>
-      <c r="Q34" s="179"/>
-      <c r="R34" s="179"/>
-      <c r="S34" s="180"/>
-      <c r="T34" s="145" t="s">
+      <c r="N34" s="147"/>
+      <c r="O34" s="147"/>
+      <c r="P34" s="147"/>
+      <c r="Q34" s="147"/>
+      <c r="R34" s="147"/>
+      <c r="S34" s="148"/>
+      <c r="T34" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="U34" s="143"/>
-      <c r="V34" s="143"/>
-      <c r="W34" s="143"/>
-      <c r="X34" s="143"/>
-      <c r="Y34" s="143"/>
-      <c r="Z34" s="143"/>
-      <c r="AA34" s="143"/>
-      <c r="AB34" s="144"/>
-      <c r="AC34" s="145" t="s">
+      <c r="U34" s="162"/>
+      <c r="V34" s="162"/>
+      <c r="W34" s="162"/>
+      <c r="X34" s="162"/>
+      <c r="Y34" s="162"/>
+      <c r="Z34" s="162"/>
+      <c r="AA34" s="162"/>
+      <c r="AB34" s="163"/>
+      <c r="AC34" s="161" t="s">
         <v>80</v>
       </c>
-      <c r="AD34" s="181"/>
-      <c r="AE34" s="181"/>
-      <c r="AF34" s="181"/>
-      <c r="AG34" s="181"/>
-      <c r="AH34" s="181"/>
-      <c r="AI34" s="181"/>
-      <c r="AJ34" s="181"/>
-      <c r="AK34" s="181"/>
-      <c r="AL34" s="181"/>
-      <c r="AM34" s="182"/>
-      <c r="AN34" s="317" t="s">
+      <c r="AD34" s="82"/>
+      <c r="AE34" s="82"/>
+      <c r="AF34" s="82"/>
+      <c r="AG34" s="82"/>
+      <c r="AH34" s="82"/>
+      <c r="AI34" s="82"/>
+      <c r="AJ34" s="82"/>
+      <c r="AK34" s="82"/>
+      <c r="AL34" s="82"/>
+      <c r="AM34" s="83"/>
+      <c r="AN34" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="AO34" s="318"/>
-      <c r="AP34" s="319"/>
-      <c r="AQ34" s="146" t="s">
+      <c r="AO34" s="88"/>
+      <c r="AP34" s="89"/>
+      <c r="AQ34" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="AR34" s="147"/>
-      <c r="AS34" s="148"/>
-      <c r="AT34" s="205"/>
-      <c r="AU34" s="206"/>
-      <c r="AV34" s="207"/>
-      <c r="AW34" s="205"/>
-      <c r="AX34" s="206"/>
-      <c r="AY34" s="207"/>
-      <c r="AZ34" s="164"/>
-      <c r="BA34" s="165"/>
-      <c r="BB34" s="165"/>
-      <c r="BC34" s="165"/>
-      <c r="BD34" s="165"/>
-      <c r="BE34" s="165"/>
-      <c r="BF34" s="165"/>
-      <c r="BG34" s="166"/>
+      <c r="AR34" s="94"/>
+      <c r="AS34" s="95"/>
+      <c r="AT34" s="151"/>
+      <c r="AU34" s="152"/>
+      <c r="AV34" s="153"/>
+      <c r="AW34" s="151"/>
+      <c r="AX34" s="152"/>
+      <c r="AY34" s="153"/>
+      <c r="AZ34" s="99"/>
+      <c r="BA34" s="159"/>
+      <c r="BB34" s="159"/>
+      <c r="BC34" s="159"/>
+      <c r="BD34" s="159"/>
+      <c r="BE34" s="159"/>
+      <c r="BF34" s="159"/>
+      <c r="BG34" s="160"/>
     </row>
     <row r="35" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A35" s="126"/>
-      <c r="B35" s="127"/>
-      <c r="C35" s="128"/>
-      <c r="D35" s="129"/>
-      <c r="E35" s="129"/>
-      <c r="F35" s="129"/>
-      <c r="G35" s="129"/>
-      <c r="H35" s="220"/>
-      <c r="I35" s="221"/>
-      <c r="J35" s="221"/>
-      <c r="K35" s="221"/>
-      <c r="L35" s="222"/>
-      <c r="M35" s="188"/>
-      <c r="N35" s="188"/>
-      <c r="O35" s="188"/>
-      <c r="P35" s="188"/>
-      <c r="Q35" s="188"/>
-      <c r="R35" s="188"/>
-      <c r="S35" s="189"/>
-      <c r="T35" s="157"/>
-      <c r="U35" s="155"/>
-      <c r="V35" s="155"/>
-      <c r="W35" s="155"/>
-      <c r="X35" s="155"/>
-      <c r="Y35" s="155"/>
-      <c r="Z35" s="155"/>
-      <c r="AA35" s="155"/>
-      <c r="AB35" s="156"/>
-      <c r="AC35" s="190"/>
-      <c r="AD35" s="191"/>
-      <c r="AE35" s="191"/>
-      <c r="AF35" s="191"/>
-      <c r="AG35" s="191"/>
-      <c r="AH35" s="191"/>
-      <c r="AI35" s="191"/>
-      <c r="AJ35" s="191"/>
-      <c r="AK35" s="191"/>
-      <c r="AL35" s="191"/>
-      <c r="AM35" s="192"/>
-      <c r="AN35" s="320"/>
-      <c r="AO35" s="321"/>
-      <c r="AP35" s="322"/>
-      <c r="AQ35" s="158"/>
-      <c r="AR35" s="159"/>
-      <c r="AS35" s="160"/>
-      <c r="AT35" s="211"/>
-      <c r="AU35" s="212"/>
-      <c r="AV35" s="213"/>
-      <c r="AW35" s="211"/>
-      <c r="AX35" s="212"/>
-      <c r="AY35" s="213"/>
-      <c r="AZ35" s="164"/>
-      <c r="BA35" s="186"/>
-      <c r="BB35" s="186"/>
-      <c r="BC35" s="186"/>
-      <c r="BD35" s="186"/>
-      <c r="BE35" s="186"/>
-      <c r="BF35" s="186"/>
-      <c r="BG35" s="187"/>
+      <c r="A35" s="79"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="235"/>
+      <c r="D35" s="236"/>
+      <c r="E35" s="236"/>
+      <c r="F35" s="236"/>
+      <c r="G35" s="236"/>
+      <c r="H35" s="304"/>
+      <c r="I35" s="305"/>
+      <c r="J35" s="305"/>
+      <c r="K35" s="305"/>
+      <c r="L35" s="306"/>
+      <c r="M35" s="149"/>
+      <c r="N35" s="149"/>
+      <c r="O35" s="149"/>
+      <c r="P35" s="149"/>
+      <c r="Q35" s="149"/>
+      <c r="R35" s="149"/>
+      <c r="S35" s="150"/>
+      <c r="T35" s="164"/>
+      <c r="U35" s="165"/>
+      <c r="V35" s="165"/>
+      <c r="W35" s="165"/>
+      <c r="X35" s="165"/>
+      <c r="Y35" s="165"/>
+      <c r="Z35" s="165"/>
+      <c r="AA35" s="165"/>
+      <c r="AB35" s="166"/>
+      <c r="AC35" s="84"/>
+      <c r="AD35" s="85"/>
+      <c r="AE35" s="85"/>
+      <c r="AF35" s="85"/>
+      <c r="AG35" s="85"/>
+      <c r="AH35" s="85"/>
+      <c r="AI35" s="85"/>
+      <c r="AJ35" s="85"/>
+      <c r="AK35" s="85"/>
+      <c r="AL35" s="85"/>
+      <c r="AM35" s="86"/>
+      <c r="AN35" s="90"/>
+      <c r="AO35" s="91"/>
+      <c r="AP35" s="92"/>
+      <c r="AQ35" s="96"/>
+      <c r="AR35" s="97"/>
+      <c r="AS35" s="98"/>
+      <c r="AT35" s="154"/>
+      <c r="AU35" s="155"/>
+      <c r="AV35" s="156"/>
+      <c r="AW35" s="154"/>
+      <c r="AX35" s="155"/>
+      <c r="AY35" s="156"/>
+      <c r="AZ35" s="99"/>
+      <c r="BA35" s="100"/>
+      <c r="BB35" s="100"/>
+      <c r="BC35" s="100"/>
+      <c r="BD35" s="100"/>
+      <c r="BE35" s="100"/>
+      <c r="BF35" s="100"/>
+      <c r="BG35" s="101"/>
     </row>
     <row r="36" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A36" s="107">
+      <c r="A36" s="77">
         <f>A34+1</f>
         <v>15</v>
       </c>
-      <c r="B36" s="108"/>
-      <c r="C36" s="128"/>
-      <c r="D36" s="129"/>
-      <c r="E36" s="129"/>
-      <c r="F36" s="129"/>
-      <c r="G36" s="129"/>
-      <c r="H36" s="220"/>
-      <c r="I36" s="221"/>
-      <c r="J36" s="221"/>
-      <c r="K36" s="221"/>
-      <c r="L36" s="222"/>
-      <c r="M36" s="335"/>
-      <c r="N36" s="335"/>
-      <c r="O36" s="335"/>
-      <c r="P36" s="335"/>
-      <c r="Q36" s="335"/>
-      <c r="R36" s="335"/>
-      <c r="S36" s="336"/>
-      <c r="T36" s="114"/>
-      <c r="U36" s="112"/>
-      <c r="V36" s="112"/>
-      <c r="W36" s="112"/>
-      <c r="X36" s="112"/>
-      <c r="Y36" s="112"/>
-      <c r="Z36" s="112"/>
-      <c r="AA36" s="112"/>
-      <c r="AB36" s="113"/>
-      <c r="AC36" s="217"/>
-      <c r="AD36" s="218"/>
-      <c r="AE36" s="218"/>
-      <c r="AF36" s="218"/>
-      <c r="AG36" s="218"/>
-      <c r="AH36" s="218"/>
-      <c r="AI36" s="218"/>
-      <c r="AJ36" s="218"/>
-      <c r="AK36" s="218"/>
-      <c r="AL36" s="218"/>
-      <c r="AM36" s="219"/>
-      <c r="AN36" s="196"/>
-      <c r="AO36" s="197"/>
-      <c r="AP36" s="198"/>
-      <c r="AQ36" s="115"/>
-      <c r="AR36" s="116"/>
-      <c r="AS36" s="117"/>
-      <c r="AT36" s="199"/>
-      <c r="AU36" s="200"/>
-      <c r="AV36" s="201"/>
-      <c r="AW36" s="199"/>
-      <c r="AX36" s="200"/>
-      <c r="AY36" s="201"/>
-      <c r="AZ36" s="140"/>
-      <c r="BA36" s="141"/>
-      <c r="BB36" s="141"/>
-      <c r="BC36" s="141"/>
-      <c r="BD36" s="141"/>
-      <c r="BE36" s="141"/>
-      <c r="BF36" s="141"/>
-      <c r="BG36" s="142"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="235"/>
+      <c r="D36" s="236"/>
+      <c r="E36" s="236"/>
+      <c r="F36" s="236"/>
+      <c r="G36" s="236"/>
+      <c r="H36" s="304"/>
+      <c r="I36" s="305"/>
+      <c r="J36" s="305"/>
+      <c r="K36" s="305"/>
+      <c r="L36" s="306"/>
+      <c r="M36" s="297"/>
+      <c r="N36" s="297"/>
+      <c r="O36" s="297"/>
+      <c r="P36" s="297"/>
+      <c r="Q36" s="297"/>
+      <c r="R36" s="297"/>
+      <c r="S36" s="298"/>
+      <c r="T36" s="120"/>
+      <c r="U36" s="121"/>
+      <c r="V36" s="121"/>
+      <c r="W36" s="121"/>
+      <c r="X36" s="121"/>
+      <c r="Y36" s="121"/>
+      <c r="Z36" s="121"/>
+      <c r="AA36" s="121"/>
+      <c r="AB36" s="122"/>
+      <c r="AC36" s="126"/>
+      <c r="AD36" s="127"/>
+      <c r="AE36" s="127"/>
+      <c r="AF36" s="127"/>
+      <c r="AG36" s="127"/>
+      <c r="AH36" s="127"/>
+      <c r="AI36" s="127"/>
+      <c r="AJ36" s="127"/>
+      <c r="AK36" s="127"/>
+      <c r="AL36" s="127"/>
+      <c r="AM36" s="128"/>
+      <c r="AN36" s="273"/>
+      <c r="AO36" s="274"/>
+      <c r="AP36" s="275"/>
+      <c r="AQ36" s="244"/>
+      <c r="AR36" s="245"/>
+      <c r="AS36" s="246"/>
+      <c r="AT36" s="276"/>
+      <c r="AU36" s="277"/>
+      <c r="AV36" s="278"/>
+      <c r="AW36" s="276"/>
+      <c r="AX36" s="277"/>
+      <c r="AY36" s="278"/>
+      <c r="AZ36" s="259"/>
+      <c r="BA36" s="262"/>
+      <c r="BB36" s="262"/>
+      <c r="BC36" s="262"/>
+      <c r="BD36" s="262"/>
+      <c r="BE36" s="262"/>
+      <c r="BF36" s="262"/>
+      <c r="BG36" s="263"/>
     </row>
     <row r="37" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A37" s="126"/>
-      <c r="B37" s="127"/>
-      <c r="C37" s="128"/>
-      <c r="D37" s="129"/>
-      <c r="E37" s="129"/>
-      <c r="F37" s="129"/>
-      <c r="G37" s="129"/>
-      <c r="H37" s="220"/>
-      <c r="I37" s="221"/>
-      <c r="J37" s="221"/>
-      <c r="K37" s="221"/>
-      <c r="L37" s="222"/>
-      <c r="M37" s="337"/>
-      <c r="N37" s="337"/>
-      <c r="O37" s="337"/>
-      <c r="P37" s="337"/>
-      <c r="Q37" s="337"/>
-      <c r="R37" s="337"/>
-      <c r="S37" s="338"/>
-      <c r="T37" s="133"/>
-      <c r="U37" s="131"/>
-      <c r="V37" s="131"/>
-      <c r="W37" s="131"/>
-      <c r="X37" s="131"/>
-      <c r="Y37" s="131"/>
-      <c r="Z37" s="131"/>
-      <c r="AA37" s="131"/>
-      <c r="AB37" s="132"/>
-      <c r="AC37" s="223"/>
-      <c r="AD37" s="224"/>
-      <c r="AE37" s="224"/>
-      <c r="AF37" s="224"/>
-      <c r="AG37" s="224"/>
-      <c r="AH37" s="224"/>
-      <c r="AI37" s="224"/>
-      <c r="AJ37" s="224"/>
-      <c r="AK37" s="224"/>
-      <c r="AL37" s="224"/>
-      <c r="AM37" s="225"/>
-      <c r="AN37" s="88"/>
-      <c r="AO37" s="89"/>
-      <c r="AP37" s="90"/>
-      <c r="AQ37" s="134"/>
-      <c r="AR37" s="135"/>
-      <c r="AS37" s="136"/>
-      <c r="AT37" s="202"/>
-      <c r="AU37" s="203"/>
-      <c r="AV37" s="204"/>
-      <c r="AW37" s="202"/>
-      <c r="AX37" s="203"/>
-      <c r="AY37" s="204"/>
-      <c r="AZ37" s="140"/>
-      <c r="BA37" s="177"/>
-      <c r="BB37" s="177"/>
-      <c r="BC37" s="177"/>
-      <c r="BD37" s="177"/>
-      <c r="BE37" s="177"/>
-      <c r="BF37" s="177"/>
-      <c r="BG37" s="178"/>
+      <c r="A37" s="79"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="235"/>
+      <c r="D37" s="236"/>
+      <c r="E37" s="236"/>
+      <c r="F37" s="236"/>
+      <c r="G37" s="236"/>
+      <c r="H37" s="304"/>
+      <c r="I37" s="305"/>
+      <c r="J37" s="305"/>
+      <c r="K37" s="305"/>
+      <c r="L37" s="306"/>
+      <c r="M37" s="299"/>
+      <c r="N37" s="299"/>
+      <c r="O37" s="299"/>
+      <c r="P37" s="299"/>
+      <c r="Q37" s="299"/>
+      <c r="R37" s="299"/>
+      <c r="S37" s="300"/>
+      <c r="T37" s="123"/>
+      <c r="U37" s="124"/>
+      <c r="V37" s="124"/>
+      <c r="W37" s="124"/>
+      <c r="X37" s="124"/>
+      <c r="Y37" s="124"/>
+      <c r="Z37" s="124"/>
+      <c r="AA37" s="124"/>
+      <c r="AB37" s="125"/>
+      <c r="AC37" s="129"/>
+      <c r="AD37" s="130"/>
+      <c r="AE37" s="130"/>
+      <c r="AF37" s="130"/>
+      <c r="AG37" s="130"/>
+      <c r="AH37" s="130"/>
+      <c r="AI37" s="130"/>
+      <c r="AJ37" s="130"/>
+      <c r="AK37" s="130"/>
+      <c r="AL37" s="130"/>
+      <c r="AM37" s="131"/>
+      <c r="AN37" s="216"/>
+      <c r="AO37" s="217"/>
+      <c r="AP37" s="218"/>
+      <c r="AQ37" s="247"/>
+      <c r="AR37" s="248"/>
+      <c r="AS37" s="249"/>
+      <c r="AT37" s="279"/>
+      <c r="AU37" s="280"/>
+      <c r="AV37" s="281"/>
+      <c r="AW37" s="279"/>
+      <c r="AX37" s="280"/>
+      <c r="AY37" s="281"/>
+      <c r="AZ37" s="259"/>
+      <c r="BA37" s="260"/>
+      <c r="BB37" s="260"/>
+      <c r="BC37" s="260"/>
+      <c r="BD37" s="260"/>
+      <c r="BE37" s="260"/>
+      <c r="BF37" s="260"/>
+      <c r="BG37" s="261"/>
     </row>
     <row r="38" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A38" s="107">
+      <c r="A38" s="77">
         <f>A36+1</f>
         <v>16</v>
       </c>
-      <c r="B38" s="108"/>
-      <c r="C38" s="128"/>
-      <c r="D38" s="129"/>
-      <c r="E38" s="129"/>
-      <c r="F38" s="129"/>
-      <c r="G38" s="129"/>
-      <c r="H38" s="220"/>
-      <c r="I38" s="221"/>
-      <c r="J38" s="221"/>
-      <c r="K38" s="221"/>
-      <c r="L38" s="222"/>
-      <c r="M38" s="335"/>
-      <c r="N38" s="335"/>
-      <c r="O38" s="335"/>
-      <c r="P38" s="335"/>
-      <c r="Q38" s="335"/>
-      <c r="R38" s="335"/>
-      <c r="S38" s="336"/>
-      <c r="T38" s="145"/>
-      <c r="U38" s="143"/>
-      <c r="V38" s="143"/>
-      <c r="W38" s="143"/>
-      <c r="X38" s="143"/>
-      <c r="Y38" s="143"/>
-      <c r="Z38" s="143"/>
-      <c r="AA38" s="143"/>
-      <c r="AB38" s="144"/>
-      <c r="AC38" s="226"/>
-      <c r="AD38" s="181"/>
-      <c r="AE38" s="181"/>
-      <c r="AF38" s="181"/>
-      <c r="AG38" s="181"/>
-      <c r="AH38" s="181"/>
-      <c r="AI38" s="181"/>
-      <c r="AJ38" s="181"/>
-      <c r="AK38" s="181"/>
-      <c r="AL38" s="181"/>
-      <c r="AM38" s="182"/>
-      <c r="AN38" s="317"/>
-      <c r="AO38" s="318"/>
-      <c r="AP38" s="319"/>
-      <c r="AQ38" s="146"/>
-      <c r="AR38" s="147"/>
-      <c r="AS38" s="148"/>
-      <c r="AT38" s="205"/>
-      <c r="AU38" s="206"/>
-      <c r="AV38" s="207"/>
-      <c r="AW38" s="205"/>
-      <c r="AX38" s="206"/>
-      <c r="AY38" s="207"/>
-      <c r="AZ38" s="164"/>
-      <c r="BA38" s="165"/>
-      <c r="BB38" s="165"/>
-      <c r="BC38" s="165"/>
-      <c r="BD38" s="165"/>
-      <c r="BE38" s="165"/>
-      <c r="BF38" s="165"/>
-      <c r="BG38" s="166"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="235"/>
+      <c r="D38" s="236"/>
+      <c r="E38" s="236"/>
+      <c r="F38" s="236"/>
+      <c r="G38" s="236"/>
+      <c r="H38" s="304"/>
+      <c r="I38" s="305"/>
+      <c r="J38" s="305"/>
+      <c r="K38" s="305"/>
+      <c r="L38" s="306"/>
+      <c r="M38" s="297"/>
+      <c r="N38" s="297"/>
+      <c r="O38" s="297"/>
+      <c r="P38" s="297"/>
+      <c r="Q38" s="297"/>
+      <c r="R38" s="297"/>
+      <c r="S38" s="298"/>
+      <c r="T38" s="161"/>
+      <c r="U38" s="162"/>
+      <c r="V38" s="162"/>
+      <c r="W38" s="162"/>
+      <c r="X38" s="162"/>
+      <c r="Y38" s="162"/>
+      <c r="Z38" s="162"/>
+      <c r="AA38" s="162"/>
+      <c r="AB38" s="163"/>
+      <c r="AC38" s="81"/>
+      <c r="AD38" s="82"/>
+      <c r="AE38" s="82"/>
+      <c r="AF38" s="82"/>
+      <c r="AG38" s="82"/>
+      <c r="AH38" s="82"/>
+      <c r="AI38" s="82"/>
+      <c r="AJ38" s="82"/>
+      <c r="AK38" s="82"/>
+      <c r="AL38" s="82"/>
+      <c r="AM38" s="83"/>
+      <c r="AN38" s="87"/>
+      <c r="AO38" s="88"/>
+      <c r="AP38" s="89"/>
+      <c r="AQ38" s="93"/>
+      <c r="AR38" s="94"/>
+      <c r="AS38" s="95"/>
+      <c r="AT38" s="151"/>
+      <c r="AU38" s="152"/>
+      <c r="AV38" s="153"/>
+      <c r="AW38" s="151"/>
+      <c r="AX38" s="152"/>
+      <c r="AY38" s="153"/>
+      <c r="AZ38" s="99"/>
+      <c r="BA38" s="159"/>
+      <c r="BB38" s="159"/>
+      <c r="BC38" s="159"/>
+      <c r="BD38" s="159"/>
+      <c r="BE38" s="159"/>
+      <c r="BF38" s="159"/>
+      <c r="BG38" s="160"/>
     </row>
     <row r="39" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A39" s="126"/>
-      <c r="B39" s="127"/>
-      <c r="C39" s="208"/>
-      <c r="D39" s="209"/>
-      <c r="E39" s="209"/>
-      <c r="F39" s="209"/>
-      <c r="G39" s="209"/>
-      <c r="H39" s="227"/>
-      <c r="I39" s="228"/>
-      <c r="J39" s="228"/>
-      <c r="K39" s="228"/>
-      <c r="L39" s="229"/>
-      <c r="M39" s="337"/>
-      <c r="N39" s="337"/>
-      <c r="O39" s="337"/>
-      <c r="P39" s="337"/>
-      <c r="Q39" s="337"/>
-      <c r="R39" s="337"/>
-      <c r="S39" s="338"/>
-      <c r="T39" s="157"/>
-      <c r="U39" s="155"/>
-      <c r="V39" s="155"/>
-      <c r="W39" s="155"/>
-      <c r="X39" s="155"/>
-      <c r="Y39" s="155"/>
-      <c r="Z39" s="155"/>
-      <c r="AA39" s="155"/>
-      <c r="AB39" s="156"/>
-      <c r="AC39" s="190"/>
-      <c r="AD39" s="191"/>
-      <c r="AE39" s="191"/>
-      <c r="AF39" s="191"/>
-      <c r="AG39" s="191"/>
-      <c r="AH39" s="191"/>
-      <c r="AI39" s="191"/>
-      <c r="AJ39" s="191"/>
-      <c r="AK39" s="191"/>
-      <c r="AL39" s="191"/>
-      <c r="AM39" s="192"/>
-      <c r="AN39" s="320"/>
-      <c r="AO39" s="321"/>
-      <c r="AP39" s="322"/>
-      <c r="AQ39" s="158"/>
-      <c r="AR39" s="159"/>
-      <c r="AS39" s="160"/>
-      <c r="AT39" s="211"/>
-      <c r="AU39" s="212"/>
-      <c r="AV39" s="213"/>
-      <c r="AW39" s="211"/>
-      <c r="AX39" s="212"/>
-      <c r="AY39" s="213"/>
-      <c r="AZ39" s="164"/>
-      <c r="BA39" s="186"/>
-      <c r="BB39" s="186"/>
-      <c r="BC39" s="186"/>
-      <c r="BD39" s="186"/>
-      <c r="BE39" s="186"/>
-      <c r="BF39" s="186"/>
-      <c r="BG39" s="187"/>
+      <c r="A39" s="79"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="106"/>
+      <c r="F39" s="106"/>
+      <c r="G39" s="106"/>
+      <c r="H39" s="307"/>
+      <c r="I39" s="308"/>
+      <c r="J39" s="308"/>
+      <c r="K39" s="308"/>
+      <c r="L39" s="309"/>
+      <c r="M39" s="299"/>
+      <c r="N39" s="299"/>
+      <c r="O39" s="299"/>
+      <c r="P39" s="299"/>
+      <c r="Q39" s="299"/>
+      <c r="R39" s="299"/>
+      <c r="S39" s="300"/>
+      <c r="T39" s="164"/>
+      <c r="U39" s="165"/>
+      <c r="V39" s="165"/>
+      <c r="W39" s="165"/>
+      <c r="X39" s="165"/>
+      <c r="Y39" s="165"/>
+      <c r="Z39" s="165"/>
+      <c r="AA39" s="165"/>
+      <c r="AB39" s="166"/>
+      <c r="AC39" s="84"/>
+      <c r="AD39" s="85"/>
+      <c r="AE39" s="85"/>
+      <c r="AF39" s="85"/>
+      <c r="AG39" s="85"/>
+      <c r="AH39" s="85"/>
+      <c r="AI39" s="85"/>
+      <c r="AJ39" s="85"/>
+      <c r="AK39" s="85"/>
+      <c r="AL39" s="85"/>
+      <c r="AM39" s="86"/>
+      <c r="AN39" s="90"/>
+      <c r="AO39" s="91"/>
+      <c r="AP39" s="92"/>
+      <c r="AQ39" s="96"/>
+      <c r="AR39" s="97"/>
+      <c r="AS39" s="98"/>
+      <c r="AT39" s="154"/>
+      <c r="AU39" s="155"/>
+      <c r="AV39" s="156"/>
+      <c r="AW39" s="154"/>
+      <c r="AX39" s="155"/>
+      <c r="AY39" s="156"/>
+      <c r="AZ39" s="99"/>
+      <c r="BA39" s="100"/>
+      <c r="BB39" s="100"/>
+      <c r="BC39" s="100"/>
+      <c r="BD39" s="100"/>
+      <c r="BE39" s="100"/>
+      <c r="BF39" s="100"/>
+      <c r="BG39" s="101"/>
     </row>
     <row r="40" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A40" s="107">
+      <c r="A40" s="77">
         <f>A38+1</f>
         <v>17</v>
       </c>
-      <c r="B40" s="108"/>
-      <c r="C40" s="230" t="s">
+      <c r="B40" s="78"/>
+      <c r="C40" s="282" t="s">
         <v>81</v>
       </c>
-      <c r="D40" s="231"/>
-      <c r="E40" s="231"/>
-      <c r="F40" s="231"/>
-      <c r="G40" s="232"/>
-      <c r="H40" s="230" t="s">
+      <c r="D40" s="283"/>
+      <c r="E40" s="283"/>
+      <c r="F40" s="283"/>
+      <c r="G40" s="284"/>
+      <c r="H40" s="282" t="s">
         <v>37</v>
       </c>
-      <c r="I40" s="231"/>
-      <c r="J40" s="231"/>
-      <c r="K40" s="231"/>
-      <c r="L40" s="232"/>
-      <c r="M40" s="233" t="s">
+      <c r="I40" s="283"/>
+      <c r="J40" s="283"/>
+      <c r="K40" s="283"/>
+      <c r="L40" s="284"/>
+      <c r="M40" s="167" t="s">
         <v>82</v>
       </c>
-      <c r="N40" s="233"/>
-      <c r="O40" s="233"/>
-      <c r="P40" s="233"/>
-      <c r="Q40" s="233"/>
-      <c r="R40" s="233"/>
-      <c r="S40" s="234"/>
-      <c r="T40" s="235" t="s">
+      <c r="N40" s="167"/>
+      <c r="O40" s="167"/>
+      <c r="P40" s="167"/>
+      <c r="Q40" s="167"/>
+      <c r="R40" s="167"/>
+      <c r="S40" s="168"/>
+      <c r="T40" s="177" t="s">
         <v>83</v>
       </c>
-      <c r="U40" s="236"/>
-      <c r="V40" s="236"/>
-      <c r="W40" s="236"/>
-      <c r="X40" s="236"/>
-      <c r="Y40" s="236"/>
-      <c r="Z40" s="236"/>
-      <c r="AA40" s="236"/>
-      <c r="AB40" s="237"/>
-      <c r="AC40" s="235" t="s">
+      <c r="U40" s="178"/>
+      <c r="V40" s="178"/>
+      <c r="W40" s="178"/>
+      <c r="X40" s="178"/>
+      <c r="Y40" s="178"/>
+      <c r="Z40" s="178"/>
+      <c r="AA40" s="178"/>
+      <c r="AB40" s="179"/>
+      <c r="AC40" s="177" t="s">
         <v>85</v>
       </c>
-      <c r="AD40" s="239"/>
-      <c r="AE40" s="239"/>
-      <c r="AF40" s="239"/>
-      <c r="AG40" s="239"/>
-      <c r="AH40" s="239"/>
-      <c r="AI40" s="239"/>
-      <c r="AJ40" s="239"/>
-      <c r="AK40" s="239"/>
-      <c r="AL40" s="239"/>
-      <c r="AM40" s="240"/>
-      <c r="AN40" s="323" t="s">
+      <c r="AD40" s="172"/>
+      <c r="AE40" s="172"/>
+      <c r="AF40" s="172"/>
+      <c r="AG40" s="172"/>
+      <c r="AH40" s="172"/>
+      <c r="AI40" s="172"/>
+      <c r="AJ40" s="172"/>
+      <c r="AK40" s="172"/>
+      <c r="AL40" s="172"/>
+      <c r="AM40" s="173"/>
+      <c r="AN40" s="132" t="s">
         <v>84</v>
       </c>
-      <c r="AO40" s="324"/>
-      <c r="AP40" s="325"/>
-      <c r="AQ40" s="146" t="s">
+      <c r="AO40" s="133"/>
+      <c r="AP40" s="134"/>
+      <c r="AQ40" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="AR40" s="147"/>
-      <c r="AS40" s="148"/>
-      <c r="AT40" s="241"/>
-      <c r="AU40" s="242"/>
-      <c r="AV40" s="243"/>
-      <c r="AW40" s="241"/>
-      <c r="AX40" s="242"/>
-      <c r="AY40" s="243"/>
-      <c r="AZ40" s="247"/>
-      <c r="BA40" s="248"/>
-      <c r="BB40" s="248"/>
-      <c r="BC40" s="248"/>
-      <c r="BD40" s="248"/>
-      <c r="BE40" s="248"/>
-      <c r="BF40" s="248"/>
-      <c r="BG40" s="249"/>
+      <c r="AR40" s="94"/>
+      <c r="AS40" s="95"/>
+      <c r="AT40" s="138"/>
+      <c r="AU40" s="139"/>
+      <c r="AV40" s="140"/>
+      <c r="AW40" s="138"/>
+      <c r="AX40" s="139"/>
+      <c r="AY40" s="140"/>
+      <c r="AZ40" s="144"/>
+      <c r="BA40" s="157"/>
+      <c r="BB40" s="157"/>
+      <c r="BC40" s="157"/>
+      <c r="BD40" s="157"/>
+      <c r="BE40" s="157"/>
+      <c r="BF40" s="157"/>
+      <c r="BG40" s="158"/>
     </row>
     <row r="41" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A41" s="126"/>
-      <c r="B41" s="127"/>
-      <c r="C41" s="250"/>
-      <c r="D41" s="251"/>
-      <c r="E41" s="251"/>
-      <c r="F41" s="251"/>
-      <c r="G41" s="252"/>
-      <c r="H41" s="250"/>
-      <c r="I41" s="251"/>
-      <c r="J41" s="251"/>
-      <c r="K41" s="251"/>
-      <c r="L41" s="252"/>
-      <c r="M41" s="253"/>
-      <c r="N41" s="253"/>
-      <c r="O41" s="253"/>
-      <c r="P41" s="253"/>
-      <c r="Q41" s="253"/>
-      <c r="R41" s="253"/>
-      <c r="S41" s="254"/>
-      <c r="T41" s="255"/>
-      <c r="U41" s="256"/>
-      <c r="V41" s="256"/>
-      <c r="W41" s="256"/>
-      <c r="X41" s="256"/>
-      <c r="Y41" s="256"/>
-      <c r="Z41" s="256"/>
-      <c r="AA41" s="256"/>
-      <c r="AB41" s="257"/>
-      <c r="AC41" s="258"/>
-      <c r="AD41" s="259"/>
-      <c r="AE41" s="259"/>
-      <c r="AF41" s="259"/>
-      <c r="AG41" s="259"/>
-      <c r="AH41" s="259"/>
-      <c r="AI41" s="259"/>
-      <c r="AJ41" s="259"/>
-      <c r="AK41" s="259"/>
-      <c r="AL41" s="259"/>
-      <c r="AM41" s="260"/>
-      <c r="AN41" s="326"/>
-      <c r="AO41" s="327"/>
-      <c r="AP41" s="328"/>
-      <c r="AQ41" s="158"/>
-      <c r="AR41" s="159"/>
-      <c r="AS41" s="160"/>
-      <c r="AT41" s="261"/>
-      <c r="AU41" s="262"/>
-      <c r="AV41" s="263"/>
-      <c r="AW41" s="261"/>
-      <c r="AX41" s="262"/>
-      <c r="AY41" s="263"/>
-      <c r="AZ41" s="247"/>
-      <c r="BA41" s="267"/>
-      <c r="BB41" s="267"/>
-      <c r="BC41" s="267"/>
-      <c r="BD41" s="267"/>
-      <c r="BE41" s="267"/>
-      <c r="BF41" s="267"/>
-      <c r="BG41" s="268"/>
+      <c r="A41" s="79"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="285"/>
+      <c r="D41" s="286"/>
+      <c r="E41" s="286"/>
+      <c r="F41" s="286"/>
+      <c r="G41" s="287"/>
+      <c r="H41" s="285"/>
+      <c r="I41" s="286"/>
+      <c r="J41" s="286"/>
+      <c r="K41" s="286"/>
+      <c r="L41" s="287"/>
+      <c r="M41" s="169"/>
+      <c r="N41" s="169"/>
+      <c r="O41" s="169"/>
+      <c r="P41" s="169"/>
+      <c r="Q41" s="169"/>
+      <c r="R41" s="169"/>
+      <c r="S41" s="170"/>
+      <c r="T41" s="180"/>
+      <c r="U41" s="181"/>
+      <c r="V41" s="181"/>
+      <c r="W41" s="181"/>
+      <c r="X41" s="181"/>
+      <c r="Y41" s="181"/>
+      <c r="Z41" s="181"/>
+      <c r="AA41" s="181"/>
+      <c r="AB41" s="182"/>
+      <c r="AC41" s="174"/>
+      <c r="AD41" s="175"/>
+      <c r="AE41" s="175"/>
+      <c r="AF41" s="175"/>
+      <c r="AG41" s="175"/>
+      <c r="AH41" s="175"/>
+      <c r="AI41" s="175"/>
+      <c r="AJ41" s="175"/>
+      <c r="AK41" s="175"/>
+      <c r="AL41" s="175"/>
+      <c r="AM41" s="176"/>
+      <c r="AN41" s="135"/>
+      <c r="AO41" s="136"/>
+      <c r="AP41" s="137"/>
+      <c r="AQ41" s="96"/>
+      <c r="AR41" s="97"/>
+      <c r="AS41" s="98"/>
+      <c r="AT41" s="141"/>
+      <c r="AU41" s="142"/>
+      <c r="AV41" s="143"/>
+      <c r="AW41" s="141"/>
+      <c r="AX41" s="142"/>
+      <c r="AY41" s="143"/>
+      <c r="AZ41" s="144"/>
+      <c r="BA41" s="145"/>
+      <c r="BB41" s="145"/>
+      <c r="BC41" s="145"/>
+      <c r="BD41" s="145"/>
+      <c r="BE41" s="145"/>
+      <c r="BF41" s="145"/>
+      <c r="BG41" s="146"/>
     </row>
     <row r="42" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A42" s="107">
+      <c r="A42" s="77">
         <f>A40+1</f>
         <v>18</v>
       </c>
-      <c r="B42" s="108"/>
-      <c r="C42" s="250"/>
-      <c r="D42" s="251"/>
-      <c r="E42" s="251"/>
-      <c r="F42" s="251"/>
-      <c r="G42" s="252"/>
-      <c r="H42" s="250"/>
-      <c r="I42" s="251"/>
-      <c r="J42" s="251"/>
-      <c r="K42" s="251"/>
-      <c r="L42" s="252"/>
-      <c r="M42" s="167" t="s">
+      <c r="B42" s="78"/>
+      <c r="C42" s="285"/>
+      <c r="D42" s="286"/>
+      <c r="E42" s="286"/>
+      <c r="F42" s="286"/>
+      <c r="G42" s="287"/>
+      <c r="H42" s="285"/>
+      <c r="I42" s="286"/>
+      <c r="J42" s="286"/>
+      <c r="K42" s="286"/>
+      <c r="L42" s="287"/>
+      <c r="M42" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="N42" s="167"/>
-      <c r="O42" s="167"/>
-      <c r="P42" s="167"/>
-      <c r="Q42" s="167"/>
-      <c r="R42" s="167"/>
-      <c r="S42" s="168"/>
-      <c r="T42" s="145" t="s">
+      <c r="N42" s="115"/>
+      <c r="O42" s="115"/>
+      <c r="P42" s="115"/>
+      <c r="Q42" s="115"/>
+      <c r="R42" s="115"/>
+      <c r="S42" s="116"/>
+      <c r="T42" s="161" t="s">
         <v>87</v>
       </c>
-      <c r="U42" s="143"/>
-      <c r="V42" s="143"/>
-      <c r="W42" s="143"/>
-      <c r="X42" s="143"/>
-      <c r="Y42" s="143"/>
-      <c r="Z42" s="143"/>
-      <c r="AA42" s="143"/>
-      <c r="AB42" s="144"/>
-      <c r="AC42" s="145" t="s">
+      <c r="U42" s="162"/>
+      <c r="V42" s="162"/>
+      <c r="W42" s="162"/>
+      <c r="X42" s="162"/>
+      <c r="Y42" s="162"/>
+      <c r="Z42" s="162"/>
+      <c r="AA42" s="162"/>
+      <c r="AB42" s="163"/>
+      <c r="AC42" s="161" t="s">
         <v>88</v>
       </c>
-      <c r="AD42" s="181"/>
-      <c r="AE42" s="181"/>
-      <c r="AF42" s="181"/>
-      <c r="AG42" s="181"/>
-      <c r="AH42" s="181"/>
-      <c r="AI42" s="181"/>
-      <c r="AJ42" s="181"/>
-      <c r="AK42" s="181"/>
-      <c r="AL42" s="181"/>
-      <c r="AM42" s="182"/>
-      <c r="AN42" s="317" t="s">
+      <c r="AD42" s="82"/>
+      <c r="AE42" s="82"/>
+      <c r="AF42" s="82"/>
+      <c r="AG42" s="82"/>
+      <c r="AH42" s="82"/>
+      <c r="AI42" s="82"/>
+      <c r="AJ42" s="82"/>
+      <c r="AK42" s="82"/>
+      <c r="AL42" s="82"/>
+      <c r="AM42" s="83"/>
+      <c r="AN42" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="AO42" s="318"/>
-      <c r="AP42" s="319"/>
-      <c r="AQ42" s="146" t="s">
+      <c r="AO42" s="88"/>
+      <c r="AP42" s="89"/>
+      <c r="AQ42" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="AR42" s="147"/>
-      <c r="AS42" s="148"/>
-      <c r="AT42" s="205"/>
-      <c r="AU42" s="206"/>
-      <c r="AV42" s="207"/>
-      <c r="AW42" s="205"/>
-      <c r="AX42" s="206"/>
-      <c r="AY42" s="207"/>
-      <c r="AZ42" s="164"/>
-      <c r="BA42" s="165"/>
-      <c r="BB42" s="165"/>
-      <c r="BC42" s="165"/>
-      <c r="BD42" s="165"/>
-      <c r="BE42" s="165"/>
-      <c r="BF42" s="165"/>
-      <c r="BG42" s="166"/>
+      <c r="AR42" s="94"/>
+      <c r="AS42" s="95"/>
+      <c r="AT42" s="151"/>
+      <c r="AU42" s="152"/>
+      <c r="AV42" s="153"/>
+      <c r="AW42" s="151"/>
+      <c r="AX42" s="152"/>
+      <c r="AY42" s="153"/>
+      <c r="AZ42" s="99"/>
+      <c r="BA42" s="159"/>
+      <c r="BB42" s="159"/>
+      <c r="BC42" s="159"/>
+      <c r="BD42" s="159"/>
+      <c r="BE42" s="159"/>
+      <c r="BF42" s="159"/>
+      <c r="BG42" s="160"/>
     </row>
     <row r="43" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A43" s="126"/>
-      <c r="B43" s="127"/>
-      <c r="C43" s="250"/>
-      <c r="D43" s="251"/>
-      <c r="E43" s="251"/>
-      <c r="F43" s="251"/>
-      <c r="G43" s="252"/>
-      <c r="H43" s="250"/>
-      <c r="I43" s="251"/>
-      <c r="J43" s="251"/>
-      <c r="K43" s="251"/>
-      <c r="L43" s="252"/>
-      <c r="M43" s="172"/>
-      <c r="N43" s="172"/>
-      <c r="O43" s="172"/>
-      <c r="P43" s="172"/>
-      <c r="Q43" s="172"/>
-      <c r="R43" s="172"/>
-      <c r="S43" s="173"/>
-      <c r="T43" s="157"/>
-      <c r="U43" s="155"/>
-      <c r="V43" s="155"/>
-      <c r="W43" s="155"/>
-      <c r="X43" s="155"/>
-      <c r="Y43" s="155"/>
-      <c r="Z43" s="155"/>
-      <c r="AA43" s="155"/>
-      <c r="AB43" s="156"/>
-      <c r="AC43" s="190"/>
-      <c r="AD43" s="191"/>
-      <c r="AE43" s="191"/>
-      <c r="AF43" s="191"/>
-      <c r="AG43" s="191"/>
-      <c r="AH43" s="191"/>
-      <c r="AI43" s="191"/>
-      <c r="AJ43" s="191"/>
-      <c r="AK43" s="191"/>
-      <c r="AL43" s="191"/>
-      <c r="AM43" s="192"/>
-      <c r="AN43" s="320"/>
-      <c r="AO43" s="321"/>
-      <c r="AP43" s="322"/>
-      <c r="AQ43" s="158"/>
-      <c r="AR43" s="159"/>
-      <c r="AS43" s="160"/>
-      <c r="AT43" s="211"/>
-      <c r="AU43" s="212"/>
-      <c r="AV43" s="213"/>
-      <c r="AW43" s="211"/>
-      <c r="AX43" s="212"/>
-      <c r="AY43" s="213"/>
-      <c r="AZ43" s="164"/>
-      <c r="BA43" s="186"/>
-      <c r="BB43" s="186"/>
-      <c r="BC43" s="186"/>
-      <c r="BD43" s="186"/>
-      <c r="BE43" s="186"/>
-      <c r="BF43" s="186"/>
-      <c r="BG43" s="187"/>
+      <c r="A43" s="79"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="285"/>
+      <c r="D43" s="286"/>
+      <c r="E43" s="286"/>
+      <c r="F43" s="286"/>
+      <c r="G43" s="287"/>
+      <c r="H43" s="285"/>
+      <c r="I43" s="286"/>
+      <c r="J43" s="286"/>
+      <c r="K43" s="286"/>
+      <c r="L43" s="287"/>
+      <c r="M43" s="118"/>
+      <c r="N43" s="118"/>
+      <c r="O43" s="118"/>
+      <c r="P43" s="118"/>
+      <c r="Q43" s="118"/>
+      <c r="R43" s="118"/>
+      <c r="S43" s="119"/>
+      <c r="T43" s="164"/>
+      <c r="U43" s="165"/>
+      <c r="V43" s="165"/>
+      <c r="W43" s="165"/>
+      <c r="X43" s="165"/>
+      <c r="Y43" s="165"/>
+      <c r="Z43" s="165"/>
+      <c r="AA43" s="165"/>
+      <c r="AB43" s="166"/>
+      <c r="AC43" s="84"/>
+      <c r="AD43" s="85"/>
+      <c r="AE43" s="85"/>
+      <c r="AF43" s="85"/>
+      <c r="AG43" s="85"/>
+      <c r="AH43" s="85"/>
+      <c r="AI43" s="85"/>
+      <c r="AJ43" s="85"/>
+      <c r="AK43" s="85"/>
+      <c r="AL43" s="85"/>
+      <c r="AM43" s="86"/>
+      <c r="AN43" s="90"/>
+      <c r="AO43" s="91"/>
+      <c r="AP43" s="92"/>
+      <c r="AQ43" s="96"/>
+      <c r="AR43" s="97"/>
+      <c r="AS43" s="98"/>
+      <c r="AT43" s="154"/>
+      <c r="AU43" s="155"/>
+      <c r="AV43" s="156"/>
+      <c r="AW43" s="154"/>
+      <c r="AX43" s="155"/>
+      <c r="AY43" s="156"/>
+      <c r="AZ43" s="99"/>
+      <c r="BA43" s="100"/>
+      <c r="BB43" s="100"/>
+      <c r="BC43" s="100"/>
+      <c r="BD43" s="100"/>
+      <c r="BE43" s="100"/>
+      <c r="BF43" s="100"/>
+      <c r="BG43" s="101"/>
     </row>
     <row r="44" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A44" s="107">
+      <c r="A44" s="77">
         <f>A42+1</f>
         <v>19</v>
       </c>
-      <c r="B44" s="108"/>
-      <c r="C44" s="250"/>
-      <c r="D44" s="251"/>
-      <c r="E44" s="251"/>
-      <c r="F44" s="251"/>
-      <c r="G44" s="252"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="251"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="251"/>
-      <c r="L44" s="252"/>
-      <c r="M44" s="233"/>
-      <c r="N44" s="233"/>
-      <c r="O44" s="233"/>
-      <c r="P44" s="233"/>
-      <c r="Q44" s="233"/>
-      <c r="R44" s="233"/>
-      <c r="S44" s="234"/>
-      <c r="T44" s="238"/>
-      <c r="U44" s="239"/>
-      <c r="V44" s="239"/>
-      <c r="W44" s="239"/>
-      <c r="X44" s="239"/>
-      <c r="Y44" s="239"/>
-      <c r="Z44" s="239"/>
-      <c r="AA44" s="239"/>
-      <c r="AB44" s="240"/>
-      <c r="AC44" s="235"/>
-      <c r="AD44" s="236"/>
-      <c r="AE44" s="236"/>
-      <c r="AF44" s="236"/>
-      <c r="AG44" s="236"/>
-      <c r="AH44" s="236"/>
-      <c r="AI44" s="236"/>
-      <c r="AJ44" s="236"/>
-      <c r="AK44" s="236"/>
-      <c r="AL44" s="236"/>
-      <c r="AM44" s="237"/>
-      <c r="AN44" s="323"/>
-      <c r="AO44" s="324"/>
-      <c r="AP44" s="325"/>
-      <c r="AQ44" s="146" t="s">
+      <c r="B44" s="78"/>
+      <c r="C44" s="285"/>
+      <c r="D44" s="286"/>
+      <c r="E44" s="286"/>
+      <c r="F44" s="286"/>
+      <c r="G44" s="287"/>
+      <c r="H44" s="285"/>
+      <c r="I44" s="286"/>
+      <c r="J44" s="286"/>
+      <c r="K44" s="286"/>
+      <c r="L44" s="287"/>
+      <c r="M44" s="167"/>
+      <c r="N44" s="167"/>
+      <c r="O44" s="167"/>
+      <c r="P44" s="167"/>
+      <c r="Q44" s="167"/>
+      <c r="R44" s="167"/>
+      <c r="S44" s="168"/>
+      <c r="T44" s="171"/>
+      <c r="U44" s="172"/>
+      <c r="V44" s="172"/>
+      <c r="W44" s="172"/>
+      <c r="X44" s="172"/>
+      <c r="Y44" s="172"/>
+      <c r="Z44" s="172"/>
+      <c r="AA44" s="172"/>
+      <c r="AB44" s="173"/>
+      <c r="AC44" s="177"/>
+      <c r="AD44" s="178"/>
+      <c r="AE44" s="178"/>
+      <c r="AF44" s="178"/>
+      <c r="AG44" s="178"/>
+      <c r="AH44" s="178"/>
+      <c r="AI44" s="178"/>
+      <c r="AJ44" s="178"/>
+      <c r="AK44" s="178"/>
+      <c r="AL44" s="178"/>
+      <c r="AM44" s="179"/>
+      <c r="AN44" s="132"/>
+      <c r="AO44" s="133"/>
+      <c r="AP44" s="134"/>
+      <c r="AQ44" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="AR44" s="147"/>
-      <c r="AS44" s="148"/>
-      <c r="AT44" s="241"/>
-      <c r="AU44" s="242"/>
-      <c r="AV44" s="243"/>
-      <c r="AW44" s="241"/>
-      <c r="AX44" s="242"/>
-      <c r="AY44" s="243"/>
-      <c r="AZ44" s="247"/>
-      <c r="BA44" s="248"/>
-      <c r="BB44" s="248"/>
-      <c r="BC44" s="248"/>
-      <c r="BD44" s="248"/>
-      <c r="BE44" s="248"/>
-      <c r="BF44" s="248"/>
-      <c r="BG44" s="249"/>
+      <c r="AR44" s="94"/>
+      <c r="AS44" s="95"/>
+      <c r="AT44" s="138"/>
+      <c r="AU44" s="139"/>
+      <c r="AV44" s="140"/>
+      <c r="AW44" s="138"/>
+      <c r="AX44" s="139"/>
+      <c r="AY44" s="140"/>
+      <c r="AZ44" s="144"/>
+      <c r="BA44" s="157"/>
+      <c r="BB44" s="157"/>
+      <c r="BC44" s="157"/>
+      <c r="BD44" s="157"/>
+      <c r="BE44" s="157"/>
+      <c r="BF44" s="157"/>
+      <c r="BG44" s="158"/>
     </row>
     <row r="45" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A45" s="126"/>
-      <c r="B45" s="127"/>
-      <c r="C45" s="250"/>
-      <c r="D45" s="251"/>
-      <c r="E45" s="251"/>
-      <c r="F45" s="251"/>
-      <c r="G45" s="252"/>
-      <c r="H45" s="250"/>
-      <c r="I45" s="251"/>
-      <c r="J45" s="251"/>
-      <c r="K45" s="251"/>
-      <c r="L45" s="252"/>
-      <c r="M45" s="253"/>
-      <c r="N45" s="253"/>
-      <c r="O45" s="253"/>
-      <c r="P45" s="253"/>
-      <c r="Q45" s="253"/>
-      <c r="R45" s="253"/>
-      <c r="S45" s="254"/>
-      <c r="T45" s="258"/>
-      <c r="U45" s="259"/>
-      <c r="V45" s="259"/>
-      <c r="W45" s="259"/>
-      <c r="X45" s="259"/>
-      <c r="Y45" s="259"/>
-      <c r="Z45" s="259"/>
-      <c r="AA45" s="259"/>
-      <c r="AB45" s="260"/>
-      <c r="AC45" s="255"/>
-      <c r="AD45" s="256"/>
-      <c r="AE45" s="256"/>
-      <c r="AF45" s="256"/>
-      <c r="AG45" s="256"/>
-      <c r="AH45" s="256"/>
-      <c r="AI45" s="256"/>
-      <c r="AJ45" s="256"/>
-      <c r="AK45" s="256"/>
-      <c r="AL45" s="256"/>
-      <c r="AM45" s="257"/>
-      <c r="AN45" s="326"/>
-      <c r="AO45" s="327"/>
-      <c r="AP45" s="328"/>
-      <c r="AQ45" s="158"/>
-      <c r="AR45" s="159"/>
-      <c r="AS45" s="160"/>
-      <c r="AT45" s="261"/>
-      <c r="AU45" s="262"/>
-      <c r="AV45" s="263"/>
-      <c r="AW45" s="261"/>
-      <c r="AX45" s="262"/>
-      <c r="AY45" s="263"/>
-      <c r="AZ45" s="247"/>
-      <c r="BA45" s="267"/>
-      <c r="BB45" s="267"/>
-      <c r="BC45" s="267"/>
-      <c r="BD45" s="267"/>
-      <c r="BE45" s="267"/>
-      <c r="BF45" s="267"/>
-      <c r="BG45" s="268"/>
+      <c r="A45" s="79"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="285"/>
+      <c r="D45" s="286"/>
+      <c r="E45" s="286"/>
+      <c r="F45" s="286"/>
+      <c r="G45" s="287"/>
+      <c r="H45" s="285"/>
+      <c r="I45" s="286"/>
+      <c r="J45" s="286"/>
+      <c r="K45" s="286"/>
+      <c r="L45" s="287"/>
+      <c r="M45" s="169"/>
+      <c r="N45" s="169"/>
+      <c r="O45" s="169"/>
+      <c r="P45" s="169"/>
+      <c r="Q45" s="169"/>
+      <c r="R45" s="169"/>
+      <c r="S45" s="170"/>
+      <c r="T45" s="174"/>
+      <c r="U45" s="175"/>
+      <c r="V45" s="175"/>
+      <c r="W45" s="175"/>
+      <c r="X45" s="175"/>
+      <c r="Y45" s="175"/>
+      <c r="Z45" s="175"/>
+      <c r="AA45" s="175"/>
+      <c r="AB45" s="176"/>
+      <c r="AC45" s="180"/>
+      <c r="AD45" s="181"/>
+      <c r="AE45" s="181"/>
+      <c r="AF45" s="181"/>
+      <c r="AG45" s="181"/>
+      <c r="AH45" s="181"/>
+      <c r="AI45" s="181"/>
+      <c r="AJ45" s="181"/>
+      <c r="AK45" s="181"/>
+      <c r="AL45" s="181"/>
+      <c r="AM45" s="182"/>
+      <c r="AN45" s="135"/>
+      <c r="AO45" s="136"/>
+      <c r="AP45" s="137"/>
+      <c r="AQ45" s="96"/>
+      <c r="AR45" s="97"/>
+      <c r="AS45" s="98"/>
+      <c r="AT45" s="141"/>
+      <c r="AU45" s="142"/>
+      <c r="AV45" s="143"/>
+      <c r="AW45" s="141"/>
+      <c r="AX45" s="142"/>
+      <c r="AY45" s="143"/>
+      <c r="AZ45" s="144"/>
+      <c r="BA45" s="145"/>
+      <c r="BB45" s="145"/>
+      <c r="BC45" s="145"/>
+      <c r="BD45" s="145"/>
+      <c r="BE45" s="145"/>
+      <c r="BF45" s="145"/>
+      <c r="BG45" s="146"/>
     </row>
     <row r="46" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A46" s="107">
+      <c r="A46" s="77">
         <f>A44+1</f>
         <v>20</v>
       </c>
-      <c r="B46" s="108"/>
-      <c r="C46" s="250"/>
-      <c r="D46" s="251"/>
-      <c r="E46" s="251"/>
-      <c r="F46" s="251"/>
-      <c r="G46" s="252"/>
-      <c r="H46" s="250"/>
-      <c r="I46" s="251"/>
-      <c r="J46" s="251"/>
-      <c r="K46" s="251"/>
-      <c r="L46" s="252"/>
-      <c r="M46" s="179"/>
-      <c r="N46" s="179"/>
-      <c r="O46" s="179"/>
-      <c r="P46" s="179"/>
-      <c r="Q46" s="179"/>
-      <c r="R46" s="179"/>
-      <c r="S46" s="180"/>
-      <c r="T46" s="145"/>
-      <c r="U46" s="143"/>
-      <c r="V46" s="143"/>
-      <c r="W46" s="143"/>
-      <c r="X46" s="143"/>
-      <c r="Y46" s="143"/>
-      <c r="Z46" s="143"/>
-      <c r="AA46" s="143"/>
-      <c r="AB46" s="144"/>
-      <c r="AC46" s="226"/>
-      <c r="AD46" s="181"/>
-      <c r="AE46" s="181"/>
-      <c r="AF46" s="181"/>
-      <c r="AG46" s="181"/>
-      <c r="AH46" s="181"/>
-      <c r="AI46" s="181"/>
-      <c r="AJ46" s="181"/>
-      <c r="AK46" s="181"/>
-      <c r="AL46" s="181"/>
-      <c r="AM46" s="182"/>
-      <c r="AN46" s="317"/>
-      <c r="AO46" s="318"/>
-      <c r="AP46" s="319"/>
-      <c r="AQ46" s="146"/>
-      <c r="AR46" s="147"/>
-      <c r="AS46" s="148"/>
-      <c r="AT46" s="205"/>
-      <c r="AU46" s="206"/>
-      <c r="AV46" s="207"/>
-      <c r="AW46" s="205"/>
-      <c r="AX46" s="206"/>
-      <c r="AY46" s="207"/>
-      <c r="AZ46" s="164"/>
-      <c r="BA46" s="165"/>
-      <c r="BB46" s="165"/>
-      <c r="BC46" s="165"/>
-      <c r="BD46" s="165"/>
-      <c r="BE46" s="165"/>
-      <c r="BF46" s="165"/>
-      <c r="BG46" s="166"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="285"/>
+      <c r="D46" s="286"/>
+      <c r="E46" s="286"/>
+      <c r="F46" s="286"/>
+      <c r="G46" s="287"/>
+      <c r="H46" s="285"/>
+      <c r="I46" s="286"/>
+      <c r="J46" s="286"/>
+      <c r="K46" s="286"/>
+      <c r="L46" s="287"/>
+      <c r="M46" s="147"/>
+      <c r="N46" s="147"/>
+      <c r="O46" s="147"/>
+      <c r="P46" s="147"/>
+      <c r="Q46" s="147"/>
+      <c r="R46" s="147"/>
+      <c r="S46" s="148"/>
+      <c r="T46" s="161"/>
+      <c r="U46" s="162"/>
+      <c r="V46" s="162"/>
+      <c r="W46" s="162"/>
+      <c r="X46" s="162"/>
+      <c r="Y46" s="162"/>
+      <c r="Z46" s="162"/>
+      <c r="AA46" s="162"/>
+      <c r="AB46" s="163"/>
+      <c r="AC46" s="81"/>
+      <c r="AD46" s="82"/>
+      <c r="AE46" s="82"/>
+      <c r="AF46" s="82"/>
+      <c r="AG46" s="82"/>
+      <c r="AH46" s="82"/>
+      <c r="AI46" s="82"/>
+      <c r="AJ46" s="82"/>
+      <c r="AK46" s="82"/>
+      <c r="AL46" s="82"/>
+      <c r="AM46" s="83"/>
+      <c r="AN46" s="87"/>
+      <c r="AO46" s="88"/>
+      <c r="AP46" s="89"/>
+      <c r="AQ46" s="93"/>
+      <c r="AR46" s="94"/>
+      <c r="AS46" s="95"/>
+      <c r="AT46" s="151"/>
+      <c r="AU46" s="152"/>
+      <c r="AV46" s="153"/>
+      <c r="AW46" s="151"/>
+      <c r="AX46" s="152"/>
+      <c r="AY46" s="153"/>
+      <c r="AZ46" s="99"/>
+      <c r="BA46" s="159"/>
+      <c r="BB46" s="159"/>
+      <c r="BC46" s="159"/>
+      <c r="BD46" s="159"/>
+      <c r="BE46" s="159"/>
+      <c r="BF46" s="159"/>
+      <c r="BG46" s="160"/>
     </row>
     <row r="47" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A47" s="126"/>
-      <c r="B47" s="127"/>
-      <c r="C47" s="250"/>
-      <c r="D47" s="251"/>
-      <c r="E47" s="251"/>
-      <c r="F47" s="251"/>
-      <c r="G47" s="252"/>
-      <c r="H47" s="250"/>
-      <c r="I47" s="251"/>
-      <c r="J47" s="251"/>
-      <c r="K47" s="251"/>
-      <c r="L47" s="252"/>
-      <c r="M47" s="188"/>
-      <c r="N47" s="188"/>
-      <c r="O47" s="188"/>
-      <c r="P47" s="188"/>
-      <c r="Q47" s="188"/>
-      <c r="R47" s="188"/>
-      <c r="S47" s="189"/>
-      <c r="T47" s="157"/>
-      <c r="U47" s="155"/>
-      <c r="V47" s="155"/>
-      <c r="W47" s="155"/>
-      <c r="X47" s="155"/>
-      <c r="Y47" s="155"/>
-      <c r="Z47" s="155"/>
-      <c r="AA47" s="155"/>
-      <c r="AB47" s="156"/>
-      <c r="AC47" s="190"/>
-      <c r="AD47" s="191"/>
-      <c r="AE47" s="191"/>
-      <c r="AF47" s="191"/>
-      <c r="AG47" s="191"/>
-      <c r="AH47" s="191"/>
-      <c r="AI47" s="191"/>
-      <c r="AJ47" s="191"/>
-      <c r="AK47" s="191"/>
-      <c r="AL47" s="191"/>
-      <c r="AM47" s="192"/>
-      <c r="AN47" s="320"/>
-      <c r="AO47" s="321"/>
-      <c r="AP47" s="322"/>
-      <c r="AQ47" s="158"/>
-      <c r="AR47" s="159"/>
-      <c r="AS47" s="160"/>
-      <c r="AT47" s="211"/>
-      <c r="AU47" s="212"/>
-      <c r="AV47" s="213"/>
-      <c r="AW47" s="211"/>
-      <c r="AX47" s="212"/>
-      <c r="AY47" s="213"/>
-      <c r="AZ47" s="164"/>
-      <c r="BA47" s="186"/>
-      <c r="BB47" s="186"/>
-      <c r="BC47" s="186"/>
-      <c r="BD47" s="186"/>
-      <c r="BE47" s="186"/>
-      <c r="BF47" s="186"/>
-      <c r="BG47" s="187"/>
+      <c r="A47" s="79"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="285"/>
+      <c r="D47" s="286"/>
+      <c r="E47" s="286"/>
+      <c r="F47" s="286"/>
+      <c r="G47" s="287"/>
+      <c r="H47" s="285"/>
+      <c r="I47" s="286"/>
+      <c r="J47" s="286"/>
+      <c r="K47" s="286"/>
+      <c r="L47" s="287"/>
+      <c r="M47" s="149"/>
+      <c r="N47" s="149"/>
+      <c r="O47" s="149"/>
+      <c r="P47" s="149"/>
+      <c r="Q47" s="149"/>
+      <c r="R47" s="149"/>
+      <c r="S47" s="150"/>
+      <c r="T47" s="164"/>
+      <c r="U47" s="165"/>
+      <c r="V47" s="165"/>
+      <c r="W47" s="165"/>
+      <c r="X47" s="165"/>
+      <c r="Y47" s="165"/>
+      <c r="Z47" s="165"/>
+      <c r="AA47" s="165"/>
+      <c r="AB47" s="166"/>
+      <c r="AC47" s="84"/>
+      <c r="AD47" s="85"/>
+      <c r="AE47" s="85"/>
+      <c r="AF47" s="85"/>
+      <c r="AG47" s="85"/>
+      <c r="AH47" s="85"/>
+      <c r="AI47" s="85"/>
+      <c r="AJ47" s="85"/>
+      <c r="AK47" s="85"/>
+      <c r="AL47" s="85"/>
+      <c r="AM47" s="86"/>
+      <c r="AN47" s="90"/>
+      <c r="AO47" s="91"/>
+      <c r="AP47" s="92"/>
+      <c r="AQ47" s="96"/>
+      <c r="AR47" s="97"/>
+      <c r="AS47" s="98"/>
+      <c r="AT47" s="154"/>
+      <c r="AU47" s="155"/>
+      <c r="AV47" s="156"/>
+      <c r="AW47" s="154"/>
+      <c r="AX47" s="155"/>
+      <c r="AY47" s="156"/>
+      <c r="AZ47" s="99"/>
+      <c r="BA47" s="100"/>
+      <c r="BB47" s="100"/>
+      <c r="BC47" s="100"/>
+      <c r="BD47" s="100"/>
+      <c r="BE47" s="100"/>
+      <c r="BF47" s="100"/>
+      <c r="BG47" s="101"/>
     </row>
     <row r="48" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A48" s="107">
+      <c r="A48" s="77">
         <f>A46+1</f>
         <v>21</v>
       </c>
-      <c r="B48" s="108"/>
-      <c r="C48" s="250"/>
-      <c r="D48" s="251"/>
-      <c r="E48" s="251"/>
-      <c r="F48" s="251"/>
-      <c r="G48" s="252"/>
-      <c r="H48" s="250"/>
-      <c r="I48" s="251"/>
-      <c r="J48" s="251"/>
-      <c r="K48" s="251"/>
-      <c r="L48" s="252"/>
-      <c r="M48" s="233"/>
-      <c r="N48" s="233"/>
-      <c r="O48" s="233"/>
-      <c r="P48" s="233"/>
-      <c r="Q48" s="233"/>
-      <c r="R48" s="233"/>
-      <c r="S48" s="234"/>
-      <c r="T48" s="235"/>
-      <c r="U48" s="236"/>
-      <c r="V48" s="236"/>
-      <c r="W48" s="236"/>
-      <c r="X48" s="236"/>
-      <c r="Y48" s="236"/>
-      <c r="Z48" s="236"/>
-      <c r="AA48" s="236"/>
-      <c r="AB48" s="237"/>
-      <c r="AC48" s="235"/>
-      <c r="AD48" s="239"/>
-      <c r="AE48" s="239"/>
-      <c r="AF48" s="239"/>
-      <c r="AG48" s="239"/>
-      <c r="AH48" s="239"/>
-      <c r="AI48" s="239"/>
-      <c r="AJ48" s="239"/>
-      <c r="AK48" s="239"/>
-      <c r="AL48" s="239"/>
-      <c r="AM48" s="240"/>
-      <c r="AN48" s="323"/>
-      <c r="AO48" s="324"/>
-      <c r="AP48" s="325"/>
-      <c r="AQ48" s="244"/>
-      <c r="AR48" s="245"/>
-      <c r="AS48" s="246"/>
-      <c r="AT48" s="241"/>
-      <c r="AU48" s="242"/>
-      <c r="AV48" s="243"/>
-      <c r="AW48" s="241"/>
-      <c r="AX48" s="242"/>
-      <c r="AY48" s="243"/>
-      <c r="AZ48" s="247"/>
-      <c r="BA48" s="248"/>
-      <c r="BB48" s="248"/>
-      <c r="BC48" s="248"/>
-      <c r="BD48" s="248"/>
-      <c r="BE48" s="248"/>
-      <c r="BF48" s="248"/>
-      <c r="BG48" s="249"/>
+      <c r="B48" s="78"/>
+      <c r="C48" s="285"/>
+      <c r="D48" s="286"/>
+      <c r="E48" s="286"/>
+      <c r="F48" s="286"/>
+      <c r="G48" s="287"/>
+      <c r="H48" s="285"/>
+      <c r="I48" s="286"/>
+      <c r="J48" s="286"/>
+      <c r="K48" s="286"/>
+      <c r="L48" s="287"/>
+      <c r="M48" s="167"/>
+      <c r="N48" s="167"/>
+      <c r="O48" s="167"/>
+      <c r="P48" s="167"/>
+      <c r="Q48" s="167"/>
+      <c r="R48" s="167"/>
+      <c r="S48" s="168"/>
+      <c r="T48" s="177"/>
+      <c r="U48" s="178"/>
+      <c r="V48" s="178"/>
+      <c r="W48" s="178"/>
+      <c r="X48" s="178"/>
+      <c r="Y48" s="178"/>
+      <c r="Z48" s="178"/>
+      <c r="AA48" s="178"/>
+      <c r="AB48" s="179"/>
+      <c r="AC48" s="177"/>
+      <c r="AD48" s="172"/>
+      <c r="AE48" s="172"/>
+      <c r="AF48" s="172"/>
+      <c r="AG48" s="172"/>
+      <c r="AH48" s="172"/>
+      <c r="AI48" s="172"/>
+      <c r="AJ48" s="172"/>
+      <c r="AK48" s="172"/>
+      <c r="AL48" s="172"/>
+      <c r="AM48" s="173"/>
+      <c r="AN48" s="132"/>
+      <c r="AO48" s="133"/>
+      <c r="AP48" s="134"/>
+      <c r="AQ48" s="291"/>
+      <c r="AR48" s="292"/>
+      <c r="AS48" s="293"/>
+      <c r="AT48" s="138"/>
+      <c r="AU48" s="139"/>
+      <c r="AV48" s="140"/>
+      <c r="AW48" s="138"/>
+      <c r="AX48" s="139"/>
+      <c r="AY48" s="140"/>
+      <c r="AZ48" s="144"/>
+      <c r="BA48" s="157"/>
+      <c r="BB48" s="157"/>
+      <c r="BC48" s="157"/>
+      <c r="BD48" s="157"/>
+      <c r="BE48" s="157"/>
+      <c r="BF48" s="157"/>
+      <c r="BG48" s="158"/>
     </row>
     <row r="49" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A49" s="126"/>
-      <c r="B49" s="127"/>
-      <c r="C49" s="269"/>
-      <c r="D49" s="270"/>
-      <c r="E49" s="270"/>
-      <c r="F49" s="270"/>
-      <c r="G49" s="271"/>
-      <c r="H49" s="269"/>
-      <c r="I49" s="270"/>
-      <c r="J49" s="270"/>
-      <c r="K49" s="270"/>
-      <c r="L49" s="271"/>
-      <c r="M49" s="253"/>
-      <c r="N49" s="253"/>
-      <c r="O49" s="253"/>
-      <c r="P49" s="253"/>
-      <c r="Q49" s="253"/>
-      <c r="R49" s="253"/>
-      <c r="S49" s="254"/>
-      <c r="T49" s="255"/>
-      <c r="U49" s="256"/>
-      <c r="V49" s="256"/>
-      <c r="W49" s="256"/>
-      <c r="X49" s="256"/>
-      <c r="Y49" s="256"/>
-      <c r="Z49" s="256"/>
-      <c r="AA49" s="256"/>
-      <c r="AB49" s="257"/>
-      <c r="AC49" s="258"/>
-      <c r="AD49" s="259"/>
-      <c r="AE49" s="259"/>
-      <c r="AF49" s="259"/>
-      <c r="AG49" s="259"/>
-      <c r="AH49" s="259"/>
-      <c r="AI49" s="259"/>
-      <c r="AJ49" s="259"/>
-      <c r="AK49" s="259"/>
-      <c r="AL49" s="259"/>
-      <c r="AM49" s="260"/>
-      <c r="AN49" s="326"/>
-      <c r="AO49" s="327"/>
-      <c r="AP49" s="328"/>
-      <c r="AQ49" s="264"/>
-      <c r="AR49" s="265"/>
-      <c r="AS49" s="266"/>
-      <c r="AT49" s="261"/>
-      <c r="AU49" s="262"/>
-      <c r="AV49" s="263"/>
-      <c r="AW49" s="261"/>
-      <c r="AX49" s="262"/>
-      <c r="AY49" s="263"/>
-      <c r="AZ49" s="247"/>
-      <c r="BA49" s="267"/>
-      <c r="BB49" s="267"/>
-      <c r="BC49" s="267"/>
-      <c r="BD49" s="267"/>
-      <c r="BE49" s="267"/>
-      <c r="BF49" s="267"/>
-      <c r="BG49" s="268"/>
+      <c r="A49" s="79"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="288"/>
+      <c r="D49" s="289"/>
+      <c r="E49" s="289"/>
+      <c r="F49" s="289"/>
+      <c r="G49" s="290"/>
+      <c r="H49" s="288"/>
+      <c r="I49" s="289"/>
+      <c r="J49" s="289"/>
+      <c r="K49" s="289"/>
+      <c r="L49" s="290"/>
+      <c r="M49" s="169"/>
+      <c r="N49" s="169"/>
+      <c r="O49" s="169"/>
+      <c r="P49" s="169"/>
+      <c r="Q49" s="169"/>
+      <c r="R49" s="169"/>
+      <c r="S49" s="170"/>
+      <c r="T49" s="180"/>
+      <c r="U49" s="181"/>
+      <c r="V49" s="181"/>
+      <c r="W49" s="181"/>
+      <c r="X49" s="181"/>
+      <c r="Y49" s="181"/>
+      <c r="Z49" s="181"/>
+      <c r="AA49" s="181"/>
+      <c r="AB49" s="182"/>
+      <c r="AC49" s="174"/>
+      <c r="AD49" s="175"/>
+      <c r="AE49" s="175"/>
+      <c r="AF49" s="175"/>
+      <c r="AG49" s="175"/>
+      <c r="AH49" s="175"/>
+      <c r="AI49" s="175"/>
+      <c r="AJ49" s="175"/>
+      <c r="AK49" s="175"/>
+      <c r="AL49" s="175"/>
+      <c r="AM49" s="176"/>
+      <c r="AN49" s="135"/>
+      <c r="AO49" s="136"/>
+      <c r="AP49" s="137"/>
+      <c r="AQ49" s="294"/>
+      <c r="AR49" s="295"/>
+      <c r="AS49" s="296"/>
+      <c r="AT49" s="141"/>
+      <c r="AU49" s="142"/>
+      <c r="AV49" s="143"/>
+      <c r="AW49" s="141"/>
+      <c r="AX49" s="142"/>
+      <c r="AY49" s="143"/>
+      <c r="AZ49" s="144"/>
+      <c r="BA49" s="145"/>
+      <c r="BB49" s="145"/>
+      <c r="BC49" s="145"/>
+      <c r="BD49" s="145"/>
+      <c r="BE49" s="145"/>
+      <c r="BF49" s="145"/>
+      <c r="BG49" s="146"/>
     </row>
     <row r="50" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A50" s="107">
+      <c r="A50" s="77">
         <f t="shared" ref="A50" si="1">A48+1</f>
         <v>22</v>
       </c>
-      <c r="B50" s="108"/>
-      <c r="C50" s="109"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="110"/>
-      <c r="F50" s="110"/>
-      <c r="G50" s="111"/>
-      <c r="H50" s="109" t="s">
+      <c r="B50" s="78"/>
+      <c r="C50" s="102"/>
+      <c r="D50" s="103"/>
+      <c r="E50" s="103"/>
+      <c r="F50" s="103"/>
+      <c r="G50" s="104"/>
+      <c r="H50" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="I50" s="110"/>
-      <c r="J50" s="110"/>
-      <c r="K50" s="110"/>
-      <c r="L50" s="111"/>
-      <c r="M50" s="179"/>
-      <c r="N50" s="179"/>
-      <c r="O50" s="179"/>
-      <c r="P50" s="179"/>
-      <c r="Q50" s="179"/>
-      <c r="R50" s="179"/>
-      <c r="S50" s="180"/>
-      <c r="T50" s="226"/>
-      <c r="U50" s="181"/>
-      <c r="V50" s="181"/>
-      <c r="W50" s="181"/>
-      <c r="X50" s="181"/>
-      <c r="Y50" s="181"/>
-      <c r="Z50" s="181"/>
-      <c r="AA50" s="181"/>
-      <c r="AB50" s="182"/>
-      <c r="AC50" s="226"/>
-      <c r="AD50" s="181"/>
-      <c r="AE50" s="181"/>
-      <c r="AF50" s="181"/>
-      <c r="AG50" s="181"/>
-      <c r="AH50" s="181"/>
-      <c r="AI50" s="181"/>
-      <c r="AJ50" s="181"/>
-      <c r="AK50" s="181"/>
-      <c r="AL50" s="181"/>
-      <c r="AM50" s="182"/>
-      <c r="AN50" s="317"/>
-      <c r="AO50" s="318"/>
-      <c r="AP50" s="319"/>
-      <c r="AQ50" s="146"/>
-      <c r="AR50" s="147"/>
-      <c r="AS50" s="148"/>
-      <c r="AT50" s="205"/>
-      <c r="AU50" s="206"/>
-      <c r="AV50" s="207"/>
-      <c r="AW50" s="205"/>
-      <c r="AX50" s="206"/>
-      <c r="AY50" s="207"/>
-      <c r="AZ50" s="164"/>
-      <c r="BA50" s="165"/>
-      <c r="BB50" s="165"/>
-      <c r="BC50" s="165"/>
-      <c r="BD50" s="165"/>
-      <c r="BE50" s="165"/>
-      <c r="BF50" s="165"/>
-      <c r="BG50" s="166"/>
+      <c r="I50" s="103"/>
+      <c r="J50" s="103"/>
+      <c r="K50" s="103"/>
+      <c r="L50" s="104"/>
+      <c r="M50" s="147"/>
+      <c r="N50" s="147"/>
+      <c r="O50" s="147"/>
+      <c r="P50" s="147"/>
+      <c r="Q50" s="147"/>
+      <c r="R50" s="147"/>
+      <c r="S50" s="148"/>
+      <c r="T50" s="81"/>
+      <c r="U50" s="82"/>
+      <c r="V50" s="82"/>
+      <c r="W50" s="82"/>
+      <c r="X50" s="82"/>
+      <c r="Y50" s="82"/>
+      <c r="Z50" s="82"/>
+      <c r="AA50" s="82"/>
+      <c r="AB50" s="83"/>
+      <c r="AC50" s="81"/>
+      <c r="AD50" s="82"/>
+      <c r="AE50" s="82"/>
+      <c r="AF50" s="82"/>
+      <c r="AG50" s="82"/>
+      <c r="AH50" s="82"/>
+      <c r="AI50" s="82"/>
+      <c r="AJ50" s="82"/>
+      <c r="AK50" s="82"/>
+      <c r="AL50" s="82"/>
+      <c r="AM50" s="83"/>
+      <c r="AN50" s="87"/>
+      <c r="AO50" s="88"/>
+      <c r="AP50" s="89"/>
+      <c r="AQ50" s="93"/>
+      <c r="AR50" s="94"/>
+      <c r="AS50" s="95"/>
+      <c r="AT50" s="151"/>
+      <c r="AU50" s="152"/>
+      <c r="AV50" s="153"/>
+      <c r="AW50" s="151"/>
+      <c r="AX50" s="152"/>
+      <c r="AY50" s="153"/>
+      <c r="AZ50" s="99"/>
+      <c r="BA50" s="159"/>
+      <c r="BB50" s="159"/>
+      <c r="BC50" s="159"/>
+      <c r="BD50" s="159"/>
+      <c r="BE50" s="159"/>
+      <c r="BF50" s="159"/>
+      <c r="BG50" s="160"/>
     </row>
     <row r="51" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A51" s="126"/>
-      <c r="B51" s="127"/>
-      <c r="C51" s="208"/>
-      <c r="D51" s="209"/>
-      <c r="E51" s="209"/>
-      <c r="F51" s="209"/>
-      <c r="G51" s="210"/>
-      <c r="H51" s="208"/>
-      <c r="I51" s="209"/>
-      <c r="J51" s="209"/>
-      <c r="K51" s="209"/>
-      <c r="L51" s="210"/>
-      <c r="M51" s="188"/>
-      <c r="N51" s="188"/>
-      <c r="O51" s="188"/>
-      <c r="P51" s="188"/>
-      <c r="Q51" s="188"/>
-      <c r="R51" s="188"/>
-      <c r="S51" s="189"/>
-      <c r="T51" s="190"/>
-      <c r="U51" s="191"/>
-      <c r="V51" s="191"/>
-      <c r="W51" s="191"/>
-      <c r="X51" s="191"/>
-      <c r="Y51" s="191"/>
-      <c r="Z51" s="191"/>
-      <c r="AA51" s="191"/>
-      <c r="AB51" s="192"/>
-      <c r="AC51" s="190"/>
-      <c r="AD51" s="191"/>
-      <c r="AE51" s="191"/>
-      <c r="AF51" s="191"/>
-      <c r="AG51" s="191"/>
-      <c r="AH51" s="191"/>
-      <c r="AI51" s="191"/>
-      <c r="AJ51" s="191"/>
-      <c r="AK51" s="191"/>
-      <c r="AL51" s="191"/>
-      <c r="AM51" s="192"/>
-      <c r="AN51" s="320"/>
-      <c r="AO51" s="321"/>
-      <c r="AP51" s="322"/>
-      <c r="AQ51" s="158"/>
-      <c r="AR51" s="159"/>
-      <c r="AS51" s="160"/>
-      <c r="AT51" s="211"/>
-      <c r="AU51" s="212"/>
-      <c r="AV51" s="213"/>
-      <c r="AW51" s="211"/>
-      <c r="AX51" s="212"/>
-      <c r="AY51" s="213"/>
-      <c r="AZ51" s="164"/>
-      <c r="BA51" s="186"/>
-      <c r="BB51" s="186"/>
-      <c r="BC51" s="186"/>
-      <c r="BD51" s="186"/>
-      <c r="BE51" s="186"/>
-      <c r="BF51" s="186"/>
-      <c r="BG51" s="187"/>
+      <c r="A51" s="79"/>
+      <c r="B51" s="80"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="106"/>
+      <c r="E51" s="106"/>
+      <c r="F51" s="106"/>
+      <c r="G51" s="107"/>
+      <c r="H51" s="105"/>
+      <c r="I51" s="106"/>
+      <c r="J51" s="106"/>
+      <c r="K51" s="106"/>
+      <c r="L51" s="107"/>
+      <c r="M51" s="149"/>
+      <c r="N51" s="149"/>
+      <c r="O51" s="149"/>
+      <c r="P51" s="149"/>
+      <c r="Q51" s="149"/>
+      <c r="R51" s="149"/>
+      <c r="S51" s="150"/>
+      <c r="T51" s="84"/>
+      <c r="U51" s="85"/>
+      <c r="V51" s="85"/>
+      <c r="W51" s="85"/>
+      <c r="X51" s="85"/>
+      <c r="Y51" s="85"/>
+      <c r="Z51" s="85"/>
+      <c r="AA51" s="85"/>
+      <c r="AB51" s="86"/>
+      <c r="AC51" s="84"/>
+      <c r="AD51" s="85"/>
+      <c r="AE51" s="85"/>
+      <c r="AF51" s="85"/>
+      <c r="AG51" s="85"/>
+      <c r="AH51" s="85"/>
+      <c r="AI51" s="85"/>
+      <c r="AJ51" s="85"/>
+      <c r="AK51" s="85"/>
+      <c r="AL51" s="85"/>
+      <c r="AM51" s="86"/>
+      <c r="AN51" s="90"/>
+      <c r="AO51" s="91"/>
+      <c r="AP51" s="92"/>
+      <c r="AQ51" s="96"/>
+      <c r="AR51" s="97"/>
+      <c r="AS51" s="98"/>
+      <c r="AT51" s="154"/>
+      <c r="AU51" s="155"/>
+      <c r="AV51" s="156"/>
+      <c r="AW51" s="154"/>
+      <c r="AX51" s="155"/>
+      <c r="AY51" s="156"/>
+      <c r="AZ51" s="99"/>
+      <c r="BA51" s="100"/>
+      <c r="BB51" s="100"/>
+      <c r="BC51" s="100"/>
+      <c r="BD51" s="100"/>
+      <c r="BE51" s="100"/>
+      <c r="BF51" s="100"/>
+      <c r="BG51" s="101"/>
     </row>
     <row r="52" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A52" s="107">
+      <c r="A52" s="77">
         <f>A50+1</f>
         <v>23</v>
       </c>
-      <c r="B52" s="108"/>
-      <c r="C52" s="109"/>
-      <c r="D52" s="110"/>
-      <c r="E52" s="110"/>
-      <c r="F52" s="110"/>
-      <c r="G52" s="111"/>
-      <c r="H52" s="272" t="s">
+      <c r="B52" s="78"/>
+      <c r="C52" s="102"/>
+      <c r="D52" s="103"/>
+      <c r="E52" s="103"/>
+      <c r="F52" s="103"/>
+      <c r="G52" s="104"/>
+      <c r="H52" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="I52" s="273"/>
-      <c r="J52" s="273"/>
-      <c r="K52" s="273"/>
-      <c r="L52" s="274"/>
-      <c r="M52" s="275"/>
-      <c r="N52" s="167"/>
-      <c r="O52" s="167"/>
-      <c r="P52" s="167"/>
-      <c r="Q52" s="167"/>
-      <c r="R52" s="167"/>
-      <c r="S52" s="168"/>
-      <c r="T52" s="114"/>
-      <c r="U52" s="112"/>
-      <c r="V52" s="112"/>
-      <c r="W52" s="112"/>
-      <c r="X52" s="112"/>
-      <c r="Y52" s="112"/>
-      <c r="Z52" s="112"/>
-      <c r="AA52" s="112"/>
-      <c r="AB52" s="113"/>
-      <c r="AC52" s="217"/>
-      <c r="AD52" s="218"/>
-      <c r="AE52" s="218"/>
-      <c r="AF52" s="218"/>
-      <c r="AG52" s="218"/>
-      <c r="AH52" s="218"/>
-      <c r="AI52" s="218"/>
-      <c r="AJ52" s="218"/>
-      <c r="AK52" s="218"/>
-      <c r="AL52" s="218"/>
-      <c r="AM52" s="219"/>
-      <c r="AN52" s="323"/>
-      <c r="AO52" s="324"/>
-      <c r="AP52" s="325"/>
-      <c r="AQ52" s="276"/>
-      <c r="AR52" s="277"/>
-      <c r="AS52" s="278"/>
-      <c r="AT52" s="241"/>
-      <c r="AU52" s="242"/>
-      <c r="AV52" s="243"/>
-      <c r="AW52" s="241"/>
-      <c r="AX52" s="242"/>
-      <c r="AY52" s="243"/>
-      <c r="AZ52" s="267"/>
-      <c r="BA52" s="248"/>
-      <c r="BB52" s="248"/>
-      <c r="BC52" s="248"/>
-      <c r="BD52" s="248"/>
-      <c r="BE52" s="248"/>
-      <c r="BF52" s="248"/>
-      <c r="BG52" s="249"/>
+      <c r="I52" s="109"/>
+      <c r="J52" s="109"/>
+      <c r="K52" s="109"/>
+      <c r="L52" s="110"/>
+      <c r="M52" s="114"/>
+      <c r="N52" s="115"/>
+      <c r="O52" s="115"/>
+      <c r="P52" s="115"/>
+      <c r="Q52" s="115"/>
+      <c r="R52" s="115"/>
+      <c r="S52" s="116"/>
+      <c r="T52" s="120"/>
+      <c r="U52" s="121"/>
+      <c r="V52" s="121"/>
+      <c r="W52" s="121"/>
+      <c r="X52" s="121"/>
+      <c r="Y52" s="121"/>
+      <c r="Z52" s="121"/>
+      <c r="AA52" s="121"/>
+      <c r="AB52" s="122"/>
+      <c r="AC52" s="126"/>
+      <c r="AD52" s="127"/>
+      <c r="AE52" s="127"/>
+      <c r="AF52" s="127"/>
+      <c r="AG52" s="127"/>
+      <c r="AH52" s="127"/>
+      <c r="AI52" s="127"/>
+      <c r="AJ52" s="127"/>
+      <c r="AK52" s="127"/>
+      <c r="AL52" s="127"/>
+      <c r="AM52" s="128"/>
+      <c r="AN52" s="132"/>
+      <c r="AO52" s="133"/>
+      <c r="AP52" s="134"/>
+      <c r="AQ52" s="61"/>
+      <c r="AR52" s="62"/>
+      <c r="AS52" s="63"/>
+      <c r="AT52" s="138"/>
+      <c r="AU52" s="139"/>
+      <c r="AV52" s="140"/>
+      <c r="AW52" s="138"/>
+      <c r="AX52" s="139"/>
+      <c r="AY52" s="140"/>
+      <c r="AZ52" s="145"/>
+      <c r="BA52" s="157"/>
+      <c r="BB52" s="157"/>
+      <c r="BC52" s="157"/>
+      <c r="BD52" s="157"/>
+      <c r="BE52" s="157"/>
+      <c r="BF52" s="157"/>
+      <c r="BG52" s="158"/>
     </row>
     <row r="53" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A53" s="126"/>
-      <c r="B53" s="127"/>
-      <c r="C53" s="208"/>
-      <c r="D53" s="209"/>
-      <c r="E53" s="209"/>
-      <c r="F53" s="209"/>
-      <c r="G53" s="210"/>
-      <c r="H53" s="279"/>
-      <c r="I53" s="280"/>
-      <c r="J53" s="280"/>
-      <c r="K53" s="280"/>
-      <c r="L53" s="281"/>
-      <c r="M53" s="282"/>
-      <c r="N53" s="172"/>
-      <c r="O53" s="172"/>
-      <c r="P53" s="172"/>
-      <c r="Q53" s="172"/>
-      <c r="R53" s="172"/>
-      <c r="S53" s="173"/>
-      <c r="T53" s="133"/>
-      <c r="U53" s="131"/>
-      <c r="V53" s="131"/>
-      <c r="W53" s="131"/>
-      <c r="X53" s="131"/>
-      <c r="Y53" s="131"/>
-      <c r="Z53" s="131"/>
-      <c r="AA53" s="131"/>
-      <c r="AB53" s="132"/>
-      <c r="AC53" s="223"/>
-      <c r="AD53" s="224"/>
-      <c r="AE53" s="224"/>
-      <c r="AF53" s="224"/>
-      <c r="AG53" s="224"/>
-      <c r="AH53" s="224"/>
-      <c r="AI53" s="224"/>
-      <c r="AJ53" s="224"/>
-      <c r="AK53" s="224"/>
-      <c r="AL53" s="224"/>
-      <c r="AM53" s="225"/>
-      <c r="AN53" s="326"/>
-      <c r="AO53" s="327"/>
-      <c r="AP53" s="328"/>
-      <c r="AQ53" s="283"/>
-      <c r="AR53" s="284"/>
-      <c r="AS53" s="285"/>
-      <c r="AT53" s="261"/>
-      <c r="AU53" s="262"/>
-      <c r="AV53" s="263"/>
-      <c r="AW53" s="261"/>
-      <c r="AX53" s="262"/>
-      <c r="AY53" s="263"/>
-      <c r="AZ53" s="247"/>
-      <c r="BA53" s="267"/>
-      <c r="BB53" s="267"/>
-      <c r="BC53" s="267"/>
-      <c r="BD53" s="267"/>
-      <c r="BE53" s="267"/>
-      <c r="BF53" s="267"/>
-      <c r="BG53" s="268"/>
+      <c r="A53" s="79"/>
+      <c r="B53" s="80"/>
+      <c r="C53" s="105"/>
+      <c r="D53" s="106"/>
+      <c r="E53" s="106"/>
+      <c r="F53" s="106"/>
+      <c r="G53" s="107"/>
+      <c r="H53" s="111"/>
+      <c r="I53" s="112"/>
+      <c r="J53" s="112"/>
+      <c r="K53" s="112"/>
+      <c r="L53" s="113"/>
+      <c r="M53" s="117"/>
+      <c r="N53" s="118"/>
+      <c r="O53" s="118"/>
+      <c r="P53" s="118"/>
+      <c r="Q53" s="118"/>
+      <c r="R53" s="118"/>
+      <c r="S53" s="119"/>
+      <c r="T53" s="123"/>
+      <c r="U53" s="124"/>
+      <c r="V53" s="124"/>
+      <c r="W53" s="124"/>
+      <c r="X53" s="124"/>
+      <c r="Y53" s="124"/>
+      <c r="Z53" s="124"/>
+      <c r="AA53" s="124"/>
+      <c r="AB53" s="125"/>
+      <c r="AC53" s="129"/>
+      <c r="AD53" s="130"/>
+      <c r="AE53" s="130"/>
+      <c r="AF53" s="130"/>
+      <c r="AG53" s="130"/>
+      <c r="AH53" s="130"/>
+      <c r="AI53" s="130"/>
+      <c r="AJ53" s="130"/>
+      <c r="AK53" s="130"/>
+      <c r="AL53" s="130"/>
+      <c r="AM53" s="131"/>
+      <c r="AN53" s="135"/>
+      <c r="AO53" s="136"/>
+      <c r="AP53" s="137"/>
+      <c r="AQ53" s="64"/>
+      <c r="AR53" s="65"/>
+      <c r="AS53" s="66"/>
+      <c r="AT53" s="141"/>
+      <c r="AU53" s="142"/>
+      <c r="AV53" s="143"/>
+      <c r="AW53" s="141"/>
+      <c r="AX53" s="142"/>
+      <c r="AY53" s="143"/>
+      <c r="AZ53" s="144"/>
+      <c r="BA53" s="145"/>
+      <c r="BB53" s="145"/>
+      <c r="BC53" s="145"/>
+      <c r="BD53" s="145"/>
+      <c r="BE53" s="145"/>
+      <c r="BF53" s="145"/>
+      <c r="BG53" s="146"/>
     </row>
     <row r="54" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A54" s="107">
+      <c r="A54" s="77">
         <f>A52+1</f>
         <v>24</v>
       </c>
-      <c r="B54" s="108"/>
-      <c r="C54" s="109"/>
-      <c r="D54" s="110"/>
-      <c r="E54" s="110"/>
-      <c r="F54" s="110"/>
-      <c r="G54" s="111"/>
-      <c r="H54" s="286" t="s">
+      <c r="B54" s="78"/>
+      <c r="C54" s="102"/>
+      <c r="D54" s="103"/>
+      <c r="E54" s="103"/>
+      <c r="F54" s="103"/>
+      <c r="G54" s="104"/>
+      <c r="H54" s="310" t="s">
         <v>4</v>
       </c>
-      <c r="I54" s="287"/>
-      <c r="J54" s="287"/>
-      <c r="K54" s="287"/>
-      <c r="L54" s="288"/>
-      <c r="M54" s="289"/>
-      <c r="N54" s="290"/>
-      <c r="O54" s="290"/>
-      <c r="P54" s="290"/>
-      <c r="Q54" s="290"/>
-      <c r="R54" s="290"/>
-      <c r="S54" s="291"/>
-      <c r="T54" s="292"/>
-      <c r="U54" s="170"/>
-      <c r="V54" s="170"/>
-      <c r="W54" s="170"/>
-      <c r="X54" s="170"/>
-      <c r="Y54" s="170"/>
-      <c r="Z54" s="170"/>
-      <c r="AA54" s="170"/>
-      <c r="AB54" s="171"/>
-      <c r="AC54" s="292"/>
-      <c r="AD54" s="293"/>
-      <c r="AE54" s="293"/>
-      <c r="AF54" s="293"/>
-      <c r="AG54" s="293"/>
-      <c r="AH54" s="293"/>
-      <c r="AI54" s="293"/>
-      <c r="AJ54" s="293"/>
-      <c r="AK54" s="293"/>
-      <c r="AL54" s="293"/>
-      <c r="AM54" s="294"/>
-      <c r="AN54" s="329"/>
-      <c r="AO54" s="330"/>
-      <c r="AP54" s="331"/>
-      <c r="AQ54" s="298"/>
-      <c r="AR54" s="299"/>
-      <c r="AS54" s="300"/>
-      <c r="AT54" s="295"/>
-      <c r="AU54" s="296"/>
-      <c r="AV54" s="297"/>
-      <c r="AW54" s="295"/>
-      <c r="AX54" s="296"/>
-      <c r="AY54" s="297"/>
-      <c r="AZ54" s="267"/>
-      <c r="BA54" s="248"/>
-      <c r="BB54" s="248"/>
-      <c r="BC54" s="248"/>
-      <c r="BD54" s="248"/>
-      <c r="BE54" s="248"/>
-      <c r="BF54" s="248"/>
-      <c r="BG54" s="249"/>
+      <c r="I54" s="311"/>
+      <c r="J54" s="311"/>
+      <c r="K54" s="311"/>
+      <c r="L54" s="312"/>
+      <c r="M54" s="316"/>
+      <c r="N54" s="317"/>
+      <c r="O54" s="317"/>
+      <c r="P54" s="317"/>
+      <c r="Q54" s="317"/>
+      <c r="R54" s="317"/>
+      <c r="S54" s="318"/>
+      <c r="T54" s="322"/>
+      <c r="U54" s="239"/>
+      <c r="V54" s="239"/>
+      <c r="W54" s="239"/>
+      <c r="X54" s="239"/>
+      <c r="Y54" s="239"/>
+      <c r="Z54" s="239"/>
+      <c r="AA54" s="239"/>
+      <c r="AB54" s="240"/>
+      <c r="AC54" s="322"/>
+      <c r="AD54" s="323"/>
+      <c r="AE54" s="323"/>
+      <c r="AF54" s="323"/>
+      <c r="AG54" s="323"/>
+      <c r="AH54" s="323"/>
+      <c r="AI54" s="323"/>
+      <c r="AJ54" s="323"/>
+      <c r="AK54" s="323"/>
+      <c r="AL54" s="323"/>
+      <c r="AM54" s="324"/>
+      <c r="AN54" s="328"/>
+      <c r="AO54" s="329"/>
+      <c r="AP54" s="330"/>
+      <c r="AQ54" s="67"/>
+      <c r="AR54" s="68"/>
+      <c r="AS54" s="69"/>
+      <c r="AT54" s="334"/>
+      <c r="AU54" s="335"/>
+      <c r="AV54" s="336"/>
+      <c r="AW54" s="334"/>
+      <c r="AX54" s="335"/>
+      <c r="AY54" s="336"/>
+      <c r="AZ54" s="145"/>
+      <c r="BA54" s="157"/>
+      <c r="BB54" s="157"/>
+      <c r="BC54" s="157"/>
+      <c r="BD54" s="157"/>
+      <c r="BE54" s="157"/>
+      <c r="BF54" s="157"/>
+      <c r="BG54" s="158"/>
     </row>
     <row r="55" spans="1:59" ht="94.5" customHeight="1">
-      <c r="A55" s="126"/>
-      <c r="B55" s="127"/>
-      <c r="C55" s="208"/>
-      <c r="D55" s="209"/>
-      <c r="E55" s="209"/>
-      <c r="F55" s="209"/>
-      <c r="G55" s="210"/>
-      <c r="H55" s="301"/>
-      <c r="I55" s="302"/>
-      <c r="J55" s="302"/>
-      <c r="K55" s="302"/>
-      <c r="L55" s="303"/>
-      <c r="M55" s="304"/>
-      <c r="N55" s="305"/>
-      <c r="O55" s="305"/>
-      <c r="P55" s="305"/>
-      <c r="Q55" s="305"/>
-      <c r="R55" s="305"/>
-      <c r="S55" s="306"/>
-      <c r="T55" s="174"/>
-      <c r="U55" s="175"/>
-      <c r="V55" s="175"/>
-      <c r="W55" s="175"/>
-      <c r="X55" s="175"/>
-      <c r="Y55" s="175"/>
-      <c r="Z55" s="175"/>
-      <c r="AA55" s="175"/>
-      <c r="AB55" s="176"/>
-      <c r="AC55" s="307"/>
-      <c r="AD55" s="308"/>
-      <c r="AE55" s="308"/>
-      <c r="AF55" s="308"/>
-      <c r="AG55" s="308"/>
-      <c r="AH55" s="308"/>
-      <c r="AI55" s="308"/>
-      <c r="AJ55" s="308"/>
-      <c r="AK55" s="308"/>
-      <c r="AL55" s="308"/>
-      <c r="AM55" s="309"/>
-      <c r="AN55" s="332"/>
-      <c r="AO55" s="333"/>
-      <c r="AP55" s="334"/>
-      <c r="AQ55" s="313"/>
-      <c r="AR55" s="314"/>
-      <c r="AS55" s="315"/>
-      <c r="AT55" s="310"/>
-      <c r="AU55" s="311"/>
-      <c r="AV55" s="312"/>
-      <c r="AW55" s="310"/>
-      <c r="AX55" s="311"/>
-      <c r="AY55" s="312"/>
-      <c r="AZ55" s="247"/>
-      <c r="BA55" s="267"/>
-      <c r="BB55" s="267"/>
-      <c r="BC55" s="267"/>
-      <c r="BD55" s="267"/>
-      <c r="BE55" s="267"/>
-      <c r="BF55" s="267"/>
-      <c r="BG55" s="268"/>
+      <c r="A55" s="79"/>
+      <c r="B55" s="80"/>
+      <c r="C55" s="105"/>
+      <c r="D55" s="106"/>
+      <c r="E55" s="106"/>
+      <c r="F55" s="106"/>
+      <c r="G55" s="107"/>
+      <c r="H55" s="313"/>
+      <c r="I55" s="314"/>
+      <c r="J55" s="314"/>
+      <c r="K55" s="314"/>
+      <c r="L55" s="315"/>
+      <c r="M55" s="319"/>
+      <c r="N55" s="320"/>
+      <c r="O55" s="320"/>
+      <c r="P55" s="320"/>
+      <c r="Q55" s="320"/>
+      <c r="R55" s="320"/>
+      <c r="S55" s="321"/>
+      <c r="T55" s="241"/>
+      <c r="U55" s="242"/>
+      <c r="V55" s="242"/>
+      <c r="W55" s="242"/>
+      <c r="X55" s="242"/>
+      <c r="Y55" s="242"/>
+      <c r="Z55" s="242"/>
+      <c r="AA55" s="242"/>
+      <c r="AB55" s="243"/>
+      <c r="AC55" s="325"/>
+      <c r="AD55" s="326"/>
+      <c r="AE55" s="326"/>
+      <c r="AF55" s="326"/>
+      <c r="AG55" s="326"/>
+      <c r="AH55" s="326"/>
+      <c r="AI55" s="326"/>
+      <c r="AJ55" s="326"/>
+      <c r="AK55" s="326"/>
+      <c r="AL55" s="326"/>
+      <c r="AM55" s="327"/>
+      <c r="AN55" s="331"/>
+      <c r="AO55" s="332"/>
+      <c r="AP55" s="333"/>
+      <c r="AQ55" s="70"/>
+      <c r="AR55" s="71"/>
+      <c r="AS55" s="72"/>
+      <c r="AT55" s="337"/>
+      <c r="AU55" s="338"/>
+      <c r="AV55" s="339"/>
+      <c r="AW55" s="337"/>
+      <c r="AX55" s="338"/>
+      <c r="AY55" s="339"/>
+      <c r="AZ55" s="144"/>
+      <c r="BA55" s="145"/>
+      <c r="BB55" s="145"/>
+      <c r="BC55" s="145"/>
+      <c r="BD55" s="145"/>
+      <c r="BE55" s="145"/>
+      <c r="BF55" s="145"/>
+      <c r="BG55" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="286">
+    <mergeCell ref="AW24:AY25"/>
+    <mergeCell ref="AZ25:BG25"/>
     <mergeCell ref="AZ54:BG54"/>
     <mergeCell ref="AZ55:BG55"/>
     <mergeCell ref="A54:B55"/>
@@ -8932,6 +8952,8 @@
     <mergeCell ref="AN54:AP55"/>
     <mergeCell ref="AT54:AV55"/>
     <mergeCell ref="AW54:AY55"/>
+    <mergeCell ref="AQ40:AS41"/>
+    <mergeCell ref="AT44:AV45"/>
     <mergeCell ref="AZ14:BG14"/>
     <mergeCell ref="AZ15:BG15"/>
     <mergeCell ref="AZ19:BG19"/>
@@ -8954,8 +8976,8 @@
     <mergeCell ref="AZ38:BG38"/>
     <mergeCell ref="AZ24:BG24"/>
     <mergeCell ref="AW18:AY19"/>
-    <mergeCell ref="AW24:AY25"/>
-    <mergeCell ref="AZ25:BG25"/>
+    <mergeCell ref="H20:L39"/>
+    <mergeCell ref="M24:S25"/>
     <mergeCell ref="AW48:AY49"/>
     <mergeCell ref="AZ49:BG49"/>
     <mergeCell ref="M48:S49"/>
@@ -8978,19 +9000,8 @@
     <mergeCell ref="T40:AB41"/>
     <mergeCell ref="AC40:AM41"/>
     <mergeCell ref="AN40:AP41"/>
-    <mergeCell ref="AQ40:AS41"/>
-    <mergeCell ref="C20:G39"/>
-    <mergeCell ref="AC32:AM33"/>
-    <mergeCell ref="AT48:AV49"/>
-    <mergeCell ref="AN32:AP33"/>
-    <mergeCell ref="AQ32:AS33"/>
-    <mergeCell ref="AT32:AV33"/>
-    <mergeCell ref="M36:S37"/>
-    <mergeCell ref="T36:AB37"/>
-    <mergeCell ref="AC36:AM37"/>
-    <mergeCell ref="AN36:AP37"/>
-    <mergeCell ref="AQ36:AS37"/>
-    <mergeCell ref="AT36:AV37"/>
+    <mergeCell ref="AZ36:BG36"/>
+    <mergeCell ref="T38:AB39"/>
     <mergeCell ref="AT24:AV25"/>
     <mergeCell ref="C40:G49"/>
     <mergeCell ref="H40:L49"/>
@@ -9003,23 +9014,40 @@
     <mergeCell ref="AN34:AP35"/>
     <mergeCell ref="AQ34:AS35"/>
     <mergeCell ref="M38:S39"/>
-    <mergeCell ref="T38:AB39"/>
-    <mergeCell ref="AC38:AM39"/>
-    <mergeCell ref="AN38:AP39"/>
-    <mergeCell ref="AQ38:AS39"/>
-    <mergeCell ref="H20:L39"/>
-    <mergeCell ref="M24:S25"/>
+    <mergeCell ref="AT48:AV49"/>
+    <mergeCell ref="AN32:AP33"/>
+    <mergeCell ref="AQ32:AS33"/>
+    <mergeCell ref="AT32:AV33"/>
+    <mergeCell ref="M36:S37"/>
+    <mergeCell ref="T36:AB37"/>
+    <mergeCell ref="AC36:AM37"/>
+    <mergeCell ref="AN36:AP37"/>
+    <mergeCell ref="AQ36:AS37"/>
+    <mergeCell ref="AT36:AV37"/>
+    <mergeCell ref="AZ26:BG26"/>
+    <mergeCell ref="M26:S27"/>
     <mergeCell ref="T24:AB25"/>
     <mergeCell ref="AC24:AM25"/>
     <mergeCell ref="AN24:AP25"/>
     <mergeCell ref="AQ24:AS25"/>
     <mergeCell ref="M32:S33"/>
     <mergeCell ref="T32:AB33"/>
+    <mergeCell ref="C20:G39"/>
+    <mergeCell ref="AC32:AM33"/>
     <mergeCell ref="AZ28:BG28"/>
     <mergeCell ref="M28:S29"/>
-    <mergeCell ref="M16:S17"/>
-    <mergeCell ref="T16:AB17"/>
-    <mergeCell ref="AC16:AM17"/>
+    <mergeCell ref="T26:AB27"/>
+    <mergeCell ref="AC26:AM27"/>
+    <mergeCell ref="AN26:AP27"/>
+    <mergeCell ref="AQ26:AS27"/>
+    <mergeCell ref="AT26:AV27"/>
+    <mergeCell ref="AW26:AY27"/>
+    <mergeCell ref="AZ27:BG27"/>
+    <mergeCell ref="AZ23:BG23"/>
+    <mergeCell ref="AZ20:BG20"/>
+    <mergeCell ref="AZ22:BG22"/>
+    <mergeCell ref="AW36:AY37"/>
+    <mergeCell ref="AZ37:BG37"/>
     <mergeCell ref="AW32:AY33"/>
     <mergeCell ref="AZ33:BG33"/>
     <mergeCell ref="T28:AB29"/>
@@ -9036,22 +9064,6 @@
     <mergeCell ref="AT30:AV31"/>
     <mergeCell ref="AW30:AY31"/>
     <mergeCell ref="AZ31:BG31"/>
-    <mergeCell ref="M20:S21"/>
-    <mergeCell ref="T20:AB21"/>
-    <mergeCell ref="AC20:AM21"/>
-    <mergeCell ref="AZ26:BG26"/>
-    <mergeCell ref="M26:S27"/>
-    <mergeCell ref="T26:AB27"/>
-    <mergeCell ref="AC26:AM27"/>
-    <mergeCell ref="AN26:AP27"/>
-    <mergeCell ref="AQ26:AS27"/>
-    <mergeCell ref="AT26:AV27"/>
-    <mergeCell ref="AW26:AY27"/>
-    <mergeCell ref="AZ27:BG27"/>
-    <mergeCell ref="AN14:AP15"/>
-    <mergeCell ref="AQ14:AS15"/>
-    <mergeCell ref="AN16:AP17"/>
-    <mergeCell ref="AQ16:AS17"/>
     <mergeCell ref="M22:S23"/>
     <mergeCell ref="AQ20:AS21"/>
     <mergeCell ref="AT20:AV21"/>
@@ -9063,15 +9075,9 @@
     <mergeCell ref="AT22:AV23"/>
     <mergeCell ref="AW22:AY23"/>
     <mergeCell ref="AN20:AP21"/>
-    <mergeCell ref="AZ23:BG23"/>
-    <mergeCell ref="AZ20:BG20"/>
-    <mergeCell ref="AZ22:BG22"/>
-    <mergeCell ref="AT16:AV17"/>
-    <mergeCell ref="AW16:AY17"/>
-    <mergeCell ref="AZ17:BG17"/>
-    <mergeCell ref="AN18:AP19"/>
-    <mergeCell ref="AQ18:AS19"/>
-    <mergeCell ref="AT18:AV19"/>
+    <mergeCell ref="M20:S21"/>
+    <mergeCell ref="T20:AB21"/>
+    <mergeCell ref="AC20:AM21"/>
     <mergeCell ref="AN8:AP9"/>
     <mergeCell ref="AQ8:AS9"/>
     <mergeCell ref="AT8:AV9"/>
@@ -9080,19 +9086,26 @@
     <mergeCell ref="AZ9:BG9"/>
     <mergeCell ref="AN10:AP11"/>
     <mergeCell ref="AQ10:AS11"/>
-    <mergeCell ref="M12:S13"/>
-    <mergeCell ref="T12:AB13"/>
-    <mergeCell ref="AC12:AM13"/>
+    <mergeCell ref="AT10:AV11"/>
+    <mergeCell ref="AW10:AY11"/>
+    <mergeCell ref="AZ10:BG10"/>
+    <mergeCell ref="AZ11:BG11"/>
     <mergeCell ref="AN12:AP13"/>
     <mergeCell ref="AQ12:AS13"/>
     <mergeCell ref="AZ12:BG12"/>
     <mergeCell ref="AT12:AV13"/>
     <mergeCell ref="AW12:AY13"/>
     <mergeCell ref="AZ13:BG13"/>
-    <mergeCell ref="AT10:AV11"/>
-    <mergeCell ref="AW10:AY11"/>
-    <mergeCell ref="AZ10:BG10"/>
-    <mergeCell ref="AZ11:BG11"/>
+    <mergeCell ref="AZ17:BG17"/>
+    <mergeCell ref="AN18:AP19"/>
+    <mergeCell ref="AQ18:AS19"/>
+    <mergeCell ref="AT18:AV19"/>
+    <mergeCell ref="AN14:AP15"/>
+    <mergeCell ref="AQ14:AS15"/>
+    <mergeCell ref="AN16:AP17"/>
+    <mergeCell ref="AQ16:AS17"/>
+    <mergeCell ref="AT16:AV17"/>
+    <mergeCell ref="AW16:AY17"/>
     <mergeCell ref="A8:B9"/>
     <mergeCell ref="M8:S9"/>
     <mergeCell ref="T8:AB9"/>
@@ -9109,6 +9122,12 @@
     <mergeCell ref="M18:S19"/>
     <mergeCell ref="T18:AB19"/>
     <mergeCell ref="AC18:AM19"/>
+    <mergeCell ref="M12:S13"/>
+    <mergeCell ref="T12:AB13"/>
+    <mergeCell ref="AC12:AM13"/>
+    <mergeCell ref="M16:S17"/>
+    <mergeCell ref="T16:AB17"/>
+    <mergeCell ref="AC16:AM17"/>
     <mergeCell ref="AT6:AV7"/>
     <mergeCell ref="AW6:AY7"/>
     <mergeCell ref="AZ6:BG7"/>
@@ -9145,10 +9164,6 @@
     <mergeCell ref="AN1:AQ1"/>
     <mergeCell ref="AR1:AU1"/>
     <mergeCell ref="AV1:AY1"/>
-    <mergeCell ref="AW36:AY37"/>
-    <mergeCell ref="AZ37:BG37"/>
-    <mergeCell ref="AZ36:BG36"/>
-    <mergeCell ref="AT44:AV45"/>
     <mergeCell ref="AW44:AY45"/>
     <mergeCell ref="AZ45:BG45"/>
     <mergeCell ref="M46:S47"/>
@@ -9165,6 +9180,9 @@
     <mergeCell ref="AN44:AP45"/>
     <mergeCell ref="AQ44:AS45"/>
     <mergeCell ref="AZ46:BG46"/>
+    <mergeCell ref="AC38:AM39"/>
+    <mergeCell ref="AN38:AP39"/>
+    <mergeCell ref="AQ38:AS39"/>
     <mergeCell ref="AZ51:BG51"/>
     <mergeCell ref="C52:G53"/>
     <mergeCell ref="H52:L53"/>
@@ -9510,4 +9528,53 @@
   <pageSetup scale="61" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="4" spans="1:3">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" s="74" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" s="74" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" s="74" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" s="74"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="340">
+        <v>43588</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>